--- a/souvenir15/Souvenir 15.xlsx
+++ b/souvenir15/Souvenir 15.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr dateCompatibility="0" filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{2DC9C0AC-2080-4897-AE8A-BB73F9B1CA92}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{0A0FC7E6-3DA7-4184-9D13-5B21547ACC3E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8505" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9450" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="780" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arch" sheetId="1" r:id="rId1"/>
@@ -21,10 +21,11 @@
     <sheet name="Econ" sheetId="3" r:id="rId11"/>
     <sheet name="Soc" sheetId="9" r:id="rId12"/>
     <sheet name="Phy" sheetId="6" r:id="rId13"/>
-    <sheet name="Stat" sheetId="17" r:id="rId14"/>
-    <sheet name="DS" sheetId="4" r:id="rId15"/>
-    <sheet name="SCULP" sheetId="16" r:id="rId16"/>
-    <sheet name="PM" sheetId="7" r:id="rId17"/>
+    <sheet name="Chem" sheetId="19" r:id="rId14"/>
+    <sheet name="Stat" sheetId="17" r:id="rId15"/>
+    <sheet name="DS" sheetId="4" r:id="rId16"/>
+    <sheet name="SCULP" sheetId="16" r:id="rId17"/>
+    <sheet name="PM" sheetId="7" r:id="rId18"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="9014" uniqueCount="7526">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="9566" uniqueCount="7977">
   <si>
     <t>pallabbyapari@gmail.com</t>
   </si>
@@ -22768,6 +22769,1359 @@
   </si>
   <si>
     <t>যে জীবন ফড়িংয়ের দোয়েলের, মানুষের সাথে তার হয়না'কো দেখা।</t>
+  </si>
+  <si>
+    <t>Md. Rubel Molla</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1h0-rgXm5cC9k5FWF6ed9R-_CDmH80lVj</t>
+  </si>
+  <si>
+    <t>Modhu modhu</t>
+  </si>
+  <si>
+    <t>Admission day</t>
+  </si>
+  <si>
+    <t>Upoma apu</t>
+  </si>
+  <si>
+    <t>Loving place</t>
+  </si>
+  <si>
+    <t>Haters and friends</t>
+  </si>
+  <si>
+    <t>Blacknight</t>
+  </si>
+  <si>
+    <t>Friends and seniors</t>
+  </si>
+  <si>
+    <t>Increasing cgp</t>
+  </si>
+  <si>
+    <t>Vuda</t>
+  </si>
+  <si>
+    <t>Rakib (urp) JP(phy) Nahid Sakil Ragib Bappy</t>
+  </si>
+  <si>
+    <t>Simple but not valueless</t>
+  </si>
+  <si>
+    <t>Ashiqur Rahman</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1valVeiMfigZuOBv6LwsQMMmZywqp7k5Q</t>
+  </si>
+  <si>
+    <t>Legend</t>
+  </si>
+  <si>
+    <t>O+'</t>
+  </si>
+  <si>
+    <t>Phone: 01758785240 . Email: aashiqur123321@gmail.com</t>
+  </si>
+  <si>
+    <t>Lin vai</t>
+  </si>
+  <si>
+    <t>1st day of 11 rag. Mainly color fest.</t>
+  </si>
+  <si>
+    <t>Upoma apu. ( chemistry 12)</t>
+  </si>
+  <si>
+    <t>The best place for live. Specially in youth age.</t>
+  </si>
+  <si>
+    <t>Guns for Antor vai and Roses for jui.</t>
+  </si>
+  <si>
+    <t>Many things. Khaja hall, central field, badminton court, west area, late night ADDA etc.</t>
+  </si>
+  <si>
+    <t>Lot of experiences,Some intimate F&amp;S (friends and seniors) , Mentality developement...</t>
+  </si>
+  <si>
+    <t>Last night before reception.</t>
+  </si>
+  <si>
+    <t>Flying somewhere.</t>
+  </si>
+  <si>
+    <t>Be always happy , no matter what happens with you.</t>
+  </si>
+  <si>
+    <t>Its hard to choose in number. I mostly spent time with Moon, rafsun, ragib, shakil, pronoy, jahir, arafat, shanto, alamin etc.</t>
+  </si>
+  <si>
+    <t>A star with no light . ( Flameless fire ) .</t>
+  </si>
+  <si>
+    <t>Arifa Naznin</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1eK14wMzGrsEamy1pOohHqdTnQ1Pmso4V</t>
+  </si>
+  <si>
+    <t>Pocha Misty</t>
+  </si>
+  <si>
+    <t>9th April</t>
+  </si>
+  <si>
+    <t>arifamisty03@gmail.com</t>
+  </si>
+  <si>
+    <t>All of my teachers.</t>
+  </si>
+  <si>
+    <t>29 November 2017.</t>
+  </si>
+  <si>
+    <t>My Love, my family, my life.</t>
+  </si>
+  <si>
+    <t>Both for only me!</t>
+  </si>
+  <si>
+    <t>Days in Old Administration Building.</t>
+  </si>
+  <si>
+    <t>A different myself with so many dreams..</t>
+  </si>
+  <si>
+    <t>Organic Lab Final of 21 term.</t>
+  </si>
+  <si>
+    <t>404 error: Future not found.</t>
+  </si>
+  <si>
+    <t>If you don't sacrifice for what you want, what you want will soon be the sacrifice.</t>
+  </si>
+  <si>
+    <t>Raisa, Bayazid, Mehedi, Rashed, Mishuk, Rafsan.</t>
+  </si>
+  <si>
+    <t>Silent girl in a noisy world.</t>
+  </si>
+  <si>
+    <t>Kazi Rifat Mamun</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1F_Ecxee-C6JBSFIhGarthqwLU7J9uLSg</t>
+  </si>
+  <si>
+    <t>Kazi</t>
+  </si>
+  <si>
+    <t>kazirifatas@gmail.com</t>
+  </si>
+  <si>
+    <t>Kazi Sayem Al Saad (Chemistry - 11)</t>
+  </si>
+  <si>
+    <t>Rag day of 14</t>
+  </si>
+  <si>
+    <t>চুপ থাক</t>
+  </si>
+  <si>
+    <t>Place of peace.</t>
+  </si>
+  <si>
+    <t>Guns to Monjur Rana for his behavior. Roses to Mahamudul Hasan Rumon for his help.</t>
+  </si>
+  <si>
+    <t>Tour to Rajshahi</t>
+  </si>
+  <si>
+    <t>Night of "Balty Therapy"</t>
+  </si>
+  <si>
+    <t>Researcher</t>
+  </si>
+  <si>
+    <t>Life is an echo</t>
+  </si>
+  <si>
+    <t>Shakil Anwar, Mahamudul Hasan Rumon, Mohius Sunnah, Nasif Sadik</t>
+  </si>
+  <si>
+    <t>I am positive.</t>
+  </si>
+  <si>
+    <t>Shovon Bhattacharjee Pranto</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1cHJ4j5Dl_i8U9eDR4nhKFEftOxa2qK3l</t>
+  </si>
+  <si>
+    <t>Shovon,bhatta(by shawon vai)Dulavai(by juniors)Hulo(some1)</t>
+  </si>
+  <si>
+    <t>29-11-1995</t>
+  </si>
+  <si>
+    <t>01779020573,shovonbh.94@gmail.com,shovon bhattacharya</t>
+  </si>
+  <si>
+    <t>Shawon vai (chem 10)</t>
+  </si>
+  <si>
+    <t>Reciption Day(After 11 months war......freedom)</t>
+  </si>
+  <si>
+    <t>Afrida Alma Aditi apu (Archi 13)</t>
+  </si>
+  <si>
+    <t>God damn fucking peaceful place</t>
+  </si>
+  <si>
+    <t>Antor vai(chem 13)&amp; Mini 16</t>
+  </si>
+  <si>
+    <t>Looking for A=a**,B=b***s</t>
+  </si>
+  <si>
+    <t>Fucking retake subjects that i have passed</t>
+  </si>
+  <si>
+    <t>Night before reciption day</t>
+  </si>
+  <si>
+    <t>Good father</t>
+  </si>
+  <si>
+    <t>Only i can change my life,no one can do it..</t>
+  </si>
+  <si>
+    <t>Rayhan,Ragib,Maruf,Shawon vai,Nasif vai,Bishore vai,Antor vai</t>
+  </si>
+  <si>
+    <t>There is my phone number u may need to know about myself.</t>
+  </si>
+  <si>
+    <t>Jahir Rayhan</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1Gxrne1ac4GsXPnBZv-2idY2QEKOb4PTr</t>
+  </si>
+  <si>
+    <t>Jahir</t>
+  </si>
+  <si>
+    <t>Mohammad Mahiuddin</t>
+  </si>
+  <si>
+    <t>The last night before my reception</t>
+  </si>
+  <si>
+    <t>Nothing to say. Daily I crush with many girls. bt i forget about them after waking up from sleeping</t>
+  </si>
+  <si>
+    <t>My 2nd home 2nd family 2nd gf 😂😂</t>
+  </si>
+  <si>
+    <t>Guns for Mitul rose for Mitul</t>
+  </si>
+  <si>
+    <t>6 months more staying in campus</t>
+  </si>
+  <si>
+    <t>sokal 9 tar class</t>
+  </si>
+  <si>
+    <t>Lal salam Kabul dance</t>
+  </si>
+  <si>
+    <t>Hadi Rafsan Ashik Imran Rayhan Shovon</t>
+  </si>
+  <si>
+    <t>Innocent insane 🤗🤗</t>
+  </si>
+  <si>
+    <t>Imran Khan</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1G0c0KFXiqzRAK0JaV0GPEVVYeTfHvGRE</t>
+  </si>
+  <si>
+    <t>Ij</t>
+  </si>
+  <si>
+    <t>Moudud vai</t>
+  </si>
+  <si>
+    <t>Ritu das</t>
+  </si>
+  <si>
+    <t>Guns-no body. Rose-munia apu,pritthy</t>
+  </si>
+  <si>
+    <t>Topon dar dokan,Humion vi dokan</t>
+  </si>
+  <si>
+    <t>Huge friends</t>
+  </si>
+  <si>
+    <t>Black night</t>
+  </si>
+  <si>
+    <t>Good person</t>
+  </si>
+  <si>
+    <t>Jahir,Rayhan,Hadi,Shovon,Rafsan,Moon</t>
+  </si>
+  <si>
+    <t>Simple man</t>
+  </si>
+  <si>
+    <t>Md. Emran Hossain</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1tCBOIwQSPvlbK2Bk53Jc7vEhZY6xA6Tr</t>
+  </si>
+  <si>
+    <t>31-12-1996</t>
+  </si>
+  <si>
+    <t>Deprived</t>
+  </si>
+  <si>
+    <t>Birthday</t>
+  </si>
+  <si>
+    <t>khulna university is a political free region.</t>
+  </si>
+  <si>
+    <t>Slang</t>
+  </si>
+  <si>
+    <t>CGP</t>
+  </si>
+  <si>
+    <t>Rokon,Salauddin,Ibrahim,Israil and joy...</t>
+  </si>
+  <si>
+    <t>I am very simple.</t>
+  </si>
+  <si>
+    <t>Farhan M. Hafiz Ullah Khan</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=12tEoOBFkpp14jm41J0ePcMg060gaXeeh</t>
+  </si>
+  <si>
+    <t>Farhan</t>
+  </si>
+  <si>
+    <t>01939230906/farhann.khann151811@gmail.com</t>
+  </si>
+  <si>
+    <t>Md. Nahid Kayser</t>
+  </si>
+  <si>
+    <t>1.the day when i got the runners up trophy in inter discipline chess tournament. 2. the day when i was selected for inter university chess championship.</t>
+  </si>
+  <si>
+    <t>upoma apu,mouly</t>
+  </si>
+  <si>
+    <t>The place that taught me the differences in reality and expectations and to cope up with them.</t>
+  </si>
+  <si>
+    <t>Guns for hasin shadap saikat rose for hasan shahriar moon</t>
+  </si>
+  <si>
+    <t>Birthday celebration,tapan der dokan,khaba pukur.</t>
+  </si>
+  <si>
+    <t>friends,juniors,seniors and some trophy..</t>
+  </si>
+  <si>
+    <t>1.the night before reception 2. the night before pohela Boishakh in campus.</t>
+  </si>
+  <si>
+    <t>ex. KUian</t>
+  </si>
+  <si>
+    <t>No one busy in life...its all about priority.</t>
+  </si>
+  <si>
+    <t>Nahid, Moon, Soikat, Pronoy, Shakil, Anmon</t>
+  </si>
+  <si>
+    <t>always try to be a good person</t>
+  </si>
+  <si>
+    <t>Ismail Hossain</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1K2eWQdDW-VPZh4zCXy5By5Z_IDWWokFb</t>
+  </si>
+  <si>
+    <t>Kaka</t>
+  </si>
+  <si>
+    <t>Phone-01762899441 Email-ismail.ku.chem15@gmail.com</t>
+  </si>
+  <si>
+    <t>Pronoy</t>
+  </si>
+  <si>
+    <t>First Day in KU.</t>
+  </si>
+  <si>
+    <t>Sharmin shuva, Humaya</t>
+  </si>
+  <si>
+    <t>This place is awesome</t>
+  </si>
+  <si>
+    <t>Guns for mahamudul hasan and rose for humaya</t>
+  </si>
+  <si>
+    <t>Khaja hall.</t>
+  </si>
+  <si>
+    <t>Mentality developement</t>
+  </si>
+  <si>
+    <t>Khabar pukur ( once i was almost drowning)</t>
+  </si>
+  <si>
+    <t>Never judge a book by its cover.</t>
+  </si>
+  <si>
+    <t>Pronoy, Raihan, Mahamud, ashraful, moon,ashik,mamun</t>
+  </si>
+  <si>
+    <t>I am a simple boy</t>
+  </si>
+  <si>
+    <t>Humaira Sultana Nila Moni</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=14JCpSOH1pbsc5CurAxdxd8ne8-RYFPyU</t>
+  </si>
+  <si>
+    <t>Dhillon, tel, jomila khala</t>
+  </si>
+  <si>
+    <t>7.7.97</t>
+  </si>
+  <si>
+    <t>nilamonihsnm151815@gmail.com</t>
+  </si>
+  <si>
+    <t>Nila Moni :3</t>
+  </si>
+  <si>
+    <t>Any holidays cause I can sleep a lot.</t>
+  </si>
+  <si>
+    <t>Kabir Ridwan ;)</t>
+  </si>
+  <si>
+    <t>we are all crazy.</t>
+  </si>
+  <si>
+    <t>Guns for jony, Nova. Flowers for Sumi</t>
+  </si>
+  <si>
+    <t>cafe unplugged of 13 batch</t>
+  </si>
+  <si>
+    <t>movements for quota and safe road</t>
+  </si>
+  <si>
+    <t>term final exam</t>
+  </si>
+  <si>
+    <t>PhD holder or a successful social worker</t>
+  </si>
+  <si>
+    <t>Be a one man army.</t>
+  </si>
+  <si>
+    <t>Heardy, Sumi, Nova, Aleena, Shaan, Jony, Raisa</t>
+  </si>
+  <si>
+    <t>I am narcissist :3</t>
+  </si>
+  <si>
+    <t>Syed Abdul Hadi</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1fr61N5Hl3235E8JUKlmEbfRcRJg0dFry</t>
+  </si>
+  <si>
+    <t>Hadi</t>
+  </si>
+  <si>
+    <t>9th march</t>
+  </si>
+  <si>
+    <t>Zed</t>
+  </si>
+  <si>
+    <t>Mini r Montyr Malik.</t>
+  </si>
+  <si>
+    <t>Praner campus</t>
+  </si>
+  <si>
+    <t>Guns- Arafat, Roses-Tasu</t>
+  </si>
+  <si>
+    <t>Khabar pukur paar.</t>
+  </si>
+  <si>
+    <t>Badhan</t>
+  </si>
+  <si>
+    <t>Oporijitar ranna khawa..</t>
+  </si>
+  <si>
+    <t>Khoda janey..</t>
+  </si>
+  <si>
+    <t>1st book</t>
+  </si>
+  <si>
+    <t>Ragib,Arafat.</t>
+  </si>
+  <si>
+    <t>Inocent and good boy</t>
+  </si>
+  <si>
+    <t>Pronoy Ghosh</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1KmTC7M2MSv1Sxnsm4KrbHdpzqJvhLauc</t>
+  </si>
+  <si>
+    <t>Kaku</t>
+  </si>
+  <si>
+    <t>29-01-1995</t>
+  </si>
+  <si>
+    <t>01933190060, pronoyghosh1828@gmail.com, Pronoy Ghosh Raju</t>
+  </si>
+  <si>
+    <t>Hasan Shahriar Moon</t>
+  </si>
+  <si>
+    <t>Concert of Rag'15</t>
+  </si>
+  <si>
+    <t>Soumita didi, Ananya Nandi</t>
+  </si>
+  <si>
+    <t>সিম্পলের ভিতর গর্জিয়াস</t>
+  </si>
+  <si>
+    <t>Guns for Ismail Hossain, roses for Raihan vai (Chem-12)</t>
+  </si>
+  <si>
+    <t>KJAH (Room no. 405), Topon's tea stall, Liton's, Central play ground, Chemistry discipline</t>
+  </si>
+  <si>
+    <t>1.Learn about my ability. 2. Friend circle.</t>
+  </si>
+  <si>
+    <t>Night before reception.</t>
+  </si>
+  <si>
+    <t>Traveller</t>
+  </si>
+  <si>
+    <t>"whatever happened, was good. what's happening, it's going well. whatever will happen, will also be good. do not worry for the future, live in present."</t>
+  </si>
+  <si>
+    <t>Moon, Mamun, Ashiq, Shakil, Rafsan, Bayazid</t>
+  </si>
+  <si>
+    <t>I'm careless and lazy.</t>
+  </si>
+  <si>
+    <t>Md. Mahamudul Hasan Rumon</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1AIXrL2ET7tN0qNYvpTGoVsa_KaxOcZfD</t>
+  </si>
+  <si>
+    <t>Rumon ; Rumu</t>
+  </si>
+  <si>
+    <t>16/12/1996</t>
+  </si>
+  <si>
+    <t>01773651236; Mhrumon.ku@gmail.com; Mahamudul Hasan Rumon</t>
+  </si>
+  <si>
+    <t>Md. Shafiuzzaman Sohag ; Kazi RIfat Mamun ; &amp; Md. Shakil Rana</t>
+  </si>
+  <si>
+    <t>15/05/2016 ( Our Reception Day )</t>
+  </si>
+  <si>
+    <t>Farjana Islam SOC-15</t>
+  </si>
+  <si>
+    <t>Full of Pain ....... Pressure ..Pressure .&amp; Pressure</t>
+  </si>
+  <si>
+    <t>Guns for Kazi Rifat Rifat &amp; Rose also for Kazi Rifat Mamun</t>
+  </si>
+  <si>
+    <t>The gunfire, especially Rafsun Zaman, will miss your decomposition....Kazi Rifat Mamun and Sakil Anwar will remember you going to eat hot hats at night........Especially Rifat, I will remember you very much ......</t>
+  </si>
+  <si>
+    <t>Give some best moment in life ...give some good friends and Brothers ......</t>
+  </si>
+  <si>
+    <t>Farjana Islam killed me</t>
+  </si>
+  <si>
+    <t>Want to go abroad ..................</t>
+  </si>
+  <si>
+    <t>Nothing is impossible........ If you believe in yourself................. So, be positive....Do positive... And finally get result positive..................... Love or Sex like a war ....it easy to start but hard to stop ..............</t>
+  </si>
+  <si>
+    <t>Kazi Rifat Mamun ; Amit kumar ; Rashed islam ;Sakil Anwar ;Rafsun Zaman &amp; Jahir Rayhan</t>
+  </si>
+  <si>
+    <t>I'm simple but egoistic ; but try my level best to help people....</t>
+  </si>
+  <si>
+    <t>Rokon-Uz-Zaman Ibna Azad</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1spKLPlyBb7uaj8WjxIOrtXXfScvltJZ9</t>
+  </si>
+  <si>
+    <t>Rokon</t>
+  </si>
+  <si>
+    <t>18-04-1997</t>
+  </si>
+  <si>
+    <t>Mobile - 01723315065, Email- ibnaazad@gmail.com</t>
+  </si>
+  <si>
+    <t>I forgot.</t>
+  </si>
+  <si>
+    <t>there's no one .</t>
+  </si>
+  <si>
+    <t>khulna university is a political free campus .( Only acceptable for students )</t>
+  </si>
+  <si>
+    <t>No One .</t>
+  </si>
+  <si>
+    <t>There is nothing like that .</t>
+  </si>
+  <si>
+    <t>Honest Business Man or Honest Armyman.</t>
+  </si>
+  <si>
+    <t>Only I can change my life. There is only one happiness in my life. To love and be loved .</t>
+  </si>
+  <si>
+    <t>Saad Al Zayed Joy , Emran Hossain , Md. Salahuddin , Md. Israil Hossain , Md. Sajid Ali Ibrahim ,Md. Likhon Khan</t>
+  </si>
+  <si>
+    <t>Super cool boy .</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=15FyHx6yeNjopGEbrKTpRbIchfyhHZ3w0</t>
+  </si>
+  <si>
+    <t>Munna Baba</t>
+  </si>
+  <si>
+    <t>01.01.1998</t>
+  </si>
+  <si>
+    <t>Phone: 01768293927 Email: hasanshahriar1835@gmail.com</t>
+  </si>
+  <si>
+    <t>Pronoy Ghosh Raju</t>
+  </si>
+  <si>
+    <t>1. 1st win in the Inter Discipline Football Tournament. 2. Color fest in Rag15</t>
+  </si>
+  <si>
+    <t>Upoma apu, Anika Achol</t>
+  </si>
+  <si>
+    <t>Guns for Mamun Sheikh and Roses for Mishuk</t>
+  </si>
+  <si>
+    <t>Birthday celebration, Khaja hall, Khabar pukur, Cafeteria, Tapan da'r dokan</t>
+  </si>
+  <si>
+    <t>Friends, Seniors, Changing myself, Linear increase of CGPA</t>
+  </si>
+  <si>
+    <t>1. The night before reception. 2. The night before 1st Pohela Boishakh in campus.</t>
+  </si>
+  <si>
+    <t>Ex-KUian</t>
+  </si>
+  <si>
+    <t>1.জীবনে কখনো হতাশ হওয়া যাবে না। -Rafsun Zaman 2.‎যেটা তোমাকে প্যাড়া দিবে সেটা তোমাকে ভুলে যেতে হবে। সেটা নিয়ে ভাবা যাবে না। -‎ Ashiqur Rahman 3.কখনো নিজেকে ছোট করে দেখতে নেই- Pronoy Ghosh</t>
+  </si>
+  <si>
+    <t>Pronoy, Ashiq, Shakil, Rafsun, Nahid, Farhan, Mamun, Imran</t>
+  </si>
+  <si>
+    <t>বোকা টাইপের ছেলেটা ভালো থাকার চেষ্টায় বিব্রত!</t>
+  </si>
+  <si>
+    <t>Sheikh Mamun</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1QhhaVH1jDgBUsE_f6aJv7D3Kegrx7dlH</t>
+  </si>
+  <si>
+    <t>Phine:+8801949887891 Email:sheikhmamun041@ gmail.com</t>
+  </si>
+  <si>
+    <t>Mahabubur Rahman</t>
+  </si>
+  <si>
+    <t>Dipannita</t>
+  </si>
+  <si>
+    <t>KU is a kindergarten.</t>
+  </si>
+  <si>
+    <t>Guns for Rumon and Roses for Dipannita</t>
+  </si>
+  <si>
+    <t>Campus.Khaja hall.Topon's tea stall.Liton's juice corner.</t>
+  </si>
+  <si>
+    <t>Difference between expectation and reality.</t>
+  </si>
+  <si>
+    <t>The night before reception.</t>
+  </si>
+  <si>
+    <t>A good person.</t>
+  </si>
+  <si>
+    <t>Never give up.</t>
+  </si>
+  <si>
+    <t>Pronoy.Moon.Shakil.Rayhan.Rumon.Imran</t>
+  </si>
+  <si>
+    <t>A man loves to dream up.</t>
+  </si>
+  <si>
+    <t>Raisa Mehera</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1e4HkRX15kIr_f99etUvHn2ht3XgDLTjU</t>
+  </si>
+  <si>
+    <t>16-04-1997</t>
+  </si>
+  <si>
+    <t>raisamehera1995@gmail.com</t>
+  </si>
+  <si>
+    <t>Honours Certificate</t>
+  </si>
+  <si>
+    <t>ছায়াবৃত্তে কাটানো দিন গুলা</t>
+  </si>
+  <si>
+    <t>নাই</t>
+  </si>
+  <si>
+    <t>Proud</t>
+  </si>
+  <si>
+    <t>Guns: Dulu vai, roses : Hasna</t>
+  </si>
+  <si>
+    <t>ছায়াবৃত্তের পিকনিক</t>
+  </si>
+  <si>
+    <t>বলা যাবে না</t>
+  </si>
+  <si>
+    <t>Successful women</t>
+  </si>
+  <si>
+    <t>My life my rules</t>
+  </si>
+  <si>
+    <t>Nila,Jony, Misty</t>
+  </si>
+  <si>
+    <t>আমি অল্পতেই সেন্টি খাই</t>
+  </si>
+  <si>
+    <t>Md.Mohius Sunnah</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1l8SLUexe6v7RxemAooDa8tsBFBXL_yv6</t>
+  </si>
+  <si>
+    <t>Mehedi</t>
+  </si>
+  <si>
+    <t>01742788594,m.s.mehedi41@gmail.com,Mohius Sunnah Mehedi</t>
+  </si>
+  <si>
+    <t>Minhajur Rahman Ramim</t>
+  </si>
+  <si>
+    <t>Pharmacuitical tour in Rajshahi</t>
+  </si>
+  <si>
+    <t>Shahriya Sharmin Tonni</t>
+  </si>
+  <si>
+    <t>Loveliest and most peaceful campus in Bangladesh</t>
+  </si>
+  <si>
+    <t>Rose:Khairul Amin,Gun:Raisa Mehera</t>
+  </si>
+  <si>
+    <t>Gossip in classroom</t>
+  </si>
+  <si>
+    <t>Survive at any situation</t>
+  </si>
+  <si>
+    <t>Class attendance</t>
+  </si>
+  <si>
+    <t>High level govt.official</t>
+  </si>
+  <si>
+    <t>Don't cry because it's over,smile because it happened</t>
+  </si>
+  <si>
+    <t>Rafsan, Imran,Jahir,Rashed,Rifat,Mehedi</t>
+  </si>
+  <si>
+    <t>I am me,nothing more nothing less</t>
+  </si>
+  <si>
+    <t>Md.Shakil anwar</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1BJ9nLItlLNx3i5BIzBu5s6ZmuKb-MtaW</t>
+  </si>
+  <si>
+    <t>Nana</t>
+  </si>
+  <si>
+    <t>01773563625,,Shakilchem15@gmail.com</t>
+  </si>
+  <si>
+    <t>Monir vai</t>
+  </si>
+  <si>
+    <t>Reception,It was a long waited moment after nine months of campus life</t>
+  </si>
+  <si>
+    <t>Nisat tasnim,,</t>
+  </si>
+  <si>
+    <t>Quit pacefull campus which offers one to find thousands of friends.</t>
+  </si>
+  <si>
+    <t>HADI;MONIR VAI</t>
+  </si>
+  <si>
+    <t>KJH-405,121;KBAH-406;KJAH play ground,Birthday celebration,</t>
+  </si>
+  <si>
+    <t>Some of good friends,, Many experiences</t>
+  </si>
+  <si>
+    <t>Business interpreter</t>
+  </si>
+  <si>
+    <t>Industry,planning and honesty begets success.</t>
+  </si>
+  <si>
+    <t>ASHIQ,MOON,PRONOY,RUMON ,RIFAT,HADI</t>
+  </si>
+  <si>
+    <t>I have no qualification to write .</t>
+  </si>
+  <si>
+    <t>Md. Minhazur Rahman Ramim</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=13aY2Mjz2pqSi2OhEJfxipfuYUHL3JaPl</t>
+  </si>
+  <si>
+    <t>19-08-1997</t>
+  </si>
+  <si>
+    <t>01722722313, minhazchem.ku15@gmail.com</t>
+  </si>
+  <si>
+    <t>Khairul Amin sir</t>
+  </si>
+  <si>
+    <t>Not yet come.</t>
+  </si>
+  <si>
+    <t>A place of peace, para &amp; pressure</t>
+  </si>
+  <si>
+    <t>Roses for Khairul Amin sir, Guns for Khan Bahadur Ahsanullah Hall</t>
+  </si>
+  <si>
+    <t>Run for attendance</t>
+  </si>
+  <si>
+    <t>Chemistry</t>
+  </si>
+  <si>
+    <t>Night before term final</t>
+  </si>
+  <si>
+    <t>One day my day will come, Ing Sha Allah</t>
+  </si>
+  <si>
+    <t>1.Saifuddin Tarafder 2.Al Firdaus 3.Ali Reza 4.Abdul Aziz 5.Muzahid Rony 6.Kazi Rifat Mamun</t>
+  </si>
+  <si>
+    <t>Alhamdulillah for Everything because life goes on.</t>
+  </si>
+  <si>
+    <t>Md. Rashedul Islam</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1nIHfz-8bD3zHqLCE7o1_rGFMBe0O056T</t>
+  </si>
+  <si>
+    <t>Rashed</t>
+  </si>
+  <si>
+    <t>senior-junior relation</t>
+  </si>
+  <si>
+    <t>21 march,2017</t>
+  </si>
+  <si>
+    <t>Odhora</t>
+  </si>
+  <si>
+    <t>This is an amazing place</t>
+  </si>
+  <si>
+    <t>Drishti</t>
+  </si>
+  <si>
+    <t>topon dadar puri khete bar bar sute jete ischa kore</t>
+  </si>
+  <si>
+    <t>Give me some good friend</t>
+  </si>
+  <si>
+    <t>misunderstanding with a close friend</t>
+  </si>
+  <si>
+    <t>to be a good person</t>
+  </si>
+  <si>
+    <t>do or die</t>
+  </si>
+  <si>
+    <t>Amit,Rumon,Ibrahim,Imran,Mishuk,Modhu</t>
+  </si>
+  <si>
+    <t>um a very simple man</t>
+  </si>
+  <si>
+    <t>Md. Bayazid Hossain</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1US_CO7MdjN5dPdX3aURpABq9Hqibm5dr</t>
+  </si>
+  <si>
+    <t>Bostamy</t>
+  </si>
+  <si>
+    <t>23-12-1996</t>
+  </si>
+  <si>
+    <t>01521239215, bayazid030@gmail.com</t>
+  </si>
+  <si>
+    <t>07-04-2015 (First class in KU)</t>
+  </si>
+  <si>
+    <t>A senior (DS-12)</t>
+  </si>
+  <si>
+    <t>This is a contemplative campus in Bangladesh.</t>
+  </si>
+  <si>
+    <t>Gabbering</t>
+  </si>
+  <si>
+    <t>Providing effort for success.</t>
+  </si>
+  <si>
+    <t>Physical Chemistry sessional -I</t>
+  </si>
+  <si>
+    <t>Not selected</t>
+  </si>
+  <si>
+    <t>Every new day is another chance to change life.</t>
+  </si>
+  <si>
+    <t>Want to expose treasure.......</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1fw73_7roU2olxzacx4jhGlBlRSOA9YMV</t>
+  </si>
+  <si>
+    <t>Providing effort for success</t>
+  </si>
+  <si>
+    <t>Want to expose treasure......</t>
+  </si>
+  <si>
+    <t>S. M. Istiak Ahmed</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1XhN8hkFDHSasEUdYDZISraVN0GfLMOOI</t>
+  </si>
+  <si>
+    <t>Misuk</t>
+  </si>
+  <si>
+    <t>05/04/15.The first day in my university life.</t>
+  </si>
+  <si>
+    <t>KU helps me to change my life and understand myself.</t>
+  </si>
+  <si>
+    <t>Friend's birthday specially those birthday party</t>
+  </si>
+  <si>
+    <t>From KU, I achieve some good and bad memory, some friends and foe and also some new experience. But my greatest KU achievement is, I get a new family of my life</t>
+  </si>
+  <si>
+    <t>During lab time.</t>
+  </si>
+  <si>
+    <t>I don't care about my future.</t>
+  </si>
+  <si>
+    <t>There are two great days in a person's life - the day we are born and the day we discover why.</t>
+  </si>
+  <si>
+    <t>Rashed Islam, Md Bayazid Hossain, Rafsan Zaman, Hasan Shahriar Moon, Mahamudul Hasan Rumon, Ragib Shakil</t>
+  </si>
+  <si>
+    <t>I am the most boring, cynical and introvert human being but i always true to my word.</t>
+  </si>
+  <si>
+    <t>Rafsun Zaman</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1iyFCxCF3Jqq8G357S48k0epSQ_Wl2fUL</t>
+  </si>
+  <si>
+    <t>RaZa, Rafu</t>
+  </si>
+  <si>
+    <t>01791185052 rafsunzaman.ku@gmail.com</t>
+  </si>
+  <si>
+    <t>Not enough space to write all the names</t>
+  </si>
+  <si>
+    <t>Representing KU against KUET</t>
+  </si>
+  <si>
+    <t>Tarana Aly</t>
+  </si>
+  <si>
+    <t>Heaven and hell</t>
+  </si>
+  <si>
+    <t>Guns for that girl from india and rose for that guy from narayanganj!</t>
+  </si>
+  <si>
+    <t>All the sleepless nights with friends &amp; seniors</t>
+  </si>
+  <si>
+    <t>All the beautiful souls &amp; countless memories</t>
+  </si>
+  <si>
+    <t>Human snakes!</t>
+  </si>
+  <si>
+    <t>Replacing Messi at Barcelona! 😎</t>
+  </si>
+  <si>
+    <t>F.R.I.E.N.D.S - S03 E04 12:16</t>
+  </si>
+  <si>
+    <t>The list is too long</t>
+  </si>
+  <si>
+    <t>Chandler Bing</t>
+  </si>
+  <si>
+    <t>MD NAHID KAYSER</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1WvDq_6xhkMIhh3XwNpyrJ2FlobmoYvvl</t>
+  </si>
+  <si>
+    <t>In discipline- kim jong, in campus-nahid motu</t>
+  </si>
+  <si>
+    <t>25-10-1996(according to certificate)</t>
+  </si>
+  <si>
+    <t>Mobile-01521200369,Email-mnkays01@gmail.com</t>
+  </si>
+  <si>
+    <t>1.Reception day. It seems like achieving freedom, 2.first stage performance</t>
+  </si>
+  <si>
+    <t>1.USOSHI apu (arch'12),2.Munia apu(pharm'13),3.farhana tumpa(ban'14),4.T.S.J (15 batch) 5.MMM(15 batch)</t>
+  </si>
+  <si>
+    <t>FREEDOM</t>
+  </si>
+  <si>
+    <t>guns for all the selfish and mincing girl of ku.... Rose for Khairul amin sir</t>
+  </si>
+  <si>
+    <t>every night that i spent in khaja field through gossiping and singing</t>
+  </si>
+  <si>
+    <t>1.Got scope to sing, 2. couple of good friends,3.acquire the ability to run an organization, 4.become runners up in chess tournamen of chemistry discipline</t>
+  </si>
+  <si>
+    <t>every birthday celebration.</t>
+  </si>
+  <si>
+    <t>wanna be good friend to my friends, good child to my parents, good husband, good father etc</t>
+  </si>
+  <si>
+    <t>All is well...., Look at the sky. We are not alone. The whole universe is friendly to us and conspires only to give the best to those who dream and work</t>
+  </si>
+  <si>
+    <t>Farhan, palash, hiron, shovon, muna, otoshi</t>
+  </si>
+  <si>
+    <t>i try to be good as i am not good</t>
+  </si>
+  <si>
+    <t>Amit Kumar Biswas</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1woirYhP1M4FNhYtIJpNvW0Ptt7H_thO-</t>
+  </si>
+  <si>
+    <t>25.01.97</t>
+  </si>
+  <si>
+    <t>Almost everyone here knows everybody.</t>
+  </si>
+  <si>
+    <t>04 April 2015, my first day at varsity.</t>
+  </si>
+  <si>
+    <t>Anannya apu Physics-11</t>
+  </si>
+  <si>
+    <t>My place of love.</t>
+  </si>
+  <si>
+    <t>Gun for Bonna URP 15 &amp; rose for Kona DS 15</t>
+  </si>
+  <si>
+    <t>19 October 2017, SHUVO DIPABOLI Program</t>
+  </si>
+  <si>
+    <t>Personality Development.</t>
+  </si>
+  <si>
+    <t>I always think para and para.</t>
+  </si>
+  <si>
+    <t>Fate goes towards that....</t>
+  </si>
+  <si>
+    <t>Which you will do, do it with mind.Then the success will obviously come.</t>
+  </si>
+  <si>
+    <t>Rashed, Rumon, Kashinath Gosh, Banashree, Arpita, Nipa.</t>
+  </si>
+  <si>
+    <t>I am a cool boy without any quality.</t>
+  </si>
+  <si>
+    <t>Jubayer Ahmed Rayhan</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1oSy5OUGhB1I1Q7kUbt_x6tAmmnF9T7kq</t>
+  </si>
+  <si>
+    <t>Director</t>
+  </si>
+  <si>
+    <t>Phone - 01866296123 FB - https://www.facebook.com/jobairahmed.rayhan</t>
+  </si>
+  <si>
+    <t>Senior Junior Relationship</t>
+  </si>
+  <si>
+    <t>When my first film was showing in the focus of my classroom and everyone was shouting my name and clapped hands after showing the film</t>
+  </si>
+  <si>
+    <t>Topon Da, Gaurd Mama(Whole KU Gaurd), Humayon Vai, Liton Vai, Delower Vai(Khaja Restora), Sagor Vai(Bunohas), Kids of Chayabritto Institution</t>
+  </si>
+  <si>
+    <t>This is my Second Home</t>
+  </si>
+  <si>
+    <t>Guns for me cause "i just always think of good myself lika a selfish'' And Roses For All people</t>
+  </si>
+  <si>
+    <t>Rag Night, Black Night</t>
+  </si>
+  <si>
+    <t>Retake, Recognize myself, got some good friends,senior,junior, Learn what i actually don't need to do</t>
+  </si>
+  <si>
+    <t>The night before the semister final exam</t>
+  </si>
+  <si>
+    <t>As a better Director and As a good human being</t>
+  </si>
+  <si>
+    <t>"The harder you fall, the higher you bounce"</t>
+  </si>
+  <si>
+    <t>Infinite</t>
+  </si>
+  <si>
+    <t>A candle which burns itself but gives light to others</t>
+  </si>
+  <si>
+    <t>Maruf Hasan</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1kEcJJeu6UFpQ6vIvYnziXblWlxFARKq8</t>
+  </si>
+  <si>
+    <t>Jitu</t>
+  </si>
+  <si>
+    <t>Senior-Junior bonding.</t>
+  </si>
+  <si>
+    <t>The final day of RAG-15.</t>
+  </si>
+  <si>
+    <t>The Vitra Lady from top floor, west corner of A.B.-3</t>
+  </si>
+  <si>
+    <t>Safest one.</t>
+  </si>
+  <si>
+    <t>Guns for none &amp; Roses for my Campus Crush.</t>
+  </si>
+  <si>
+    <t>Night &amp; Meeting place with Senior, Junior, Guitar &amp; Cigarette.</t>
+  </si>
+  <si>
+    <t>Retake , Re-retake &amp; Backlog.</t>
+  </si>
+  <si>
+    <t>Those Classes, CT &amp; Lab between Sunday to Thursday.</t>
+  </si>
+  <si>
+    <t>Obviously Jobless.</t>
+  </si>
+  <si>
+    <t>The pain you feel today is the strength you feel tomorrow.</t>
+  </si>
+  <si>
+    <t>A-Z</t>
+  </si>
+  <si>
+    <t>Simple, Brutal &amp; Ethical.</t>
+  </si>
+  <si>
+    <t>Ragib Shakil</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1rniPRo4vONz0o29AkNZ4bRBvvNcl30t2</t>
+  </si>
+  <si>
+    <t>Nai nai</t>
+  </si>
+  <si>
+    <t>21/12/1996</t>
+  </si>
+  <si>
+    <t>01965848071; r.shakil96@gmail.com</t>
+  </si>
+  <si>
+    <t>28/09/18 ;Noize Fest 2018 \\m//</t>
+  </si>
+  <si>
+    <t>Space problem</t>
+  </si>
+  <si>
+    <t>গাঞ্জা গাঞ্জা</t>
+  </si>
+  <si>
+    <t>Temon kew nai...</t>
+  </si>
+  <si>
+    <t>Khaja 307, class room 1, pukur par, dubai</t>
+  </si>
+  <si>
+    <t>Bacchu kakur shathe chobi. 🙆😎</t>
+  </si>
+  <si>
+    <t>Baccha hobe na baccha hobe na😈</t>
+  </si>
+  <si>
+    <t>atto kichu vai bola possible na</t>
+  </si>
+  <si>
+    <t>Oi pola chotkona chino?...</t>
+  </si>
+  <si>
+    <t>Amra shobai sowrov vai er lok.</t>
+  </si>
+  <si>
+    <t>Kakir ★★★★</t>
   </si>
 </sst>
 </file>
@@ -23524,7 +24878,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -23689,6 +25043,12 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="45">
@@ -36961,6 +38321,2039 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C4AB611-F67C-40A8-9D0A-2B4D9C73B292}">
+  <dimension ref="A1:T32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:T32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:20" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>4222</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1602</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>2927</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="84" t="d">
+        <v>2018-08-12T15:59:13.99999972432851825</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7526</v>
+      </c>
+      <c r="C2" s="2">
+        <v>141843</v>
+      </c>
+      <c r="D2" s="85" t="s">
+        <v>7527</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6382</v>
+      </c>
+      <c r="F2" s="87" t="d">
+        <v>1994-10-11</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>7528</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>2608</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>7529</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>7530</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>7531</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>7532</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>7533</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>7534</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>7535</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>7536</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>7537</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>7538</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="231" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="84" t="d">
+        <v>2018-08-12T16:53:59.00000005960464525</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7539</v>
+      </c>
+      <c r="C3" s="2">
+        <v>151839</v>
+      </c>
+      <c r="D3" s="85" t="s">
+        <v>7540</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>7541</v>
+      </c>
+      <c r="F3" s="87" t="d">
+        <v>1997-09-01</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>7542</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>7543</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>7544</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>7545</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>7546</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>7547</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>7548</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>7549</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>7550</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>7551</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>7552</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>7553</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>7554</v>
+      </c>
+      <c r="T3" s="86" t="s">
+        <v>7555</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="84" t="d">
+        <v>2018-08-12T18:02:53.99999981280416175</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7556</v>
+      </c>
+      <c r="C4" s="2">
+        <v>141803</v>
+      </c>
+      <c r="D4" s="85" t="s">
+        <v>7557</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7558</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>7559</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>7560</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>7561</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>7562</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>4063</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>7563</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>7564</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>7565</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>7566</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>7567</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>7568</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>7569</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>7570</v>
+      </c>
+      <c r="T4" s="86" t="s">
+        <v>7571</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="84" t="d">
+        <v>2018-08-12T21:16:55.00000027008354900</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7572</v>
+      </c>
+      <c r="C5" s="2">
+        <v>141808</v>
+      </c>
+      <c r="D5" s="85" t="s">
+        <v>7573</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>7574</v>
+      </c>
+      <c r="F5" s="7" t="d">
+        <v>1996-10-15</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>7575</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>7576</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>7577</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>7578</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>7579</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>7580</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>7581</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>7582</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>7583</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>7584</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>7585</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>7586</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="84" t="d">
+        <v>2018-08-12T21:35:41.00000008475035275</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7587</v>
+      </c>
+      <c r="C6" s="2">
+        <v>151809</v>
+      </c>
+      <c r="D6" s="85" t="s">
+        <v>7588</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>7589</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>7590</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>7591</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>7592</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>7593</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>7594</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>7595</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>7596</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>7597</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>7598</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>7599</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>7600</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>7601</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>7602</v>
+      </c>
+      <c r="T6" s="86" t="s">
+        <v>7603</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="180" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="84" t="d">
+        <v>2018-08-12T22:05:49.99999988358467925</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7604</v>
+      </c>
+      <c r="C7" s="2">
+        <v>151842</v>
+      </c>
+      <c r="D7" s="85" t="s">
+        <v>7605</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>7606</v>
+      </c>
+      <c r="F7" s="7" t="d">
+        <v>1994-05-19</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1911263305</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>7607</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>7608</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>7609</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>7610</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>7611</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>5680</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>7612</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>7613</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>7614</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>7615</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>7616</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="84" t="d">
+        <v>2018-08-12T22:07:18.99999994318932450</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7617</v>
+      </c>
+      <c r="C8" s="2">
+        <v>151801</v>
+      </c>
+      <c r="D8" s="85" t="s">
+        <v>7618</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>7619</v>
+      </c>
+      <c r="F8" s="2">
+        <v>4</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1784970023</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>7620</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>1855</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>7621</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>2568</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>7622</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>7623</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>7624</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>7625</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>7626</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>2614</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>7627</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>7628</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="84" t="d">
+        <v>2018-08-12T22:08:06.000000243075192075</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7629</v>
+      </c>
+      <c r="C9" s="2">
+        <v>151822</v>
+      </c>
+      <c r="D9" s="85" t="s">
+        <v>7630</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>3256</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>7631</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1521240329</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>7632</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>7633</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>7634</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>7635</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>7636</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>2056</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>2759</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>7637</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>7638</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="269.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="84" t="d">
+        <v>2018-08-12T22:27:22.99999976065009800</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>7639</v>
+      </c>
+      <c r="C10" s="2">
+        <v>151811</v>
+      </c>
+      <c r="D10" s="85" t="s">
+        <v>7640</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>7641</v>
+      </c>
+      <c r="F10" s="7" t="d">
+        <v>1995-03-18</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>7642</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>7643</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>7644</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>7645</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>7646</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>7647</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>7648</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>7649</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>7650</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>7651</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>7652</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>7653</v>
+      </c>
+      <c r="T10" s="86" t="s">
+        <v>7654</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="84" t="d">
+        <v>2018-08-12T22:34:00.99999975878745600</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>7655</v>
+      </c>
+      <c r="C11" s="2">
+        <v>151831</v>
+      </c>
+      <c r="D11" s="85" t="s">
+        <v>7656</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>7657</v>
+      </c>
+      <c r="F11" s="87" t="d">
+        <v>1996-01-06</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>7658</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>7659</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>7660</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>7661</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>7662</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>7663</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>7664</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>7665</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>7666</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>3653</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>7667</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>7668</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>7669</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="84" t="d">
+        <v>2018-08-12T22:43:09.99999985098839025</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>7670</v>
+      </c>
+      <c r="C12" s="2">
+        <v>151815</v>
+      </c>
+      <c r="D12" s="85" t="s">
+        <v>7671</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>7672</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>7673</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>7674</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>7675</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>7676</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>7677</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>7678</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>7679</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>7680</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>7681</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>7682</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>7683</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>7684</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>7685</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>7686</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="84" t="d">
+        <v>2018-08-12T22:57:26.00000004284084025</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>7687</v>
+      </c>
+      <c r="C13" s="2">
+        <v>151829</v>
+      </c>
+      <c r="D13" s="85" t="s">
+        <v>7688</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>7689</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>7690</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1521479339</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>7691</v>
+      </c>
+      <c r="J13" s="7" t="d">
+        <v>2016-03-14</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>7692</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>7693</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>7694</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>7695</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>7696</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>7697</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>7698</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>7699</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>7700</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>7701</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="269.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="84" t="d">
+        <v>2018-08-12T23:07:26.99999971780925775</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>7702</v>
+      </c>
+      <c r="C14" s="2">
+        <v>141828</v>
+      </c>
+      <c r="D14" s="85" t="s">
+        <v>7703</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>7704</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>7705</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>7706</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>7707</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>7708</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>7709</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>7710</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>7711</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>7712</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>7713</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>7714</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>7715</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>7716</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>7717</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>7718</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="371.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="84" t="d">
+        <v>2018-08-12T23:11:36.00000008940696450</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>7719</v>
+      </c>
+      <c r="C15" s="2">
+        <v>151827</v>
+      </c>
+      <c r="D15" s="85" t="s">
+        <v>7720</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>7721</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>7722</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>7723</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>7724</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>7725</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>7726</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>7727</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>7728</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>7729</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>7730</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>7731</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>7732</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>7733</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>7734</v>
+      </c>
+      <c r="T15" s="86" t="s">
+        <v>7735</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="205.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="84" t="d">
+        <v>2018-08-12T23:22:57.00000023469329025</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>7736</v>
+      </c>
+      <c r="C16" s="2">
+        <v>151834</v>
+      </c>
+      <c r="D16" s="85" t="s">
+        <v>7737</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>7738</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>7739</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>7740</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>7632</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>7741</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>7742</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>7743</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>7744</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>7745</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>1107</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>7746</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>7747</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>7748</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>7749</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="294.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="84" t="d">
+        <v>2018-08-12T23:32:48.00000008661300150</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>7707</v>
+      </c>
+      <c r="C17" s="2">
+        <v>151835</v>
+      </c>
+      <c r="D17" s="85" t="s">
+        <v>7750</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>7751</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>7752</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>7753</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>7754</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>7755</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>7756</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>7646</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>7757</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>7758</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>7759</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>7760</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>7761</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>7762</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>7763</v>
+      </c>
+      <c r="T17" s="86" t="s">
+        <v>7764</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="84" t="d">
+        <v>2018-08-12T23:50:23.00000027753413050</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>7765</v>
+      </c>
+      <c r="C18" s="2">
+        <v>151828</v>
+      </c>
+      <c r="D18" s="85" t="s">
+        <v>7766</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="7" t="d">
+        <v>1996-04-20</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>7767</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>7768</v>
+      </c>
+      <c r="J18" s="7" t="d">
+        <v>2018-05-24</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>7769</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>7770</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>7771</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>7772</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>7773</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>7774</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>7775</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>7776</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>7777</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>7778</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="84" t="d">
+        <v>2018-08-12T23:52:24.9999998789280675</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>7779</v>
+      </c>
+      <c r="C19" s="2">
+        <v>151838</v>
+      </c>
+      <c r="D19" s="85" t="s">
+        <v>7780</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>1890</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>7781</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>7782</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>7783</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>7784</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>7785</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>7786</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>7787</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>7788</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>6876</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>7789</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>7790</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>7791</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>7792</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>7793</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="84" t="d">
+        <v>2018-08-13T00:21:45.99999977275729125</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>7794</v>
+      </c>
+      <c r="C20" s="2">
+        <v>141841</v>
+      </c>
+      <c r="D20" s="85" t="s">
+        <v>7795</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>7796</v>
+      </c>
+      <c r="F20" s="87" t="d">
+        <v>1996-04-05</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>7797</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>7798</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>7799</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>7800</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>7801</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>7802</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>7803</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>7804</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>7805</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>7806</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>7807</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>7808</v>
+      </c>
+      <c r="T20" s="86" t="s">
+        <v>7809</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="84" t="d">
+        <v>2018-08-13T01:08:03.000000170432031225</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>7810</v>
+      </c>
+      <c r="C21" s="2">
+        <v>151832</v>
+      </c>
+      <c r="D21" s="85" t="s">
+        <v>7811</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>7812</v>
+      </c>
+      <c r="F21" s="87" t="d">
+        <v>1996-01-07</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>7813</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>7814</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>7815</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>7816</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>7817</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>7818</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>7819</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>7820</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>7714</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>7821</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>7822</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>7823</v>
+      </c>
+      <c r="T21" s="86" t="s">
+        <v>7824</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="180" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="84" t="d">
+        <v>2018-08-13T01:59:03.00000008661300150</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>7825</v>
+      </c>
+      <c r="C22" s="2">
+        <v>151807</v>
+      </c>
+      <c r="D22" s="85" t="s">
+        <v>7826</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>2671</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>7827</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>5014</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>7828</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>7829</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>7830</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>7831</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>7832</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>7833</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>7834</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>7835</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>7836</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>7837</v>
+      </c>
+      <c r="T22" s="86" t="s">
+        <v>7838</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="84" t="d">
+        <v>2018-08-13T08:38:30.999999800696969175</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>7839</v>
+      </c>
+      <c r="C23" s="2">
+        <v>151817</v>
+      </c>
+      <c r="D23" s="85" t="s">
+        <v>7840</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>7841</v>
+      </c>
+      <c r="F23" s="88" t="d">
+        <v>2018-03-21</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" s="2">
+        <v>1772704801</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>7842</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>7843</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>7844</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>7845</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>7846</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>7847</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>7848</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>7849</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>7850</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>7851</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>7852</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>7853</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="84" t="d">
+        <v>2018-08-15T00:27:11.99999991338699850</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>7854</v>
+      </c>
+      <c r="C24" s="2">
+        <v>151803</v>
+      </c>
+      <c r="D24" s="85" t="s">
+        <v>7855</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>7856</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>7857</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>7858</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>7859</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>7860</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>7861</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>7862</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>7863</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>7864</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>7865</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>7866</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="T24" s="86" t="s">
+        <v>7867</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="84" t="d">
+        <v>2018-08-15T00:37:40.99999984726309950</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>7854</v>
+      </c>
+      <c r="C25" s="2">
+        <v>151803</v>
+      </c>
+      <c r="D25" s="85" t="s">
+        <v>7868</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>7856</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>7857</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="H25" s="2">
+        <v>1521239215</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>7859</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>7860</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>7861</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>7862</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>7869</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>7856</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>7865</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>7866</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="T25" s="86" t="s">
+        <v>7870</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" ht="307.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="84" t="d">
+        <v>2018-08-15T01:38:59.00000026915222125</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>7871</v>
+      </c>
+      <c r="C26" s="2">
+        <v>151810</v>
+      </c>
+      <c r="D26" s="85" t="s">
+        <v>7872</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>7873</v>
+      </c>
+      <c r="F26" s="87" t="d">
+        <v>1997-10-12</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H26" s="2">
+        <v>1973963824</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>7874</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>7875</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>7876</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>7877</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>7878</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>7879</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>7880</v>
+      </c>
+      <c r="S26" s="1" t="s">
+        <v>7881</v>
+      </c>
+      <c r="T26" s="86" t="s">
+        <v>7882</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="84" t="d">
+        <v>2018-08-16T20:43:15.00000018160789875</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>7883</v>
+      </c>
+      <c r="C27" s="2">
+        <v>151813</v>
+      </c>
+      <c r="D27" s="85" t="s">
+        <v>7884</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>7885</v>
+      </c>
+      <c r="F27" s="87" t="d">
+        <v>1995-04-09</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>7886</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>7887</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>7888</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>7889</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>7890</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>7891</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>7892</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>7893</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>7894</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>7895</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>7896</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>7897</v>
+      </c>
+      <c r="T27" s="1" t="s">
+        <v>7898</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" ht="282" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="84" t="d">
+        <v>2018-08-16T20:55:32.00000021606683650</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>7899</v>
+      </c>
+      <c r="C28" s="2">
+        <v>151814</v>
+      </c>
+      <c r="D28" s="85" t="s">
+        <v>7900</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>7901</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>7902</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>7903</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>7639</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>7904</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>7905</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>7906</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>7907</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>7908</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>7909</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>7910</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>7911</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>7912</v>
+      </c>
+      <c r="S28" s="1" t="s">
+        <v>7913</v>
+      </c>
+      <c r="T28" s="86" t="s">
+        <v>7914</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="84" t="d">
+        <v>2018-08-17T00:33:16.00000013597309550</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>7915</v>
+      </c>
+      <c r="C29" s="2">
+        <v>151819</v>
+      </c>
+      <c r="D29" s="85" t="s">
+        <v>7916</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>1535</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>7917</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H29" s="2">
+        <v>1942935435</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>7918</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>7919</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>7920</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>7921</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>7922</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>7923</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>7924</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>7925</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>7926</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>7927</v>
+      </c>
+      <c r="S29" s="1" t="s">
+        <v>7928</v>
+      </c>
+      <c r="T29" s="86" t="s">
+        <v>7929</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" ht="269.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="84" t="d">
+        <v>2018-08-17T04:49:49.99999968800693850</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>7930</v>
+      </c>
+      <c r="C30" s="2">
+        <v>151806</v>
+      </c>
+      <c r="D30" s="85" t="s">
+        <v>7931</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>7932</v>
+      </c>
+      <c r="F30" s="87" t="d">
+        <v>1996-11-09</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>7933</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>7934</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>7935</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>7936</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>7937</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>7938</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>7939</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>7940</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>7941</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>7942</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>7943</v>
+      </c>
+      <c r="S30" s="1" t="s">
+        <v>7944</v>
+      </c>
+      <c r="T30" s="86" t="s">
+        <v>7945</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="84" t="d">
+        <v>2018-08-17T05:01:15.99999974481761400</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>7946</v>
+      </c>
+      <c r="C31" s="2">
+        <v>151846</v>
+      </c>
+      <c r="D31" s="85" t="s">
+        <v>7947</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>7948</v>
+      </c>
+      <c r="F31" s="7" t="d">
+        <v>1995-02-26</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="H31" s="2">
+        <v>1521453125</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>7949</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>7950</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>7951</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>7952</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>7953</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>7954</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>7955</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>7956</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>7957</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>7958</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>7959</v>
+      </c>
+      <c r="T31" s="1" t="s">
+        <v>7960</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="84" t="d">
+        <v>2018-09-19T12:13:17.99999983515590625</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>7961</v>
+      </c>
+      <c r="C32" s="2">
+        <v>151804</v>
+      </c>
+      <c r="D32" s="85" t="s">
+        <v>7962</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>7963</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>7964</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>7965</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>7062</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>7966</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>7967</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>7968</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>7969</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>7970</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>7971</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>7972</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>7973</v>
+      </c>
+      <c r="R32" s="1" t="s">
+        <v>7974</v>
+      </c>
+      <c r="S32" s="1" t="s">
+        <v>7975</v>
+      </c>
+      <c r="T32" s="1" t="s">
+        <v>7976</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{9B3A17E8-49C0-42A7-8F8F-4F451DE88FB0}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{F66D77CD-137F-4C3A-8800-7CD530B5C8A0}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{7022E402-D930-4403-8468-37BDC3B35686}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{982F4A82-D395-4436-80AE-E4A879DB693F}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{4372C55E-D888-464C-8773-9954BB9CA5FA}"/>
+    <hyperlink ref="D7" r:id="rId6" xr:uid="{54C6A866-CB05-4CC1-A8F6-29CCBECA892F}"/>
+    <hyperlink ref="D8" r:id="rId7" xr:uid="{744125B2-FC78-456E-81B8-D94F8104F6B1}"/>
+    <hyperlink ref="D9" r:id="rId8" xr:uid="{7D86F423-8147-4DE8-AEE4-CAB8BBCA4666}"/>
+    <hyperlink ref="D10" r:id="rId9" xr:uid="{545BD10D-A793-4357-9C41-CB80B3B7DBAA}"/>
+    <hyperlink ref="D11" r:id="rId10" xr:uid="{5B2F54F5-5C93-4A15-B583-742C7F4304A5}"/>
+    <hyperlink ref="D12" r:id="rId11" xr:uid="{08B45434-3632-4917-B2FE-D8A296AEEF58}"/>
+    <hyperlink ref="D13" r:id="rId12" xr:uid="{E29EB1F3-BCAD-4462-B073-CC7C64D57807}"/>
+    <hyperlink ref="D14" r:id="rId13" xr:uid="{ED76FA25-B415-4A32-9F11-51CDD3503F3C}"/>
+    <hyperlink ref="D15" r:id="rId14" xr:uid="{C5ECE8C5-3C53-4E67-8BF8-A6B8F779DFAC}"/>
+    <hyperlink ref="D16" r:id="rId15" xr:uid="{0A286D71-3405-4638-8908-481AF7FCCDE9}"/>
+    <hyperlink ref="D17" r:id="rId16" xr:uid="{A11ABD27-B152-41DF-91A2-41B0E672871B}"/>
+    <hyperlink ref="D18" r:id="rId17" xr:uid="{9AE0A1B3-EB84-4D00-8637-B9965C934768}"/>
+    <hyperlink ref="D19" r:id="rId18" xr:uid="{C28ACFFD-91C2-4D99-88DD-512305B7996A}"/>
+    <hyperlink ref="D20" r:id="rId19" xr:uid="{C6EC8BB8-7125-499C-BE60-4E36063CD347}"/>
+    <hyperlink ref="D21" r:id="rId20" xr:uid="{60A0C63C-C288-4AA8-9DAF-17BEBE4C983E}"/>
+    <hyperlink ref="D22" r:id="rId21" xr:uid="{A5D99C58-8C63-4D63-B524-F0E967E57359}"/>
+    <hyperlink ref="D23" r:id="rId22" xr:uid="{F31D7907-4C87-487E-B903-234DA4F80404}"/>
+    <hyperlink ref="D24" r:id="rId23" xr:uid="{DD508A83-D9AF-487D-AF86-DAFD2D5CD905}"/>
+    <hyperlink ref="D25" r:id="rId24" xr:uid="{A0EF5D6C-4013-406D-B769-CA6A5E9EDE8B}"/>
+    <hyperlink ref="D26" r:id="rId25" xr:uid="{018EFFDC-4551-4784-992B-A4B4B969CACA}"/>
+    <hyperlink ref="D27" r:id="rId26" xr:uid="{58F71BF1-6EA4-4EC4-B8A6-D09BA5E8E26F}"/>
+    <hyperlink ref="D28" r:id="rId27" xr:uid="{0B85995E-340A-41E4-8D72-9A198CFB89FD}"/>
+    <hyperlink ref="D29" r:id="rId28" xr:uid="{35DE9733-E44D-4D52-92A5-D3F606BB38C3}"/>
+    <hyperlink ref="D30" r:id="rId29" xr:uid="{4B1AC31D-4CB4-4E4A-A671-2E28E460B399}"/>
+    <hyperlink ref="D31" r:id="rId30" xr:uid="{9232A309-9489-4A73-B54C-C3FEAAB0278E}"/>
+    <hyperlink ref="D32" r:id="rId31" xr:uid="{FE08B12F-45D2-42F8-B111-83FD96BCD220}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId32"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E55E7762-3471-4A50-994C-AF3C25570A3A}">
   <dimension ref="A1:T24"/>
   <sheetViews>
@@ -38476,7 +41869,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DA14D6F-9059-439D-8E97-6A52AFDB3575}">
   <dimension ref="A1:R63"/>
   <sheetViews>
@@ -40760,7 +44153,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDF97123-3443-412D-A3EF-77DEAC1A2159}">
   <dimension ref="A1:S16"/>
   <sheetViews>
@@ -41730,7 +45123,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A92400CB-A3D4-4ED5-8114-54A4313A8CE0}">
   <dimension ref="A1:R41"/>
   <sheetViews>
@@ -42966,7 +46359,7 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BFCC8ED-5E2A-46AF-8579-FCAB42049471}">
   <dimension ref="A1:T27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>

--- a/souvenir15/Souvenir 15.xlsx
+++ b/souvenir15/Souvenir 15.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr dateCompatibility="0" filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{0A0FC7E6-3DA7-4184-9D13-5B21547ACC3E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{6DDDC0EC-AFA0-4008-BBD0-6743E824AB1E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9450" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="780" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10395" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="780" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arch" sheetId="1" r:id="rId1"/>
@@ -16,16 +16,17 @@
     <sheet name="ECE" sheetId="8" r:id="rId6"/>
     <sheet name="ES" sheetId="2" r:id="rId7"/>
     <sheet name="Phar" sheetId="13" r:id="rId8"/>
-    <sheet name="SWE" sheetId="10" r:id="rId9"/>
-    <sheet name="ENG" sheetId="12" r:id="rId10"/>
-    <sheet name="Econ" sheetId="3" r:id="rId11"/>
-    <sheet name="Soc" sheetId="9" r:id="rId12"/>
-    <sheet name="Phy" sheetId="6" r:id="rId13"/>
-    <sheet name="Chem" sheetId="19" r:id="rId14"/>
-    <sheet name="Stat" sheetId="17" r:id="rId15"/>
-    <sheet name="DS" sheetId="4" r:id="rId16"/>
-    <sheet name="SCULP" sheetId="16" r:id="rId17"/>
-    <sheet name="PM" sheetId="7" r:id="rId18"/>
+    <sheet name="Math" sheetId="20" r:id="rId9"/>
+    <sheet name="SWE" sheetId="10" r:id="rId10"/>
+    <sheet name="ENG" sheetId="12" r:id="rId11"/>
+    <sheet name="Econ" sheetId="3" r:id="rId12"/>
+    <sheet name="Soc" sheetId="9" r:id="rId13"/>
+    <sheet name="Phy" sheetId="6" r:id="rId14"/>
+    <sheet name="Chem" sheetId="19" r:id="rId15"/>
+    <sheet name="Stat" sheetId="17" r:id="rId16"/>
+    <sheet name="DS" sheetId="4" r:id="rId17"/>
+    <sheet name="SCULP" sheetId="16" r:id="rId18"/>
+    <sheet name="PM" sheetId="7" r:id="rId19"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="9566" uniqueCount="7977">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="10122" uniqueCount="8440">
   <si>
     <t>pallabbyapari@gmail.com</t>
   </si>
@@ -24122,6 +24123,1395 @@
   </si>
   <si>
     <t>Kakir ★★★★</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Student ID </t>
+  </si>
+  <si>
+    <t>Contact (Phone, Email / FB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best Day in KU </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guns &amp; Roses - What for Whom </t>
+  </si>
+  <si>
+    <t>2018/08/12 1:17:53 PM GMT+6</t>
+  </si>
+  <si>
+    <t>Md.Zahidul Islam</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?authuser=0&amp;usp=forms_web&amp;id=1YN9hPiLU-NxMRyoaDf26FHqqL5kqMyVS</t>
+  </si>
+  <si>
+    <t>Zahid</t>
+  </si>
+  <si>
+    <t>01744112471,jahid.ku24@gmail.com</t>
+  </si>
+  <si>
+    <t>peaceful campus in our country.</t>
+  </si>
+  <si>
+    <t>orentation</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>Royal and Mamun</t>
+  </si>
+  <si>
+    <t>very much sad</t>
+  </si>
+  <si>
+    <t>1st class 1st.</t>
+  </si>
+  <si>
+    <t>ct,lab work</t>
+  </si>
+  <si>
+    <t>ASP</t>
+  </si>
+  <si>
+    <t>Man for man</t>
+  </si>
+  <si>
+    <t>Mamun,Ali,Bandhu saif,Rakib,Dj saiful,Chandan</t>
+  </si>
+  <si>
+    <t>2018/08/12 1:50:09 PM GMT+6</t>
+  </si>
+  <si>
+    <t>Kazi Tahmid Belal</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?authuser=0&amp;usp=forms_web&amp;id=1B9AJwPqBqrya1SQfDfAo-Ou6TtmpkQFx</t>
+  </si>
+  <si>
+    <t>Tahmid</t>
+  </si>
+  <si>
+    <t>14/09/1997</t>
+  </si>
+  <si>
+    <t>kazitahmidbelal@gmail.com</t>
+  </si>
+  <si>
+    <t>Get together of 15 batch in 2015</t>
+  </si>
+  <si>
+    <t>KU is the example of better Bangladesh.</t>
+  </si>
+  <si>
+    <t>Guns for B.M. Rakibul Hasan Prince and Roses for Kazi Safayet Hossain Shanto.</t>
+  </si>
+  <si>
+    <t>Playing cards whole night in 1st year.</t>
+  </si>
+  <si>
+    <t>I have met a bunch of people who have great hurts. And Ku let me know people well.</t>
+  </si>
+  <si>
+    <t>The night before the rag of 12 batch.</t>
+  </si>
+  <si>
+    <t>Ummm...!</t>
+  </si>
+  <si>
+    <t>Live each day like It's your last.</t>
+  </si>
+  <si>
+    <t>Shanto,Mahir,Minhaz,Shaif,Brinto &amp; Me</t>
+  </si>
+  <si>
+    <t>I am confusing.</t>
+  </si>
+  <si>
+    <t>2018/08/12 5:39:26 PM GMT+6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Md Enamul Kabir Royal </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?authuser=0&amp;usp=forms_web&amp;id=1-26pL0bJ1SQa1shG5LEcMjTyUW9BFtmA</t>
+  </si>
+  <si>
+    <t>Royal</t>
+  </si>
+  <si>
+    <t>18-11-1996</t>
+  </si>
+  <si>
+    <t>Phone: 01986220107         royal181196@gmail.com           Enamul kabir Royal (banglay)</t>
+  </si>
+  <si>
+    <t>Senior apu.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I love my campus  because here no politics. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">No one. </t>
+  </si>
+  <si>
+    <t>Being a ass</t>
+  </si>
+  <si>
+    <t>Topology CT</t>
+  </si>
+  <si>
+    <t>A good teacher  (BCS or college )</t>
+  </si>
+  <si>
+    <t>Dream is not that which you see while sleeping it is something that will not let you sleep.</t>
+  </si>
+  <si>
+    <t>Royal,chandan,Mohammad ali, Sourov,zahid</t>
+  </si>
+  <si>
+    <t>I want to be a good human.</t>
+  </si>
+  <si>
+    <t>2018/08/12 10:28:57 PM GMT+6</t>
+  </si>
+  <si>
+    <t>Mahir Foysal</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?authuser=0&amp;usp=forms_web&amp;id=1POX6VD4lJdmvfutI0fG2xLVVduat2zZH</t>
+  </si>
+  <si>
+    <t>Mahir</t>
+  </si>
+  <si>
+    <t>01833428278, mahirfoysal@gmail.com</t>
+  </si>
+  <si>
+    <t>Rag'11-2015</t>
+  </si>
+  <si>
+    <t>Both for myself</t>
+  </si>
+  <si>
+    <t>Night Out</t>
+  </si>
+  <si>
+    <t>Some precious people.</t>
+  </si>
+  <si>
+    <t>Physics,Ajmol Sir</t>
+  </si>
+  <si>
+    <t>GENIUS, BILLIONAIRE, PLAYBOY, PHILANTHROPIST</t>
+  </si>
+  <si>
+    <t>wubba lubba dub dub</t>
+  </si>
+  <si>
+    <t>Suvayon,Minhaz,Shaif,Tahmid,Dipto,Shanto</t>
+  </si>
+  <si>
+    <t>All seasons beautifully wrapped in one.</t>
+  </si>
+  <si>
+    <t>2018/08/12 10:32:55 PM GMT+6</t>
+  </si>
+  <si>
+    <t>B. M. Rakibul Hasan</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?authuser=0&amp;usp=forms_web&amp;id=1RJyd6mgGa9_xLAzQj8cURLmuTbWHeVQw</t>
+  </si>
+  <si>
+    <t>Prince</t>
+  </si>
+  <si>
+    <t>23-06-1995</t>
+  </si>
+  <si>
+    <t>Everyone of Mathematics'15</t>
+  </si>
+  <si>
+    <t>Not Available</t>
+  </si>
+  <si>
+    <t>Reception of Mathematics'15</t>
+  </si>
+  <si>
+    <t>KU is indescribable in a single sentence</t>
+  </si>
+  <si>
+    <t>Roses for Shuvayan da and the Guns for him</t>
+  </si>
+  <si>
+    <t>Our corridor where we passed our 4 years</t>
+  </si>
+  <si>
+    <t>Being a part of Mathematics'15</t>
+  </si>
+  <si>
+    <t>A successful person</t>
+  </si>
+  <si>
+    <t>It's better to be a lonely lion than a popular sheep.</t>
+  </si>
+  <si>
+    <t>I am what I am</t>
+  </si>
+  <si>
+    <t>2018/08/12 10:39:53 PM GMT+6</t>
+  </si>
+  <si>
+    <t>Prodipta Karmoker</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?authuser=0&amp;usp=forms_web&amp;id=1bsLgfnRqkpxgkPKlnl4t8pwjAK2RMi9g</t>
+  </si>
+  <si>
+    <t>16 December, 1995</t>
+  </si>
+  <si>
+    <t>dipta151222@gmail.com</t>
+  </si>
+  <si>
+    <t>Ayesha, Sharmin Apu, r koy-akjoner nam jani na.</t>
+  </si>
+  <si>
+    <t>1 plate vath, half sobji, patla dal.</t>
+  </si>
+  <si>
+    <t>Guns for Kumfu Panda , Roses for Math'15</t>
+  </si>
+  <si>
+    <t>1st year batch meeting in Linear Park.</t>
+  </si>
+  <si>
+    <t>Poralekha praye ses.</t>
+  </si>
+  <si>
+    <t>Number pai na, jotoi poralekha kori.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A friend, a son, a brother, a father and a human.</t>
+  </si>
+  <si>
+    <t>"I am not a liberator. Liberators do not exist. The people liberate themselves."  Che Guevara</t>
+  </si>
+  <si>
+    <t>Shanto, Saif, Mahir, Reza.</t>
+  </si>
+  <si>
+    <t>Ami Pagol, and I am happy with my Paglami.</t>
+  </si>
+  <si>
+    <t>2018/08/12 10:44:45 PM GMT+6</t>
+  </si>
+  <si>
+    <t>Jubayer Hasan</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?authuser=0&amp;usp=forms_web&amp;id=1uHmhFpqv8FML7K9M86HlXNhYB7lKOWhX</t>
+  </si>
+  <si>
+    <t>"Payer ali"(unacceptable) and "Chotu"(acceptable)</t>
+  </si>
+  <si>
+    <t>01981891481, fttlm@yahoo.com</t>
+  </si>
+  <si>
+    <t>Obviously The "jomjomat Adda+Gan"</t>
+  </si>
+  <si>
+    <t>The one who ruined my campus life. And I don't wanna mention.</t>
+  </si>
+  <si>
+    <t>The day I met my seniors.</t>
+  </si>
+  <si>
+    <t>Outstanding not because I'm KUian but because of being my school of life.</t>
+  </si>
+  <si>
+    <t>Guns for "Aayush and Anik" and Roses for "Minhaz, Saif and Prince"</t>
+  </si>
+  <si>
+    <t>Bondhu Adda Gan</t>
+  </si>
+  <si>
+    <t>I've found myself in here and it was the best achievement.</t>
+  </si>
+  <si>
+    <t>"Mama nai to, Kalke Sesh Hoise"</t>
+  </si>
+  <si>
+    <t>I wanna see myself as a HUMAN.</t>
+  </si>
+  <si>
+    <t>"There are three classes of people: those who see, those who see when they are shown, those who do not see"</t>
+  </si>
+  <si>
+    <t>Aayush,Rufee,Zakir,Arman,Safi,Asad.</t>
+  </si>
+  <si>
+    <t>I'm nothing but a life like every living beings.</t>
+  </si>
+  <si>
+    <t>2018/08/12 10:49:30 PM GMT+6</t>
+  </si>
+  <si>
+    <t>Chandan Sarker</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?authuser=0&amp;usp=forms_web&amp;id=1fq9foJj-vp5zMgZzY4mWKdiKgNMHKCT5</t>
+  </si>
+  <si>
+    <t>Chandan</t>
+  </si>
+  <si>
+    <t>1 July, 1997</t>
+  </si>
+  <si>
+    <t>Adda with friends.</t>
+  </si>
+  <si>
+    <t>Tabassum mam, CSE.</t>
+  </si>
+  <si>
+    <t>1 July.</t>
+  </si>
+  <si>
+    <t>Boring</t>
+  </si>
+  <si>
+    <t>Guns for Partho, Roses for Kona.</t>
+  </si>
+  <si>
+    <t>7 days tour.</t>
+  </si>
+  <si>
+    <t>Chief of Army, Navy and Police.</t>
+  </si>
+  <si>
+    <t>Peace and peace.</t>
+  </si>
+  <si>
+    <t>Kashi, Pushpen.</t>
+  </si>
+  <si>
+    <t>Zero.</t>
+  </si>
+  <si>
+    <t>2018/08/13 12:17:01 AM GMT+6</t>
+  </si>
+  <si>
+    <t>MD. SAIF ALI KHAN</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?authuser=0&amp;usp=forms_web&amp;id=19k2pxdTbF0ZX6_8J2b5fKACli1zZygLe</t>
+  </si>
+  <si>
+    <t>Saif</t>
+  </si>
+  <si>
+    <t>25 March, 1996</t>
+  </si>
+  <si>
+    <t>you know who?</t>
+  </si>
+  <si>
+    <t>Rag 15 (11 batch) Concert day</t>
+  </si>
+  <si>
+    <t>An ordinary public University</t>
+  </si>
+  <si>
+    <t>Guns for none &amp; Roses for none</t>
+  </si>
+  <si>
+    <t>Celebrating batch day</t>
+  </si>
+  <si>
+    <t>Some unforgettable moments</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A good teacher</t>
+  </si>
+  <si>
+    <t>Tomorrow is my exam but I don't care because a single sheet of paper can't decide my future</t>
+  </si>
+  <si>
+    <t>Shanto, Prodipta</t>
+  </si>
+  <si>
+    <t>2018/08/13 8:23:37 PM GMT+6</t>
+  </si>
+  <si>
+    <t>Khan Anik Islam</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?authuser=0&amp;usp=forms_web&amp;id=1i-A50aHgDTMw6vZATxb8_dszeBQi7VhV</t>
+  </si>
+  <si>
+    <t>Paku</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A(+) </t>
+  </si>
+  <si>
+    <t>Mouly</t>
+  </si>
+  <si>
+    <t>12th March</t>
+  </si>
+  <si>
+    <t>Chillars' Compound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guns for boys, Roases for girlfriends </t>
+  </si>
+  <si>
+    <t>all about KU</t>
+  </si>
+  <si>
+    <t>Bhai-bothers</t>
+  </si>
+  <si>
+    <t>Semister Final exam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khabi na ta makhali kn?? </t>
+  </si>
+  <si>
+    <t>Shovon, Jubayer, Mouly,Abir</t>
+  </si>
+  <si>
+    <t>Dreamer</t>
+  </si>
+  <si>
+    <t>2018/08/13 9:50:24 PM GMT+6</t>
+  </si>
+  <si>
+    <t>Almamun Shimul</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?authuser=0&amp;usp=forms_web&amp;id=1kcqM3o1L3pC7jKIjuXsGj6DllWVAKZqf</t>
+  </si>
+  <si>
+    <t>Shimul</t>
+  </si>
+  <si>
+    <t>Unity.</t>
+  </si>
+  <si>
+    <t>Tamanna Sultana</t>
+  </si>
+  <si>
+    <t>Rag day in 11 batch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ku in my dream </t>
+  </si>
+  <si>
+    <t>Guns-ujjol kumar.Roses-Tamanna Sultana</t>
+  </si>
+  <si>
+    <t>1st year 1st term</t>
+  </si>
+  <si>
+    <t>increasing knowledge</t>
+  </si>
+  <si>
+    <t>Honesty is the best way of shining life.</t>
+  </si>
+  <si>
+    <t>Almamun Shimul.Jubaer Ahmed.Enamul Kabir.Tamanna Sultana.Maliha Taraz.Farzana Akter.Ripa Akter.</t>
+  </si>
+  <si>
+    <t>I am a happy person.</t>
+  </si>
+  <si>
+    <t>2018/08/14 12:01:01 AM GMT+6</t>
+  </si>
+  <si>
+    <t>S. M. Minhazul Islam</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?authuser=0&amp;usp=forms_web&amp;id=1hPYVDfTFsV8lSZPmQlMo6W_7HXooii96</t>
+  </si>
+  <si>
+    <t>13.04.1996</t>
+  </si>
+  <si>
+    <t>Beyond counting</t>
+  </si>
+  <si>
+    <t>So many days</t>
+  </si>
+  <si>
+    <t>An era of life to remember</t>
+  </si>
+  <si>
+    <t>Guns for everyone, Roses for me</t>
+  </si>
+  <si>
+    <t>Rag Day (black night)</t>
+  </si>
+  <si>
+    <t>A Human being</t>
+  </si>
+  <si>
+    <t>Be yourself but positive</t>
+  </si>
+  <si>
+    <t>1. Shaif 2. Shuvayan 3. Jubayer  4. Mahir 5. Saif</t>
+  </si>
+  <si>
+    <t>A human of soft hearted</t>
+  </si>
+  <si>
+    <t>2018/08/14 12:07:10 AM GMT+6</t>
+  </si>
+  <si>
+    <t>Shuvayan Saha</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?authuser=0&amp;usp=forms_web&amp;id=1dEl5iqfoRZEpErJtuyqmSnkIOO3OSsaj</t>
+  </si>
+  <si>
+    <t>Shuvo Da</t>
+  </si>
+  <si>
+    <t>17/12/1996</t>
+  </si>
+  <si>
+    <t>Phone: 01993279355, Email: shuvayan.saha20@gmail.com</t>
+  </si>
+  <si>
+    <t>Not KUian</t>
+  </si>
+  <si>
+    <t>CSE mam</t>
+  </si>
+  <si>
+    <t>5 April 2017, 2nd anniversary of Math 15</t>
+  </si>
+  <si>
+    <t>A place where I reborn again.</t>
+  </si>
+  <si>
+    <t>Gun: Sourav(151221) , Rose: None in KU</t>
+  </si>
+  <si>
+    <t>That feelings, When CR came and said Azmol Sir's 2 hours long class had been cancelled.</t>
+  </si>
+  <si>
+    <t>Knowing different types of people, understanding how to work with them.</t>
+  </si>
+  <si>
+    <t>2nd year 2nd term result.</t>
+  </si>
+  <si>
+    <t>Just the reflection of present myself</t>
+  </si>
+  <si>
+    <t>Follow your Heart, use your Brain.</t>
+  </si>
+  <si>
+    <t>Mahir (151235), Minhaz (151216), Shaif (151226), Reza (151232), Prodipto (151222), Tahmid (151219)</t>
+  </si>
+  <si>
+    <t>Just Myself.</t>
+  </si>
+  <si>
+    <t>2018/08/14 12:21:20 AM GMT+6</t>
+  </si>
+  <si>
+    <t>Md Masum Billah Nayan</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?authuser=0&amp;usp=forms_web&amp;id=1LvYssC4ctbQBrvY26aXU5Kju_aJlk5Mq</t>
+  </si>
+  <si>
+    <t>Nayan</t>
+  </si>
+  <si>
+    <t>07.02.1996</t>
+  </si>
+  <si>
+    <t>01966976697, noyonku7@gmail.com,. Md Masum Billah Nayan</t>
+  </si>
+  <si>
+    <t>It depends.</t>
+  </si>
+  <si>
+    <t>Rag Day of '11 Batch</t>
+  </si>
+  <si>
+    <t>Pressure Cooker.</t>
+  </si>
+  <si>
+    <t>Guns-Shuvayan Saha,Roses-Saikat Mondal (Sir)</t>
+  </si>
+  <si>
+    <t>Aniket Prantor,Mehadie's tea,Kbah room No-307</t>
+  </si>
+  <si>
+    <t>How to survive in life.</t>
+  </si>
+  <si>
+    <t>Time will say.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dream is everything in life. </t>
+  </si>
+  <si>
+    <t>Glorious IV</t>
+  </si>
+  <si>
+    <t>I am nothing but will something.</t>
+  </si>
+  <si>
+    <t>2018/08/14 12:37:02 AM GMT+6</t>
+  </si>
+  <si>
+    <t>Sourav Roy</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?authuser=0&amp;usp=forms_web&amp;id=1FZKIKVkg2jGT4fcDPREn9CiqzxJ6UnT4</t>
+  </si>
+  <si>
+    <t>20.07.1997</t>
+  </si>
+  <si>
+    <t>phone:01768211613 ; mail:rsourav48@gmail.com ; fb:devdas.skr.1</t>
+  </si>
+  <si>
+    <t>Teaches how to be skilled , experienced and capable for the entire life.</t>
+  </si>
+  <si>
+    <t>Don't know her name.</t>
+  </si>
+  <si>
+    <t>Pitha utshab(Arranged by 15 batch)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">à¦à¦•à¦Ÿà¦¾ certificate à¦ªà§‡à¦¤à§‡ à¦à¦¸à§‡à¦›à¦¿à¦²à¦¾à¦® , à¦•à¦¿à¦¨à§à¦¤à§ à¦à¦•à¦Ÿà¦¾ à¦¨à¦¤à§à¦¨ à¦œà§€à¦¬à¦¨ à¦ªà§‡à§Ÿà§‡à¦›à¦¿.                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                      </t>
+  </si>
+  <si>
+    <t>Gun for Sheikh Arman &amp; Roses for Nipa Roy.</t>
+  </si>
+  <si>
+    <t>Back to the first year.....</t>
+  </si>
+  <si>
+    <t>Indescribable</t>
+  </si>
+  <si>
+    <t>Central meeting with 13 batch</t>
+  </si>
+  <si>
+    <t>President of Bangladesh</t>
+  </si>
+  <si>
+    <t>à¦§à§à¦²à§‹à¦° à¦à§œà§‡à¦° à¦®à¦§à§à¦¯à§‡ à¦šà§‹à¦– à¦¬à¦¨à§à¦§ à¦•à¦°à§‡ à¦¹à¦¾à¦à¦Ÿà¦¾à¦Ÿà¦¾ à¦¯à¦¤à¦Ÿà¦¾ à¦¬à¦¿à¦ªà¦¤à§à¦¤à¦¿à¦•à¦°, à¦¤à¦¾à¦° à¦šà§‡à§Ÿà§‡à¦“ à¦•à¦·à§à¦Ÿà§‡à¦° à¦¯à¦–à¦¨ à¦¦à§‡à¦–à¦¿, à¦à§œ à¦¥à§‡à¦®à§‡ à¦—à§‡à¦›à§‡ à¦…à¦¥à¦š à¦¶à§à¦§à§ à¦¹à¦¾à¦Ÿà¦¤à§‡ à¦¶à¦¿à¦–à¦¿à¦¨à¦¿ à¦¬à¦²à§‡à¦‡ à¦¯à§‡ à¦ªà¦¥ à¦…à¦¨à§‡à¦•à§‡à¦‡ à¦¹à§‡à¦à¦Ÿà§‡ à¦—à§‡à¦›à§‡, à¦¸à§‡ à¦ªà¦¥ à¦†à¦®à¦¾à¦° à¦†à¦° à¦ªà§‡à¦°à§à¦¨à§‹ à¦¹à¦² à¦¨à¦¾à¥¤</t>
+  </si>
+  <si>
+    <t>(Mamun,Chandan,Arif,Jahid,Emon,Pushpen)</t>
+  </si>
+  <si>
+    <t>I have self-control,even in the hardest situations</t>
+  </si>
+  <si>
+    <t>2018/08/14 12:39:06 AM GMT+6</t>
+  </si>
+  <si>
+    <t>Mohammad Ali</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?authuser=0&amp;usp=forms_web&amp;id=1JcJNqPNF36NaXY_mU_l7pO6lYtAVCtsO</t>
+  </si>
+  <si>
+    <t>Ali</t>
+  </si>
+  <si>
+    <t>25-9-1997</t>
+  </si>
+  <si>
+    <t>mohammadaliku@gmail.com</t>
+  </si>
+  <si>
+    <t>Movement for safe road</t>
+  </si>
+  <si>
+    <t>One the most tranquil campus</t>
+  </si>
+  <si>
+    <t>Gun for mamun</t>
+  </si>
+  <si>
+    <t>Back first year</t>
+  </si>
+  <si>
+    <t>Miagre but satisfied</t>
+  </si>
+  <si>
+    <t>Be roommate of a senior</t>
+  </si>
+  <si>
+    <t>BCS(EDUCATION)</t>
+  </si>
+  <si>
+    <t>"Bad time illative but tattle at time last long"</t>
+  </si>
+  <si>
+    <t>mamun, jahid,royal,chondon</t>
+  </si>
+  <si>
+    <t>most trustworthy</t>
+  </si>
+  <si>
+    <t>2018/08/14 9:53:53 PM GMT+6</t>
+  </si>
+  <si>
+    <t>Arif Sadique</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?authuser=0&amp;usp=forms_web&amp;id=1WyMSFF7shJNZ3GEznFI4jZmBgPYqVp8G</t>
+  </si>
+  <si>
+    <t>Arif</t>
+  </si>
+  <si>
+    <t>17 October, 1995</t>
+  </si>
+  <si>
+    <t>01954163837, arifsadique32@gmail.com</t>
+  </si>
+  <si>
+    <t>proper discipline</t>
+  </si>
+  <si>
+    <t>Sanzida</t>
+  </si>
+  <si>
+    <t>It is a beautiful campus</t>
+  </si>
+  <si>
+    <t>Guns-Emon &amp; Roses- Mamun</t>
+  </si>
+  <si>
+    <t>I want C.G.P.A 4  in 8th semester</t>
+  </si>
+  <si>
+    <t>To be a perfect man</t>
+  </si>
+  <si>
+    <t>The result of 7th semester</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I want to be a s.p</t>
+  </si>
+  <si>
+    <t>Aisob gulon je tora koris ta amr bujai ase na</t>
+  </si>
+  <si>
+    <t>Arif, Mamun, Emon, Pushpen, Saurov, Chandan, Ali</t>
+  </si>
+  <si>
+    <t>After all I am proud for KU</t>
+  </si>
+  <si>
+    <t>2018/08/14 10:10:09 PM GMT+6</t>
+  </si>
+  <si>
+    <t>Pushpen Sarkar</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?authuser=0&amp;usp=forms_web&amp;id=1-qi6RZpRp-imHPRvnLENjcGK6MgKoL2l</t>
+  </si>
+  <si>
+    <t>Pushpen</t>
+  </si>
+  <si>
+    <t>25/10/1996</t>
+  </si>
+  <si>
+    <t>01911271272   email: pushpen111@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Humanity </t>
+  </si>
+  <si>
+    <t>Faria Farjana(mam)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> First class time</t>
+  </si>
+  <si>
+    <t>KU is a big family with a heartiest relationships.</t>
+  </si>
+  <si>
+    <t>Reza</t>
+  </si>
+  <si>
+    <t>First year life</t>
+  </si>
+  <si>
+    <t>Humanity</t>
+  </si>
+  <si>
+    <t>At the time of class test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mathematician </t>
+  </si>
+  <si>
+    <t>One day  you will be at the place: you always wanted to be..</t>
+  </si>
+  <si>
+    <t>Mamun ,Arif,Chandan,Sourov,Reza,Prodipta</t>
+  </si>
+  <si>
+    <t>I am very simple but different.</t>
+  </si>
+  <si>
+    <t>2018/08/14 10:25:54 PM GMT+6</t>
+  </si>
+  <si>
+    <t>G.M.Maruf Siddiquee</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?authuser=0&amp;usp=forms_web&amp;id=1XoXzT9Pn0OhIlrgHzYhozF8YEtOrQUya</t>
+  </si>
+  <si>
+    <t>30-11-1997</t>
+  </si>
+  <si>
+    <t>marufreza93.mr@gmail.com</t>
+  </si>
+  <si>
+    <t>Prodipto</t>
+  </si>
+  <si>
+    <t>Shampa</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Second Home.</t>
+  </si>
+  <si>
+    <t>Gun-Rakibul, Rose- Pushpen</t>
+  </si>
+  <si>
+    <t>Finding opportunity to play game with friends.</t>
+  </si>
+  <si>
+    <t>Social Worker.</t>
+  </si>
+  <si>
+    <t>Cool &amp; Enjoy.</t>
+  </si>
+  <si>
+    <t>Rakibul, Pushpen, Prodipto,Shuvayan, Shanto,Mahir,Saif Ali.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I am always Insatiable.</t>
+  </si>
+  <si>
+    <t>2018/08/15 12:08:53 AM GMT+6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Halimatus Sadia </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?authuser=0&amp;usp=forms_web&amp;id=1TerzQaZjTTEePDKMz6srF_2kP1NuVJM5</t>
+  </si>
+  <si>
+    <t>Muli</t>
+  </si>
+  <si>
+    <t>December, 30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01521518199, sadia.mouly.sm@gmail.com </t>
+  </si>
+  <si>
+    <t>Fajla Rabbi Palash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A place full of good and bad memories </t>
+  </si>
+  <si>
+    <t>Guns for all, roses for none</t>
+  </si>
+  <si>
+    <t>To live the memories again and again and again</t>
+  </si>
+  <si>
+    <t>Bonding-Best friend Anik, Best Brother(junior) Abir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retake and some teachers </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A stronger person </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Of course life is a bitch, if it was a slut it would be easy </t>
+  </si>
+  <si>
+    <t>Anik, Abir, Drishti, Mamun, Nabila Apu, Samen Da</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A person full of mysteries </t>
+  </si>
+  <si>
+    <t>2018/08/15 9:23:45 AM GMT+6</t>
+  </si>
+  <si>
+    <t>Md. Shaiful Islam</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?authuser=0&amp;usp=forms_web&amp;id=11gCZQ7bYbPmlM38i1u6836ysWSHh-5PH</t>
+  </si>
+  <si>
+    <t>Shaif</t>
+  </si>
+  <si>
+    <t>B (+ve)</t>
+  </si>
+  <si>
+    <t>01758696921, shaif.ben@gmail.com</t>
+  </si>
+  <si>
+    <t>Samen Bairaghi(Mental)</t>
+  </si>
+  <si>
+    <t>Nabila(13 batch) &amp; Ruksar(13 batch)</t>
+  </si>
+  <si>
+    <t>Pohela Boishakh 2017</t>
+  </si>
+  <si>
+    <t>prison</t>
+  </si>
+  <si>
+    <t>Guns - Sk Mabin,  Roses - Samen Bairaghi</t>
+  </si>
+  <si>
+    <t>ADDA at Salam juice corner</t>
+  </si>
+  <si>
+    <t>Coach</t>
+  </si>
+  <si>
+    <t>Uzzol Sir</t>
+  </si>
+  <si>
+    <t>Anything that put a smile on my face.</t>
+  </si>
+  <si>
+    <t>Love is a chemical defect found in the losing side.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shuvayon, Mahir, Minhaz, Muhymin, Saif, Shanto, </t>
+  </si>
+  <si>
+    <t>People say i'm hot</t>
+  </si>
+  <si>
+    <t>2018/08/15 11:53:10 AM GMT+6</t>
+  </si>
+  <si>
+    <t>Naima Tuz Johora</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?authuser=0&amp;usp=forms_web&amp;id=1TZy2dsfmuZfjCmxentj7kDJFtK5BCfFq</t>
+  </si>
+  <si>
+    <t>Naima</t>
+  </si>
+  <si>
+    <t>21-10-1996</t>
+  </si>
+  <si>
+    <t>Johoranaima@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Friend circle and cafeteria   </t>
+  </si>
+  <si>
+    <t>Batch day,2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ku is a safe place for studying </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guns for my enemy and roses for my crush  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Missing my home,famaily member, actually my mothe..      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Some friend, some respected teachers and graduate degree     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ct,Assignment,presentation  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bcs cadre/Banker</t>
+  </si>
+  <si>
+    <t>Man is Mortal</t>
+  </si>
+  <si>
+    <t>Antara,Zeba,Anamika,Smarani,Jafor,Nabid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An ordinary girl </t>
+  </si>
+  <si>
+    <t>2018/08/15 1:13:47 PM GMT+6</t>
+  </si>
+  <si>
+    <t>Antara Kirttania</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?authuser=0&amp;usp=forms_web&amp;id=1x0I7y6qg3amNd8b40R31RoZdjBr7qfH6</t>
+  </si>
+  <si>
+    <t>Antara</t>
+  </si>
+  <si>
+    <t>28th august 1997</t>
+  </si>
+  <si>
+    <t>antarakyrtonia@gmail.com</t>
+  </si>
+  <si>
+    <t>Deb</t>
+  </si>
+  <si>
+    <t>1st day at campus.</t>
+  </si>
+  <si>
+    <t>KU is the place where i find my new life..</t>
+  </si>
+  <si>
+    <t>Guns for Jahid,,,roses for Naima.</t>
+  </si>
+  <si>
+    <t>Golden memories.</t>
+  </si>
+  <si>
+    <t>presentation</t>
+  </si>
+  <si>
+    <t>Man for man.</t>
+  </si>
+  <si>
+    <t>Antara,naima,farhana,mamun,prince.</t>
+  </si>
+  <si>
+    <t>2018/08/15 6:07:19 PM GMT+6</t>
+  </si>
+  <si>
+    <t>G.M. Mamun-Al-Imran</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?authuser=0&amp;usp=forms_web&amp;id=1DYZ63Srr28CUHercztS7N3E8-VxbFCTF</t>
+  </si>
+  <si>
+    <t>18/06/1996</t>
+  </si>
+  <si>
+    <t>AB(+)</t>
+  </si>
+  <si>
+    <t>01934997762, mamunalimran2@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> No</t>
+  </si>
+  <si>
+    <t>First rag day(11 batch)</t>
+  </si>
+  <si>
+    <t>KU is a place of learning reality .</t>
+  </si>
+  <si>
+    <t>Shabiha shetu, Mohammad Ali</t>
+  </si>
+  <si>
+    <t>Night time of rag day(12 batch)</t>
+  </si>
+  <si>
+    <t>At the time of Viva</t>
+  </si>
+  <si>
+    <t>Govt. Service Holder</t>
+  </si>
+  <si>
+    <t>Don't judge a book by its cover.</t>
+  </si>
+  <si>
+    <t>Pushpen, Arif,Zahid,Emon,Sourov,Chandan</t>
+  </si>
+  <si>
+    <t>I am very simple and helpful person.</t>
+  </si>
+  <si>
+    <t>2018/08/15 8:50:35 PM GMT+6</t>
+  </si>
+  <si>
+    <t>Kazi Shafayet Hossain</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?authuser=0&amp;usp=forms_web&amp;id=1P1WcIT0LRztYYk-opKPjjzZxg8SvlDER</t>
+  </si>
+  <si>
+    <t>Shanto</t>
+  </si>
+  <si>
+    <t>01521100574, biteoften@gmail.com</t>
+  </si>
+  <si>
+    <t>Fatima Tabassum</t>
+  </si>
+  <si>
+    <t>à¦¬à¦¿à¦¬à¦°à§à¦¤'à§§à§§-Rag'15</t>
+  </si>
+  <si>
+    <t>It always makes me feel comfortable because of its Hassle-free and friendly environment.</t>
+  </si>
+  <si>
+    <t>Guns: Sourov Roy &amp; Roses: Every gentle girl, whoever silently liked me.</t>
+  </si>
+  <si>
+    <t>Khelar math, Tapan, Cafe, Hall &amp; Class room.</t>
+  </si>
+  <si>
+    <t>A bunch of excellent friends, up to the mark juniors &amp; key seniors.</t>
+  </si>
+  <si>
+    <t>A respected person who works for the people.</t>
+  </si>
+  <si>
+    <t>â€œBe the change that you wish to see in the world.â€</t>
+  </si>
+  <si>
+    <t>Saif, Tahmid, Prodipta, Shaif, Samen, Anika</t>
+  </si>
+  <si>
+    <t>A selfless emotional person who dreams to make the world a better place equally for everyone.</t>
+  </si>
+  <si>
+    <t>2018/08/15 11:50:44 PM GMT+6</t>
+  </si>
+  <si>
+    <t>Zarin Tasnim Drishti</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?authuser=0&amp;usp=forms_web&amp;id=1QbbOmpQP5_VaXKJNKuOetoos_6PnTN-7</t>
+  </si>
+  <si>
+    <t>Dishu</t>
+  </si>
+  <si>
+    <t>29th october</t>
+  </si>
+  <si>
+    <t>Phone:01956449723. Email:zarintasnim2129@gmail.com</t>
+  </si>
+  <si>
+    <t>Sadia Mouly</t>
+  </si>
+  <si>
+    <t>Md. Muhymenul Islam</t>
+  </si>
+  <si>
+    <t>Rag"11</t>
+  </si>
+  <si>
+    <t>My Campus</t>
+  </si>
+  <si>
+    <t>Guns for Mhabiswas.Roses for Muhymen.</t>
+  </si>
+  <si>
+    <t>Seven days tour</t>
+  </si>
+  <si>
+    <t>Some unforgettable memories</t>
+  </si>
+  <si>
+    <t>An established ideal woman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Everyday may not be a good day but there is good in every day. </t>
+  </si>
+  <si>
+    <t>Mouly,Shetu,Anik,Shanto,Jobayer,Reza</t>
+  </si>
+  <si>
+    <t>A simple girl in this colourful world.</t>
+  </si>
+  <si>
+    <t>2018/08/16 11:05:31 PM GMT+6</t>
+  </si>
+  <si>
+    <t>Partha Sarkar</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?authuser=0&amp;usp=forms_web&amp;id=1qYlTOTeRwEJhivo0ujJgHwMhiBa6tTJD</t>
+  </si>
+  <si>
+    <t>Partha</t>
+  </si>
+  <si>
+    <t>25-10-1996</t>
+  </si>
+  <si>
+    <t>01763239852,parthasarkar@gmail.com</t>
+  </si>
+  <si>
+    <t>The first tour of Ku life with discipline friends at Rupsha Bridge,Rag day,pahela baishakh,Dipaboli,cultural programs,7 days tour,games</t>
+  </si>
+  <si>
+    <t>Personal</t>
+  </si>
+  <si>
+    <t>It's obviously that day when we first set a plan of Ku life with discipline friends for tour somewhere and that place was Rupsha Bridge and the enjoying moments with them</t>
+  </si>
+  <si>
+    <t>Khulna university is the first public university to have acted as a powerful performer in the economic and cultural life of the southwestern region of Bangladesh and this university is free from all political unrest until now and also here prevails a congenial atmosphere for carrying out research activities by the students and the faculty</t>
+  </si>
+  <si>
+    <t>.....................,,,,.....................</t>
+  </si>
+  <si>
+    <t>want to get back those days of Ku life when I first step foot on Ku campus and enjoyment with friends on different topics</t>
+  </si>
+  <si>
+    <t>Some wants may have fulfillment,some wants may not,it's the natural fact.But what I got from Ku is more than I want.Some dreams may not become true.Acquiring knowledge,thinkings and taking a lessons from ku,I want to do something special in future</t>
+  </si>
+  <si>
+    <t>Some dreams that I couldn't fulfill,some desire that I couldn't acquire,some feelings that I couldn't express</t>
+  </si>
+  <si>
+    <t>The past is always tense,the future perfect.I want to see me at the position that I fulfill my all dreams that I cherished in myself and becoming hardworking honest person that I learned from my parents.</t>
+  </si>
+  <si>
+    <t>"It's not what you look at that matters,it's what you see."</t>
+  </si>
+  <si>
+    <t>Tahmid,Royal,Sottojit,Alokesh,Shakib,.................</t>
+  </si>
+  <si>
+    <t>I'm imperfect but I'm perfectly me,I keep going because I believe in myself,I choose to focus on what I can control,I choose to see the good in the people I interact with today,I refuse to give up because I haven't tried all possible ways,I keep thinking the answer is right before me,even if I do not see it right now</t>
+  </si>
+  <si>
+    <t>2018/08/16 11:16:21 PM GMT+6</t>
+  </si>
+  <si>
+    <t>Jobayer Ahmed.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?authuser=0&amp;usp=forms_web&amp;id=1KTXYNJQ-I0STfPOKSoxvPU1W6m76DbjK</t>
+  </si>
+  <si>
+    <t>Boro Jobayer.</t>
+  </si>
+  <si>
+    <t>23 December, 1996</t>
+  </si>
+  <si>
+    <t>01623772221, jobayerahmed629@gmail.com</t>
+  </si>
+  <si>
+    <t>KUian.</t>
+  </si>
+  <si>
+    <t>Rag day 11 batch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KU is "love" and I am too much grateful to you KU.  </t>
+  </si>
+  <si>
+    <t>Guns for none, love u all.</t>
+  </si>
+  <si>
+    <t>Complicated.</t>
+  </si>
+  <si>
+    <t>Lots of knowledge and experience about different phase of life.</t>
+  </si>
+  <si>
+    <t>Itâ€™s Ineffable.</t>
+  </si>
+  <si>
+    <t>Time will tell.</t>
+  </si>
+  <si>
+    <t>Nothing will happen to you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 is not sufficien.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Responsible to responsibility, strong self-esteem and self confidence, uncompromising to injustice which causes loved by few and hated by lot.  </t>
+  </si>
+  <si>
+    <t>2018/08/17 4:19:36 AM GMT+6</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?authuser=0&amp;usp=forms_web&amp;id=1KV3FwHVKDuTHYyW3L02ZMaqIirIke5ww</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muha, Muhymin, Muhaa haa haa, </t>
+  </si>
+  <si>
+    <t>24.03.1995</t>
+  </si>
+  <si>
+    <t>Phone: 01834109882, Email: ku151228@gmail.com, Facebook: www.facebook.com/muhymenul.islam</t>
+  </si>
+  <si>
+    <t>Samen Bairaghi</t>
+  </si>
+  <si>
+    <t>Tania Sultana Jui (Fine Arts '15); Nusrat Jahan Barsha(Archi '13)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A tour to Rupsha Bridge, 13 May 2015 </t>
+  </si>
+  <si>
+    <t>KU is one of the best teachers of mine.</t>
+  </si>
+  <si>
+    <t>Guns for Prof. Dr. Munnujahan Ara &amp; Roses for Tania Sultana Jui</t>
+  </si>
+  <si>
+    <t>First get together of 15' batch, Pitha Utshob, Pohela Baishakh, Red Light and so on.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I've met some awesome people here and experienced a bunch of great things which made me more humble, more ambitious as well as more patient. I've spent some quality time with some of my friends, seniors and juniors. </t>
+  </si>
+  <si>
+    <t>Black Night of Rag Day(12 Batch)</t>
+  </si>
+  <si>
+    <t>Successful Entrepreneur</t>
+  </si>
+  <si>
+    <t>à¦–à§à¦¬à¦‡ à¦¸à¦¾à¦§à¦¾à¦°à¦£ à¦à¦•à¦œà¦¨ à¦•à¦¿à¦¨à§à¦¤ à¦®à¦¾à¦à§‡ à¦®à¦¾à¦à§‡ à¦•à¦°à¦¿ à¦…à¦¸à¦¾à¦§à¦¾à¦°à¦£ à¦•à¦¿à¦›à§à¥¤</t>
+  </si>
+  <si>
+    <t>Sumon Pervez , Toufiq Tomal, Abir Hasan, Kazi Nusrat. Former: Mahir Faisal, Minhaz Islam</t>
+  </si>
+  <si>
+    <t>Iâ€™m always looking for the simplest way to understand anything and everything.</t>
   </si>
 </sst>
 </file>
@@ -29294,6 +30684,1167 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6E03C7F-97F6-4BB9-B245-19AA982FE7B1}">
+  <dimension ref="A1:R20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="6" max="6" width="32.28515625" customWidth="1"/>
+    <col min="7" max="7" width="28.28515625" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" customWidth="1"/>
+    <col min="9" max="9" width="31.140625" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" customWidth="1"/>
+    <col min="11" max="11" width="31.140625" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" customWidth="1"/>
+    <col min="13" max="13" width="18" customWidth="1"/>
+    <col min="14" max="14" width="15.5703125" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" customWidth="1"/>
+    <col min="16" max="16" width="16.42578125" customWidth="1"/>
+    <col min="17" max="17" width="24.5703125" customWidth="1"/>
+    <col min="18" max="18" width="18.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>3439</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>618</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>622</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>1602</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>621</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>2927</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>623</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>624</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>625</v>
+      </c>
+      <c r="J1" s="26" t="s">
+        <v>630</v>
+      </c>
+      <c r="K1" s="26" t="s">
+        <v>626</v>
+      </c>
+      <c r="L1" s="26" t="s">
+        <v>627</v>
+      </c>
+      <c r="M1" s="26" t="s">
+        <v>628</v>
+      </c>
+      <c r="N1" s="26" t="s">
+        <v>629</v>
+      </c>
+      <c r="O1" s="26" t="s">
+        <v>631</v>
+      </c>
+      <c r="P1" s="26" t="s">
+        <v>632</v>
+      </c>
+      <c r="Q1" s="26" t="s">
+        <v>633</v>
+      </c>
+      <c r="R1" s="26" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
+        <v>3440</v>
+      </c>
+      <c r="B2" s="26">
+        <v>151353</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>337</v>
+      </c>
+      <c r="D2" s="27" t="d">
+        <v>2018-05-16</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="26">
+        <v>1988034275</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>3441</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>3442</v>
+      </c>
+      <c r="I2" s="26" t="s">
+        <v>3443</v>
+      </c>
+      <c r="J2" s="26" t="s">
+        <v>3444</v>
+      </c>
+      <c r="K2" s="26" t="s">
+        <v>3445</v>
+      </c>
+      <c r="L2" s="26" t="s">
+        <v>3446</v>
+      </c>
+      <c r="M2" s="26" t="s">
+        <v>3447</v>
+      </c>
+      <c r="N2" s="26" t="s">
+        <v>3448</v>
+      </c>
+      <c r="O2" s="26" t="s">
+        <v>3449</v>
+      </c>
+      <c r="P2" s="26" t="s">
+        <v>3450</v>
+      </c>
+      <c r="Q2" s="26" t="s">
+        <v>3451</v>
+      </c>
+      <c r="R2" s="26" t="s">
+        <v>3452</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
+        <v>3453</v>
+      </c>
+      <c r="B3" s="26">
+        <v>151346</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>3454</v>
+      </c>
+      <c r="D3" s="27" t="d">
+        <v>1996-01-03</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>3455</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>3456</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>3457</v>
+      </c>
+      <c r="I3" s="26" t="s">
+        <v>3458</v>
+      </c>
+      <c r="J3" s="26" t="s">
+        <v>3459</v>
+      </c>
+      <c r="K3" s="26" t="s">
+        <v>3460</v>
+      </c>
+      <c r="L3" s="26" t="s">
+        <v>3461</v>
+      </c>
+      <c r="M3" s="26" t="s">
+        <v>3462</v>
+      </c>
+      <c r="N3" s="26" t="s">
+        <v>3463</v>
+      </c>
+      <c r="O3" s="26" t="s">
+        <v>3464</v>
+      </c>
+      <c r="P3" s="26" t="s">
+        <v>3465</v>
+      </c>
+      <c r="Q3" s="26" t="s">
+        <v>3466</v>
+      </c>
+      <c r="R3" s="26" t="s">
+        <v>3467</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>3468</v>
+      </c>
+      <c r="B4" s="26">
+        <v>141327</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>3469</v>
+      </c>
+      <c r="D4" s="27" t="d">
+        <v>1995-10-18</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>3470</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="26" t="s">
+        <v>3471</v>
+      </c>
+      <c r="I4" s="26" t="s">
+        <v>3472</v>
+      </c>
+      <c r="J4" s="26" t="s">
+        <v>3473</v>
+      </c>
+      <c r="K4" s="26" t="s">
+        <v>3474</v>
+      </c>
+      <c r="L4" s="26" t="s">
+        <v>3475</v>
+      </c>
+      <c r="M4" s="26" t="s">
+        <v>3476</v>
+      </c>
+      <c r="N4" s="26" t="s">
+        <v>3477</v>
+      </c>
+      <c r="O4" s="26" t="s">
+        <v>2230</v>
+      </c>
+      <c r="P4" s="26" t="s">
+        <v>3478</v>
+      </c>
+      <c r="Q4" s="26" t="s">
+        <v>3479</v>
+      </c>
+      <c r="R4" s="26" t="s">
+        <v>3480</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>3481</v>
+      </c>
+      <c r="B5" s="26">
+        <v>151373</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>312</v>
+      </c>
+      <c r="D5" s="27" t="d">
+        <v>1995-11-20</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="31" t="s">
+        <v>3482</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>3483</v>
+      </c>
+      <c r="H5" s="26" t="s">
+        <v>3484</v>
+      </c>
+      <c r="I5" s="26" t="s">
+        <v>3485</v>
+      </c>
+      <c r="J5" s="26" t="s">
+        <v>3486</v>
+      </c>
+      <c r="K5" s="28" t="s">
+        <v>3487</v>
+      </c>
+      <c r="L5" s="26" t="s">
+        <v>3488</v>
+      </c>
+      <c r="M5" s="26" t="s">
+        <v>3489</v>
+      </c>
+      <c r="N5" s="26" t="s">
+        <v>3490</v>
+      </c>
+      <c r="O5" s="26" t="s">
+        <v>3491</v>
+      </c>
+      <c r="P5" s="26" t="s">
+        <v>3492</v>
+      </c>
+      <c r="Q5" s="26" t="s">
+        <v>3493</v>
+      </c>
+      <c r="R5" s="26" t="s">
+        <v>3494</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
+        <v>3495</v>
+      </c>
+      <c r="B6" s="26">
+        <v>151363</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>3496</v>
+      </c>
+      <c r="D6" s="27" t="d">
+        <v>1996-12-26</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>3497</v>
+      </c>
+      <c r="G6" s="26" t="s">
+        <v>3498</v>
+      </c>
+      <c r="H6" s="26" t="s">
+        <v>3499</v>
+      </c>
+      <c r="I6" s="26" t="s">
+        <v>3500</v>
+      </c>
+      <c r="J6" s="26" t="s">
+        <v>3501</v>
+      </c>
+      <c r="K6" s="26" t="s">
+        <v>3502</v>
+      </c>
+      <c r="L6" s="26" t="s">
+        <v>3503</v>
+      </c>
+      <c r="M6" s="26" t="s">
+        <v>3504</v>
+      </c>
+      <c r="N6" s="26" t="s">
+        <v>3505</v>
+      </c>
+      <c r="O6" s="26" t="s">
+        <v>3506</v>
+      </c>
+      <c r="P6" s="26" t="s">
+        <v>3507</v>
+      </c>
+      <c r="Q6" s="26" t="s">
+        <v>3508</v>
+      </c>
+      <c r="R6" s="26" t="s">
+        <v>3509</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="26" t="s">
+        <v>3510</v>
+      </c>
+      <c r="B7" s="26">
+        <v>151374</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>3511</v>
+      </c>
+      <c r="D7" s="27" t="d">
+        <v>1996-12-30</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="26">
+        <v>8801717527393</v>
+      </c>
+      <c r="G7" s="26" t="s">
+        <v>3512</v>
+      </c>
+      <c r="H7" s="26" t="s">
+        <v>3513</v>
+      </c>
+      <c r="I7" s="27" t="d">
+        <v>2015-10-10</v>
+      </c>
+      <c r="J7" s="26" t="s">
+        <v>3514</v>
+      </c>
+      <c r="K7" s="26" t="s">
+        <v>3515</v>
+      </c>
+      <c r="L7" s="26" t="s">
+        <v>3516</v>
+      </c>
+      <c r="M7" s="26" t="s">
+        <v>3517</v>
+      </c>
+      <c r="N7" s="26" t="s">
+        <v>3518</v>
+      </c>
+      <c r="O7" s="26" t="s">
+        <v>3519</v>
+      </c>
+      <c r="P7" s="26" t="s">
+        <v>2759</v>
+      </c>
+      <c r="Q7" s="26" t="s">
+        <v>3520</v>
+      </c>
+      <c r="R7" s="26" t="s">
+        <v>3521</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
+        <v>3522</v>
+      </c>
+      <c r="B8" s="26">
+        <v>151355</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>3523</v>
+      </c>
+      <c r="D8" s="27" t="d">
+        <v>1996-09-22</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>2827</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>3524</v>
+      </c>
+      <c r="G8" s="26" t="s">
+        <v>3525</v>
+      </c>
+      <c r="H8" s="26" t="s">
+        <v>3526</v>
+      </c>
+      <c r="I8" s="26" t="s">
+        <v>3527</v>
+      </c>
+      <c r="J8" s="26" t="s">
+        <v>3528</v>
+      </c>
+      <c r="K8" s="26" t="s">
+        <v>3529</v>
+      </c>
+      <c r="L8" s="26" t="s">
+        <v>3530</v>
+      </c>
+      <c r="M8" s="26" t="s">
+        <v>3531</v>
+      </c>
+      <c r="N8" s="26" t="s">
+        <v>3532</v>
+      </c>
+      <c r="O8" s="26" t="s">
+        <v>3533</v>
+      </c>
+      <c r="P8" s="26" t="s">
+        <v>3534</v>
+      </c>
+      <c r="Q8" s="26" t="s">
+        <v>3535</v>
+      </c>
+      <c r="R8" s="26" t="s">
+        <v>3536</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="26" t="s">
+        <v>3537</v>
+      </c>
+      <c r="B9" s="26">
+        <v>151362</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>2207</v>
+      </c>
+      <c r="D9" s="27" t="d">
+        <v>1997-03-06</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>3538</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>3539</v>
+      </c>
+      <c r="H9" s="26" t="s">
+        <v>3540</v>
+      </c>
+      <c r="I9" s="26" t="s">
+        <v>2511</v>
+      </c>
+      <c r="J9" s="26" t="s">
+        <v>3473</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>3541</v>
+      </c>
+      <c r="L9" s="26" t="s">
+        <v>3542</v>
+      </c>
+      <c r="M9" s="26" t="s">
+        <v>3543</v>
+      </c>
+      <c r="N9" s="26" t="s">
+        <v>3544</v>
+      </c>
+      <c r="O9" s="26" t="s">
+        <v>3545</v>
+      </c>
+      <c r="P9" s="26" t="s">
+        <v>3546</v>
+      </c>
+      <c r="Q9" s="26" t="s">
+        <v>3547</v>
+      </c>
+      <c r="R9" s="26" t="s">
+        <v>3548</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="26" t="s">
+        <v>3549</v>
+      </c>
+      <c r="B10" s="26">
+        <v>151371</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>3550</v>
+      </c>
+      <c r="D10" s="27" t="d">
+        <v>1997-09-13</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="26">
+        <v>1936029704</v>
+      </c>
+      <c r="G10" s="26" t="s">
+        <v>3551</v>
+      </c>
+      <c r="H10" s="26" t="s">
+        <v>3552</v>
+      </c>
+      <c r="I10" s="26" t="s">
+        <v>3553</v>
+      </c>
+      <c r="J10" s="26" t="s">
+        <v>3554</v>
+      </c>
+      <c r="K10" s="26" t="s">
+        <v>3555</v>
+      </c>
+      <c r="L10" s="26" t="s">
+        <v>1772</v>
+      </c>
+      <c r="M10" s="26" t="s">
+        <v>3556</v>
+      </c>
+      <c r="N10" s="26" t="s">
+        <v>1772</v>
+      </c>
+      <c r="O10" s="26" t="s">
+        <v>3557</v>
+      </c>
+      <c r="P10" s="26" t="s">
+        <v>3558</v>
+      </c>
+      <c r="Q10" s="26" t="s">
+        <v>3559</v>
+      </c>
+      <c r="R10" s="26" t="s">
+        <v>3560</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="26" t="s">
+        <v>3561</v>
+      </c>
+      <c r="B11" s="26">
+        <v>151344</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>3562</v>
+      </c>
+      <c r="D11" s="27" t="d">
+        <v>1995-01-08</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>242</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>3563</v>
+      </c>
+      <c r="G11" s="26" t="s">
+        <v>3564</v>
+      </c>
+      <c r="H11" s="26" t="s">
+        <v>3564</v>
+      </c>
+      <c r="I11" s="26" t="s">
+        <v>3565</v>
+      </c>
+      <c r="J11" s="26" t="s">
+        <v>3566</v>
+      </c>
+      <c r="K11" s="28" t="s">
+        <v>3567</v>
+      </c>
+      <c r="L11" s="26" t="s">
+        <v>3568</v>
+      </c>
+      <c r="M11" s="26" t="s">
+        <v>3569</v>
+      </c>
+      <c r="N11" s="26" t="s">
+        <v>3570</v>
+      </c>
+      <c r="O11" s="26" t="s">
+        <v>3571</v>
+      </c>
+      <c r="P11" s="26" t="s">
+        <v>3572</v>
+      </c>
+      <c r="Q11" s="26" t="s">
+        <v>3573</v>
+      </c>
+      <c r="R11" s="26" t="s">
+        <v>3574</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="26" t="s">
+        <v>3575</v>
+      </c>
+      <c r="B12" s="26">
+        <v>141314</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>3576</v>
+      </c>
+      <c r="D12" s="27" t="d">
+        <v>1995-11-20</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="28" t="s">
+        <v>3577</v>
+      </c>
+      <c r="G12" s="26" t="s">
+        <v>3405</v>
+      </c>
+      <c r="H12" s="26" t="s">
+        <v>1662</v>
+      </c>
+      <c r="I12" s="26" t="s">
+        <v>3578</v>
+      </c>
+      <c r="J12" s="26" t="s">
+        <v>2541</v>
+      </c>
+      <c r="K12" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="L12" s="26">
+        <v>4510</v>
+      </c>
+      <c r="M12" s="26" t="s">
+        <v>3579</v>
+      </c>
+      <c r="N12" s="26" t="s">
+        <v>1718</v>
+      </c>
+      <c r="O12" s="26" t="s">
+        <v>901</v>
+      </c>
+      <c r="P12" s="26" t="s">
+        <v>3580</v>
+      </c>
+      <c r="Q12" s="26" t="s">
+        <v>3581</v>
+      </c>
+      <c r="R12" s="26" t="s">
+        <v>3582</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="26" t="s">
+        <v>3583</v>
+      </c>
+      <c r="B13" s="26">
+        <v>141316</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>3584</v>
+      </c>
+      <c r="D13" s="27" t="d">
+        <v>1996-03-25</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="26">
+        <v>1795355373</v>
+      </c>
+      <c r="G13" s="26" t="s">
+        <v>3585</v>
+      </c>
+      <c r="H13" s="26" t="s">
+        <v>3586</v>
+      </c>
+      <c r="I13" s="26" t="s">
+        <v>3587</v>
+      </c>
+      <c r="J13" s="26" t="s">
+        <v>3588</v>
+      </c>
+      <c r="K13" s="26" t="s">
+        <v>3589</v>
+      </c>
+      <c r="L13" s="26" t="s">
+        <v>3590</v>
+      </c>
+      <c r="M13" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="N13" s="26" t="s">
+        <v>3591</v>
+      </c>
+      <c r="O13" s="26" t="s">
+        <v>669</v>
+      </c>
+      <c r="P13" s="26" t="s">
+        <v>3592</v>
+      </c>
+      <c r="Q13" s="26" t="s">
+        <v>3593</v>
+      </c>
+      <c r="R13" s="26" t="s">
+        <v>3594</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="26" t="s">
+        <v>3595</v>
+      </c>
+      <c r="B14" s="26">
+        <v>141340</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>3596</v>
+      </c>
+      <c r="D14" s="27" t="d">
+        <v>1995-03-27</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="26">
+        <v>1935201253</v>
+      </c>
+      <c r="G14" s="26" t="s">
+        <v>3597</v>
+      </c>
+      <c r="H14" s="26" t="s">
+        <v>3598</v>
+      </c>
+      <c r="I14" s="26" t="s">
+        <v>3599</v>
+      </c>
+      <c r="J14" s="26" t="s">
+        <v>3600</v>
+      </c>
+      <c r="K14" s="26" t="s">
+        <v>3601</v>
+      </c>
+      <c r="L14" s="26" t="s">
+        <v>3602</v>
+      </c>
+      <c r="M14" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="N14" s="26" t="s">
+        <v>3603</v>
+      </c>
+      <c r="O14" s="26" t="s">
+        <v>3604</v>
+      </c>
+      <c r="P14" s="26" t="s">
+        <v>3605</v>
+      </c>
+      <c r="Q14" s="26" t="s">
+        <v>3606</v>
+      </c>
+      <c r="R14" s="26" t="s">
+        <v>3607</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="26" t="s">
+        <v>3608</v>
+      </c>
+      <c r="B15" s="26">
+        <v>141318</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>3609</v>
+      </c>
+      <c r="D15" s="27" t="d">
+        <v>1996-09-20</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>3610</v>
+      </c>
+      <c r="G15" s="26" t="s">
+        <v>3611</v>
+      </c>
+      <c r="H15" s="26" t="s">
+        <v>3612</v>
+      </c>
+      <c r="I15" s="26" t="s">
+        <v>3613</v>
+      </c>
+      <c r="J15" s="26" t="s">
+        <v>3614</v>
+      </c>
+      <c r="K15" s="26" t="s">
+        <v>3615</v>
+      </c>
+      <c r="L15" s="26" t="s">
+        <v>3616</v>
+      </c>
+      <c r="M15" s="26" t="s">
+        <v>1419</v>
+      </c>
+      <c r="N15" s="26" t="s">
+        <v>3617</v>
+      </c>
+      <c r="O15" s="26" t="s">
+        <v>3618</v>
+      </c>
+      <c r="P15" s="26" t="s">
+        <v>3619</v>
+      </c>
+      <c r="Q15" s="26" t="s">
+        <v>3620</v>
+      </c>
+      <c r="R15" s="26" t="s">
+        <v>3621</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+      <c r="A16" s="26" t="s">
+        <v>3622</v>
+      </c>
+      <c r="B16" s="26">
+        <v>151381</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>3623</v>
+      </c>
+      <c r="D16" s="27" t="d">
+        <v>1997-10-10</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" s="32" t="s">
+        <v>3624</v>
+      </c>
+      <c r="G16" s="26" t="s">
+        <v>3625</v>
+      </c>
+      <c r="H16" s="26" t="s">
+        <v>3626</v>
+      </c>
+      <c r="I16" s="26" t="s">
+        <v>3627</v>
+      </c>
+      <c r="J16" s="26" t="s">
+        <v>3628</v>
+      </c>
+      <c r="K16" s="28" t="s">
+        <v>3629</v>
+      </c>
+      <c r="L16" s="26" t="s">
+        <v>3630</v>
+      </c>
+      <c r="M16" s="26" t="s">
+        <v>3631</v>
+      </c>
+      <c r="N16" s="26" t="s">
+        <v>3632</v>
+      </c>
+      <c r="O16" s="26" t="s">
+        <v>3633</v>
+      </c>
+      <c r="P16" s="28" t="s">
+        <v>3634</v>
+      </c>
+      <c r="Q16" s="26" t="s">
+        <v>3635</v>
+      </c>
+      <c r="R16" s="26" t="s">
+        <v>3636</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="26" t="s">
+        <v>3637</v>
+      </c>
+      <c r="B17" s="26">
+        <v>151369</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>3584</v>
+      </c>
+      <c r="D17" s="27" t="d">
+        <v>1995-07-24</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>3638</v>
+      </c>
+      <c r="G17" s="26" t="s">
+        <v>3639</v>
+      </c>
+      <c r="H17" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" s="26" t="s">
+        <v>3640</v>
+      </c>
+      <c r="J17" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="K17" s="26" t="s">
+        <v>3641</v>
+      </c>
+      <c r="L17" s="26" t="s">
+        <v>3642</v>
+      </c>
+      <c r="M17" s="26" t="s">
+        <v>3643</v>
+      </c>
+      <c r="N17" s="26" t="s">
+        <v>3603</v>
+      </c>
+      <c r="O17" s="26" t="s">
+        <v>3644</v>
+      </c>
+      <c r="P17" s="26" t="s">
+        <v>3645</v>
+      </c>
+      <c r="Q17" s="26" t="s">
+        <v>3646</v>
+      </c>
+      <c r="R17" s="26" t="s">
+        <v>3647</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="26" t="s">
+        <v>3648</v>
+      </c>
+      <c r="B18" s="26">
+        <v>151380</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>3649</v>
+      </c>
+      <c r="D18" s="27" t="d">
+        <v>2018-07-18</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="26">
+        <v>1784491102</v>
+      </c>
+      <c r="G18" s="26" t="s">
+        <v>3650</v>
+      </c>
+      <c r="H18" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="I18" s="26" t="s">
+        <v>3651</v>
+      </c>
+      <c r="J18" s="26" t="s">
+        <v>3652</v>
+      </c>
+      <c r="K18" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="L18" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="M18" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="N18" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="O18" s="26" t="s">
+        <v>3653</v>
+      </c>
+      <c r="P18" s="26" t="s">
+        <v>922</v>
+      </c>
+      <c r="Q18" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="R18" s="26" t="s">
+        <v>3654</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="26" t="s">
+        <v>3655</v>
+      </c>
+      <c r="B19" s="26">
+        <v>151357</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>3656</v>
+      </c>
+      <c r="D19" s="27" t="d">
+        <v>1995-05-31</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>3657</v>
+      </c>
+      <c r="G19" s="26" t="s">
+        <v>3658</v>
+      </c>
+      <c r="H19" s="26" t="s">
+        <v>3659</v>
+      </c>
+      <c r="I19" s="26" t="s">
+        <v>3660</v>
+      </c>
+      <c r="J19" s="26" t="s">
+        <v>3661</v>
+      </c>
+      <c r="K19" s="26" t="s">
+        <v>3662</v>
+      </c>
+      <c r="L19" s="26" t="s">
+        <v>3663</v>
+      </c>
+      <c r="M19" s="26" t="s">
+        <v>3664</v>
+      </c>
+      <c r="N19" s="26" t="s">
+        <v>3663</v>
+      </c>
+      <c r="O19" s="26" t="s">
+        <v>3658</v>
+      </c>
+      <c r="P19" s="26" t="s">
+        <v>3659</v>
+      </c>
+      <c r="Q19" s="26" t="s">
+        <v>3665</v>
+      </c>
+      <c r="R19" s="26" t="s">
+        <v>3666</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="26" t="s">
+        <v>3667</v>
+      </c>
+      <c r="B20" s="26">
+        <v>151364</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>3668</v>
+      </c>
+      <c r="D20" s="27" t="d">
+        <v>1996-08-16</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" s="26">
+        <v>1711360977</v>
+      </c>
+      <c r="G20" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="H20" s="26" t="s">
+        <v>294</v>
+      </c>
+      <c r="I20" s="26" t="s">
+        <v>3669</v>
+      </c>
+      <c r="J20" s="26" t="s">
+        <v>3670</v>
+      </c>
+      <c r="K20" s="26" t="s">
+        <v>3671</v>
+      </c>
+      <c r="L20" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="M20" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="N20" s="26" t="s">
+        <v>3463</v>
+      </c>
+      <c r="O20" s="26" t="s">
+        <v>3672</v>
+      </c>
+      <c r="P20" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q20" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="R20" s="26" t="s">
+        <v>3673</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F5" r:id="rId1" xr:uid="{D228BAA1-49D5-48D0-81EA-96E754415457}"/>
+    <hyperlink ref="F16" r:id="rId2" xr:uid="{38062A08-99E6-4735-91E4-DC1126549156}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE7941DC-3B92-4927-AB8B-B791B24B5EB3}">
   <dimension ref="A1:U51"/>
   <sheetViews>
@@ -32675,7 +35226,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71081711-50D2-4082-BF61-266D123719AD}">
   <dimension ref="A1:U32"/>
   <sheetViews>
@@ -34635,7 +37186,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7656F297-BBD5-4891-8AD0-56D88983EEAE}">
   <dimension ref="A1:S38"/>
   <sheetViews>
@@ -36912,7 +39463,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAD2024B-BE1B-4AB8-96AD-C4C705FA3854}">
   <dimension ref="A1:T51"/>
   <sheetViews>
@@ -38320,11 +40871,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C4AB611-F67C-40A8-9D0A-2B4D9C73B292}">
   <dimension ref="A1:T32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:T32"/>
     </sheetView>
   </sheetViews>
@@ -40353,7 +42904,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E55E7762-3471-4A50-994C-AF3C25570A3A}">
   <dimension ref="A1:T24"/>
   <sheetViews>
@@ -41869,7 +44420,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DA14D6F-9059-439D-8E97-6A52AFDB3575}">
   <dimension ref="A1:R63"/>
   <sheetViews>
@@ -44153,7 +46704,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDF97123-3443-412D-A3EF-77DEAC1A2159}">
   <dimension ref="A1:S16"/>
   <sheetViews>
@@ -45123,7 +47674,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A92400CB-A3D4-4ED5-8114-54A4313A8CE0}">
   <dimension ref="A1:R41"/>
   <sheetViews>
@@ -61147,1162 +63698,1876 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6E03C7F-97F6-4BB9-B245-19AA982FE7B1}">
-  <dimension ref="A1:R20"/>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E4D9F7C-A98E-46F0-9CC6-B2900602B66E}">
+  <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:T30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1"/>
-    <col min="6" max="6" width="32.28515625" customWidth="1"/>
-    <col min="7" max="7" width="28.28515625" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" customWidth="1"/>
-    <col min="9" max="9" width="31.140625" customWidth="1"/>
-    <col min="10" max="10" width="18.28515625" customWidth="1"/>
-    <col min="11" max="11" width="31.140625" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" customWidth="1"/>
-    <col min="13" max="13" width="18" customWidth="1"/>
-    <col min="14" max="14" width="15.5703125" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" customWidth="1"/>
-    <col min="16" max="16" width="16.42578125" customWidth="1"/>
-    <col min="17" max="17" width="24.5703125" customWidth="1"/>
-    <col min="18" max="18" width="18.7109375" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
-        <v>3439</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>618</v>
-      </c>
-      <c r="C1" s="26" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="61" t="s">
+        <v>4222</v>
+      </c>
+      <c r="B1" s="61" t="s">
+        <v>617</v>
+      </c>
+      <c r="C1" s="61" t="s">
+        <v>7977</v>
+      </c>
+      <c r="D1" s="61" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E1" s="61" t="s">
         <v>622</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="F1" s="61" t="s">
         <v>1602</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="G1" s="61" t="s">
         <v>621</v>
       </c>
-      <c r="F1" s="26" t="s">
-        <v>2927</v>
-      </c>
-      <c r="G1" s="26" t="s">
+      <c r="H1" s="61" t="s">
+        <v>7978</v>
+      </c>
+      <c r="I1" s="61" t="s">
         <v>623</v>
       </c>
-      <c r="H1" s="26" t="s">
-        <v>624</v>
-      </c>
-      <c r="I1" s="26" t="s">
-        <v>625</v>
-      </c>
-      <c r="J1" s="26" t="s">
+      <c r="J1" s="61" t="s">
+        <v>1605</v>
+      </c>
+      <c r="K1" s="61" t="s">
+        <v>7979</v>
+      </c>
+      <c r="L1" s="61" t="s">
         <v>630</v>
       </c>
-      <c r="K1" s="26" t="s">
-        <v>626</v>
-      </c>
-      <c r="L1" s="26" t="s">
+      <c r="M1" s="61" t="s">
+        <v>7980</v>
+      </c>
+      <c r="N1" s="61" t="s">
         <v>627</v>
       </c>
-      <c r="M1" s="26" t="s">
+      <c r="O1" s="61" t="s">
         <v>628</v>
       </c>
-      <c r="N1" s="26" t="s">
+      <c r="P1" s="61" t="s">
         <v>629</v>
       </c>
-      <c r="O1" s="26" t="s">
+      <c r="Q1" s="61" t="s">
         <v>631</v>
       </c>
-      <c r="P1" s="26" t="s">
+      <c r="R1" s="61" t="s">
         <v>632</v>
       </c>
-      <c r="Q1" s="26" t="s">
+      <c r="S1" s="61" t="s">
         <v>633</v>
       </c>
-      <c r="R1" s="26" t="s">
+      <c r="T1" s="61" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
-        <v>3440</v>
-      </c>
-      <c r="B2" s="26">
-        <v>151353</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>337</v>
-      </c>
-      <c r="D2" s="27" t="d">
-        <v>2018-05-16</v>
-      </c>
-      <c r="E2" s="26" t="s">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="61" t="s">
+        <v>7981</v>
+      </c>
+      <c r="B2" s="61" t="s">
+        <v>7982</v>
+      </c>
+      <c r="C2" s="61">
+        <v>151224</v>
+      </c>
+      <c r="D2" s="61" t="s">
+        <v>7983</v>
+      </c>
+      <c r="E2" s="61" t="s">
+        <v>7984</v>
+      </c>
+      <c r="F2" s="61" t="s">
+        <v>5751</v>
+      </c>
+      <c r="G2" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="61" t="s">
+        <v>7985</v>
+      </c>
+      <c r="I2" s="61" t="s">
+        <v>7986</v>
+      </c>
+      <c r="J2" s="61" t="s">
+        <v>2701</v>
+      </c>
+      <c r="K2" s="61" t="s">
+        <v>7987</v>
+      </c>
+      <c r="L2" s="61" t="s">
+        <v>7988</v>
+      </c>
+      <c r="M2" s="61" t="s">
+        <v>7989</v>
+      </c>
+      <c r="N2" s="61" t="s">
+        <v>7990</v>
+      </c>
+      <c r="O2" s="61" t="s">
+        <v>7991</v>
+      </c>
+      <c r="P2" s="61" t="s">
+        <v>7992</v>
+      </c>
+      <c r="Q2" s="61" t="s">
+        <v>7993</v>
+      </c>
+      <c r="R2" s="61" t="s">
+        <v>7994</v>
+      </c>
+      <c r="S2" s="61" t="s">
+        <v>7995</v>
+      </c>
+      <c r="T2" s="61" t="s">
+        <v>7988</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="61" t="s">
+        <v>7996</v>
+      </c>
+      <c r="B3" s="61" t="s">
+        <v>7997</v>
+      </c>
+      <c r="C3" s="61">
+        <v>151219</v>
+      </c>
+      <c r="D3" s="61" t="s">
+        <v>7998</v>
+      </c>
+      <c r="E3" s="61" t="s">
+        <v>7999</v>
+      </c>
+      <c r="F3" s="61" t="s">
+        <v>8000</v>
+      </c>
+      <c r="G3" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="61" t="s">
+        <v>8001</v>
+      </c>
+      <c r="I3" s="61" t="s">
+        <v>483</v>
+      </c>
+      <c r="J3" s="61" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="61" t="s">
+        <v>8002</v>
+      </c>
+      <c r="L3" s="61" t="s">
+        <v>8003</v>
+      </c>
+      <c r="M3" s="61" t="s">
+        <v>8004</v>
+      </c>
+      <c r="N3" s="61" t="s">
+        <v>8005</v>
+      </c>
+      <c r="O3" s="61" t="s">
+        <v>8006</v>
+      </c>
+      <c r="P3" s="61" t="s">
+        <v>8007</v>
+      </c>
+      <c r="Q3" s="61" t="s">
+        <v>8008</v>
+      </c>
+      <c r="R3" s="61" t="s">
+        <v>8009</v>
+      </c>
+      <c r="S3" s="61" t="s">
+        <v>8010</v>
+      </c>
+      <c r="T3" s="61" t="s">
+        <v>8011</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="61" t="s">
+        <v>8012</v>
+      </c>
+      <c r="B4" s="61" t="s">
+        <v>8013</v>
+      </c>
+      <c r="C4" s="61">
+        <v>151242</v>
+      </c>
+      <c r="D4" s="61" t="s">
+        <v>8014</v>
+      </c>
+      <c r="E4" s="61" t="s">
+        <v>8015</v>
+      </c>
+      <c r="F4" s="61" t="s">
+        <v>8016</v>
+      </c>
+      <c r="G4" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="61" t="s">
+        <v>8017</v>
+      </c>
+      <c r="I4" s="61" t="s">
+        <v>2819</v>
+      </c>
+      <c r="J4" s="61" t="s">
+        <v>8018</v>
+      </c>
+      <c r="K4" s="60" t="d">
+        <v>2015-11-18</v>
+      </c>
+      <c r="L4" s="61" t="s">
+        <v>8019</v>
+      </c>
+      <c r="M4" s="61" t="s">
+        <v>8020</v>
+      </c>
+      <c r="N4" s="61" t="s">
+        <v>96</v>
+      </c>
+      <c r="O4" s="61" t="s">
+        <v>8021</v>
+      </c>
+      <c r="P4" s="61" t="s">
+        <v>8022</v>
+      </c>
+      <c r="Q4" s="61" t="s">
+        <v>8023</v>
+      </c>
+      <c r="R4" s="61" t="s">
+        <v>8024</v>
+      </c>
+      <c r="S4" s="61" t="s">
+        <v>8025</v>
+      </c>
+      <c r="T4" s="61" t="s">
+        <v>8026</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="61" t="s">
+        <v>8027</v>
+      </c>
+      <c r="B5" s="61" t="s">
+        <v>8028</v>
+      </c>
+      <c r="C5" s="61">
+        <v>151235</v>
+      </c>
+      <c r="D5" s="61" t="s">
+        <v>8029</v>
+      </c>
+      <c r="E5" s="61" t="s">
+        <v>8030</v>
+      </c>
+      <c r="F5" s="57" t="d">
+        <v>1995-01-02</v>
+      </c>
+      <c r="G5" s="61" t="s">
+        <v>4305</v>
+      </c>
+      <c r="H5" s="61" t="s">
+        <v>8031</v>
+      </c>
+      <c r="I5" s="61" t="s">
+        <v>106</v>
+      </c>
+      <c r="J5" s="61" t="s">
+        <v>66</v>
+      </c>
+      <c r="K5" s="61" t="s">
+        <v>8032</v>
+      </c>
+      <c r="L5" s="61" t="s">
+        <v>3473</v>
+      </c>
+      <c r="M5" s="61" t="s">
+        <v>8033</v>
+      </c>
+      <c r="N5" s="61" t="s">
+        <v>8034</v>
+      </c>
+      <c r="O5" s="61" t="s">
+        <v>8035</v>
+      </c>
+      <c r="P5" s="61" t="s">
+        <v>8036</v>
+      </c>
+      <c r="Q5" s="61" t="s">
+        <v>8037</v>
+      </c>
+      <c r="R5" s="61" t="s">
+        <v>8038</v>
+      </c>
+      <c r="S5" s="61" t="s">
+        <v>8039</v>
+      </c>
+      <c r="T5" s="61" t="s">
+        <v>8040</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="61" t="s">
+        <v>8041</v>
+      </c>
+      <c r="B6" s="61" t="s">
+        <v>8042</v>
+      </c>
+      <c r="C6" s="61">
+        <v>151217</v>
+      </c>
+      <c r="D6" s="61" t="s">
+        <v>8043</v>
+      </c>
+      <c r="E6" s="61" t="s">
+        <v>8044</v>
+      </c>
+      <c r="F6" s="61" t="s">
+        <v>8045</v>
+      </c>
+      <c r="G6" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="61">
+        <v>1940866478</v>
+      </c>
+      <c r="I6" s="61" t="s">
+        <v>8046</v>
+      </c>
+      <c r="J6" s="61" t="s">
+        <v>8047</v>
+      </c>
+      <c r="K6" s="61" t="s">
+        <v>8048</v>
+      </c>
+      <c r="L6" s="61" t="s">
+        <v>8049</v>
+      </c>
+      <c r="M6" s="61" t="s">
+        <v>8050</v>
+      </c>
+      <c r="N6" s="61" t="s">
+        <v>8051</v>
+      </c>
+      <c r="O6" s="61" t="s">
+        <v>8052</v>
+      </c>
+      <c r="P6" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q6" s="61" t="s">
+        <v>8053</v>
+      </c>
+      <c r="R6" s="61" t="s">
+        <v>8054</v>
+      </c>
+      <c r="S6" s="61" t="s">
+        <v>8046</v>
+      </c>
+      <c r="T6" s="61" t="s">
+        <v>8055</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="61" t="s">
+        <v>8056</v>
+      </c>
+      <c r="B7" s="61" t="s">
+        <v>8057</v>
+      </c>
+      <c r="C7" s="61">
+        <v>151222</v>
+      </c>
+      <c r="D7" s="61" t="s">
+        <v>8058</v>
+      </c>
+      <c r="E7" s="61" t="s">
+        <v>7450</v>
+      </c>
+      <c r="F7" s="61" t="s">
+        <v>8059</v>
+      </c>
+      <c r="G7" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="61" t="s">
+        <v>8060</v>
+      </c>
+      <c r="I7" s="61" t="s">
+        <v>197</v>
+      </c>
+      <c r="J7" s="61" t="s">
+        <v>8061</v>
+      </c>
+      <c r="K7" s="61" t="s">
+        <v>2899</v>
+      </c>
+      <c r="L7" s="61" t="s">
+        <v>8062</v>
+      </c>
+      <c r="M7" s="61" t="s">
+        <v>8063</v>
+      </c>
+      <c r="N7" s="61" t="s">
+        <v>8064</v>
+      </c>
+      <c r="O7" s="61" t="s">
+        <v>8065</v>
+      </c>
+      <c r="P7" s="61" t="s">
+        <v>8066</v>
+      </c>
+      <c r="Q7" s="61" t="s">
+        <v>8067</v>
+      </c>
+      <c r="R7" s="61" t="s">
+        <v>8068</v>
+      </c>
+      <c r="S7" s="61" t="s">
+        <v>8069</v>
+      </c>
+      <c r="T7" s="61" t="s">
+        <v>8070</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="61" t="s">
+        <v>8071</v>
+      </c>
+      <c r="B8" s="61" t="s">
+        <v>8072</v>
+      </c>
+      <c r="C8" s="61">
+        <v>151213</v>
+      </c>
+      <c r="D8" s="61" t="s">
+        <v>8073</v>
+      </c>
+      <c r="E8" s="61" t="s">
+        <v>8074</v>
+      </c>
+      <c r="F8" s="57" t="d">
+        <v>1996-01-19</v>
+      </c>
+      <c r="G8" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="61" t="s">
+        <v>8075</v>
+      </c>
+      <c r="I8" s="61" t="s">
+        <v>8076</v>
+      </c>
+      <c r="J8" s="61" t="s">
+        <v>8077</v>
+      </c>
+      <c r="K8" s="61" t="s">
+        <v>8078</v>
+      </c>
+      <c r="L8" s="61" t="s">
+        <v>8079</v>
+      </c>
+      <c r="M8" s="61" t="s">
+        <v>8080</v>
+      </c>
+      <c r="N8" s="61" t="s">
+        <v>8081</v>
+      </c>
+      <c r="O8" s="61" t="s">
+        <v>8082</v>
+      </c>
+      <c r="P8" s="61" t="s">
+        <v>8083</v>
+      </c>
+      <c r="Q8" s="61" t="s">
+        <v>8084</v>
+      </c>
+      <c r="R8" s="61" t="s">
+        <v>8085</v>
+      </c>
+      <c r="S8" s="61" t="s">
+        <v>8086</v>
+      </c>
+      <c r="T8" s="61" t="s">
+        <v>8087</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="61" t="s">
+        <v>8088</v>
+      </c>
+      <c r="B9" s="61" t="s">
+        <v>8089</v>
+      </c>
+      <c r="C9" s="61">
+        <v>151218</v>
+      </c>
+      <c r="D9" s="61" t="s">
+        <v>8090</v>
+      </c>
+      <c r="E9" s="61" t="s">
+        <v>8091</v>
+      </c>
+      <c r="F9" s="61" t="s">
+        <v>8092</v>
+      </c>
+      <c r="G9" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" s="61">
+        <v>8801752554813</v>
+      </c>
+      <c r="I9" s="61" t="s">
+        <v>8093</v>
+      </c>
+      <c r="J9" s="61" t="s">
+        <v>8094</v>
+      </c>
+      <c r="K9" s="61" t="s">
+        <v>8095</v>
+      </c>
+      <c r="L9" s="61" t="s">
+        <v>8096</v>
+      </c>
+      <c r="M9" s="61" t="s">
+        <v>8097</v>
+      </c>
+      <c r="N9" s="61" t="s">
+        <v>8098</v>
+      </c>
+      <c r="O9" s="61" t="s">
+        <v>202</v>
+      </c>
+      <c r="P9" s="61" t="s">
+        <v>3477</v>
+      </c>
+      <c r="Q9" s="61" t="s">
+        <v>8099</v>
+      </c>
+      <c r="R9" s="61" t="s">
+        <v>8100</v>
+      </c>
+      <c r="S9" s="61" t="s">
+        <v>8101</v>
+      </c>
+      <c r="T9" s="61" t="s">
+        <v>8102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="61" t="s">
+        <v>8103</v>
+      </c>
+      <c r="B10" s="61" t="s">
+        <v>8104</v>
+      </c>
+      <c r="C10" s="61">
+        <v>151229</v>
+      </c>
+      <c r="D10" s="61" t="s">
+        <v>8105</v>
+      </c>
+      <c r="E10" s="61" t="s">
+        <v>8106</v>
+      </c>
+      <c r="F10" s="61" t="s">
+        <v>8107</v>
+      </c>
+      <c r="G10" s="61" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" s="61">
+        <v>8801914154957</v>
+      </c>
+      <c r="I10" s="61" t="s">
+        <v>1676</v>
+      </c>
+      <c r="J10" s="61" t="s">
+        <v>8108</v>
+      </c>
+      <c r="K10" s="61" t="s">
+        <v>8109</v>
+      </c>
+      <c r="L10" s="61" t="s">
+        <v>8110</v>
+      </c>
+      <c r="M10" s="61" t="s">
+        <v>8111</v>
+      </c>
+      <c r="N10" s="61" t="s">
+        <v>8112</v>
+      </c>
+      <c r="O10" s="61" t="s">
+        <v>8113</v>
+      </c>
+      <c r="P10" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q10" s="61" t="s">
+        <v>8114</v>
+      </c>
+      <c r="R10" s="61" t="s">
+        <v>8115</v>
+      </c>
+      <c r="S10" s="61" t="s">
+        <v>8116</v>
+      </c>
+      <c r="T10" s="61" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="61" t="s">
+        <v>8117</v>
+      </c>
+      <c r="B11" s="61" t="s">
+        <v>8118</v>
+      </c>
+      <c r="C11" s="61">
+        <v>151230</v>
+      </c>
+      <c r="D11" s="61" t="s">
+        <v>8119</v>
+      </c>
+      <c r="E11" s="61" t="s">
+        <v>8120</v>
+      </c>
+      <c r="F11" s="57" t="d">
+        <v>1997-12-10</v>
+      </c>
+      <c r="G11" s="61" t="s">
+        <v>8121</v>
+      </c>
+      <c r="H11" s="61">
+        <v>8801779670785</v>
+      </c>
+      <c r="I11" s="61" t="s">
+        <v>8122</v>
+      </c>
+      <c r="J11" s="61" t="s">
+        <v>520</v>
+      </c>
+      <c r="K11" s="61" t="s">
+        <v>8123</v>
+      </c>
+      <c r="L11" s="61" t="s">
+        <v>8124</v>
+      </c>
+      <c r="M11" s="61" t="s">
+        <v>8125</v>
+      </c>
+      <c r="N11" s="61" t="s">
+        <v>8126</v>
+      </c>
+      <c r="O11" s="61" t="s">
+        <v>8127</v>
+      </c>
+      <c r="P11" s="61" t="s">
+        <v>8128</v>
+      </c>
+      <c r="Q11" s="61" t="s">
+        <v>1805</v>
+      </c>
+      <c r="R11" s="61" t="s">
+        <v>8129</v>
+      </c>
+      <c r="S11" s="61" t="s">
+        <v>8130</v>
+      </c>
+      <c r="T11" s="61" t="s">
+        <v>8131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="61" t="s">
+        <v>8132</v>
+      </c>
+      <c r="B12" s="61" t="s">
+        <v>8133</v>
+      </c>
+      <c r="C12" s="61">
+        <v>151208</v>
+      </c>
+      <c r="D12" s="61" t="s">
+        <v>8134</v>
+      </c>
+      <c r="E12" s="61" t="s">
+        <v>8135</v>
+      </c>
+      <c r="F12" s="57" t="d">
+        <v>1997-06-06</v>
+      </c>
+      <c r="G12" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" s="61">
+        <v>1985524585</v>
+      </c>
+      <c r="I12" s="61" t="s">
+        <v>8136</v>
+      </c>
+      <c r="J12" s="61" t="s">
+        <v>8137</v>
+      </c>
+      <c r="K12" s="61" t="s">
+        <v>8138</v>
+      </c>
+      <c r="L12" s="61" t="s">
+        <v>8139</v>
+      </c>
+      <c r="M12" s="61" t="s">
+        <v>8140</v>
+      </c>
+      <c r="N12" s="61" t="s">
+        <v>8141</v>
+      </c>
+      <c r="O12" s="61" t="s">
+        <v>8142</v>
+      </c>
+      <c r="P12" s="61" t="s">
+        <v>3277</v>
+      </c>
+      <c r="Q12" s="61" t="s">
+        <v>3278</v>
+      </c>
+      <c r="R12" s="61" t="s">
+        <v>8143</v>
+      </c>
+      <c r="S12" s="61" t="s">
+        <v>8144</v>
+      </c>
+      <c r="T12" s="61" t="s">
+        <v>8145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="61" t="s">
+        <v>8146</v>
+      </c>
+      <c r="B13" s="61" t="s">
+        <v>8147</v>
+      </c>
+      <c r="C13" s="61">
+        <v>151216</v>
+      </c>
+      <c r="D13" s="61" t="s">
+        <v>8148</v>
+      </c>
+      <c r="E13" s="61" t="s">
+        <v>2671</v>
+      </c>
+      <c r="F13" s="61" t="s">
+        <v>8149</v>
+      </c>
+      <c r="G13" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="61">
+        <v>1689828646</v>
+      </c>
+      <c r="I13" s="61" t="s">
+        <v>106</v>
+      </c>
+      <c r="J13" s="61" t="s">
+        <v>8150</v>
+      </c>
+      <c r="K13" s="61" t="s">
+        <v>8151</v>
+      </c>
+      <c r="L13" s="61" t="s">
+        <v>8152</v>
+      </c>
+      <c r="M13" s="61" t="s">
+        <v>8153</v>
+      </c>
+      <c r="N13" s="61" t="s">
+        <v>442</v>
+      </c>
+      <c r="O13" s="61" t="s">
+        <v>850</v>
+      </c>
+      <c r="P13" s="61" t="s">
+        <v>8154</v>
+      </c>
+      <c r="Q13" s="61" t="s">
+        <v>8155</v>
+      </c>
+      <c r="R13" s="61" t="s">
+        <v>8156</v>
+      </c>
+      <c r="S13" s="61" t="s">
+        <v>8157</v>
+      </c>
+      <c r="T13" s="61" t="s">
+        <v>8158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="61" t="s">
+        <v>8159</v>
+      </c>
+      <c r="B14" s="61" t="s">
+        <v>8160</v>
+      </c>
+      <c r="C14" s="61">
+        <v>151240</v>
+      </c>
+      <c r="D14" s="61" t="s">
+        <v>8161</v>
+      </c>
+      <c r="E14" s="61" t="s">
+        <v>8162</v>
+      </c>
+      <c r="F14" s="61" t="s">
+        <v>8163</v>
+      </c>
+      <c r="G14" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="61" t="s">
+        <v>8164</v>
+      </c>
+      <c r="I14" s="61" t="s">
+        <v>8165</v>
+      </c>
+      <c r="J14" s="61" t="s">
+        <v>8166</v>
+      </c>
+      <c r="K14" s="61" t="s">
+        <v>8167</v>
+      </c>
+      <c r="L14" s="61" t="s">
+        <v>8168</v>
+      </c>
+      <c r="M14" s="61" t="s">
+        <v>8169</v>
+      </c>
+      <c r="N14" s="61" t="s">
+        <v>8170</v>
+      </c>
+      <c r="O14" s="61" t="s">
+        <v>8171</v>
+      </c>
+      <c r="P14" s="61" t="s">
+        <v>8172</v>
+      </c>
+      <c r="Q14" s="61" t="s">
+        <v>8173</v>
+      </c>
+      <c r="R14" s="61" t="s">
+        <v>8174</v>
+      </c>
+      <c r="S14" s="61" t="s">
+        <v>8175</v>
+      </c>
+      <c r="T14" s="61" t="s">
+        <v>8176</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="61" t="s">
+        <v>8177</v>
+      </c>
+      <c r="B15" s="61" t="s">
+        <v>8178</v>
+      </c>
+      <c r="C15" s="61">
+        <v>151236</v>
+      </c>
+      <c r="D15" s="61" t="s">
+        <v>8179</v>
+      </c>
+      <c r="E15" s="61" t="s">
+        <v>8180</v>
+      </c>
+      <c r="F15" s="61" t="s">
+        <v>8181</v>
+      </c>
+      <c r="G15" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" s="61" t="s">
+        <v>8182</v>
+      </c>
+      <c r="I15" s="61" t="s">
+        <v>8183</v>
+      </c>
+      <c r="J15" s="61" t="s">
+        <v>566</v>
+      </c>
+      <c r="K15" s="61" t="s">
+        <v>8184</v>
+      </c>
+      <c r="L15" s="61" t="s">
+        <v>8185</v>
+      </c>
+      <c r="M15" s="61" t="s">
+        <v>8186</v>
+      </c>
+      <c r="N15" s="61" t="s">
+        <v>8187</v>
+      </c>
+      <c r="O15" s="61" t="s">
+        <v>8188</v>
+      </c>
+      <c r="P15" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q15" s="61" t="s">
+        <v>8189</v>
+      </c>
+      <c r="R15" s="61" t="s">
+        <v>8190</v>
+      </c>
+      <c r="S15" s="61" t="s">
+        <v>8191</v>
+      </c>
+      <c r="T15" s="61" t="s">
+        <v>8192</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="61" t="s">
+        <v>8193</v>
+      </c>
+      <c r="B16" s="61" t="s">
+        <v>8194</v>
+      </c>
+      <c r="C16" s="61">
+        <v>151221</v>
+      </c>
+      <c r="D16" s="61" t="s">
+        <v>8195</v>
+      </c>
+      <c r="E16" s="61" t="s">
+        <v>3404</v>
+      </c>
+      <c r="F16" s="61" t="s">
+        <v>8196</v>
+      </c>
+      <c r="G16" s="61" t="s">
+        <v>4305</v>
+      </c>
+      <c r="H16" s="61" t="s">
+        <v>8197</v>
+      </c>
+      <c r="I16" s="61" t="s">
+        <v>8198</v>
+      </c>
+      <c r="J16" s="61" t="s">
+        <v>8199</v>
+      </c>
+      <c r="K16" s="61" t="s">
+        <v>8200</v>
+      </c>
+      <c r="L16" s="61" t="s">
+        <v>8201</v>
+      </c>
+      <c r="M16" s="61" t="s">
+        <v>8202</v>
+      </c>
+      <c r="N16" s="61" t="s">
+        <v>8203</v>
+      </c>
+      <c r="O16" s="61" t="s">
+        <v>8204</v>
+      </c>
+      <c r="P16" s="61" t="s">
+        <v>8205</v>
+      </c>
+      <c r="Q16" s="61" t="s">
+        <v>8206</v>
+      </c>
+      <c r="R16" s="61" t="s">
+        <v>8207</v>
+      </c>
+      <c r="S16" s="61" t="s">
+        <v>8208</v>
+      </c>
+      <c r="T16" s="61" t="s">
+        <v>8209</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="61" t="s">
+        <v>8210</v>
+      </c>
+      <c r="B17" s="61" t="s">
+        <v>8211</v>
+      </c>
+      <c r="C17" s="61">
+        <v>151223</v>
+      </c>
+      <c r="D17" s="61" t="s">
+        <v>8212</v>
+      </c>
+      <c r="E17" s="61" t="s">
+        <v>8213</v>
+      </c>
+      <c r="F17" s="61" t="s">
+        <v>8214</v>
+      </c>
+      <c r="G17" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="H17" s="61" t="s">
+        <v>8215</v>
+      </c>
+      <c r="I17" s="61" t="s">
+        <v>8216</v>
+      </c>
+      <c r="J17" s="61" t="s">
+        <v>152</v>
+      </c>
+      <c r="K17" s="61" t="s">
+        <v>1292</v>
+      </c>
+      <c r="L17" s="61" t="s">
+        <v>8217</v>
+      </c>
+      <c r="M17" s="61" t="s">
+        <v>8218</v>
+      </c>
+      <c r="N17" s="61" t="s">
+        <v>8219</v>
+      </c>
+      <c r="O17" s="61" t="s">
+        <v>8220</v>
+      </c>
+      <c r="P17" s="61" t="s">
+        <v>8221</v>
+      </c>
+      <c r="Q17" s="61" t="s">
+        <v>8222</v>
+      </c>
+      <c r="R17" s="61" t="s">
+        <v>8223</v>
+      </c>
+      <c r="S17" s="61" t="s">
+        <v>8224</v>
+      </c>
+      <c r="T17" s="61" t="s">
+        <v>8225</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="61" t="s">
+        <v>8226</v>
+      </c>
+      <c r="B18" s="61" t="s">
+        <v>8227</v>
+      </c>
+      <c r="C18" s="61">
+        <v>151211</v>
+      </c>
+      <c r="D18" s="61" t="s">
+        <v>8228</v>
+      </c>
+      <c r="E18" s="61" t="s">
+        <v>8229</v>
+      </c>
+      <c r="F18" s="61" t="s">
+        <v>8230</v>
+      </c>
+      <c r="G18" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="H18" s="61" t="s">
+        <v>8231</v>
+      </c>
+      <c r="I18" s="61" t="s">
+        <v>8232</v>
+      </c>
+      <c r="J18" s="61" t="s">
+        <v>8233</v>
+      </c>
+      <c r="K18" s="30" t="d">
+        <v>2018-02-22</v>
+      </c>
+      <c r="L18" s="61" t="s">
+        <v>8234</v>
+      </c>
+      <c r="M18" s="61" t="s">
+        <v>8235</v>
+      </c>
+      <c r="N18" s="61" t="s">
+        <v>8236</v>
+      </c>
+      <c r="O18" s="61" t="s">
+        <v>8237</v>
+      </c>
+      <c r="P18" s="61" t="s">
+        <v>8238</v>
+      </c>
+      <c r="Q18" s="61" t="s">
+        <v>8239</v>
+      </c>
+      <c r="R18" s="61" t="s">
+        <v>8240</v>
+      </c>
+      <c r="S18" s="61" t="s">
+        <v>8241</v>
+      </c>
+      <c r="T18" s="61" t="s">
+        <v>8242</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="61" t="s">
+        <v>8243</v>
+      </c>
+      <c r="B19" s="61" t="s">
+        <v>8244</v>
+      </c>
+      <c r="C19" s="61">
+        <v>151212</v>
+      </c>
+      <c r="D19" s="61" t="s">
+        <v>8245</v>
+      </c>
+      <c r="E19" s="61" t="s">
+        <v>8246</v>
+      </c>
+      <c r="F19" s="61" t="s">
+        <v>8247</v>
+      </c>
+      <c r="G19" s="61" t="s">
+        <v>273</v>
+      </c>
+      <c r="H19" s="61" t="s">
+        <v>8248</v>
+      </c>
+      <c r="I19" s="61" t="s">
+        <v>8249</v>
+      </c>
+      <c r="J19" s="61" t="s">
+        <v>8250</v>
+      </c>
+      <c r="K19" s="61" t="s">
+        <v>8251</v>
+      </c>
+      <c r="L19" s="61" t="s">
+        <v>8252</v>
+      </c>
+      <c r="M19" s="61" t="s">
+        <v>8253</v>
+      </c>
+      <c r="N19" s="61" t="s">
+        <v>8254</v>
+      </c>
+      <c r="O19" s="61" t="s">
+        <v>8255</v>
+      </c>
+      <c r="P19" s="61" t="s">
+        <v>8256</v>
+      </c>
+      <c r="Q19" s="61" t="s">
+        <v>8257</v>
+      </c>
+      <c r="R19" s="61" t="s">
+        <v>8258</v>
+      </c>
+      <c r="S19" s="61" t="s">
+        <v>8259</v>
+      </c>
+      <c r="T19" s="61" t="s">
+        <v>8260</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="61" t="s">
+        <v>8261</v>
+      </c>
+      <c r="B20" s="61" t="s">
+        <v>8262</v>
+      </c>
+      <c r="C20" s="61">
+        <v>151232</v>
+      </c>
+      <c r="D20" s="61" t="s">
+        <v>8263</v>
+      </c>
+      <c r="E20" s="61" t="s">
+        <v>8253</v>
+      </c>
+      <c r="F20" s="61" t="s">
+        <v>8264</v>
+      </c>
+      <c r="G20" s="61" t="s">
+        <v>576</v>
+      </c>
+      <c r="H20" s="61" t="s">
+        <v>8265</v>
+      </c>
+      <c r="I20" s="61" t="s">
+        <v>8266</v>
+      </c>
+      <c r="J20" s="61" t="s">
+        <v>8267</v>
+      </c>
+      <c r="K20" s="61" t="s">
+        <v>6005</v>
+      </c>
+      <c r="L20" s="61" t="s">
+        <v>8268</v>
+      </c>
+      <c r="M20" s="61" t="s">
+        <v>8269</v>
+      </c>
+      <c r="N20" s="61" t="s">
+        <v>8270</v>
+      </c>
+      <c r="O20" s="61" t="s">
+        <v>1912</v>
+      </c>
+      <c r="P20" s="61" t="s">
+        <v>5137</v>
+      </c>
+      <c r="Q20" s="61" t="s">
+        <v>8271</v>
+      </c>
+      <c r="R20" s="61" t="s">
+        <v>8272</v>
+      </c>
+      <c r="S20" s="61" t="s">
+        <v>8273</v>
+      </c>
+      <c r="T20" s="61" t="s">
+        <v>8274</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="61" t="s">
+        <v>8275</v>
+      </c>
+      <c r="B21" s="61" t="s">
+        <v>8276</v>
+      </c>
+      <c r="C21" s="61">
+        <v>151209</v>
+      </c>
+      <c r="D21" s="61" t="s">
+        <v>8277</v>
+      </c>
+      <c r="E21" s="61" t="s">
+        <v>8278</v>
+      </c>
+      <c r="F21" s="61" t="s">
+        <v>8279</v>
+      </c>
+      <c r="G21" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="26">
-        <v>1988034275</v>
-      </c>
-      <c r="G2" s="26" t="s">
-        <v>3441</v>
-      </c>
-      <c r="H2" s="26" t="s">
-        <v>3442</v>
-      </c>
-      <c r="I2" s="26" t="s">
-        <v>3443</v>
-      </c>
-      <c r="J2" s="26" t="s">
-        <v>3444</v>
-      </c>
-      <c r="K2" s="26" t="s">
-        <v>3445</v>
-      </c>
-      <c r="L2" s="26" t="s">
-        <v>3446</v>
-      </c>
-      <c r="M2" s="26" t="s">
-        <v>3447</v>
-      </c>
-      <c r="N2" s="26" t="s">
-        <v>3448</v>
-      </c>
-      <c r="O2" s="26" t="s">
-        <v>3449</v>
-      </c>
-      <c r="P2" s="26" t="s">
-        <v>3450</v>
-      </c>
-      <c r="Q2" s="26" t="s">
-        <v>3451</v>
-      </c>
-      <c r="R2" s="26" t="s">
-        <v>3452</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
-        <v>3453</v>
-      </c>
-      <c r="B3" s="26">
-        <v>151346</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>3454</v>
-      </c>
-      <c r="D3" s="27" t="d">
-        <v>1996-01-03</v>
-      </c>
-      <c r="E3" s="26" t="s">
+      <c r="H21" s="61" t="s">
+        <v>8280</v>
+      </c>
+      <c r="I21" s="61" t="s">
+        <v>2207</v>
+      </c>
+      <c r="J21" s="61" t="s">
+        <v>8281</v>
+      </c>
+      <c r="K21" s="57" t="d">
+        <v>2018-09-03</v>
+      </c>
+      <c r="L21" s="61" t="s">
+        <v>8282</v>
+      </c>
+      <c r="M21" s="61" t="s">
+        <v>8283</v>
+      </c>
+      <c r="N21" s="61" t="s">
+        <v>8284</v>
+      </c>
+      <c r="O21" s="61" t="s">
+        <v>8285</v>
+      </c>
+      <c r="P21" s="61" t="s">
+        <v>8286</v>
+      </c>
+      <c r="Q21" s="61" t="s">
+        <v>8287</v>
+      </c>
+      <c r="R21" s="61" t="s">
+        <v>8288</v>
+      </c>
+      <c r="S21" s="61" t="s">
+        <v>8289</v>
+      </c>
+      <c r="T21" s="61" t="s">
+        <v>8290</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="61" t="s">
+        <v>8291</v>
+      </c>
+      <c r="B22" s="61" t="s">
+        <v>8292</v>
+      </c>
+      <c r="C22" s="61">
+        <v>151226</v>
+      </c>
+      <c r="D22" s="61" t="s">
+        <v>8293</v>
+      </c>
+      <c r="E22" s="61" t="s">
+        <v>8294</v>
+      </c>
+      <c r="F22" s="30" t="d">
+        <v>2018-05-24</v>
+      </c>
+      <c r="G22" s="61" t="s">
+        <v>8295</v>
+      </c>
+      <c r="H22" s="61" t="s">
+        <v>8296</v>
+      </c>
+      <c r="I22" s="61" t="s">
+        <v>8297</v>
+      </c>
+      <c r="J22" s="61" t="s">
+        <v>8298</v>
+      </c>
+      <c r="K22" s="61" t="s">
+        <v>8299</v>
+      </c>
+      <c r="L22" s="61" t="s">
+        <v>8300</v>
+      </c>
+      <c r="M22" s="61" t="s">
+        <v>8301</v>
+      </c>
+      <c r="N22" s="61" t="s">
+        <v>8302</v>
+      </c>
+      <c r="O22" s="61" t="s">
+        <v>8303</v>
+      </c>
+      <c r="P22" s="61" t="s">
+        <v>8304</v>
+      </c>
+      <c r="Q22" s="61" t="s">
+        <v>8305</v>
+      </c>
+      <c r="R22" s="61" t="s">
+        <v>8306</v>
+      </c>
+      <c r="S22" s="61" t="s">
+        <v>8307</v>
+      </c>
+      <c r="T22" s="61" t="s">
+        <v>8308</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" s="61" t="s">
+        <v>8309</v>
+      </c>
+      <c r="B23" s="61" t="s">
+        <v>8310</v>
+      </c>
+      <c r="C23" s="61">
+        <v>151201</v>
+      </c>
+      <c r="D23" s="61" t="s">
+        <v>8311</v>
+      </c>
+      <c r="E23" s="61" t="s">
+        <v>8312</v>
+      </c>
+      <c r="F23" s="61" t="s">
+        <v>8313</v>
+      </c>
+      <c r="G23" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" s="61" t="s">
+        <v>8314</v>
+      </c>
+      <c r="I23" s="61" t="s">
+        <v>8315</v>
+      </c>
+      <c r="J23" s="61" t="s">
+        <v>353</v>
+      </c>
+      <c r="K23" s="61" t="s">
+        <v>8316</v>
+      </c>
+      <c r="L23" s="61" t="s">
+        <v>8317</v>
+      </c>
+      <c r="M23" s="61" t="s">
+        <v>8318</v>
+      </c>
+      <c r="N23" s="61" t="s">
+        <v>8319</v>
+      </c>
+      <c r="O23" s="61" t="s">
+        <v>8320</v>
+      </c>
+      <c r="P23" s="61" t="s">
+        <v>8321</v>
+      </c>
+      <c r="Q23" s="61" t="s">
+        <v>8322</v>
+      </c>
+      <c r="R23" s="61" t="s">
+        <v>8323</v>
+      </c>
+      <c r="S23" s="61" t="s">
+        <v>8324</v>
+      </c>
+      <c r="T23" s="61" t="s">
+        <v>8325</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" s="61" t="s">
+        <v>8326</v>
+      </c>
+      <c r="B24" s="61" t="s">
+        <v>8327</v>
+      </c>
+      <c r="C24" s="61">
+        <v>151238</v>
+      </c>
+      <c r="D24" s="61" t="s">
+        <v>8328</v>
+      </c>
+      <c r="E24" s="61" t="s">
+        <v>8329</v>
+      </c>
+      <c r="F24" s="61" t="s">
+        <v>8330</v>
+      </c>
+      <c r="G24" s="61" t="s">
+        <v>273</v>
+      </c>
+      <c r="H24" s="61" t="s">
+        <v>8331</v>
+      </c>
+      <c r="I24" s="61" t="s">
+        <v>8312</v>
+      </c>
+      <c r="J24" s="61" t="s">
+        <v>8332</v>
+      </c>
+      <c r="K24" s="61" t="s">
+        <v>8333</v>
+      </c>
+      <c r="L24" s="61" t="s">
+        <v>8334</v>
+      </c>
+      <c r="M24" s="61" t="s">
+        <v>8335</v>
+      </c>
+      <c r="N24" s="61" t="s">
+        <v>865</v>
+      </c>
+      <c r="O24" s="61" t="s">
+        <v>8336</v>
+      </c>
+      <c r="P24" s="61" t="s">
+        <v>8337</v>
+      </c>
+      <c r="Q24" s="61" t="s">
+        <v>901</v>
+      </c>
+      <c r="R24" s="61" t="s">
+        <v>8338</v>
+      </c>
+      <c r="S24" s="61" t="s">
+        <v>8339</v>
+      </c>
+      <c r="T24" s="61" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" s="61" t="s">
+        <v>8340</v>
+      </c>
+      <c r="B25" s="61" t="s">
+        <v>8341</v>
+      </c>
+      <c r="C25" s="61">
+        <v>151215</v>
+      </c>
+      <c r="D25" s="61" t="s">
+        <v>8342</v>
+      </c>
+      <c r="E25" s="61" t="s">
+        <v>3806</v>
+      </c>
+      <c r="F25" s="61" t="s">
+        <v>8343</v>
+      </c>
+      <c r="G25" s="61" t="s">
+        <v>8344</v>
+      </c>
+      <c r="H25" s="61" t="s">
+        <v>8345</v>
+      </c>
+      <c r="I25" s="61" t="s">
+        <v>8249</v>
+      </c>
+      <c r="J25" s="61" t="s">
+        <v>8346</v>
+      </c>
+      <c r="K25" s="61" t="s">
+        <v>8347</v>
+      </c>
+      <c r="L25" s="61" t="s">
+        <v>8348</v>
+      </c>
+      <c r="M25" s="61" t="s">
+        <v>8349</v>
+      </c>
+      <c r="N25" s="61" t="s">
+        <v>8350</v>
+      </c>
+      <c r="O25" s="61" t="s">
+        <v>8255</v>
+      </c>
+      <c r="P25" s="61" t="s">
+        <v>8351</v>
+      </c>
+      <c r="Q25" s="61" t="s">
+        <v>8352</v>
+      </c>
+      <c r="R25" s="61" t="s">
+        <v>8353</v>
+      </c>
+      <c r="S25" s="61" t="s">
+        <v>8354</v>
+      </c>
+      <c r="T25" s="61" t="s">
+        <v>8355</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" s="61" t="s">
+        <v>8356</v>
+      </c>
+      <c r="B26" s="61" t="s">
+        <v>8357</v>
+      </c>
+      <c r="C26" s="61">
+        <v>151207</v>
+      </c>
+      <c r="D26" s="61" t="s">
+        <v>8358</v>
+      </c>
+      <c r="E26" s="61" t="s">
+        <v>8359</v>
+      </c>
+      <c r="F26" s="57" t="d">
+        <v>1997-04-02</v>
+      </c>
+      <c r="G26" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="28" t="s">
-        <v>3455</v>
-      </c>
-      <c r="G3" s="26" t="s">
-        <v>3456</v>
-      </c>
-      <c r="H3" s="26" t="s">
-        <v>3457</v>
-      </c>
-      <c r="I3" s="26" t="s">
-        <v>3458</v>
-      </c>
-      <c r="J3" s="26" t="s">
-        <v>3459</v>
-      </c>
-      <c r="K3" s="26" t="s">
-        <v>3460</v>
-      </c>
-      <c r="L3" s="26" t="s">
-        <v>3461</v>
-      </c>
-      <c r="M3" s="26" t="s">
-        <v>3462</v>
-      </c>
-      <c r="N3" s="26" t="s">
-        <v>3463</v>
-      </c>
-      <c r="O3" s="26" t="s">
-        <v>3464</v>
-      </c>
-      <c r="P3" s="26" t="s">
-        <v>3465</v>
-      </c>
-      <c r="Q3" s="26" t="s">
-        <v>3466</v>
-      </c>
-      <c r="R3" s="26" t="s">
-        <v>3467</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
-        <v>3468</v>
-      </c>
-      <c r="B4" s="26">
-        <v>141327</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>3469</v>
-      </c>
-      <c r="D4" s="27" t="d">
-        <v>1995-10-18</v>
-      </c>
-      <c r="E4" s="26" t="s">
+      <c r="H26" s="61" t="s">
+        <v>8360</v>
+      </c>
+      <c r="I26" s="61" t="s">
+        <v>66</v>
+      </c>
+      <c r="J26" s="61" t="s">
+        <v>8361</v>
+      </c>
+      <c r="K26" s="61" t="s">
+        <v>8362</v>
+      </c>
+      <c r="L26" s="61" t="s">
+        <v>8363</v>
+      </c>
+      <c r="M26" s="61" t="s">
+        <v>8364</v>
+      </c>
+      <c r="N26" s="61" t="s">
+        <v>8365</v>
+      </c>
+      <c r="O26" s="61" t="s">
+        <v>8366</v>
+      </c>
+      <c r="P26" s="61" t="s">
+        <v>498</v>
+      </c>
+      <c r="Q26" s="61" t="s">
+        <v>8367</v>
+      </c>
+      <c r="R26" s="61" t="s">
+        <v>8368</v>
+      </c>
+      <c r="S26" s="61" t="s">
+        <v>8369</v>
+      </c>
+      <c r="T26" s="61" t="s">
+        <v>8370</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" s="61" t="s">
+        <v>8371</v>
+      </c>
+      <c r="B27" s="61" t="s">
+        <v>8372</v>
+      </c>
+      <c r="C27" s="61">
+        <v>151214</v>
+      </c>
+      <c r="D27" s="61" t="s">
+        <v>8373</v>
+      </c>
+      <c r="E27" s="61" t="s">
+        <v>8374</v>
+      </c>
+      <c r="F27" s="61" t="s">
+        <v>8375</v>
+      </c>
+      <c r="G27" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="H27" s="61" t="s">
+        <v>8376</v>
+      </c>
+      <c r="I27" s="61" t="s">
+        <v>8377</v>
+      </c>
+      <c r="J27" s="61" t="s">
+        <v>8378</v>
+      </c>
+      <c r="K27" s="61" t="s">
+        <v>8379</v>
+      </c>
+      <c r="L27" s="61" t="s">
+        <v>8380</v>
+      </c>
+      <c r="M27" s="61" t="s">
+        <v>8381</v>
+      </c>
+      <c r="N27" s="61" t="s">
+        <v>8382</v>
+      </c>
+      <c r="O27" s="61" t="s">
+        <v>8383</v>
+      </c>
+      <c r="P27" s="61" t="s">
+        <v>3311</v>
+      </c>
+      <c r="Q27" s="61" t="s">
+        <v>8384</v>
+      </c>
+      <c r="R27" s="61" t="s">
+        <v>8385</v>
+      </c>
+      <c r="S27" s="61" t="s">
+        <v>8386</v>
+      </c>
+      <c r="T27" s="61" t="s">
+        <v>8387</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" s="61" t="s">
+        <v>8388</v>
+      </c>
+      <c r="B28" s="61" t="s">
+        <v>8389</v>
+      </c>
+      <c r="C28" s="61">
+        <v>151243</v>
+      </c>
+      <c r="D28" s="61" t="s">
+        <v>8390</v>
+      </c>
+      <c r="E28" s="61" t="s">
+        <v>8391</v>
+      </c>
+      <c r="F28" s="61" t="s">
+        <v>8392</v>
+      </c>
+      <c r="G28" s="61" t="s">
+        <v>51</v>
+      </c>
+      <c r="H28" s="61" t="s">
+        <v>8393</v>
+      </c>
+      <c r="I28" s="61" t="s">
+        <v>8394</v>
+      </c>
+      <c r="J28" s="61" t="s">
+        <v>8395</v>
+      </c>
+      <c r="K28" s="61" t="s">
+        <v>8396</v>
+      </c>
+      <c r="L28" s="61" t="s">
+        <v>8397</v>
+      </c>
+      <c r="M28" s="61" t="s">
+        <v>8398</v>
+      </c>
+      <c r="N28" s="61" t="s">
+        <v>8399</v>
+      </c>
+      <c r="O28" s="61" t="s">
+        <v>8400</v>
+      </c>
+      <c r="P28" s="61" t="s">
+        <v>8401</v>
+      </c>
+      <c r="Q28" s="61" t="s">
+        <v>8402</v>
+      </c>
+      <c r="R28" s="61" t="s">
+        <v>8403</v>
+      </c>
+      <c r="S28" s="61" t="s">
+        <v>8404</v>
+      </c>
+      <c r="T28" s="61" t="s">
+        <v>8405</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" s="61" t="s">
+        <v>8406</v>
+      </c>
+      <c r="B29" s="61" t="s">
+        <v>8407</v>
+      </c>
+      <c r="C29" s="61">
+        <v>151204</v>
+      </c>
+      <c r="D29" s="61" t="s">
+        <v>8408</v>
+      </c>
+      <c r="E29" s="61" t="s">
+        <v>8409</v>
+      </c>
+      <c r="F29" s="61" t="s">
+        <v>8410</v>
+      </c>
+      <c r="G29" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="26" t="s">
-        <v>3470</v>
-      </c>
-      <c r="G4" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="26" t="s">
-        <v>3471</v>
-      </c>
-      <c r="I4" s="26" t="s">
-        <v>3472</v>
-      </c>
-      <c r="J4" s="26" t="s">
-        <v>3473</v>
-      </c>
-      <c r="K4" s="26" t="s">
-        <v>3474</v>
-      </c>
-      <c r="L4" s="26" t="s">
-        <v>3475</v>
-      </c>
-      <c r="M4" s="26" t="s">
-        <v>3476</v>
-      </c>
-      <c r="N4" s="26" t="s">
-        <v>3477</v>
-      </c>
-      <c r="O4" s="26" t="s">
-        <v>2230</v>
-      </c>
-      <c r="P4" s="26" t="s">
-        <v>3478</v>
-      </c>
-      <c r="Q4" s="26" t="s">
-        <v>3479</v>
-      </c>
-      <c r="R4" s="26" t="s">
-        <v>3480</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
-        <v>3481</v>
-      </c>
-      <c r="B5" s="26">
-        <v>151373</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>312</v>
-      </c>
-      <c r="D5" s="27" t="d">
-        <v>1995-11-20</v>
-      </c>
-      <c r="E5" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="31" t="s">
-        <v>3482</v>
-      </c>
-      <c r="G5" s="26" t="s">
-        <v>3483</v>
-      </c>
-      <c r="H5" s="26" t="s">
-        <v>3484</v>
-      </c>
-      <c r="I5" s="26" t="s">
-        <v>3485</v>
-      </c>
-      <c r="J5" s="26" t="s">
-        <v>3486</v>
-      </c>
-      <c r="K5" s="28" t="s">
-        <v>3487</v>
-      </c>
-      <c r="L5" s="26" t="s">
-        <v>3488</v>
-      </c>
-      <c r="M5" s="26" t="s">
-        <v>3489</v>
-      </c>
-      <c r="N5" s="26" t="s">
-        <v>3490</v>
-      </c>
-      <c r="O5" s="26" t="s">
-        <v>3491</v>
-      </c>
-      <c r="P5" s="26" t="s">
-        <v>3492</v>
-      </c>
-      <c r="Q5" s="26" t="s">
-        <v>3493</v>
-      </c>
-      <c r="R5" s="26" t="s">
-        <v>3494</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
-        <v>3495</v>
-      </c>
-      <c r="B6" s="26">
-        <v>151363</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>3496</v>
-      </c>
-      <c r="D6" s="27" t="d">
-        <v>1996-12-26</v>
-      </c>
-      <c r="E6" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="28" t="s">
-        <v>3497</v>
-      </c>
-      <c r="G6" s="26" t="s">
-        <v>3498</v>
-      </c>
-      <c r="H6" s="26" t="s">
-        <v>3499</v>
-      </c>
-      <c r="I6" s="26" t="s">
-        <v>3500</v>
-      </c>
-      <c r="J6" s="26" t="s">
-        <v>3501</v>
-      </c>
-      <c r="K6" s="26" t="s">
-        <v>3502</v>
-      </c>
-      <c r="L6" s="26" t="s">
-        <v>3503</v>
-      </c>
-      <c r="M6" s="26" t="s">
-        <v>3504</v>
-      </c>
-      <c r="N6" s="26" t="s">
-        <v>3505</v>
-      </c>
-      <c r="O6" s="26" t="s">
-        <v>3506</v>
-      </c>
-      <c r="P6" s="26" t="s">
-        <v>3507</v>
-      </c>
-      <c r="Q6" s="26" t="s">
-        <v>3508</v>
-      </c>
-      <c r="R6" s="26" t="s">
-        <v>3509</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
-        <v>3510</v>
-      </c>
-      <c r="B7" s="26">
-        <v>151374</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>3511</v>
-      </c>
-      <c r="D7" s="27" t="d">
-        <v>1996-12-30</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="26">
-        <v>8801717527393</v>
-      </c>
-      <c r="G7" s="26" t="s">
-        <v>3512</v>
-      </c>
-      <c r="H7" s="26" t="s">
-        <v>3513</v>
-      </c>
-      <c r="I7" s="27" t="d">
-        <v>2015-10-10</v>
-      </c>
-      <c r="J7" s="26" t="s">
-        <v>3514</v>
-      </c>
-      <c r="K7" s="26" t="s">
-        <v>3515</v>
-      </c>
-      <c r="L7" s="26" t="s">
-        <v>3516</v>
-      </c>
-      <c r="M7" s="26" t="s">
-        <v>3517</v>
-      </c>
-      <c r="N7" s="26" t="s">
-        <v>3518</v>
-      </c>
-      <c r="O7" s="26" t="s">
-        <v>3519</v>
-      </c>
-      <c r="P7" s="26" t="s">
-        <v>2759</v>
-      </c>
-      <c r="Q7" s="26" t="s">
-        <v>3520</v>
-      </c>
-      <c r="R7" s="26" t="s">
-        <v>3521</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
-        <v>3522</v>
-      </c>
-      <c r="B8" s="26">
-        <v>151355</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>3523</v>
-      </c>
-      <c r="D8" s="27" t="d">
-        <v>1996-09-22</v>
-      </c>
-      <c r="E8" s="26" t="s">
-        <v>2827</v>
-      </c>
-      <c r="F8" s="26" t="s">
-        <v>3524</v>
-      </c>
-      <c r="G8" s="26" t="s">
-        <v>3525</v>
-      </c>
-      <c r="H8" s="26" t="s">
-        <v>3526</v>
-      </c>
-      <c r="I8" s="26" t="s">
-        <v>3527</v>
-      </c>
-      <c r="J8" s="26" t="s">
-        <v>3528</v>
-      </c>
-      <c r="K8" s="26" t="s">
-        <v>3529</v>
-      </c>
-      <c r="L8" s="26" t="s">
-        <v>3530</v>
-      </c>
-      <c r="M8" s="26" t="s">
-        <v>3531</v>
-      </c>
-      <c r="N8" s="26" t="s">
-        <v>3532</v>
-      </c>
-      <c r="O8" s="26" t="s">
-        <v>3533</v>
-      </c>
-      <c r="P8" s="26" t="s">
-        <v>3534</v>
-      </c>
-      <c r="Q8" s="26" t="s">
-        <v>3535</v>
-      </c>
-      <c r="R8" s="26" t="s">
-        <v>3536</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
-        <v>3537</v>
-      </c>
-      <c r="B9" s="26">
-        <v>151362</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>2207</v>
-      </c>
-      <c r="D9" s="27" t="d">
-        <v>1997-03-06</v>
-      </c>
-      <c r="E9" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>3538</v>
-      </c>
-      <c r="G9" s="26" t="s">
-        <v>3539</v>
-      </c>
-      <c r="H9" s="26" t="s">
-        <v>3540</v>
-      </c>
-      <c r="I9" s="26" t="s">
-        <v>2511</v>
-      </c>
-      <c r="J9" s="26" t="s">
-        <v>3473</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>3541</v>
-      </c>
-      <c r="L9" s="26" t="s">
-        <v>3542</v>
-      </c>
-      <c r="M9" s="26" t="s">
-        <v>3543</v>
-      </c>
-      <c r="N9" s="26" t="s">
-        <v>3544</v>
-      </c>
-      <c r="O9" s="26" t="s">
-        <v>3545</v>
-      </c>
-      <c r="P9" s="26" t="s">
-        <v>3546</v>
-      </c>
-      <c r="Q9" s="26" t="s">
-        <v>3547</v>
-      </c>
-      <c r="R9" s="26" t="s">
-        <v>3548</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="26" t="s">
-        <v>3549</v>
-      </c>
-      <c r="B10" s="26">
-        <v>151371</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>3550</v>
-      </c>
-      <c r="D10" s="27" t="d">
-        <v>1997-09-13</v>
-      </c>
-      <c r="E10" s="26" t="s">
+      <c r="H29" s="61" t="s">
+        <v>8411</v>
+      </c>
+      <c r="I29" s="61" t="s">
+        <v>8412</v>
+      </c>
+      <c r="J29" s="61" t="s">
+        <v>4063</v>
+      </c>
+      <c r="K29" s="61" t="s">
+        <v>8413</v>
+      </c>
+      <c r="L29" s="61" t="s">
+        <v>8414</v>
+      </c>
+      <c r="M29" s="61" t="s">
+        <v>8415</v>
+      </c>
+      <c r="N29" s="61" t="s">
+        <v>8416</v>
+      </c>
+      <c r="O29" s="61" t="s">
+        <v>8417</v>
+      </c>
+      <c r="P29" s="61" t="s">
+        <v>8418</v>
+      </c>
+      <c r="Q29" s="61" t="s">
+        <v>8419</v>
+      </c>
+      <c r="R29" s="61" t="s">
+        <v>8420</v>
+      </c>
+      <c r="S29" s="61" t="s">
+        <v>8421</v>
+      </c>
+      <c r="T29" s="61" t="s">
+        <v>8422</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" s="61" t="s">
+        <v>8423</v>
+      </c>
+      <c r="B30" s="61" t="s">
+        <v>8378</v>
+      </c>
+      <c r="C30" s="61">
+        <v>151228</v>
+      </c>
+      <c r="D30" s="61" t="s">
+        <v>8424</v>
+      </c>
+      <c r="E30" s="61" t="s">
+        <v>8425</v>
+      </c>
+      <c r="F30" s="61" t="s">
+        <v>8426</v>
+      </c>
+      <c r="G30" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="26">
-        <v>1936029704</v>
-      </c>
-      <c r="G10" s="26" t="s">
-        <v>3551</v>
-      </c>
-      <c r="H10" s="26" t="s">
-        <v>3552</v>
-      </c>
-      <c r="I10" s="26" t="s">
-        <v>3553</v>
-      </c>
-      <c r="J10" s="26" t="s">
-        <v>3554</v>
-      </c>
-      <c r="K10" s="26" t="s">
-        <v>3555</v>
-      </c>
-      <c r="L10" s="26" t="s">
-        <v>1772</v>
-      </c>
-      <c r="M10" s="26" t="s">
-        <v>3556</v>
-      </c>
-      <c r="N10" s="26" t="s">
-        <v>1772</v>
-      </c>
-      <c r="O10" s="26" t="s">
-        <v>3557</v>
-      </c>
-      <c r="P10" s="26" t="s">
-        <v>3558</v>
-      </c>
-      <c r="Q10" s="26" t="s">
-        <v>3559</v>
-      </c>
-      <c r="R10" s="26" t="s">
-        <v>3560</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="26" t="s">
-        <v>3561</v>
-      </c>
-      <c r="B11" s="26">
-        <v>151344</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>3562</v>
-      </c>
-      <c r="D11" s="27" t="d">
-        <v>1995-01-08</v>
-      </c>
-      <c r="E11" s="26" t="s">
-        <v>242</v>
-      </c>
-      <c r="F11" s="28" t="s">
-        <v>3563</v>
-      </c>
-      <c r="G11" s="26" t="s">
-        <v>3564</v>
-      </c>
-      <c r="H11" s="26" t="s">
-        <v>3564</v>
-      </c>
-      <c r="I11" s="26" t="s">
-        <v>3565</v>
-      </c>
-      <c r="J11" s="26" t="s">
-        <v>3566</v>
-      </c>
-      <c r="K11" s="28" t="s">
-        <v>3567</v>
-      </c>
-      <c r="L11" s="26" t="s">
-        <v>3568</v>
-      </c>
-      <c r="M11" s="26" t="s">
-        <v>3569</v>
-      </c>
-      <c r="N11" s="26" t="s">
-        <v>3570</v>
-      </c>
-      <c r="O11" s="26" t="s">
-        <v>3571</v>
-      </c>
-      <c r="P11" s="26" t="s">
-        <v>3572</v>
-      </c>
-      <c r="Q11" s="26" t="s">
-        <v>3573</v>
-      </c>
-      <c r="R11" s="26" t="s">
-        <v>3574</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
-        <v>3575</v>
-      </c>
-      <c r="B12" s="26">
-        <v>141314</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>3576</v>
-      </c>
-      <c r="D12" s="27" t="d">
-        <v>1995-11-20</v>
-      </c>
-      <c r="E12" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="F12" s="28" t="s">
-        <v>3577</v>
-      </c>
-      <c r="G12" s="26" t="s">
-        <v>3405</v>
-      </c>
-      <c r="H12" s="26" t="s">
-        <v>1662</v>
-      </c>
-      <c r="I12" s="26" t="s">
-        <v>3578</v>
-      </c>
-      <c r="J12" s="26" t="s">
-        <v>2541</v>
-      </c>
-      <c r="K12" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="L12" s="26">
-        <v>4510</v>
-      </c>
-      <c r="M12" s="26" t="s">
-        <v>3579</v>
-      </c>
-      <c r="N12" s="26" t="s">
-        <v>1718</v>
-      </c>
-      <c r="O12" s="26" t="s">
-        <v>901</v>
-      </c>
-      <c r="P12" s="26" t="s">
-        <v>3580</v>
-      </c>
-      <c r="Q12" s="26" t="s">
-        <v>3581</v>
-      </c>
-      <c r="R12" s="26" t="s">
-        <v>3582</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="26" t="s">
-        <v>3583</v>
-      </c>
-      <c r="B13" s="26">
-        <v>141316</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>3584</v>
-      </c>
-      <c r="D13" s="27" t="d">
-        <v>1996-03-25</v>
-      </c>
-      <c r="E13" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" s="26">
-        <v>1795355373</v>
-      </c>
-      <c r="G13" s="26" t="s">
-        <v>3585</v>
-      </c>
-      <c r="H13" s="26" t="s">
-        <v>3586</v>
-      </c>
-      <c r="I13" s="26" t="s">
-        <v>3587</v>
-      </c>
-      <c r="J13" s="26" t="s">
-        <v>3588</v>
-      </c>
-      <c r="K13" s="26" t="s">
-        <v>3589</v>
-      </c>
-      <c r="L13" s="26" t="s">
-        <v>3590</v>
-      </c>
-      <c r="M13" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="N13" s="26" t="s">
-        <v>3591</v>
-      </c>
-      <c r="O13" s="26" t="s">
-        <v>669</v>
-      </c>
-      <c r="P13" s="26" t="s">
-        <v>3592</v>
-      </c>
-      <c r="Q13" s="26" t="s">
-        <v>3593</v>
-      </c>
-      <c r="R13" s="26" t="s">
-        <v>3594</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="26" t="s">
-        <v>3595</v>
-      </c>
-      <c r="B14" s="26">
-        <v>141340</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>3596</v>
-      </c>
-      <c r="D14" s="27" t="d">
-        <v>1995-03-27</v>
-      </c>
-      <c r="E14" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" s="26">
-        <v>1935201253</v>
-      </c>
-      <c r="G14" s="26" t="s">
-        <v>3597</v>
-      </c>
-      <c r="H14" s="26" t="s">
-        <v>3598</v>
-      </c>
-      <c r="I14" s="26" t="s">
-        <v>3599</v>
-      </c>
-      <c r="J14" s="26" t="s">
-        <v>3600</v>
-      </c>
-      <c r="K14" s="26" t="s">
-        <v>3601</v>
-      </c>
-      <c r="L14" s="26" t="s">
-        <v>3602</v>
-      </c>
-      <c r="M14" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="N14" s="26" t="s">
-        <v>3603</v>
-      </c>
-      <c r="O14" s="26" t="s">
-        <v>3604</v>
-      </c>
-      <c r="P14" s="26" t="s">
-        <v>3605</v>
-      </c>
-      <c r="Q14" s="26" t="s">
-        <v>3606</v>
-      </c>
-      <c r="R14" s="26" t="s">
-        <v>3607</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
-        <v>3608</v>
-      </c>
-      <c r="B15" s="26">
-        <v>141318</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>3609</v>
-      </c>
-      <c r="D15" s="27" t="d">
-        <v>1996-09-20</v>
-      </c>
-      <c r="E15" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="26" t="s">
-        <v>3610</v>
-      </c>
-      <c r="G15" s="26" t="s">
-        <v>3611</v>
-      </c>
-      <c r="H15" s="26" t="s">
-        <v>3612</v>
-      </c>
-      <c r="I15" s="26" t="s">
-        <v>3613</v>
-      </c>
-      <c r="J15" s="26" t="s">
-        <v>3614</v>
-      </c>
-      <c r="K15" s="26" t="s">
-        <v>3615</v>
-      </c>
-      <c r="L15" s="26" t="s">
-        <v>3616</v>
-      </c>
-      <c r="M15" s="26" t="s">
-        <v>1419</v>
-      </c>
-      <c r="N15" s="26" t="s">
-        <v>3617</v>
-      </c>
-      <c r="O15" s="26" t="s">
-        <v>3618</v>
-      </c>
-      <c r="P15" s="26" t="s">
-        <v>3619</v>
-      </c>
-      <c r="Q15" s="26" t="s">
-        <v>3620</v>
-      </c>
-      <c r="R15" s="26" t="s">
-        <v>3621</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" ht="75" x14ac:dyDescent="0.25">
-      <c r="A16" s="26" t="s">
-        <v>3622</v>
-      </c>
-      <c r="B16" s="26">
-        <v>151381</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>3623</v>
-      </c>
-      <c r="D16" s="27" t="d">
-        <v>1997-10-10</v>
-      </c>
-      <c r="E16" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="F16" s="32" t="s">
-        <v>3624</v>
-      </c>
-      <c r="G16" s="26" t="s">
-        <v>3625</v>
-      </c>
-      <c r="H16" s="26" t="s">
-        <v>3626</v>
-      </c>
-      <c r="I16" s="26" t="s">
-        <v>3627</v>
-      </c>
-      <c r="J16" s="26" t="s">
-        <v>3628</v>
-      </c>
-      <c r="K16" s="28" t="s">
-        <v>3629</v>
-      </c>
-      <c r="L16" s="26" t="s">
-        <v>3630</v>
-      </c>
-      <c r="M16" s="26" t="s">
-        <v>3631</v>
-      </c>
-      <c r="N16" s="26" t="s">
-        <v>3632</v>
-      </c>
-      <c r="O16" s="26" t="s">
-        <v>3633</v>
-      </c>
-      <c r="P16" s="28" t="s">
-        <v>3634</v>
-      </c>
-      <c r="Q16" s="26" t="s">
-        <v>3635</v>
-      </c>
-      <c r="R16" s="26" t="s">
-        <v>3636</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="26" t="s">
-        <v>3637</v>
-      </c>
-      <c r="B17" s="26">
-        <v>151369</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>3584</v>
-      </c>
-      <c r="D17" s="27" t="d">
-        <v>1995-07-24</v>
-      </c>
-      <c r="E17" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="F17" s="26" t="s">
-        <v>3638</v>
-      </c>
-      <c r="G17" s="26" t="s">
-        <v>3639</v>
-      </c>
-      <c r="H17" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="I17" s="26" t="s">
-        <v>3640</v>
-      </c>
-      <c r="J17" s="26" t="s">
-        <v>329</v>
-      </c>
-      <c r="K17" s="26" t="s">
-        <v>3641</v>
-      </c>
-      <c r="L17" s="26" t="s">
-        <v>3642</v>
-      </c>
-      <c r="M17" s="26" t="s">
-        <v>3643</v>
-      </c>
-      <c r="N17" s="26" t="s">
-        <v>3603</v>
-      </c>
-      <c r="O17" s="26" t="s">
-        <v>3644</v>
-      </c>
-      <c r="P17" s="26" t="s">
-        <v>3645</v>
-      </c>
-      <c r="Q17" s="26" t="s">
-        <v>3646</v>
-      </c>
-      <c r="R17" s="26" t="s">
-        <v>3647</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="26" t="s">
-        <v>3648</v>
-      </c>
-      <c r="B18" s="26">
-        <v>151380</v>
-      </c>
-      <c r="C18" s="26" t="s">
-        <v>3649</v>
-      </c>
-      <c r="D18" s="27" t="d">
-        <v>2018-07-18</v>
-      </c>
-      <c r="E18" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="F18" s="26">
-        <v>1784491102</v>
-      </c>
-      <c r="G18" s="26" t="s">
-        <v>3650</v>
-      </c>
-      <c r="H18" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="I18" s="26" t="s">
-        <v>3651</v>
-      </c>
-      <c r="J18" s="26" t="s">
-        <v>3652</v>
-      </c>
-      <c r="K18" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="L18" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="M18" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="N18" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="O18" s="26" t="s">
-        <v>3653</v>
-      </c>
-      <c r="P18" s="26" t="s">
-        <v>922</v>
-      </c>
-      <c r="Q18" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="R18" s="26" t="s">
-        <v>3654</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="26" t="s">
-        <v>3655</v>
-      </c>
-      <c r="B19" s="26">
-        <v>151357</v>
-      </c>
-      <c r="C19" s="26" t="s">
-        <v>3656</v>
-      </c>
-      <c r="D19" s="27" t="d">
-        <v>1995-05-31</v>
-      </c>
-      <c r="E19" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" s="26" t="s">
-        <v>3657</v>
-      </c>
-      <c r="G19" s="26" t="s">
-        <v>3658</v>
-      </c>
-      <c r="H19" s="26" t="s">
-        <v>3659</v>
-      </c>
-      <c r="I19" s="26" t="s">
-        <v>3660</v>
-      </c>
-      <c r="J19" s="26" t="s">
-        <v>3661</v>
-      </c>
-      <c r="K19" s="26" t="s">
-        <v>3662</v>
-      </c>
-      <c r="L19" s="26" t="s">
-        <v>3663</v>
-      </c>
-      <c r="M19" s="26" t="s">
-        <v>3664</v>
-      </c>
-      <c r="N19" s="26" t="s">
-        <v>3663</v>
-      </c>
-      <c r="O19" s="26" t="s">
-        <v>3658</v>
-      </c>
-      <c r="P19" s="26" t="s">
-        <v>3659</v>
-      </c>
-      <c r="Q19" s="26" t="s">
-        <v>3665</v>
-      </c>
-      <c r="R19" s="26" t="s">
-        <v>3666</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="26" t="s">
-        <v>3667</v>
-      </c>
-      <c r="B20" s="26">
-        <v>151364</v>
-      </c>
-      <c r="C20" s="26" t="s">
-        <v>3668</v>
-      </c>
-      <c r="D20" s="27" t="d">
-        <v>1996-08-16</v>
-      </c>
-      <c r="E20" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="F20" s="26">
-        <v>1711360977</v>
-      </c>
-      <c r="G20" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="H20" s="26" t="s">
-        <v>294</v>
-      </c>
-      <c r="I20" s="26" t="s">
-        <v>3669</v>
-      </c>
-      <c r="J20" s="26" t="s">
-        <v>3670</v>
-      </c>
-      <c r="K20" s="26" t="s">
-        <v>3671</v>
-      </c>
-      <c r="L20" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="M20" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="N20" s="26" t="s">
-        <v>3463</v>
-      </c>
-      <c r="O20" s="26" t="s">
-        <v>3672</v>
-      </c>
-      <c r="P20" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q20" s="26" t="s">
-        <v>285</v>
-      </c>
-      <c r="R20" s="26" t="s">
-        <v>3673</v>
+      <c r="H30" s="61" t="s">
+        <v>8427</v>
+      </c>
+      <c r="I30" s="61" t="s">
+        <v>8428</v>
+      </c>
+      <c r="J30" s="61" t="s">
+        <v>8429</v>
+      </c>
+      <c r="K30" s="61" t="s">
+        <v>8430</v>
+      </c>
+      <c r="L30" s="61" t="s">
+        <v>8431</v>
+      </c>
+      <c r="M30" s="61" t="s">
+        <v>8432</v>
+      </c>
+      <c r="N30" s="61" t="s">
+        <v>8433</v>
+      </c>
+      <c r="O30" s="61" t="s">
+        <v>8434</v>
+      </c>
+      <c r="P30" s="61" t="s">
+        <v>8435</v>
+      </c>
+      <c r="Q30" s="61" t="s">
+        <v>8436</v>
+      </c>
+      <c r="R30" s="61" t="s">
+        <v>8437</v>
+      </c>
+      <c r="S30" s="61" t="s">
+        <v>8438</v>
+      </c>
+      <c r="T30" s="61" t="s">
+        <v>8439</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F5" r:id="rId1" xr:uid="{D228BAA1-49D5-48D0-81EA-96E754415457}"/>
-    <hyperlink ref="F16" r:id="rId2" xr:uid="{38062A08-99E6-4735-91E4-DC1126549156}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId3"/>
-  </tableParts>
 </worksheet>
 </file>
--- a/souvenir15/Souvenir 15.xlsx
+++ b/souvenir15/Souvenir 15.xlsx
@@ -1,34 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr dateCompatibility="0" filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{6DDDC0EC-AFA0-4008-BBD0-6743E824AB1E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{BA454AFF-1906-4DBD-87D7-D48F9E1A5B9B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10395" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="780" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="825" yWindow="-120" windowWidth="19785" windowHeight="11760" tabRatio="780" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arch" sheetId="1" r:id="rId1"/>
     <sheet name="CSE" sheetId="18" r:id="rId2"/>
     <sheet name="BAD" sheetId="11" r:id="rId3"/>
-    <sheet name="FWT" sheetId="5" r:id="rId4"/>
-    <sheet name="BGE" sheetId="14" r:id="rId5"/>
-    <sheet name="ECE" sheetId="8" r:id="rId6"/>
-    <sheet name="ES" sheetId="2" r:id="rId7"/>
-    <sheet name="Phar" sheetId="13" r:id="rId8"/>
-    <sheet name="Math" sheetId="20" r:id="rId9"/>
-    <sheet name="SWE" sheetId="10" r:id="rId10"/>
-    <sheet name="ENG" sheetId="12" r:id="rId11"/>
-    <sheet name="Econ" sheetId="3" r:id="rId12"/>
-    <sheet name="Soc" sheetId="9" r:id="rId13"/>
-    <sheet name="Phy" sheetId="6" r:id="rId14"/>
-    <sheet name="Chem" sheetId="19" r:id="rId15"/>
-    <sheet name="Stat" sheetId="17" r:id="rId16"/>
-    <sheet name="DS" sheetId="4" r:id="rId17"/>
-    <sheet name="SCULP" sheetId="16" r:id="rId18"/>
-    <sheet name="PM" sheetId="7" r:id="rId19"/>
+    <sheet name="URP" sheetId="21" r:id="rId4"/>
+    <sheet name="FWT" sheetId="5" r:id="rId5"/>
+    <sheet name="BGE" sheetId="14" r:id="rId6"/>
+    <sheet name="ECE" sheetId="8" r:id="rId7"/>
+    <sheet name="ES" sheetId="2" r:id="rId8"/>
+    <sheet name="Phar" sheetId="13" r:id="rId9"/>
+    <sheet name="Math" sheetId="20" r:id="rId10"/>
+    <sheet name="SWE" sheetId="10" r:id="rId11"/>
+    <sheet name="ENG" sheetId="12" r:id="rId12"/>
+    <sheet name="Econ" sheetId="3" r:id="rId13"/>
+    <sheet name="Soc" sheetId="9" r:id="rId14"/>
+    <sheet name="Phy" sheetId="6" r:id="rId15"/>
+    <sheet name="Chem" sheetId="19" r:id="rId16"/>
+    <sheet name="Stat" sheetId="17" r:id="rId17"/>
+    <sheet name="DS" sheetId="4" r:id="rId18"/>
+    <sheet name="SCULP" sheetId="16" r:id="rId19"/>
+    <sheet name="PM" sheetId="7" r:id="rId20"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr/>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="10122" uniqueCount="8440">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="10628" uniqueCount="8856">
   <si>
     <t>pallabbyapari@gmail.com</t>
   </si>
@@ -25512,6 +25513,1263 @@
   </si>
   <si>
     <t>Iâ€™m always looking for the simplest way to understand anything and everything.</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The KUian Matters The Most </t>
+  </si>
+  <si>
+    <t>2018/08/15 12:32:04 PM GMT+6</t>
+  </si>
+  <si>
+    <t>bonnabiswas9@gmail.com</t>
+  </si>
+  <si>
+    <t>chitali biswas</t>
+  </si>
+  <si>
+    <t>Bonna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no politics </t>
+  </si>
+  <si>
+    <t>the last day of undergrade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I love the natural beauty of the campus </t>
+  </si>
+  <si>
+    <t>Roses to Nishat tasnim Maria &amp; Almas Uddin Riad</t>
+  </si>
+  <si>
+    <t>Nishat Tasnim Maria &amp; Almas Uddin Riad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My two friends </t>
+  </si>
+  <si>
+    <t>Teachers politices</t>
+  </si>
+  <si>
+    <t>Kuian</t>
+  </si>
+  <si>
+    <t>United we fall divided we stand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nishat Tasnim Maria,  Almas Uddin Riad, Halima Sultana, Israt Jahan, Kashinath Ghosh, Chandan Sarker </t>
+  </si>
+  <si>
+    <t>I am a learner</t>
+  </si>
+  <si>
+    <t>2018/08/17 12:35:31 AM GMT+6</t>
+  </si>
+  <si>
+    <t>aninda.sh15@gmail.com</t>
+  </si>
+  <si>
+    <t>Aninda Sundar Howlader</t>
+  </si>
+  <si>
+    <t>Aninda</t>
+  </si>
+  <si>
+    <t>URP15 Batch</t>
+  </si>
+  <si>
+    <t>The place of sweet and sour memories</t>
+  </si>
+  <si>
+    <t>Guns for Abir Roses for Ferdous</t>
+  </si>
+  <si>
+    <t>Mess life of Nirala</t>
+  </si>
+  <si>
+    <t>Best Research Poster Presentation</t>
+  </si>
+  <si>
+    <t>1st Year 1st Term</t>
+  </si>
+  <si>
+    <t>The future me</t>
+  </si>
+  <si>
+    <t>404 error</t>
+  </si>
+  <si>
+    <t>Ferdous, Hamim, Tamim, Sabbir, Deb, Rafid</t>
+  </si>
+  <si>
+    <t>Lazy, Passionate, Dreamer</t>
+  </si>
+  <si>
+    <t>2018/08/17 12:45:06 AM GMT+6</t>
+  </si>
+  <si>
+    <t>foysalurp150430ku@gmail.com</t>
+  </si>
+  <si>
+    <t>MD. FOYSAL ABEDIN</t>
+  </si>
+  <si>
+    <t>Foysal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">à¦¸à§à¦¬à¦¾à¦§à§€à¦¨à¦¤à¦¾à¦° à¦¸à¦¬à¦Ÿà§à¦•à§à¦‡ à¦­à§‹à¦—à¦¯à§‹à¦—à§à¦¯à¥¤ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">à¦­à¦¾à¦²à§‹ à¦²à§‡à¦—à§‡à¦›à§‡ à¦…à¦¨à§‡à¦•à¦•à§‡à¦‡à¥¤ à¦•à¦¿à¦¨à§à¦¤à§ à¦•à§à¦°à¦¾à¦¶ à¦–à¦¾à¦“à§Ÿà¦¾ à¦¹à§Ÿà¦¨à¦¿à¥¤ </t>
+  </si>
+  <si>
+    <t>à¦¦à¦¿à¦¨à¦Ÿà¦¾ à¦ à¦¿à¦• à¦®à¦¨à§‡ à¦¨à§‡à¦‡à¥¤ à¦¡à¦¿à¦¸à¦¿à¦ªà§à¦²à¦¿à¦¨à§‡ à¦—à§‹à¦²à§à¦¡à§‡à¦¨ à¦¬à§à¦¯à¦¾à¦š à¦¹à¦¿à¦¸à§‡à¦¬à§‡ à¦­à§‚à¦·à¦¿à¦¤ à¦¹à¦“à§Ÿà¦¾à§Ÿ à¦¸à¦¬à¦¾à¦‡ à¦®à¦¿à¦²à§‡ Western Inn à¦ à¦–à§‡à¦¤à§‡ à¦¯à¦¾à¦“à§Ÿà¦¾à¥¤ à¦•à¦¾à¦°à¦£à¦Ÿà¦¾ à¦‰à¦¹à§à¦¯ à¦¥à¦¾à¦•à§à¦•à¥¤</t>
+  </si>
+  <si>
+    <t>à¦›à§‹à¦Ÿà§à¦Ÿ à¦•à§à¦¯à¦¾à¦®à§à¦ªà¦¾à¦¸ à¦•à¦¿à¦¨à§à¦¤à§ à¦ªà¦¾à¦“à§Ÿà¦¾à¦° à¦®à¦¤ à¦…à¦¨à§‡à¦• à¦•à¦¿à¦›à§à¥¤</t>
+  </si>
+  <si>
+    <t>à¦¸à§à¦ªà§‡à¦¸à¦¿à¦«à¦¿à¦• à¦­à¦¾à¦¬à§‡ à¦•à¦¾à¦°à§‹à¦° à¦œà¦¨à§à¦¯ à¦¨à¦¾à¥¤ à¦¤à¦¬à§‡ à¦…à¦‚à¦•à¦¨,à¦ªà¦­à§‡à¦²,à¦°à¦¾à¦«à¦¿à¦¦,à¦ªà¦¾à¦ªà§à¦ªà§,à¦¦à§‡à¦¬,à¦¹à¦¾-à¦®à¦¿à¦®,à¦œà¦¾à¦®à¦¾à¦‡ à¦°à¦¾à¦•à¦¿à¦¬, à¦°à¦¬à¦¿à¦¨, à¦œà¦¾à¦®à¦¿à¦² à¦à¦¦à§‡à¦° à¦œà¦¨à§à¦¯à¦‡ à¦¸à¦¬à¥¤</t>
+  </si>
+  <si>
+    <t>à¦¤à¦ªà¦¨à§‡à¦° à¦šà¦¾ à¦¬à¦¿à§œà¦¿, à¦†à¦²à§‡à¦• à¦šà¦¾à¦šà¦¾à¦° à¦¦à§‹à¦•à¦¾à¦¨à§‡ à¦®à¦§à§à¦¯à¦°à¦¾à¦¤à§‡à¦° à¦†à¦¡à§à¦¡à¦¾, à¦¸à¦¬à¦¾à¦‡ à¦®à¦¿à¦²à§‡ à¦¡à¦¾à¦¬ à¦–à§‡à¦¤à§‡ à¦¯à¦¾à¦“à§Ÿà¦¾, à¦°à¦¿à¦¸à¦¿à¦ªà¦¶à¦¨à§‡à¦° à¦†à¦—à§‡à¦° à¦°à¦¾à¦¤....</t>
+  </si>
+  <si>
+    <t>à¦†à¦®à¦¾à¦° à¦…à¦°à§à¦œà¦¨ à¦¬à¦²à¦¤à§‡ à¦†à¦®à¦¿ à¦à¦•à¦Ÿà¦¾ à¦ªà¦°à¦¿à¦¬à¦¾à¦° à¦ªà§‡à§Ÿà§‡à¦›à¦¿à¥¤ à¦¯à¦¾à¦° à¦¨à¦¾à¦® à¦‡à¦‰ à¦†à¦° à¦ªà¦¿ à¦ªà¦°à¦¿à¦¬à¦¾à¦°à¥¤</t>
+  </si>
+  <si>
+    <t>à¦†à¦®à¦¾à¦¦à§‡à¦° à§­à¦œà¦¨à§‡à¦° à¦²à§à¦¯à¦¾à¦ªà¦Ÿà¦ª à¦†à¦° à§§à¦Ÿà¦¾ à¦«à§‹à¦¨ à¦à¦•à¦¸à¦¾à¦¥à§‡ à¦šà§à¦°à¦¿ à¦¹à§Ÿà§‡ à¦¯à¦¾à¦“à§Ÿà¦¾à¥¤ à¦•à§Ÿà§‡à¦•à¦Ÿà¦¾ à¦¦à¦¿à¦¨ à¦–à§à¦¬ à¦¶à§‹à¦•à§‡ à¦•à¦¾à¦Ÿà¦¿à§Ÿà§‡ à¦›à¦¿à¦²à¦¾à¦®à¥¤ à¦¯à¦¦à¦¿à¦“ à¦¶à§‡à¦·à§‡ à¦¸à¦¬ à¦ªà¦¾à¦“à§Ÿà¦¾ à¦—à¦¿à§Ÿà§‡à¦›à¦¿à¦²à¥¤</t>
+  </si>
+  <si>
+    <t>Government employer.</t>
+  </si>
+  <si>
+    <t>à¦¯à¦¾à¦° à¦¶à§à¦°à§ à¦†à¦›à§‡, à¦¤à¦¾à¦° à¦¶à§‡à¦·à¦“ à¦†à¦›à¥¤ à¦•à¦¿à¦¨à§à¦¤à§ à¦¶à§‡à¦·à¦Ÿà¦¾à¦•à§‡ à¦à¦®à¦¨ à¦­à¦¾à¦¬à§‡ à¦¶à§‡à¦· à¦•à¦°à§‹ à¦¯à§‡à¦¨ à¦¤à§à¦®à¦¿ à¦¤à¦¾à¦¤à§‡ à¦¸à¦¨à§à¦¤à§à¦·à§à¦Ÿ à¦¥à¦¾à¦•à§‹à¥¤</t>
+  </si>
+  <si>
+    <t>à¦…à¦‚à¦•à¦¨, à¦¦à§‡à¦¬, à¦°à¦¾à¦«à¦¿à¦¦, à¦œà¦¾à¦®à¦¾à¦‡ à¦°à¦¾à¦•à¦¿à¦¬, à¦°à§‚à¦ªà¦¸à¦¾ à¦°à¦¾à¦•à¦¿à¦¬, à¦°à¦¬à¦¿à¦¨à¥¤</t>
+  </si>
+  <si>
+    <t>à¦à¦•à¦Ÿà¦¾ à¦¬à¦¾à¦•à§à¦¯à§‡ à¦†à¦®à¦¿ à¦¹à¦²à§‹, à¦à¦•à¦Ÿà¦¾ à¦¸à¦¾à¦§à¦¾à¦°à¦£ à¦†à¦¡à§à¦¡à¦¾à¦¬à¦¾à¦œ à¦›à§‡à¦²à§‡à¥¤</t>
+  </si>
+  <si>
+    <t>2018/08/17 5:36:04 PM GMT+6</t>
+  </si>
+  <si>
+    <t>black.roke94@gmail.com</t>
+  </si>
+  <si>
+    <t>Md. Rakibul Islam</t>
+  </si>
+  <si>
+    <t>Rocky</t>
+  </si>
+  <si>
+    <t>01682294884 https://www.facebook.com/black.roke</t>
+  </si>
+  <si>
+    <t>15 batch</t>
+  </si>
+  <si>
+    <t>Sanjana Sumaiya, Ritu Das</t>
+  </si>
+  <si>
+    <t>Everyday with URP</t>
+  </si>
+  <si>
+    <t>A universal place</t>
+  </si>
+  <si>
+    <t>Gun for Ahamed Zamil and rose for URP</t>
+  </si>
+  <si>
+    <t>First weed with boro vai</t>
+  </si>
+  <si>
+    <t>Nightmare is impossible in KU</t>
+  </si>
+  <si>
+    <t>Same me</t>
+  </si>
+  <si>
+    <t>Learning is a painful process</t>
+  </si>
+  <si>
+    <t>Ahamed Zamil; Angkon, Pavel</t>
+  </si>
+  <si>
+    <t>Don't believe me</t>
+  </si>
+  <si>
+    <t>2018/08/17 10:32:45 PM GMT+6</t>
+  </si>
+  <si>
+    <t>ahamedzamil15@gmail.com</t>
+  </si>
+  <si>
+    <t>Ahamed Zamil</t>
+  </si>
+  <si>
+    <t>Darshonic, Buddhijibi, Biggani</t>
+  </si>
+  <si>
+    <t>Tradition</t>
+  </si>
+  <si>
+    <t>No unique crush, changes with time.Curshes have not last more than 3 days.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discipline Reception day. Seniors given me highest entertainment with RAG before the night of reception, from the day of reception I got freedom and posted my desired place in the heart of my seniors. </t>
+  </si>
+  <si>
+    <t>A highly secured place (Mayer Kol) where someone can exercise physically and mentally for the best performance.</t>
+  </si>
+  <si>
+    <t>Guns-Just through in the dustbin &amp; Roses- still searching for the most beautiful lady in the universe for giving roses.</t>
+  </si>
+  <si>
+    <t>Last nights of the submissions.</t>
+  </si>
+  <si>
+    <t>How to handle pressure, how to be intimate, how to avoid , how to take decision,how to manage team, how to handle seniors &amp; jouniors,how to maintain unity, matainging good relationship with teachers. KU gives me some friends*</t>
+  </si>
+  <si>
+    <t>First year First (1-1) term result publication day.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Researcher / Scientist </t>
+  </si>
+  <si>
+    <t>CGPA does not matter in life.</t>
+  </si>
+  <si>
+    <t>Roke, Angkon, Robin, Hamim, Fatema ,Sristy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A simple man who observe the surroundings silently and entertained by the people , learn through them, follow their changes with time and love them. </t>
+  </si>
+  <si>
+    <t>2018/08/18 8:41:02 PM GMT+6</t>
+  </si>
+  <si>
+    <t>jahan.urme.israt@gmail.com</t>
+  </si>
+  <si>
+    <t>Israt Jahan</t>
+  </si>
+  <si>
+    <t>Israt</t>
+  </si>
+  <si>
+    <t>Halima Sultana</t>
+  </si>
+  <si>
+    <t>Reception of URP'15</t>
+  </si>
+  <si>
+    <t>Guns Mostaq Ahmed Rose Halima Sultana</t>
+  </si>
+  <si>
+    <t>1st year days, math teacher's sweet punishment, Project nights, 1:1 pl night</t>
+  </si>
+  <si>
+    <t>Wonderful tachers of URPD &amp; Halima sultana as a friend</t>
+  </si>
+  <si>
+    <t>Night before RP1 exam</t>
+  </si>
+  <si>
+    <t>Modest</t>
+  </si>
+  <si>
+    <t>Know thyself</t>
+  </si>
+  <si>
+    <t>Halima sultana</t>
+  </si>
+  <si>
+    <t>Ambivert</t>
+  </si>
+  <si>
+    <t>2018/08/19 2:04:58 PM GMT+6</t>
+  </si>
+  <si>
+    <t>halimasultana43@gmail.com</t>
+  </si>
+  <si>
+    <t>Halum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Israt Jahan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mahmud uz zaman </t>
+  </si>
+  <si>
+    <t>08 February, 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bad days </t>
+  </si>
+  <si>
+    <t>Roses- Israt Jahan Guns - Mostak Ahmed</t>
+  </si>
+  <si>
+    <t>Faria Yasmin,Israt Jahan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lab test </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Planner without any plan </t>
+  </si>
+  <si>
+    <t>Nobody is superior ,nobody is inferior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Israt,Bonna,Riad,Ferdous,Jui,Rakib </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smart Beyadob </t>
+  </si>
+  <si>
+    <t>2018/08/21 10:03:22 AM GMT+6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">robinurp4@gmail.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Md. Rayhanul Islam Rabin </t>
+  </si>
+  <si>
+    <t>Robinhood</t>
+  </si>
+  <si>
+    <t>Friendlly</t>
+  </si>
+  <si>
+    <t>Every vacation for sleeping:-):-):-)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Torture </t>
+  </si>
+  <si>
+    <t>There comes a time in your life when you have to choose to turn the page, write another book or simply close it.</t>
+  </si>
+  <si>
+    <t>Tension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Horror </t>
+  </si>
+  <si>
+    <t>King of the world</t>
+  </si>
+  <si>
+    <t>Don't lose your mind..........Don't lose your good heart</t>
+  </si>
+  <si>
+    <t>Foysal,Angkon,Hamim,Rafid,Robin,Rakib</t>
+  </si>
+  <si>
+    <t>I m not perfect human,son,brother,muslim.</t>
+  </si>
+  <si>
+    <t>2018/08/21 1:41:08 PM GMT+6</t>
+  </si>
+  <si>
+    <t>almas.riad@gmail.com</t>
+  </si>
+  <si>
+    <t>Md. Almas Uddin Riad</t>
+  </si>
+  <si>
+    <t>Teachers of URP discipline</t>
+  </si>
+  <si>
+    <t>Museum of memories</t>
+  </si>
+  <si>
+    <t>Gun for Pranto, Roses for all batchmates</t>
+  </si>
+  <si>
+    <t>Land Scape Sessional Nights</t>
+  </si>
+  <si>
+    <t>Lesson about life, obstacles, ways of over coming those obstacles</t>
+  </si>
+  <si>
+    <t>Term finals, Submissions, Class tets, Lab tests</t>
+  </si>
+  <si>
+    <t>Planner</t>
+  </si>
+  <si>
+    <t>To the pure, all things are pure</t>
+  </si>
+  <si>
+    <t>Pranto, Bonna, Oria, Ferdous, Maria, Israt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Humble and Savage </t>
+  </si>
+  <si>
+    <t>2018/08/21 1:46:26 PM GMT+6</t>
+  </si>
+  <si>
+    <t>fatema250421@gmail.com</t>
+  </si>
+  <si>
+    <t>Fatema Tuj Johora</t>
+  </si>
+  <si>
+    <t>Poribar Porikolpona apa</t>
+  </si>
+  <si>
+    <t>Zakir Hossain (Proffesor, URP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get Together'15 </t>
+  </si>
+  <si>
+    <t>It seems to be pure as heaven</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guns for  Reshmi statistic'15      Rose for Sakib painting'15 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">First year Adda with friends from various discipline  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Love, Respec, life time  friends and memories </t>
+  </si>
+  <si>
+    <t>First year ragging</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Struggling everyday to  be better human   </t>
+  </si>
+  <si>
+    <t>Amar moto hote chao?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sabbir, srishty, Sabit Tamim, Anindo Sundar (Discipline), Hasina khan Pink,  Israt Jahan Eva,  Ayon, Nishat Tasnim (Es), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ready to beat every friend </t>
+  </si>
+  <si>
+    <t>2018/08/21 1:56:15 PM GMT+6</t>
+  </si>
+  <si>
+    <t>nishattasnimmaria@gmail.com</t>
+  </si>
+  <si>
+    <t>Nishat Tasnim Maria</t>
+  </si>
+  <si>
+    <t>Maria</t>
+  </si>
+  <si>
+    <t>Chitali Biswas Bonna</t>
+  </si>
+  <si>
+    <t>Shakin Rahman</t>
+  </si>
+  <si>
+    <t>Can't remember any particular date</t>
+  </si>
+  <si>
+    <t>1/3rd of the day</t>
+  </si>
+  <si>
+    <t>Discipline programs</t>
+  </si>
+  <si>
+    <t>The tagline as 'KUian'</t>
+  </si>
+  <si>
+    <t>Group works</t>
+  </si>
+  <si>
+    <t>When nothing goes right, go left.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bonna, Ani, Ferdous, Sarmin, Ema. </t>
+  </si>
+  <si>
+    <t>2018/08/21 2:04:41 PM GMT+6</t>
+  </si>
+  <si>
+    <t>pavelmahmud5@gmail.com</t>
+  </si>
+  <si>
+    <t>MD. Pavel Mahmud</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?authuser=0&amp;usp=forms_web&amp;id=1anIs-xJ3TjZs4aE53YuJXx3IqwOPDb-_</t>
+  </si>
+  <si>
+    <t>FB: Pavel Mahmud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Batchmate </t>
+  </si>
+  <si>
+    <t>************************************</t>
+  </si>
+  <si>
+    <t>Guns for n, s, s and Roses for s, a</t>
+  </si>
+  <si>
+    <t>The night before reception day</t>
+  </si>
+  <si>
+    <t>Just ruined my life</t>
+  </si>
+  <si>
+    <t>Happiness is nothing more than good health and a bad memory.</t>
+  </si>
+  <si>
+    <t>Ifty, Tamu, Hamim, Dev, Roky, shishir vai</t>
+  </si>
+  <si>
+    <t>Loser</t>
+  </si>
+  <si>
+    <t>2018/08/21 7:09:23 PM GMT+6</t>
+  </si>
+  <si>
+    <t>rakibul.ku.15@gmail.com</t>
+  </si>
+  <si>
+    <t>Rakibul Hassan</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?authuser=0&amp;usp=forms_web&amp;id=1XPuB6lZbqy68kPOyf49zMmlizgym9zj5</t>
+  </si>
+  <si>
+    <t>Some of my batchmates</t>
+  </si>
+  <si>
+    <t>Sumi apu (Urp 12 batch)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reception program of URP 15 batch </t>
+  </si>
+  <si>
+    <t>The most peaceful university of the country, I will miss you</t>
+  </si>
+  <si>
+    <t>Roses for some of my batchmates, guns for none</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rag programs, reception, Pahela Baishakh,Reunion of URP, tour etc. </t>
+  </si>
+  <si>
+    <t>Successfully arranged all the programs of my discipline</t>
+  </si>
+  <si>
+    <t>Not applicable</t>
+  </si>
+  <si>
+    <t>Angkon, Hamim, Rafid, Dev,Tamim, Ferdous</t>
+  </si>
+  <si>
+    <t>A very simple boy tries to be happy always</t>
+  </si>
+  <si>
+    <t>2018/08/21 7:22:40 PM GMT+6</t>
+  </si>
+  <si>
+    <t>oria.ku.150434@gmail.com</t>
+  </si>
+  <si>
+    <t>Oria Halder</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?authuser=0&amp;usp=forms_web&amp;id=1gwQU7yfY7o432vFCi5AwvXlfD2Jl44I5</t>
+  </si>
+  <si>
+    <t>Gulu, pagli,khala</t>
+  </si>
+  <si>
+    <t>Rakibul Hassan Rakib</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rafid Alam </t>
+  </si>
+  <si>
+    <t>23 July,2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KU is a place of both peace &amp; trouble from where I just want to go out,but really I don't want so. </t>
+  </si>
+  <si>
+    <t>Guns for Fahmida &amp; Farzana, Roses for none</t>
+  </si>
+  <si>
+    <t>415 no. room, Bangamata hall; Topon &amp; Saidul vaier dokan; road infront Bangamata hall</t>
+  </si>
+  <si>
+    <t>Some well-wishers</t>
+  </si>
+  <si>
+    <t>2nd year 2nd term result</t>
+  </si>
+  <si>
+    <t>BCS CADRE</t>
+  </si>
+  <si>
+    <t>Fahmida,Farzana,Mimu,Rupa</t>
+  </si>
+  <si>
+    <t>Try to be honest</t>
+  </si>
+  <si>
+    <t>2018/08/24 8:01:13 PM GMT+6</t>
+  </si>
+  <si>
+    <t>prantomondal118@gmail.com</t>
+  </si>
+  <si>
+    <t>Rahul Mondal</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?authuser=0&amp;usp=forms_web&amp;id=1HWj2UIopTsBaRmGilzgNev24TXfrcfP0</t>
+  </si>
+  <si>
+    <t>Tamil hero</t>
+  </si>
+  <si>
+    <t>The day of reception. It is the best day because on that day, I got to be treated nicely by those seniors who did pressurize me badly before that day.</t>
+  </si>
+  <si>
+    <t>KU has a peaceful environment which is free from politics.</t>
+  </si>
+  <si>
+    <t>Guns for no one &amp; Roses for Almas Uddin Riad</t>
+  </si>
+  <si>
+    <t>In my four years of versity life, I finally got to experience full freedom from my parents. It was great hanging with my friends whenever I wanted. I did not have to explain to my parents no matter how much I spend my night with my friends. I was so fed up with the ragging in the first year. Spending night after night with my friends only to get pressurized by the seniors. But now, when I think about it, it makes me laugh. I did hate to work overnight with my friends to arrange different parties. But now I think it was great and I like to arrange more parties now. Overall, I would like to go back to my first year and start over again.</t>
+  </si>
+  <si>
+    <t>Lots of friends</t>
+  </si>
+  <si>
+    <t>The night before the reception</t>
+  </si>
+  <si>
+    <t>Remember that the happiest people are not those getting more, but those giving more</t>
+  </si>
+  <si>
+    <t>Almas Uddin Riad, Rakibul Hasan Rakib, Nur Mohammed Hamim, Debanjon Ghosh and Arshad Hossain Pappu</t>
+  </si>
+  <si>
+    <t>I do not work hard but hope for better results</t>
+  </si>
+  <si>
+    <t>2018/09/01 6:23:22 PM GMT+6</t>
+  </si>
+  <si>
+    <t>arshadpappu121@gmail.com</t>
+  </si>
+  <si>
+    <t>Md. Arshad Hossain</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?authuser=0&amp;usp=forms_web&amp;id=12a_31WF2zIXoBAylVlQF4bsvySdk6Mqg</t>
+  </si>
+  <si>
+    <t>katappa</t>
+  </si>
+  <si>
+    <t>01770716469, 01521470155</t>
+  </si>
+  <si>
+    <t>Shuvo vai</t>
+  </si>
+  <si>
+    <t>Saaz</t>
+  </si>
+  <si>
+    <t>Rag of 11 batch, best day as a first year student and first rag i have seen till now..</t>
+  </si>
+  <si>
+    <t>one of the best institution to study with no student politics.</t>
+  </si>
+  <si>
+    <t>Guns for Shilpy mam and roses for all</t>
+  </si>
+  <si>
+    <t>1st year reception.</t>
+  </si>
+  <si>
+    <t>Being a friend of variety of persons.</t>
+  </si>
+  <si>
+    <t>1st year black night.</t>
+  </si>
+  <si>
+    <t>May be a Millionaire.</t>
+  </si>
+  <si>
+    <t>it is all about quality of life and finding a happy balance between work, friends and family.</t>
+  </si>
+  <si>
+    <t>Roommates: Hamim, Rafid, Debanjan    And    Asad, Ruffee, JP</t>
+  </si>
+  <si>
+    <t>I am a person who wanna loves to be loved by everyone.</t>
+  </si>
+  <si>
+    <t>2018/09/07 11:07:25 AM GMT+6</t>
+  </si>
+  <si>
+    <t>rafidalam87@gmail.com</t>
+  </si>
+  <si>
+    <t>Mahbub Alam Rafid</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?authuser=0&amp;usp=forms_web&amp;id=1dk_YQN3JU_fM4i61WE2eTdJ5nkLNYSWJ</t>
+  </si>
+  <si>
+    <t>URPian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Many  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KU is a place of Memories and Nostalgia. </t>
+  </si>
+  <si>
+    <t>Guns- Debanjon Ghosh, Roses- Muhaiminul Islam</t>
+  </si>
+  <si>
+    <t>KBHA-412</t>
+  </si>
+  <si>
+    <t>Being a student of KU is a big achivement.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Night before Reception. </t>
+  </si>
+  <si>
+    <t>Don't Know</t>
+  </si>
+  <si>
+    <t>No matter what Life goes on.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debanjan, Rakib, Hamim, Pappu. </t>
+  </si>
+  <si>
+    <t>I am very much Ordinary</t>
+  </si>
+  <si>
+    <t>2018/09/07 11:51:53 AM GMT+6</t>
+  </si>
+  <si>
+    <t>nurhamimurp15@gmail.com</t>
+  </si>
+  <si>
+    <t>Nur Mohammad Ha-Mim</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?authuser=0&amp;usp=forms_web&amp;id=17HgsREwhz9a2pT-X3TYoNEseE_ARv7gS</t>
+  </si>
+  <si>
+    <t>Pongta</t>
+  </si>
+  <si>
+    <t>'15</t>
+  </si>
+  <si>
+    <t>"Error 999"</t>
+  </si>
+  <si>
+    <t>22/03/2015 (Bujhonai Beparta !!)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Love &lt;3 </t>
+  </si>
+  <si>
+    <t>Guns &gt;&gt; Monire Abir, Roses &gt;&gt; Minhazul Ferdous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Golden Batch Awards, Awards for Academic Excellence. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Legal Aspect !! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Graveyard </t>
+  </si>
+  <si>
+    <t>"URP- Your DNA"</t>
+  </si>
+  <si>
+    <t>Arshad Hossain (Katappa)
+Debanjan Ghosh (Oslil)
+Rafid Alam (Murgi)
+Rakibul Hassan Nil (Kavani)
+Rakibul Hassan Rakib (Jamai)
+Minhazul Ferdous (Fossi Baba)</t>
+  </si>
+  <si>
+    <t>I am A ............ (Hmm !! Oitai !!! )</t>
+  </si>
+  <si>
+    <t>2018/09/15 2:13:28 PM GMT+6</t>
+  </si>
+  <si>
+    <t>mabir19april@gmail.com</t>
+  </si>
+  <si>
+    <t>Sheikh MD. Moniruzzaman</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?authuser=0&amp;usp=forms_web&amp;id=1adzzXNlmbNLZqwQp9EKj477O74mP7n1z</t>
+  </si>
+  <si>
+    <t>Rafija Kashmi</t>
+  </si>
+  <si>
+    <t>Sahariya Sharmin Tonni apu</t>
+  </si>
+  <si>
+    <t>The day of reception, 8th February, 2016</t>
+  </si>
+  <si>
+    <t>The teacher of maturity and reality</t>
+  </si>
+  <si>
+    <t>Bullets for my valentine &amp; Roses for my crushes :D</t>
+  </si>
+  <si>
+    <t>First year Rag</t>
+  </si>
+  <si>
+    <t>Real life experience of learning the so called 'system'</t>
+  </si>
+  <si>
+    <t>Missing laptop tragedy</t>
+  </si>
+  <si>
+    <t>Good and honest person with a simple life</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All that I am, or hope to be, I owe to my angel mother. </t>
+  </si>
+  <si>
+    <t>The gang of 6/69- URP'15</t>
+  </si>
+  <si>
+    <t>An immature fellow lagging behind from the 'system'</t>
+  </si>
+  <si>
+    <t>2018/09/20 5:14:35 PM GMT+6</t>
+  </si>
+  <si>
+    <t>simply.boy.mohim@gmail.com</t>
+  </si>
+  <si>
+    <t>Syed Sabit Tamim</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?authuser=0&amp;usp=forms_web&amp;id=1QOg0va7tfgAeN-j13jnuSxXwZj8ZzJ5P</t>
+  </si>
+  <si>
+    <t>lombu, talgas, khamba etc</t>
+  </si>
+  <si>
+    <t>Tasnim Suchi (stat 13)</t>
+  </si>
+  <si>
+    <t>1st year RAG Day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hell with a little bit of Heaven </t>
+  </si>
+  <si>
+    <t xml:space="preserve">gun for kodak and roses for all the girls </t>
+  </si>
+  <si>
+    <t>Salimer dokan, 1st year er addabaji</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Some horrible memories </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somewhere among the stars </t>
+  </si>
+  <si>
+    <t>No man is a failure who has friends</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gang bihin </t>
+  </si>
+  <si>
+    <t>Optimistic guy with complex thinking</t>
+  </si>
+  <si>
+    <t>2018/09/20 5:29:27 PM GMT+6</t>
+  </si>
+  <si>
+    <t>ferdous150439@gmail.com</t>
+  </si>
+  <si>
+    <t>Minhazul Ferdous</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?authuser=0&amp;usp=forms_web&amp;id=1hhkM19noDk_b1H4UsRXLTp6r0L-pSolz</t>
+  </si>
+  <si>
+    <t>Fosi Baba</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/ferdous.rumen</t>
+  </si>
+  <si>
+    <t>Hridoy apu. URP 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sayma Shehab Apu :3 Archi-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Our Reception  </t>
+  </si>
+  <si>
+    <t>Ain't it a shame that you can't say "f*ck"?
+Fuck, f*ck's just a word
+And it's all f*cked up  !!!</t>
+  </si>
+  <si>
+    <t>Gun for Kodak Rose for Debanjan</t>
+  </si>
+  <si>
+    <t>Pukur par</t>
+  </si>
+  <si>
+    <t>taught me to learn from mistakes :)</t>
+  </si>
+  <si>
+    <t>Exam hall</t>
+  </si>
+  <si>
+    <t>vabar onek time ase :3 futurei vabi ?</t>
+  </si>
+  <si>
+    <t>Don't go around saying the world owes you a living. The world owes you nothing. It was here first   ---Mark Twain</t>
+  </si>
+  <si>
+    <t>Hamim, Debanjan, Rakib, Tamim, Aninda</t>
+  </si>
+  <si>
+    <t>A decent one :)</t>
+  </si>
+  <si>
+    <t>2018/09/20 8:55:55 PM GMT+6</t>
+  </si>
+  <si>
+    <t>muhaiminul.ankon@gmail.com</t>
+  </si>
+  <si>
+    <t>Muhaiminul Islam</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?authuser=0&amp;usp=forms_web&amp;id=1IpjBiVXFPg7yABzFSwtA89wzRPxSOtut</t>
+  </si>
+  <si>
+    <t>Angkon</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>Ashma Zaman Shumi Apu :p</t>
+  </si>
+  <si>
+    <t>Freshers Reception</t>
+  </si>
+  <si>
+    <t>It teaches me how to leave a life in different situation.</t>
+  </si>
+  <si>
+    <t>Guns - Nur Mohammad Ha-mim &amp; Roses - Nur Mohammad Ha-mim</t>
+  </si>
+  <si>
+    <t>Sleepless nights with friends for any program or any project or anything else</t>
+  </si>
+  <si>
+    <t>Learned better communication skill and ignore bad memories</t>
+  </si>
+  <si>
+    <t>Leaving Hall Life</t>
+  </si>
+  <si>
+    <t>Famous someone</t>
+  </si>
+  <si>
+    <t>"A good plan today is better then a perfect plan tomorrow" - George S. Patton</t>
+  </si>
+  <si>
+    <t>My gang members have added me</t>
+  </si>
+  <si>
+    <t>I am the Outlier</t>
+  </si>
+  <si>
+    <t>2018/09/22 9:59:27 PM GMT+6</t>
+  </si>
+  <si>
+    <t>debanjan.ghosh9527@gmail.com</t>
+  </si>
+  <si>
+    <t>Debanjan Ghosh</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?authuser=0&amp;usp=forms_web&amp;id=1qRfik1YrbvvyrTcgZA7p6GLctXEeL3bQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oslil </t>
+  </si>
+  <si>
+    <t>FB: Debanjan Ghosh, e-mail: debanjan.ghosh9527@gmail.com</t>
+  </si>
+  <si>
+    <t>The persons who made me love URP.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To be continued.........  </t>
+  </si>
+  <si>
+    <t>*The night before Reception of URP 15
+*My Birthday celebration at Sundarbans tour (21.12.17)</t>
+  </si>
+  <si>
+    <t>Witness of my Evolution, Emotion and Love.</t>
+  </si>
+  <si>
+    <t>Guns &amp; Roses to "SHURPONOKHA"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">â˜…Addabaji with vai-brothers and â˜… HEBBI pressures during arranging many programs. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Affection from so many good people. </t>
+  </si>
+  <si>
+    <t>Attending classes at 8.00 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Devil-wit </t>
+  </si>
+  <si>
+    <t>"There lives a prostitute in every human being."</t>
+  </si>
+  <si>
+    <t>One Man Army!!</t>
+  </si>
+  <si>
+    <t>VULVAL</t>
+  </si>
+  <si>
+    <t>2018/09/23 12:01:37 AM GMT+6</t>
+  </si>
+  <si>
+    <t>rakibhasan.kuurp14@gmail.com</t>
+  </si>
+  <si>
+    <t>Md. Rakibul Hasan</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?authuser=0&amp;usp=forms_web&amp;id=1TskLa-1d6pJNbTWv2uUVDOZjcVKVgt09</t>
+  </si>
+  <si>
+    <t>Rupsha</t>
+  </si>
+  <si>
+    <t>Not Really, But You are that KUian.</t>
+  </si>
+  <si>
+    <t>No one is found like Momina Mustehsan, So Searching...)))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Black Night (Night Before Reception) </t>
+  </si>
+  <si>
+    <t>The Second Home (where students are brothers &amp; sisters and teachers are parents)</t>
+  </si>
+  <si>
+    <t>Guns for Senior vai &amp; Roses for Junior Apus.</t>
+  </si>
+  <si>
+    <t>ratvor vai bondhu addabazi and going to sleep at last night.</t>
+  </si>
+  <si>
+    <t>Become a Chapabazz.</t>
+  </si>
+  <si>
+    <t>Become an Oilbazz</t>
+  </si>
+  <si>
+    <t>A Business Man.</t>
+  </si>
+  <si>
+    <t>Life is one, Why so serious!!!</t>
+  </si>
+  <si>
+    <t>Gang of Road No.06 Nirala Mess (pungta, kuddus, oslil, katappa, fosi, samiya).</t>
+  </si>
+  <si>
+    <t>Hard to Realize</t>
+  </si>
+  <si>
+    <t>2018/09/23 2:33:35 PM GMT+6</t>
+  </si>
+  <si>
+    <t>mdjakirhossen150406@gmail.com</t>
+  </si>
+  <si>
+    <t>Md. Jakir Hossen</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?authuser=0&amp;usp=forms_web&amp;id=1UWjS1-EnXPHN2p0kfV0IcchcnfHF0peV</t>
+  </si>
+  <si>
+    <t>Jak</t>
+  </si>
+  <si>
+    <t>Good command</t>
+  </si>
+  <si>
+    <t>Khaba hall ,412</t>
+  </si>
+  <si>
+    <t>The best campus I have ever seen.</t>
+  </si>
+  <si>
+    <t>Guns for girlfriend and ðŸŒ¹ for my beloved mother</t>
+  </si>
+  <si>
+    <t>I will badly miss my campus</t>
+  </si>
+  <si>
+    <t>Two madel, Two certificate and love of people</t>
+  </si>
+  <si>
+    <t>The day before reception</t>
+  </si>
+  <si>
+    <t>I would like to work in government sector.</t>
+  </si>
+  <si>
+    <t>To be or not to be that is the question</t>
+  </si>
+  <si>
+    <t>Ankon, Rabin, foysal, Zamil, hamim,Rafid</t>
+  </si>
+  <si>
+    <t>I am optimistic.</t>
+  </si>
+  <si>
+    <t>2018/09/23 5:23:48 PM GMT+6</t>
+  </si>
+  <si>
+    <t>sristy.quazi@yahoo.com</t>
+  </si>
+  <si>
+    <t>Tausin Islam Sristy</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?authuser=0&amp;usp=forms_web&amp;id=1x1mR9eCe3svqLQezXPS1Iu8SlFES4Y6J</t>
+  </si>
+  <si>
+    <t>Mowsumi</t>
+  </si>
+  <si>
+    <t>B Negative</t>
+  </si>
+  <si>
+    <t>Fatema Tuj Johra</t>
+  </si>
+  <si>
+    <t>Emon vai'10</t>
+  </si>
+  <si>
+    <t>Gun for Zakir sir and Roses for Anik sir</t>
+  </si>
+  <si>
+    <t>Thesis Defence</t>
+  </si>
+  <si>
+    <t>Urban Planner</t>
+  </si>
+  <si>
+    <t>CT cancel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fatema, Saad, Oria, Sabbir, </t>
+  </si>
+  <si>
+    <t>Maastikhor</t>
+  </si>
+  <si>
+    <t>2018/09/24 10:32:22 AM GMT+6</t>
+  </si>
+  <si>
+    <t>incr3d9bl3@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mohtasim Sabbir </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?authuser=0&amp;usp=forms_web&amp;id=1cMEnr21_2ZDEYXSP9CabT8wPWiAFZAYe</t>
+  </si>
+  <si>
+    <t>Potla</t>
+  </si>
+  <si>
+    <t>Sristy ( URP 15)</t>
+  </si>
+  <si>
+    <t>Shumi Apu (URP 12)</t>
+  </si>
+  <si>
+    <t>Rag 2015 ( 11 batch )
+experienced a whole new realm of campus life with 4th year</t>
+  </si>
+  <si>
+    <t>it Can not be defined in words , but, without it a big part of me is nothing but a void</t>
+  </si>
+  <si>
+    <t>Gun for Fatema Tuz Johora ( URP 15) and Rose for Bonna Biswas (URP 15)</t>
+  </si>
+  <si>
+    <t>Oniket Prantor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moments and Memories </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9th September 2018 - My last Birthday </t>
+  </si>
+  <si>
+    <t xml:space="preserve">An Entrepreneur </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I am selfish, rude, ruthless, mean, weird and at times hard to reason with...........but, if you can not deal with me at my worst, you donâ€™t even deserve me at my best </t>
+  </si>
+  <si>
+    <t>Tamim, Ferdous, Aninda &amp; Me</t>
+  </si>
+  <si>
+    <t>the word simplicity doesnâ€™t even exist in my dictionary</t>
   </si>
 </sst>
 </file>
@@ -30684,6 +31942,1881 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E4D9F7C-A98E-46F0-9CC6-B2900602B66E}">
+  <dimension ref="A1:T30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:T30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="61" t="s">
+        <v>4222</v>
+      </c>
+      <c r="B1" s="61" t="s">
+        <v>617</v>
+      </c>
+      <c r="C1" s="61" t="s">
+        <v>7977</v>
+      </c>
+      <c r="D1" s="61" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E1" s="61" t="s">
+        <v>622</v>
+      </c>
+      <c r="F1" s="61" t="s">
+        <v>1602</v>
+      </c>
+      <c r="G1" s="61" t="s">
+        <v>621</v>
+      </c>
+      <c r="H1" s="61" t="s">
+        <v>7978</v>
+      </c>
+      <c r="I1" s="61" t="s">
+        <v>623</v>
+      </c>
+      <c r="J1" s="61" t="s">
+        <v>1605</v>
+      </c>
+      <c r="K1" s="61" t="s">
+        <v>7979</v>
+      </c>
+      <c r="L1" s="61" t="s">
+        <v>630</v>
+      </c>
+      <c r="M1" s="61" t="s">
+        <v>7980</v>
+      </c>
+      <c r="N1" s="61" t="s">
+        <v>627</v>
+      </c>
+      <c r="O1" s="61" t="s">
+        <v>628</v>
+      </c>
+      <c r="P1" s="61" t="s">
+        <v>629</v>
+      </c>
+      <c r="Q1" s="61" t="s">
+        <v>631</v>
+      </c>
+      <c r="R1" s="61" t="s">
+        <v>632</v>
+      </c>
+      <c r="S1" s="61" t="s">
+        <v>633</v>
+      </c>
+      <c r="T1" s="61" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="61" t="s">
+        <v>7981</v>
+      </c>
+      <c r="B2" s="61" t="s">
+        <v>7982</v>
+      </c>
+      <c r="C2" s="61">
+        <v>151224</v>
+      </c>
+      <c r="D2" s="61" t="s">
+        <v>7983</v>
+      </c>
+      <c r="E2" s="61" t="s">
+        <v>7984</v>
+      </c>
+      <c r="F2" s="61" t="s">
+        <v>5751</v>
+      </c>
+      <c r="G2" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="61" t="s">
+        <v>7985</v>
+      </c>
+      <c r="I2" s="61" t="s">
+        <v>7986</v>
+      </c>
+      <c r="J2" s="61" t="s">
+        <v>2701</v>
+      </c>
+      <c r="K2" s="61" t="s">
+        <v>7987</v>
+      </c>
+      <c r="L2" s="61" t="s">
+        <v>7988</v>
+      </c>
+      <c r="M2" s="61" t="s">
+        <v>7989</v>
+      </c>
+      <c r="N2" s="61" t="s">
+        <v>7990</v>
+      </c>
+      <c r="O2" s="61" t="s">
+        <v>7991</v>
+      </c>
+      <c r="P2" s="61" t="s">
+        <v>7992</v>
+      </c>
+      <c r="Q2" s="61" t="s">
+        <v>7993</v>
+      </c>
+      <c r="R2" s="61" t="s">
+        <v>7994</v>
+      </c>
+      <c r="S2" s="61" t="s">
+        <v>7995</v>
+      </c>
+      <c r="T2" s="61" t="s">
+        <v>7988</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="61" t="s">
+        <v>7996</v>
+      </c>
+      <c r="B3" s="61" t="s">
+        <v>7997</v>
+      </c>
+      <c r="C3" s="61">
+        <v>151219</v>
+      </c>
+      <c r="D3" s="61" t="s">
+        <v>7998</v>
+      </c>
+      <c r="E3" s="61" t="s">
+        <v>7999</v>
+      </c>
+      <c r="F3" s="61" t="s">
+        <v>8000</v>
+      </c>
+      <c r="G3" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="61" t="s">
+        <v>8001</v>
+      </c>
+      <c r="I3" s="61" t="s">
+        <v>483</v>
+      </c>
+      <c r="J3" s="61" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="61" t="s">
+        <v>8002</v>
+      </c>
+      <c r="L3" s="61" t="s">
+        <v>8003</v>
+      </c>
+      <c r="M3" s="61" t="s">
+        <v>8004</v>
+      </c>
+      <c r="N3" s="61" t="s">
+        <v>8005</v>
+      </c>
+      <c r="O3" s="61" t="s">
+        <v>8006</v>
+      </c>
+      <c r="P3" s="61" t="s">
+        <v>8007</v>
+      </c>
+      <c r="Q3" s="61" t="s">
+        <v>8008</v>
+      </c>
+      <c r="R3" s="61" t="s">
+        <v>8009</v>
+      </c>
+      <c r="S3" s="61" t="s">
+        <v>8010</v>
+      </c>
+      <c r="T3" s="61" t="s">
+        <v>8011</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="61" t="s">
+        <v>8012</v>
+      </c>
+      <c r="B4" s="61" t="s">
+        <v>8013</v>
+      </c>
+      <c r="C4" s="61">
+        <v>151242</v>
+      </c>
+      <c r="D4" s="61" t="s">
+        <v>8014</v>
+      </c>
+      <c r="E4" s="61" t="s">
+        <v>8015</v>
+      </c>
+      <c r="F4" s="61" t="s">
+        <v>8016</v>
+      </c>
+      <c r="G4" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="61" t="s">
+        <v>8017</v>
+      </c>
+      <c r="I4" s="61" t="s">
+        <v>2819</v>
+      </c>
+      <c r="J4" s="61" t="s">
+        <v>8018</v>
+      </c>
+      <c r="K4" s="60" t="d">
+        <v>2015-11-18</v>
+      </c>
+      <c r="L4" s="61" t="s">
+        <v>8019</v>
+      </c>
+      <c r="M4" s="61" t="s">
+        <v>8020</v>
+      </c>
+      <c r="N4" s="61" t="s">
+        <v>96</v>
+      </c>
+      <c r="O4" s="61" t="s">
+        <v>8021</v>
+      </c>
+      <c r="P4" s="61" t="s">
+        <v>8022</v>
+      </c>
+      <c r="Q4" s="61" t="s">
+        <v>8023</v>
+      </c>
+      <c r="R4" s="61" t="s">
+        <v>8024</v>
+      </c>
+      <c r="S4" s="61" t="s">
+        <v>8025</v>
+      </c>
+      <c r="T4" s="61" t="s">
+        <v>8026</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="61" t="s">
+        <v>8027</v>
+      </c>
+      <c r="B5" s="61" t="s">
+        <v>8028</v>
+      </c>
+      <c r="C5" s="61">
+        <v>151235</v>
+      </c>
+      <c r="D5" s="61" t="s">
+        <v>8029</v>
+      </c>
+      <c r="E5" s="61" t="s">
+        <v>8030</v>
+      </c>
+      <c r="F5" s="57" t="d">
+        <v>1995-01-02</v>
+      </c>
+      <c r="G5" s="61" t="s">
+        <v>4305</v>
+      </c>
+      <c r="H5" s="61" t="s">
+        <v>8031</v>
+      </c>
+      <c r="I5" s="61" t="s">
+        <v>106</v>
+      </c>
+      <c r="J5" s="61" t="s">
+        <v>66</v>
+      </c>
+      <c r="K5" s="61" t="s">
+        <v>8032</v>
+      </c>
+      <c r="L5" s="61" t="s">
+        <v>3473</v>
+      </c>
+      <c r="M5" s="61" t="s">
+        <v>8033</v>
+      </c>
+      <c r="N5" s="61" t="s">
+        <v>8034</v>
+      </c>
+      <c r="O5" s="61" t="s">
+        <v>8035</v>
+      </c>
+      <c r="P5" s="61" t="s">
+        <v>8036</v>
+      </c>
+      <c r="Q5" s="61" t="s">
+        <v>8037</v>
+      </c>
+      <c r="R5" s="61" t="s">
+        <v>8038</v>
+      </c>
+      <c r="S5" s="61" t="s">
+        <v>8039</v>
+      </c>
+      <c r="T5" s="61" t="s">
+        <v>8040</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="61" t="s">
+        <v>8041</v>
+      </c>
+      <c r="B6" s="61" t="s">
+        <v>8042</v>
+      </c>
+      <c r="C6" s="61">
+        <v>151217</v>
+      </c>
+      <c r="D6" s="61" t="s">
+        <v>8043</v>
+      </c>
+      <c r="E6" s="61" t="s">
+        <v>8044</v>
+      </c>
+      <c r="F6" s="61" t="s">
+        <v>8045</v>
+      </c>
+      <c r="G6" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="61">
+        <v>1940866478</v>
+      </c>
+      <c r="I6" s="61" t="s">
+        <v>8046</v>
+      </c>
+      <c r="J6" s="61" t="s">
+        <v>8047</v>
+      </c>
+      <c r="K6" s="61" t="s">
+        <v>8048</v>
+      </c>
+      <c r="L6" s="61" t="s">
+        <v>8049</v>
+      </c>
+      <c r="M6" s="61" t="s">
+        <v>8050</v>
+      </c>
+      <c r="N6" s="61" t="s">
+        <v>8051</v>
+      </c>
+      <c r="O6" s="61" t="s">
+        <v>8052</v>
+      </c>
+      <c r="P6" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q6" s="61" t="s">
+        <v>8053</v>
+      </c>
+      <c r="R6" s="61" t="s">
+        <v>8054</v>
+      </c>
+      <c r="S6" s="61" t="s">
+        <v>8046</v>
+      </c>
+      <c r="T6" s="61" t="s">
+        <v>8055</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="61" t="s">
+        <v>8056</v>
+      </c>
+      <c r="B7" s="61" t="s">
+        <v>8057</v>
+      </c>
+      <c r="C7" s="61">
+        <v>151222</v>
+      </c>
+      <c r="D7" s="61" t="s">
+        <v>8058</v>
+      </c>
+      <c r="E7" s="61" t="s">
+        <v>7450</v>
+      </c>
+      <c r="F7" s="61" t="s">
+        <v>8059</v>
+      </c>
+      <c r="G7" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="61" t="s">
+        <v>8060</v>
+      </c>
+      <c r="I7" s="61" t="s">
+        <v>197</v>
+      </c>
+      <c r="J7" s="61" t="s">
+        <v>8061</v>
+      </c>
+      <c r="K7" s="61" t="s">
+        <v>2899</v>
+      </c>
+      <c r="L7" s="61" t="s">
+        <v>8062</v>
+      </c>
+      <c r="M7" s="61" t="s">
+        <v>8063</v>
+      </c>
+      <c r="N7" s="61" t="s">
+        <v>8064</v>
+      </c>
+      <c r="O7" s="61" t="s">
+        <v>8065</v>
+      </c>
+      <c r="P7" s="61" t="s">
+        <v>8066</v>
+      </c>
+      <c r="Q7" s="61" t="s">
+        <v>8067</v>
+      </c>
+      <c r="R7" s="61" t="s">
+        <v>8068</v>
+      </c>
+      <c r="S7" s="61" t="s">
+        <v>8069</v>
+      </c>
+      <c r="T7" s="61" t="s">
+        <v>8070</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="61" t="s">
+        <v>8071</v>
+      </c>
+      <c r="B8" s="61" t="s">
+        <v>8072</v>
+      </c>
+      <c r="C8" s="61">
+        <v>151213</v>
+      </c>
+      <c r="D8" s="61" t="s">
+        <v>8073</v>
+      </c>
+      <c r="E8" s="61" t="s">
+        <v>8074</v>
+      </c>
+      <c r="F8" s="57" t="d">
+        <v>1996-01-19</v>
+      </c>
+      <c r="G8" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="61" t="s">
+        <v>8075</v>
+      </c>
+      <c r="I8" s="61" t="s">
+        <v>8076</v>
+      </c>
+      <c r="J8" s="61" t="s">
+        <v>8077</v>
+      </c>
+      <c r="K8" s="61" t="s">
+        <v>8078</v>
+      </c>
+      <c r="L8" s="61" t="s">
+        <v>8079</v>
+      </c>
+      <c r="M8" s="61" t="s">
+        <v>8080</v>
+      </c>
+      <c r="N8" s="61" t="s">
+        <v>8081</v>
+      </c>
+      <c r="O8" s="61" t="s">
+        <v>8082</v>
+      </c>
+      <c r="P8" s="61" t="s">
+        <v>8083</v>
+      </c>
+      <c r="Q8" s="61" t="s">
+        <v>8084</v>
+      </c>
+      <c r="R8" s="61" t="s">
+        <v>8085</v>
+      </c>
+      <c r="S8" s="61" t="s">
+        <v>8086</v>
+      </c>
+      <c r="T8" s="61" t="s">
+        <v>8087</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="61" t="s">
+        <v>8088</v>
+      </c>
+      <c r="B9" s="61" t="s">
+        <v>8089</v>
+      </c>
+      <c r="C9" s="61">
+        <v>151218</v>
+      </c>
+      <c r="D9" s="61" t="s">
+        <v>8090</v>
+      </c>
+      <c r="E9" s="61" t="s">
+        <v>8091</v>
+      </c>
+      <c r="F9" s="61" t="s">
+        <v>8092</v>
+      </c>
+      <c r="G9" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" s="61">
+        <v>8801752554813</v>
+      </c>
+      <c r="I9" s="61" t="s">
+        <v>8093</v>
+      </c>
+      <c r="J9" s="61" t="s">
+        <v>8094</v>
+      </c>
+      <c r="K9" s="61" t="s">
+        <v>8095</v>
+      </c>
+      <c r="L9" s="61" t="s">
+        <v>8096</v>
+      </c>
+      <c r="M9" s="61" t="s">
+        <v>8097</v>
+      </c>
+      <c r="N9" s="61" t="s">
+        <v>8098</v>
+      </c>
+      <c r="O9" s="61" t="s">
+        <v>202</v>
+      </c>
+      <c r="P9" s="61" t="s">
+        <v>3477</v>
+      </c>
+      <c r="Q9" s="61" t="s">
+        <v>8099</v>
+      </c>
+      <c r="R9" s="61" t="s">
+        <v>8100</v>
+      </c>
+      <c r="S9" s="61" t="s">
+        <v>8101</v>
+      </c>
+      <c r="T9" s="61" t="s">
+        <v>8102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="61" t="s">
+        <v>8103</v>
+      </c>
+      <c r="B10" s="61" t="s">
+        <v>8104</v>
+      </c>
+      <c r="C10" s="61">
+        <v>151229</v>
+      </c>
+      <c r="D10" s="61" t="s">
+        <v>8105</v>
+      </c>
+      <c r="E10" s="61" t="s">
+        <v>8106</v>
+      </c>
+      <c r="F10" s="61" t="s">
+        <v>8107</v>
+      </c>
+      <c r="G10" s="61" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" s="61">
+        <v>8801914154957</v>
+      </c>
+      <c r="I10" s="61" t="s">
+        <v>1676</v>
+      </c>
+      <c r="J10" s="61" t="s">
+        <v>8108</v>
+      </c>
+      <c r="K10" s="61" t="s">
+        <v>8109</v>
+      </c>
+      <c r="L10" s="61" t="s">
+        <v>8110</v>
+      </c>
+      <c r="M10" s="61" t="s">
+        <v>8111</v>
+      </c>
+      <c r="N10" s="61" t="s">
+        <v>8112</v>
+      </c>
+      <c r="O10" s="61" t="s">
+        <v>8113</v>
+      </c>
+      <c r="P10" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q10" s="61" t="s">
+        <v>8114</v>
+      </c>
+      <c r="R10" s="61" t="s">
+        <v>8115</v>
+      </c>
+      <c r="S10" s="61" t="s">
+        <v>8116</v>
+      </c>
+      <c r="T10" s="61" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="61" t="s">
+        <v>8117</v>
+      </c>
+      <c r="B11" s="61" t="s">
+        <v>8118</v>
+      </c>
+      <c r="C11" s="61">
+        <v>151230</v>
+      </c>
+      <c r="D11" s="61" t="s">
+        <v>8119</v>
+      </c>
+      <c r="E11" s="61" t="s">
+        <v>8120</v>
+      </c>
+      <c r="F11" s="57" t="d">
+        <v>1997-12-10</v>
+      </c>
+      <c r="G11" s="61" t="s">
+        <v>8121</v>
+      </c>
+      <c r="H11" s="61">
+        <v>8801779670785</v>
+      </c>
+      <c r="I11" s="61" t="s">
+        <v>8122</v>
+      </c>
+      <c r="J11" s="61" t="s">
+        <v>520</v>
+      </c>
+      <c r="K11" s="61" t="s">
+        <v>8123</v>
+      </c>
+      <c r="L11" s="61" t="s">
+        <v>8124</v>
+      </c>
+      <c r="M11" s="61" t="s">
+        <v>8125</v>
+      </c>
+      <c r="N11" s="61" t="s">
+        <v>8126</v>
+      </c>
+      <c r="O11" s="61" t="s">
+        <v>8127</v>
+      </c>
+      <c r="P11" s="61" t="s">
+        <v>8128</v>
+      </c>
+      <c r="Q11" s="61" t="s">
+        <v>1805</v>
+      </c>
+      <c r="R11" s="61" t="s">
+        <v>8129</v>
+      </c>
+      <c r="S11" s="61" t="s">
+        <v>8130</v>
+      </c>
+      <c r="T11" s="61" t="s">
+        <v>8131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="61" t="s">
+        <v>8132</v>
+      </c>
+      <c r="B12" s="61" t="s">
+        <v>8133</v>
+      </c>
+      <c r="C12" s="61">
+        <v>151208</v>
+      </c>
+      <c r="D12" s="61" t="s">
+        <v>8134</v>
+      </c>
+      <c r="E12" s="61" t="s">
+        <v>8135</v>
+      </c>
+      <c r="F12" s="57" t="d">
+        <v>1997-06-06</v>
+      </c>
+      <c r="G12" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" s="61">
+        <v>1985524585</v>
+      </c>
+      <c r="I12" s="61" t="s">
+        <v>8136</v>
+      </c>
+      <c r="J12" s="61" t="s">
+        <v>8137</v>
+      </c>
+      <c r="K12" s="61" t="s">
+        <v>8138</v>
+      </c>
+      <c r="L12" s="61" t="s">
+        <v>8139</v>
+      </c>
+      <c r="M12" s="61" t="s">
+        <v>8140</v>
+      </c>
+      <c r="N12" s="61" t="s">
+        <v>8141</v>
+      </c>
+      <c r="O12" s="61" t="s">
+        <v>8142</v>
+      </c>
+      <c r="P12" s="61" t="s">
+        <v>3277</v>
+      </c>
+      <c r="Q12" s="61" t="s">
+        <v>3278</v>
+      </c>
+      <c r="R12" s="61" t="s">
+        <v>8143</v>
+      </c>
+      <c r="S12" s="61" t="s">
+        <v>8144</v>
+      </c>
+      <c r="T12" s="61" t="s">
+        <v>8145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="61" t="s">
+        <v>8146</v>
+      </c>
+      <c r="B13" s="61" t="s">
+        <v>8147</v>
+      </c>
+      <c r="C13" s="61">
+        <v>151216</v>
+      </c>
+      <c r="D13" s="61" t="s">
+        <v>8148</v>
+      </c>
+      <c r="E13" s="61" t="s">
+        <v>2671</v>
+      </c>
+      <c r="F13" s="61" t="s">
+        <v>8149</v>
+      </c>
+      <c r="G13" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="61">
+        <v>1689828646</v>
+      </c>
+      <c r="I13" s="61" t="s">
+        <v>106</v>
+      </c>
+      <c r="J13" s="61" t="s">
+        <v>8150</v>
+      </c>
+      <c r="K13" s="61" t="s">
+        <v>8151</v>
+      </c>
+      <c r="L13" s="61" t="s">
+        <v>8152</v>
+      </c>
+      <c r="M13" s="61" t="s">
+        <v>8153</v>
+      </c>
+      <c r="N13" s="61" t="s">
+        <v>442</v>
+      </c>
+      <c r="O13" s="61" t="s">
+        <v>850</v>
+      </c>
+      <c r="P13" s="61" t="s">
+        <v>8154</v>
+      </c>
+      <c r="Q13" s="61" t="s">
+        <v>8155</v>
+      </c>
+      <c r="R13" s="61" t="s">
+        <v>8156</v>
+      </c>
+      <c r="S13" s="61" t="s">
+        <v>8157</v>
+      </c>
+      <c r="T13" s="61" t="s">
+        <v>8158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="61" t="s">
+        <v>8159</v>
+      </c>
+      <c r="B14" s="61" t="s">
+        <v>8160</v>
+      </c>
+      <c r="C14" s="61">
+        <v>151240</v>
+      </c>
+      <c r="D14" s="61" t="s">
+        <v>8161</v>
+      </c>
+      <c r="E14" s="61" t="s">
+        <v>8162</v>
+      </c>
+      <c r="F14" s="61" t="s">
+        <v>8163</v>
+      </c>
+      <c r="G14" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="61" t="s">
+        <v>8164</v>
+      </c>
+      <c r="I14" s="61" t="s">
+        <v>8165</v>
+      </c>
+      <c r="J14" s="61" t="s">
+        <v>8166</v>
+      </c>
+      <c r="K14" s="61" t="s">
+        <v>8167</v>
+      </c>
+      <c r="L14" s="61" t="s">
+        <v>8168</v>
+      </c>
+      <c r="M14" s="61" t="s">
+        <v>8169</v>
+      </c>
+      <c r="N14" s="61" t="s">
+        <v>8170</v>
+      </c>
+      <c r="O14" s="61" t="s">
+        <v>8171</v>
+      </c>
+      <c r="P14" s="61" t="s">
+        <v>8172</v>
+      </c>
+      <c r="Q14" s="61" t="s">
+        <v>8173</v>
+      </c>
+      <c r="R14" s="61" t="s">
+        <v>8174</v>
+      </c>
+      <c r="S14" s="61" t="s">
+        <v>8175</v>
+      </c>
+      <c r="T14" s="61" t="s">
+        <v>8176</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="61" t="s">
+        <v>8177</v>
+      </c>
+      <c r="B15" s="61" t="s">
+        <v>8178</v>
+      </c>
+      <c r="C15" s="61">
+        <v>151236</v>
+      </c>
+      <c r="D15" s="61" t="s">
+        <v>8179</v>
+      </c>
+      <c r="E15" s="61" t="s">
+        <v>8180</v>
+      </c>
+      <c r="F15" s="61" t="s">
+        <v>8181</v>
+      </c>
+      <c r="G15" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" s="61" t="s">
+        <v>8182</v>
+      </c>
+      <c r="I15" s="61" t="s">
+        <v>8183</v>
+      </c>
+      <c r="J15" s="61" t="s">
+        <v>566</v>
+      </c>
+      <c r="K15" s="61" t="s">
+        <v>8184</v>
+      </c>
+      <c r="L15" s="61" t="s">
+        <v>8185</v>
+      </c>
+      <c r="M15" s="61" t="s">
+        <v>8186</v>
+      </c>
+      <c r="N15" s="61" t="s">
+        <v>8187</v>
+      </c>
+      <c r="O15" s="61" t="s">
+        <v>8188</v>
+      </c>
+      <c r="P15" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q15" s="61" t="s">
+        <v>8189</v>
+      </c>
+      <c r="R15" s="61" t="s">
+        <v>8190</v>
+      </c>
+      <c r="S15" s="61" t="s">
+        <v>8191</v>
+      </c>
+      <c r="T15" s="61" t="s">
+        <v>8192</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="61" t="s">
+        <v>8193</v>
+      </c>
+      <c r="B16" s="61" t="s">
+        <v>8194</v>
+      </c>
+      <c r="C16" s="61">
+        <v>151221</v>
+      </c>
+      <c r="D16" s="61" t="s">
+        <v>8195</v>
+      </c>
+      <c r="E16" s="61" t="s">
+        <v>3404</v>
+      </c>
+      <c r="F16" s="61" t="s">
+        <v>8196</v>
+      </c>
+      <c r="G16" s="61" t="s">
+        <v>4305</v>
+      </c>
+      <c r="H16" s="61" t="s">
+        <v>8197</v>
+      </c>
+      <c r="I16" s="61" t="s">
+        <v>8198</v>
+      </c>
+      <c r="J16" s="61" t="s">
+        <v>8199</v>
+      </c>
+      <c r="K16" s="61" t="s">
+        <v>8200</v>
+      </c>
+      <c r="L16" s="61" t="s">
+        <v>8201</v>
+      </c>
+      <c r="M16" s="61" t="s">
+        <v>8202</v>
+      </c>
+      <c r="N16" s="61" t="s">
+        <v>8203</v>
+      </c>
+      <c r="O16" s="61" t="s">
+        <v>8204</v>
+      </c>
+      <c r="P16" s="61" t="s">
+        <v>8205</v>
+      </c>
+      <c r="Q16" s="61" t="s">
+        <v>8206</v>
+      </c>
+      <c r="R16" s="61" t="s">
+        <v>8207</v>
+      </c>
+      <c r="S16" s="61" t="s">
+        <v>8208</v>
+      </c>
+      <c r="T16" s="61" t="s">
+        <v>8209</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="61" t="s">
+        <v>8210</v>
+      </c>
+      <c r="B17" s="61" t="s">
+        <v>8211</v>
+      </c>
+      <c r="C17" s="61">
+        <v>151223</v>
+      </c>
+      <c r="D17" s="61" t="s">
+        <v>8212</v>
+      </c>
+      <c r="E17" s="61" t="s">
+        <v>8213</v>
+      </c>
+      <c r="F17" s="61" t="s">
+        <v>8214</v>
+      </c>
+      <c r="G17" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="H17" s="61" t="s">
+        <v>8215</v>
+      </c>
+      <c r="I17" s="61" t="s">
+        <v>8216</v>
+      </c>
+      <c r="J17" s="61" t="s">
+        <v>152</v>
+      </c>
+      <c r="K17" s="61" t="s">
+        <v>1292</v>
+      </c>
+      <c r="L17" s="61" t="s">
+        <v>8217</v>
+      </c>
+      <c r="M17" s="61" t="s">
+        <v>8218</v>
+      </c>
+      <c r="N17" s="61" t="s">
+        <v>8219</v>
+      </c>
+      <c r="O17" s="61" t="s">
+        <v>8220</v>
+      </c>
+      <c r="P17" s="61" t="s">
+        <v>8221</v>
+      </c>
+      <c r="Q17" s="61" t="s">
+        <v>8222</v>
+      </c>
+      <c r="R17" s="61" t="s">
+        <v>8223</v>
+      </c>
+      <c r="S17" s="61" t="s">
+        <v>8224</v>
+      </c>
+      <c r="T17" s="61" t="s">
+        <v>8225</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="61" t="s">
+        <v>8226</v>
+      </c>
+      <c r="B18" s="61" t="s">
+        <v>8227</v>
+      </c>
+      <c r="C18" s="61">
+        <v>151211</v>
+      </c>
+      <c r="D18" s="61" t="s">
+        <v>8228</v>
+      </c>
+      <c r="E18" s="61" t="s">
+        <v>8229</v>
+      </c>
+      <c r="F18" s="61" t="s">
+        <v>8230</v>
+      </c>
+      <c r="G18" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="H18" s="61" t="s">
+        <v>8231</v>
+      </c>
+      <c r="I18" s="61" t="s">
+        <v>8232</v>
+      </c>
+      <c r="J18" s="61" t="s">
+        <v>8233</v>
+      </c>
+      <c r="K18" s="30" t="d">
+        <v>2018-02-22</v>
+      </c>
+      <c r="L18" s="61" t="s">
+        <v>8234</v>
+      </c>
+      <c r="M18" s="61" t="s">
+        <v>8235</v>
+      </c>
+      <c r="N18" s="61" t="s">
+        <v>8236</v>
+      </c>
+      <c r="O18" s="61" t="s">
+        <v>8237</v>
+      </c>
+      <c r="P18" s="61" t="s">
+        <v>8238</v>
+      </c>
+      <c r="Q18" s="61" t="s">
+        <v>8239</v>
+      </c>
+      <c r="R18" s="61" t="s">
+        <v>8240</v>
+      </c>
+      <c r="S18" s="61" t="s">
+        <v>8241</v>
+      </c>
+      <c r="T18" s="61" t="s">
+        <v>8242</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="61" t="s">
+        <v>8243</v>
+      </c>
+      <c r="B19" s="61" t="s">
+        <v>8244</v>
+      </c>
+      <c r="C19" s="61">
+        <v>151212</v>
+      </c>
+      <c r="D19" s="61" t="s">
+        <v>8245</v>
+      </c>
+      <c r="E19" s="61" t="s">
+        <v>8246</v>
+      </c>
+      <c r="F19" s="61" t="s">
+        <v>8247</v>
+      </c>
+      <c r="G19" s="61" t="s">
+        <v>273</v>
+      </c>
+      <c r="H19" s="61" t="s">
+        <v>8248</v>
+      </c>
+      <c r="I19" s="61" t="s">
+        <v>8249</v>
+      </c>
+      <c r="J19" s="61" t="s">
+        <v>8250</v>
+      </c>
+      <c r="K19" s="61" t="s">
+        <v>8251</v>
+      </c>
+      <c r="L19" s="61" t="s">
+        <v>8252</v>
+      </c>
+      <c r="M19" s="61" t="s">
+        <v>8253</v>
+      </c>
+      <c r="N19" s="61" t="s">
+        <v>8254</v>
+      </c>
+      <c r="O19" s="61" t="s">
+        <v>8255</v>
+      </c>
+      <c r="P19" s="61" t="s">
+        <v>8256</v>
+      </c>
+      <c r="Q19" s="61" t="s">
+        <v>8257</v>
+      </c>
+      <c r="R19" s="61" t="s">
+        <v>8258</v>
+      </c>
+      <c r="S19" s="61" t="s">
+        <v>8259</v>
+      </c>
+      <c r="T19" s="61" t="s">
+        <v>8260</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="61" t="s">
+        <v>8261</v>
+      </c>
+      <c r="B20" s="61" t="s">
+        <v>8262</v>
+      </c>
+      <c r="C20" s="61">
+        <v>151232</v>
+      </c>
+      <c r="D20" s="61" t="s">
+        <v>8263</v>
+      </c>
+      <c r="E20" s="61" t="s">
+        <v>8253</v>
+      </c>
+      <c r="F20" s="61" t="s">
+        <v>8264</v>
+      </c>
+      <c r="G20" s="61" t="s">
+        <v>576</v>
+      </c>
+      <c r="H20" s="61" t="s">
+        <v>8265</v>
+      </c>
+      <c r="I20" s="61" t="s">
+        <v>8266</v>
+      </c>
+      <c r="J20" s="61" t="s">
+        <v>8267</v>
+      </c>
+      <c r="K20" s="61" t="s">
+        <v>6005</v>
+      </c>
+      <c r="L20" s="61" t="s">
+        <v>8268</v>
+      </c>
+      <c r="M20" s="61" t="s">
+        <v>8269</v>
+      </c>
+      <c r="N20" s="61" t="s">
+        <v>8270</v>
+      </c>
+      <c r="O20" s="61" t="s">
+        <v>1912</v>
+      </c>
+      <c r="P20" s="61" t="s">
+        <v>5137</v>
+      </c>
+      <c r="Q20" s="61" t="s">
+        <v>8271</v>
+      </c>
+      <c r="R20" s="61" t="s">
+        <v>8272</v>
+      </c>
+      <c r="S20" s="61" t="s">
+        <v>8273</v>
+      </c>
+      <c r="T20" s="61" t="s">
+        <v>8274</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="61" t="s">
+        <v>8275</v>
+      </c>
+      <c r="B21" s="61" t="s">
+        <v>8276</v>
+      </c>
+      <c r="C21" s="61">
+        <v>151209</v>
+      </c>
+      <c r="D21" s="61" t="s">
+        <v>8277</v>
+      </c>
+      <c r="E21" s="61" t="s">
+        <v>8278</v>
+      </c>
+      <c r="F21" s="61" t="s">
+        <v>8279</v>
+      </c>
+      <c r="G21" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" s="61" t="s">
+        <v>8280</v>
+      </c>
+      <c r="I21" s="61" t="s">
+        <v>2207</v>
+      </c>
+      <c r="J21" s="61" t="s">
+        <v>8281</v>
+      </c>
+      <c r="K21" s="57" t="d">
+        <v>2018-09-03</v>
+      </c>
+      <c r="L21" s="61" t="s">
+        <v>8282</v>
+      </c>
+      <c r="M21" s="61" t="s">
+        <v>8283</v>
+      </c>
+      <c r="N21" s="61" t="s">
+        <v>8284</v>
+      </c>
+      <c r="O21" s="61" t="s">
+        <v>8285</v>
+      </c>
+      <c r="P21" s="61" t="s">
+        <v>8286</v>
+      </c>
+      <c r="Q21" s="61" t="s">
+        <v>8287</v>
+      </c>
+      <c r="R21" s="61" t="s">
+        <v>8288</v>
+      </c>
+      <c r="S21" s="61" t="s">
+        <v>8289</v>
+      </c>
+      <c r="T21" s="61" t="s">
+        <v>8290</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="61" t="s">
+        <v>8291</v>
+      </c>
+      <c r="B22" s="61" t="s">
+        <v>8292</v>
+      </c>
+      <c r="C22" s="61">
+        <v>151226</v>
+      </c>
+      <c r="D22" s="61" t="s">
+        <v>8293</v>
+      </c>
+      <c r="E22" s="61" t="s">
+        <v>8294</v>
+      </c>
+      <c r="F22" s="30" t="d">
+        <v>2018-05-24</v>
+      </c>
+      <c r="G22" s="61" t="s">
+        <v>8295</v>
+      </c>
+      <c r="H22" s="61" t="s">
+        <v>8296</v>
+      </c>
+      <c r="I22" s="61" t="s">
+        <v>8297</v>
+      </c>
+      <c r="J22" s="61" t="s">
+        <v>8298</v>
+      </c>
+      <c r="K22" s="61" t="s">
+        <v>8299</v>
+      </c>
+      <c r="L22" s="61" t="s">
+        <v>8300</v>
+      </c>
+      <c r="M22" s="61" t="s">
+        <v>8301</v>
+      </c>
+      <c r="N22" s="61" t="s">
+        <v>8302</v>
+      </c>
+      <c r="O22" s="61" t="s">
+        <v>8303</v>
+      </c>
+      <c r="P22" s="61" t="s">
+        <v>8304</v>
+      </c>
+      <c r="Q22" s="61" t="s">
+        <v>8305</v>
+      </c>
+      <c r="R22" s="61" t="s">
+        <v>8306</v>
+      </c>
+      <c r="S22" s="61" t="s">
+        <v>8307</v>
+      </c>
+      <c r="T22" s="61" t="s">
+        <v>8308</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" s="61" t="s">
+        <v>8309</v>
+      </c>
+      <c r="B23" s="61" t="s">
+        <v>8310</v>
+      </c>
+      <c r="C23" s="61">
+        <v>151201</v>
+      </c>
+      <c r="D23" s="61" t="s">
+        <v>8311</v>
+      </c>
+      <c r="E23" s="61" t="s">
+        <v>8312</v>
+      </c>
+      <c r="F23" s="61" t="s">
+        <v>8313</v>
+      </c>
+      <c r="G23" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" s="61" t="s">
+        <v>8314</v>
+      </c>
+      <c r="I23" s="61" t="s">
+        <v>8315</v>
+      </c>
+      <c r="J23" s="61" t="s">
+        <v>353</v>
+      </c>
+      <c r="K23" s="61" t="s">
+        <v>8316</v>
+      </c>
+      <c r="L23" s="61" t="s">
+        <v>8317</v>
+      </c>
+      <c r="M23" s="61" t="s">
+        <v>8318</v>
+      </c>
+      <c r="N23" s="61" t="s">
+        <v>8319</v>
+      </c>
+      <c r="O23" s="61" t="s">
+        <v>8320</v>
+      </c>
+      <c r="P23" s="61" t="s">
+        <v>8321</v>
+      </c>
+      <c r="Q23" s="61" t="s">
+        <v>8322</v>
+      </c>
+      <c r="R23" s="61" t="s">
+        <v>8323</v>
+      </c>
+      <c r="S23" s="61" t="s">
+        <v>8324</v>
+      </c>
+      <c r="T23" s="61" t="s">
+        <v>8325</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" s="61" t="s">
+        <v>8326</v>
+      </c>
+      <c r="B24" s="61" t="s">
+        <v>8327</v>
+      </c>
+      <c r="C24" s="61">
+        <v>151238</v>
+      </c>
+      <c r="D24" s="61" t="s">
+        <v>8328</v>
+      </c>
+      <c r="E24" s="61" t="s">
+        <v>8329</v>
+      </c>
+      <c r="F24" s="61" t="s">
+        <v>8330</v>
+      </c>
+      <c r="G24" s="61" t="s">
+        <v>273</v>
+      </c>
+      <c r="H24" s="61" t="s">
+        <v>8331</v>
+      </c>
+      <c r="I24" s="61" t="s">
+        <v>8312</v>
+      </c>
+      <c r="J24" s="61" t="s">
+        <v>8332</v>
+      </c>
+      <c r="K24" s="61" t="s">
+        <v>8333</v>
+      </c>
+      <c r="L24" s="61" t="s">
+        <v>8334</v>
+      </c>
+      <c r="M24" s="61" t="s">
+        <v>8335</v>
+      </c>
+      <c r="N24" s="61" t="s">
+        <v>865</v>
+      </c>
+      <c r="O24" s="61" t="s">
+        <v>8336</v>
+      </c>
+      <c r="P24" s="61" t="s">
+        <v>8337</v>
+      </c>
+      <c r="Q24" s="61" t="s">
+        <v>901</v>
+      </c>
+      <c r="R24" s="61" t="s">
+        <v>8338</v>
+      </c>
+      <c r="S24" s="61" t="s">
+        <v>8339</v>
+      </c>
+      <c r="T24" s="61" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" s="61" t="s">
+        <v>8340</v>
+      </c>
+      <c r="B25" s="61" t="s">
+        <v>8341</v>
+      </c>
+      <c r="C25" s="61">
+        <v>151215</v>
+      </c>
+      <c r="D25" s="61" t="s">
+        <v>8342</v>
+      </c>
+      <c r="E25" s="61" t="s">
+        <v>3806</v>
+      </c>
+      <c r="F25" s="61" t="s">
+        <v>8343</v>
+      </c>
+      <c r="G25" s="61" t="s">
+        <v>8344</v>
+      </c>
+      <c r="H25" s="61" t="s">
+        <v>8345</v>
+      </c>
+      <c r="I25" s="61" t="s">
+        <v>8249</v>
+      </c>
+      <c r="J25" s="61" t="s">
+        <v>8346</v>
+      </c>
+      <c r="K25" s="61" t="s">
+        <v>8347</v>
+      </c>
+      <c r="L25" s="61" t="s">
+        <v>8348</v>
+      </c>
+      <c r="M25" s="61" t="s">
+        <v>8349</v>
+      </c>
+      <c r="N25" s="61" t="s">
+        <v>8350</v>
+      </c>
+      <c r="O25" s="61" t="s">
+        <v>8255</v>
+      </c>
+      <c r="P25" s="61" t="s">
+        <v>8351</v>
+      </c>
+      <c r="Q25" s="61" t="s">
+        <v>8352</v>
+      </c>
+      <c r="R25" s="61" t="s">
+        <v>8353</v>
+      </c>
+      <c r="S25" s="61" t="s">
+        <v>8354</v>
+      </c>
+      <c r="T25" s="61" t="s">
+        <v>8355</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" s="61" t="s">
+        <v>8356</v>
+      </c>
+      <c r="B26" s="61" t="s">
+        <v>8357</v>
+      </c>
+      <c r="C26" s="61">
+        <v>151207</v>
+      </c>
+      <c r="D26" s="61" t="s">
+        <v>8358</v>
+      </c>
+      <c r="E26" s="61" t="s">
+        <v>8359</v>
+      </c>
+      <c r="F26" s="57" t="d">
+        <v>1997-04-02</v>
+      </c>
+      <c r="G26" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="H26" s="61" t="s">
+        <v>8360</v>
+      </c>
+      <c r="I26" s="61" t="s">
+        <v>66</v>
+      </c>
+      <c r="J26" s="61" t="s">
+        <v>8361</v>
+      </c>
+      <c r="K26" s="61" t="s">
+        <v>8362</v>
+      </c>
+      <c r="L26" s="61" t="s">
+        <v>8363</v>
+      </c>
+      <c r="M26" s="61" t="s">
+        <v>8364</v>
+      </c>
+      <c r="N26" s="61" t="s">
+        <v>8365</v>
+      </c>
+      <c r="O26" s="61" t="s">
+        <v>8366</v>
+      </c>
+      <c r="P26" s="61" t="s">
+        <v>498</v>
+      </c>
+      <c r="Q26" s="61" t="s">
+        <v>8367</v>
+      </c>
+      <c r="R26" s="61" t="s">
+        <v>8368</v>
+      </c>
+      <c r="S26" s="61" t="s">
+        <v>8369</v>
+      </c>
+      <c r="T26" s="61" t="s">
+        <v>8370</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" s="61" t="s">
+        <v>8371</v>
+      </c>
+      <c r="B27" s="61" t="s">
+        <v>8372</v>
+      </c>
+      <c r="C27" s="61">
+        <v>151214</v>
+      </c>
+      <c r="D27" s="61" t="s">
+        <v>8373</v>
+      </c>
+      <c r="E27" s="61" t="s">
+        <v>8374</v>
+      </c>
+      <c r="F27" s="61" t="s">
+        <v>8375</v>
+      </c>
+      <c r="G27" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="H27" s="61" t="s">
+        <v>8376</v>
+      </c>
+      <c r="I27" s="61" t="s">
+        <v>8377</v>
+      </c>
+      <c r="J27" s="61" t="s">
+        <v>8378</v>
+      </c>
+      <c r="K27" s="61" t="s">
+        <v>8379</v>
+      </c>
+      <c r="L27" s="61" t="s">
+        <v>8380</v>
+      </c>
+      <c r="M27" s="61" t="s">
+        <v>8381</v>
+      </c>
+      <c r="N27" s="61" t="s">
+        <v>8382</v>
+      </c>
+      <c r="O27" s="61" t="s">
+        <v>8383</v>
+      </c>
+      <c r="P27" s="61" t="s">
+        <v>3311</v>
+      </c>
+      <c r="Q27" s="61" t="s">
+        <v>8384</v>
+      </c>
+      <c r="R27" s="61" t="s">
+        <v>8385</v>
+      </c>
+      <c r="S27" s="61" t="s">
+        <v>8386</v>
+      </c>
+      <c r="T27" s="61" t="s">
+        <v>8387</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" s="61" t="s">
+        <v>8388</v>
+      </c>
+      <c r="B28" s="61" t="s">
+        <v>8389</v>
+      </c>
+      <c r="C28" s="61">
+        <v>151243</v>
+      </c>
+      <c r="D28" s="61" t="s">
+        <v>8390</v>
+      </c>
+      <c r="E28" s="61" t="s">
+        <v>8391</v>
+      </c>
+      <c r="F28" s="61" t="s">
+        <v>8392</v>
+      </c>
+      <c r="G28" s="61" t="s">
+        <v>51</v>
+      </c>
+      <c r="H28" s="61" t="s">
+        <v>8393</v>
+      </c>
+      <c r="I28" s="61" t="s">
+        <v>8394</v>
+      </c>
+      <c r="J28" s="61" t="s">
+        <v>8395</v>
+      </c>
+      <c r="K28" s="61" t="s">
+        <v>8396</v>
+      </c>
+      <c r="L28" s="61" t="s">
+        <v>8397</v>
+      </c>
+      <c r="M28" s="61" t="s">
+        <v>8398</v>
+      </c>
+      <c r="N28" s="61" t="s">
+        <v>8399</v>
+      </c>
+      <c r="O28" s="61" t="s">
+        <v>8400</v>
+      </c>
+      <c r="P28" s="61" t="s">
+        <v>8401</v>
+      </c>
+      <c r="Q28" s="61" t="s">
+        <v>8402</v>
+      </c>
+      <c r="R28" s="61" t="s">
+        <v>8403</v>
+      </c>
+      <c r="S28" s="61" t="s">
+        <v>8404</v>
+      </c>
+      <c r="T28" s="61" t="s">
+        <v>8405</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" s="61" t="s">
+        <v>8406</v>
+      </c>
+      <c r="B29" s="61" t="s">
+        <v>8407</v>
+      </c>
+      <c r="C29" s="61">
+        <v>151204</v>
+      </c>
+      <c r="D29" s="61" t="s">
+        <v>8408</v>
+      </c>
+      <c r="E29" s="61" t="s">
+        <v>8409</v>
+      </c>
+      <c r="F29" s="61" t="s">
+        <v>8410</v>
+      </c>
+      <c r="G29" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="H29" s="61" t="s">
+        <v>8411</v>
+      </c>
+      <c r="I29" s="61" t="s">
+        <v>8412</v>
+      </c>
+      <c r="J29" s="61" t="s">
+        <v>4063</v>
+      </c>
+      <c r="K29" s="61" t="s">
+        <v>8413</v>
+      </c>
+      <c r="L29" s="61" t="s">
+        <v>8414</v>
+      </c>
+      <c r="M29" s="61" t="s">
+        <v>8415</v>
+      </c>
+      <c r="N29" s="61" t="s">
+        <v>8416</v>
+      </c>
+      <c r="O29" s="61" t="s">
+        <v>8417</v>
+      </c>
+      <c r="P29" s="61" t="s">
+        <v>8418</v>
+      </c>
+      <c r="Q29" s="61" t="s">
+        <v>8419</v>
+      </c>
+      <c r="R29" s="61" t="s">
+        <v>8420</v>
+      </c>
+      <c r="S29" s="61" t="s">
+        <v>8421</v>
+      </c>
+      <c r="T29" s="61" t="s">
+        <v>8422</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" s="61" t="s">
+        <v>8423</v>
+      </c>
+      <c r="B30" s="61" t="s">
+        <v>8378</v>
+      </c>
+      <c r="C30" s="61">
+        <v>151228</v>
+      </c>
+      <c r="D30" s="61" t="s">
+        <v>8424</v>
+      </c>
+      <c r="E30" s="61" t="s">
+        <v>8425</v>
+      </c>
+      <c r="F30" s="61" t="s">
+        <v>8426</v>
+      </c>
+      <c r="G30" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="H30" s="61" t="s">
+        <v>8427</v>
+      </c>
+      <c r="I30" s="61" t="s">
+        <v>8428</v>
+      </c>
+      <c r="J30" s="61" t="s">
+        <v>8429</v>
+      </c>
+      <c r="K30" s="61" t="s">
+        <v>8430</v>
+      </c>
+      <c r="L30" s="61" t="s">
+        <v>8431</v>
+      </c>
+      <c r="M30" s="61" t="s">
+        <v>8432</v>
+      </c>
+      <c r="N30" s="61" t="s">
+        <v>8433</v>
+      </c>
+      <c r="O30" s="61" t="s">
+        <v>8434</v>
+      </c>
+      <c r="P30" s="61" t="s">
+        <v>8435</v>
+      </c>
+      <c r="Q30" s="61" t="s">
+        <v>8436</v>
+      </c>
+      <c r="R30" s="61" t="s">
+        <v>8437</v>
+      </c>
+      <c r="S30" s="61" t="s">
+        <v>8438</v>
+      </c>
+      <c r="T30" s="61" t="s">
+        <v>8439</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6E03C7F-97F6-4BB9-B245-19AA982FE7B1}">
   <dimension ref="A1:R20"/>
   <sheetViews>
@@ -31844,7 +34977,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE7941DC-3B92-4927-AB8B-B791B24B5EB3}">
   <dimension ref="A1:U51"/>
   <sheetViews>
@@ -35226,7 +38359,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71081711-50D2-4082-BF61-266D123719AD}">
   <dimension ref="A1:U32"/>
   <sheetViews>
@@ -37186,7 +40319,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7656F297-BBD5-4891-8AD0-56D88983EEAE}">
   <dimension ref="A1:S38"/>
   <sheetViews>
@@ -39463,7 +42596,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAD2024B-BE1B-4AB8-96AD-C4C705FA3854}">
   <dimension ref="A1:T51"/>
   <sheetViews>
@@ -40871,7 +44004,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C4AB611-F67C-40A8-9D0A-2B4D9C73B292}">
   <dimension ref="A1:T32"/>
   <sheetViews>
@@ -42904,7 +46037,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E55E7762-3471-4A50-994C-AF3C25570A3A}">
   <dimension ref="A1:T24"/>
   <sheetViews>
@@ -44420,7 +47553,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DA14D6F-9059-439D-8E97-6A52AFDB3575}">
   <dimension ref="A1:R63"/>
   <sheetViews>
@@ -46704,7 +49837,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDF97123-3443-412D-A3EF-77DEAC1A2159}">
   <dimension ref="A1:S16"/>
   <sheetViews>
@@ -47671,1238 +50804,6 @@
     <hyperlink ref="G9" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A92400CB-A3D4-4ED5-8114-54A4313A8CE0}">
-  <dimension ref="A1:R41"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" customWidth="1"/>
-    <col min="7" max="7" width="25.42578125" customWidth="1"/>
-    <col min="8" max="8" width="27.85546875" customWidth="1"/>
-    <col min="9" max="9" width="30.7109375" customWidth="1"/>
-    <col min="10" max="10" width="17.85546875" customWidth="1"/>
-    <col min="11" max="11" width="32" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" customWidth="1"/>
-    <col min="13" max="13" width="17.85546875" customWidth="1"/>
-    <col min="14" max="14" width="15.42578125" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" customWidth="1"/>
-    <col min="16" max="16" width="16.140625" customWidth="1"/>
-    <col min="17" max="17" width="24.28515625" customWidth="1"/>
-    <col min="18" max="18" width="18.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>617</v>
-      </c>
-      <c r="B1" t="s">
-        <v>618</v>
-      </c>
-      <c r="C1" t="s">
-        <v>622</v>
-      </c>
-      <c r="D1" t="s">
-        <v>619</v>
-      </c>
-      <c r="E1" t="s">
-        <v>621</v>
-      </c>
-      <c r="F1" t="s">
-        <v>624</v>
-      </c>
-      <c r="G1" t="s">
-        <v>2199</v>
-      </c>
-      <c r="H1" t="s">
-        <v>623</v>
-      </c>
-      <c r="I1" t="s">
-        <v>2200</v>
-      </c>
-      <c r="J1" t="s">
-        <v>639</v>
-      </c>
-      <c r="K1" t="s">
-        <v>2201</v>
-      </c>
-      <c r="L1" t="s">
-        <v>627</v>
-      </c>
-      <c r="M1" t="s">
-        <v>628</v>
-      </c>
-      <c r="N1" t="s">
-        <v>629</v>
-      </c>
-      <c r="O1" t="s">
-        <v>2202</v>
-      </c>
-      <c r="P1" t="s">
-        <v>2203</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>2204</v>
-      </c>
-      <c r="R1" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2205</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2206</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2207</v>
-      </c>
-      <c r="D2" s="3" t="d">
-        <v>1995-08-17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" t="s">
-        <v>2208</v>
-      </c>
-      <c r="G2">
-        <v>1932088095</v>
-      </c>
-      <c r="H2" t="s">
-        <v>1127</v>
-      </c>
-      <c r="I2" t="s">
-        <v>2209</v>
-      </c>
-      <c r="J2" t="s">
-        <v>2210</v>
-      </c>
-      <c r="K2" t="s">
-        <v>2211</v>
-      </c>
-      <c r="L2" t="s">
-        <v>2212</v>
-      </c>
-      <c r="M2" t="s">
-        <v>2213</v>
-      </c>
-      <c r="N2" t="s">
-        <v>2214</v>
-      </c>
-      <c r="O2" t="s">
-        <v>2215</v>
-      </c>
-      <c r="P2" t="s">
-        <v>2216</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>2217</v>
-      </c>
-      <c r="R2" t="s">
-        <v>2218</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2219</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2220</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2221</v>
-      </c>
-      <c r="D3" s="3" t="d">
-        <v>1995-04-10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" t="s">
-        <v>2222</v>
-      </c>
-      <c r="G3">
-        <v>1719130499</v>
-      </c>
-      <c r="H3" t="s">
-        <v>2223</v>
-      </c>
-      <c r="I3" t="s">
-        <v>2224</v>
-      </c>
-      <c r="J3" t="s">
-        <v>2225</v>
-      </c>
-      <c r="K3" t="s">
-        <v>66</v>
-      </c>
-      <c r="L3" t="s">
-        <v>2226</v>
-      </c>
-      <c r="M3" t="s">
-        <v>106</v>
-      </c>
-      <c r="N3" t="s">
-        <v>66</v>
-      </c>
-      <c r="O3" t="s">
-        <v>2227</v>
-      </c>
-      <c r="P3" t="s">
-        <v>2228</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>2229</v>
-      </c>
-      <c r="R3" t="s">
-        <v>2230</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2231</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2232</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2233</v>
-      </c>
-      <c r="D4" s="3" t="d">
-        <v>1995-02-22</v>
-      </c>
-      <c r="E4" t="s">
-        <v>2234</v>
-      </c>
-      <c r="F4" t="s">
-        <v>2235</v>
-      </c>
-      <c r="G4" t="s">
-        <v>2236</v>
-      </c>
-      <c r="H4" t="s">
-        <v>2235</v>
-      </c>
-      <c r="I4" s="6" t="d">
-        <v>2015-03-07</v>
-      </c>
-      <c r="J4" t="s">
-        <v>2237</v>
-      </c>
-      <c r="K4" t="s">
-        <v>2238</v>
-      </c>
-      <c r="L4" t="s">
-        <v>2239</v>
-      </c>
-      <c r="M4" t="s">
-        <v>2240</v>
-      </c>
-      <c r="N4" t="s">
-        <v>2241</v>
-      </c>
-      <c r="O4" t="s">
-        <v>2242</v>
-      </c>
-      <c r="P4" t="s">
-        <v>2243</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>2244</v>
-      </c>
-      <c r="R4" t="s">
-        <v>2245</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>2246</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2247</v>
-      </c>
-      <c r="C5" t="s">
-        <v>2248</v>
-      </c>
-      <c r="D5" s="3" t="d">
-        <v>1996-08-24</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" t="s">
-        <v>2249</v>
-      </c>
-      <c r="G5" t="s">
-        <v>2250</v>
-      </c>
-      <c r="H5" t="s">
-        <v>1127</v>
-      </c>
-      <c r="I5" t="s">
-        <v>2251</v>
-      </c>
-      <c r="J5" t="s">
-        <v>2252</v>
-      </c>
-      <c r="K5" t="s">
-        <v>2253</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>2254</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2255</v>
-      </c>
-      <c r="C6" t="s">
-        <v>2256</v>
-      </c>
-      <c r="D6" t="s">
-        <v>2257</v>
-      </c>
-      <c r="E6" t="s">
-        <v>2258</v>
-      </c>
-      <c r="F6" t="s">
-        <v>2259</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>2260</v>
-      </c>
-      <c r="B7" t="s">
-        <v>2261</v>
-      </c>
-      <c r="C7" t="s">
-        <v>2262</v>
-      </c>
-      <c r="D7" s="3" t="d">
-        <v>1996-12-31</v>
-      </c>
-      <c r="E7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G7" t="s">
-        <v>2263</v>
-      </c>
-      <c r="H7" t="s">
-        <v>2264</v>
-      </c>
-      <c r="I7" t="s">
-        <v>2265</v>
-      </c>
-      <c r="J7" t="s">
-        <v>2266</v>
-      </c>
-      <c r="K7" t="s">
-        <v>2267</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>2268</v>
-      </c>
-      <c r="B8" t="s">
-        <v>2269</v>
-      </c>
-      <c r="C8" t="s">
-        <v>2270</v>
-      </c>
-      <c r="D8" t="s">
-        <v>2271</v>
-      </c>
-      <c r="E8" t="s">
-        <v>2272</v>
-      </c>
-      <c r="F8" t="s">
-        <v>2273</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>2274</v>
-      </c>
-      <c r="B9" t="s">
-        <v>2275</v>
-      </c>
-      <c r="C9" t="s">
-        <v>2276</v>
-      </c>
-      <c r="D9" s="3" t="d">
-        <v>1996-10-12</v>
-      </c>
-      <c r="E9" t="s">
-        <v>2277</v>
-      </c>
-      <c r="G9">
-        <v>8801758269710</v>
-      </c>
-      <c r="I9" t="s">
-        <v>2278</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>2279</v>
-      </c>
-      <c r="C12" t="s">
-        <v>2280</v>
-      </c>
-      <c r="E12" t="s">
-        <v>2281</v>
-      </c>
-      <c r="G12" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>2283</v>
-      </c>
-      <c r="B13" t="s">
-        <v>2284</v>
-      </c>
-      <c r="C13" t="s">
-        <v>2285</v>
-      </c>
-      <c r="D13" s="3" t="d">
-        <v>1996-11-14</v>
-      </c>
-      <c r="E13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" t="s">
-        <v>2286</v>
-      </c>
-      <c r="G13" t="s">
-        <v>2287</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>2288</v>
-      </c>
-      <c r="B15" t="s">
-        <v>2289</v>
-      </c>
-      <c r="C15" t="s">
-        <v>2290</v>
-      </c>
-      <c r="D15" t="s">
-        <v>2291</v>
-      </c>
-      <c r="E15" t="s">
-        <v>2292</v>
-      </c>
-      <c r="F15" t="s">
-        <v>2293</v>
-      </c>
-      <c r="G15" t="s">
-        <v>2294</v>
-      </c>
-      <c r="H15" t="s">
-        <v>2295</v>
-      </c>
-      <c r="I15" t="s">
-        <v>2296</v>
-      </c>
-      <c r="J15" t="s">
-        <v>2297</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>2298</v>
-      </c>
-      <c r="B16" t="s">
-        <v>2299</v>
-      </c>
-      <c r="C16" t="s">
-        <v>2300</v>
-      </c>
-      <c r="D16" s="3" t="d">
-        <v>1994-09-30</v>
-      </c>
-      <c r="E16" t="s">
-        <v>51</v>
-      </c>
-      <c r="F16" t="s">
-        <v>2301</v>
-      </c>
-      <c r="G16" t="s">
-        <v>2302</v>
-      </c>
-      <c r="H16" t="s">
-        <v>2303</v>
-      </c>
-      <c r="I16" t="s">
-        <v>2304</v>
-      </c>
-      <c r="J16" t="s">
-        <v>143</v>
-      </c>
-      <c r="L16" t="s">
-        <v>2305</v>
-      </c>
-      <c r="M16" t="s">
-        <v>2306</v>
-      </c>
-      <c r="N16" t="s">
-        <v>2307</v>
-      </c>
-      <c r="O16" t="s">
-        <v>2308</v>
-      </c>
-      <c r="P16" t="s">
-        <v>2309</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>2310</v>
-      </c>
-      <c r="R16" t="s">
-        <v>2311</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>2312</v>
-      </c>
-      <c r="B17" t="s">
-        <v>2313</v>
-      </c>
-      <c r="C17" t="s">
-        <v>2314</v>
-      </c>
-      <c r="D17" s="3" t="d">
-        <v>1996-02-24</v>
-      </c>
-      <c r="E17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" t="s">
-        <v>2315</v>
-      </c>
-      <c r="G17">
-        <v>1956153956</v>
-      </c>
-      <c r="H17" t="s">
-        <v>2316</v>
-      </c>
-      <c r="I17" t="s">
-        <v>2317</v>
-      </c>
-      <c r="J17" t="s">
-        <v>2318</v>
-      </c>
-      <c r="K17" t="s">
-        <v>2319</v>
-      </c>
-      <c r="L17" t="s">
-        <v>2320</v>
-      </c>
-      <c r="M17" t="s">
-        <v>2321</v>
-      </c>
-      <c r="N17" t="s">
-        <v>2322</v>
-      </c>
-      <c r="O17" t="s">
-        <v>2323</v>
-      </c>
-      <c r="P17" t="s">
-        <v>2324</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>2325</v>
-      </c>
-      <c r="R17" t="s">
-        <v>2326</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>2327</v>
-      </c>
-      <c r="B18" t="s">
-        <v>2328</v>
-      </c>
-      <c r="C18" t="s">
-        <v>2329</v>
-      </c>
-      <c r="D18" s="3" t="d">
-        <v>1997-10-10</v>
-      </c>
-      <c r="E18" t="s">
-        <v>2</v>
-      </c>
-      <c r="F18" t="s">
-        <v>2330</v>
-      </c>
-      <c r="G18" t="s">
-        <v>2331</v>
-      </c>
-      <c r="H18" t="s">
-        <v>2332</v>
-      </c>
-      <c r="I18" t="s">
-        <v>2333</v>
-      </c>
-      <c r="J18" t="s">
-        <v>2334</v>
-      </c>
-      <c r="K18" t="s">
-        <v>2335</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>2336</v>
-      </c>
-      <c r="B19" t="s">
-        <v>2337</v>
-      </c>
-      <c r="C19" t="s">
-        <v>2338</v>
-      </c>
-      <c r="D19" t="s">
-        <v>2339</v>
-      </c>
-      <c r="E19" t="s">
-        <v>2340</v>
-      </c>
-      <c r="F19" t="s">
-        <v>2341</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>2342</v>
-      </c>
-      <c r="B20" t="s">
-        <v>2343</v>
-      </c>
-      <c r="C20" t="s">
-        <v>2344</v>
-      </c>
-      <c r="D20" s="3" t="d">
-        <v>1996-06-16</v>
-      </c>
-      <c r="E20" t="s">
-        <v>2</v>
-      </c>
-      <c r="F20" t="s">
-        <v>2345</v>
-      </c>
-      <c r="G20">
-        <v>1761725988</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>2346</v>
-      </c>
-      <c r="B21" t="s">
-        <v>2347</v>
-      </c>
-      <c r="C21" t="s">
-        <v>2348</v>
-      </c>
-      <c r="D21" t="s">
-        <v>2349</v>
-      </c>
-      <c r="E21" t="s">
-        <v>2350</v>
-      </c>
-      <c r="F21" t="s">
-        <v>2351</v>
-      </c>
-      <c r="G21" t="s">
-        <v>2352</v>
-      </c>
-      <c r="H21" t="s">
-        <v>2353</v>
-      </c>
-      <c r="I21" t="s">
-        <v>2354</v>
-      </c>
-      <c r="J21" t="s">
-        <v>2355</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>2356</v>
-      </c>
-      <c r="B22" t="s">
-        <v>2357</v>
-      </c>
-      <c r="C22" t="s">
-        <v>494</v>
-      </c>
-      <c r="D22" s="3" t="d">
-        <v>1996-03-18</v>
-      </c>
-      <c r="E22" t="s">
-        <v>35</v>
-      </c>
-      <c r="F22" t="s">
-        <v>2358</v>
-      </c>
-      <c r="G22" t="s">
-        <v>2359</v>
-      </c>
-      <c r="H22" t="s">
-        <v>1127</v>
-      </c>
-      <c r="I22" t="s">
-        <v>2360</v>
-      </c>
-      <c r="J22" t="s">
-        <v>2361</v>
-      </c>
-      <c r="K22" t="s">
-        <v>2362</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>2363</v>
-      </c>
-      <c r="B23" t="s">
-        <v>2364</v>
-      </c>
-      <c r="C23" t="s">
-        <v>2365</v>
-      </c>
-      <c r="D23" t="s">
-        <v>2366</v>
-      </c>
-      <c r="E23" t="s">
-        <v>2367</v>
-      </c>
-      <c r="F23" t="s">
-        <v>2368</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>2369</v>
-      </c>
-      <c r="B24" t="s">
-        <v>2370</v>
-      </c>
-      <c r="C24" t="s">
-        <v>2371</v>
-      </c>
-      <c r="D24" s="3" t="d">
-        <v>1996-08-08</v>
-      </c>
-      <c r="E24" t="s">
-        <v>35</v>
-      </c>
-      <c r="F24" t="s">
-        <v>2372</v>
-      </c>
-      <c r="G24">
-        <v>8801964906859</v>
-      </c>
-      <c r="H24" t="s">
-        <v>2373</v>
-      </c>
-      <c r="I24" t="s">
-        <v>2374</v>
-      </c>
-      <c r="J24" t="s">
-        <v>2375</v>
-      </c>
-      <c r="K24" t="s">
-        <v>2376</v>
-      </c>
-      <c r="L24" t="s">
-        <v>2377</v>
-      </c>
-      <c r="M24" t="s">
-        <v>2378</v>
-      </c>
-      <c r="N24" t="s">
-        <v>2379</v>
-      </c>
-      <c r="O24" t="s">
-        <v>2380</v>
-      </c>
-      <c r="P24" t="s">
-        <v>2381</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>2382</v>
-      </c>
-      <c r="R24" t="s">
-        <v>2383</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>2384</v>
-      </c>
-      <c r="B25" t="s">
-        <v>2385</v>
-      </c>
-      <c r="C25" t="s">
-        <v>2386</v>
-      </c>
-      <c r="D25" s="3" t="d">
-        <v>1995-03-25</v>
-      </c>
-      <c r="E25" t="s">
-        <v>2</v>
-      </c>
-      <c r="F25" t="s">
-        <v>1662</v>
-      </c>
-      <c r="G25">
-        <v>1930584548</v>
-      </c>
-      <c r="H25" t="s">
-        <v>2387</v>
-      </c>
-      <c r="I25" t="s">
-        <v>2388</v>
-      </c>
-      <c r="J25" t="s">
-        <v>2389</v>
-      </c>
-      <c r="K25" t="s">
-        <v>2390</v>
-      </c>
-      <c r="L25" t="s">
-        <v>2391</v>
-      </c>
-      <c r="M25" t="s">
-        <v>2392</v>
-      </c>
-      <c r="N25" t="s">
-        <v>2393</v>
-      </c>
-      <c r="O25" t="s">
-        <v>895</v>
-      </c>
-      <c r="P25" t="s">
-        <v>2394</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>2395</v>
-      </c>
-      <c r="R25" t="s">
-        <v>2396</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>815</v>
-      </c>
-      <c r="B26" t="s">
-        <v>2397</v>
-      </c>
-      <c r="C26" t="s">
-        <v>410</v>
-      </c>
-      <c r="D26" s="3" t="d">
-        <v>1996-10-13</v>
-      </c>
-      <c r="E26" t="s">
-        <v>2</v>
-      </c>
-      <c r="F26" t="s">
-        <v>198</v>
-      </c>
-      <c r="G26">
-        <v>1794164668</v>
-      </c>
-      <c r="I26" t="s">
-        <v>2398</v>
-      </c>
-      <c r="J26" t="s">
-        <v>2399</v>
-      </c>
-      <c r="K26" t="s">
-        <v>2400</v>
-      </c>
-      <c r="L26" t="s">
-        <v>2401</v>
-      </c>
-      <c r="M26" t="s">
-        <v>2402</v>
-      </c>
-      <c r="N26" t="s">
-        <v>2403</v>
-      </c>
-      <c r="O26" t="s">
-        <v>2404</v>
-      </c>
-      <c r="P26" t="s">
-        <v>2405</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>2406</v>
-      </c>
-      <c r="R26" t="s">
-        <v>2407</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>2408</v>
-      </c>
-      <c r="B27" t="s">
-        <v>2409</v>
-      </c>
-      <c r="C27" t="s">
-        <v>2410</v>
-      </c>
-      <c r="D27" s="3" t="d">
-        <v>1996-11-06</v>
-      </c>
-      <c r="E27" t="s">
-        <v>2</v>
-      </c>
-      <c r="G27">
-        <v>1997343710</v>
-      </c>
-      <c r="H27" t="s">
-        <v>2411</v>
-      </c>
-      <c r="I27" t="s">
-        <v>2412</v>
-      </c>
-      <c r="J27" t="s">
-        <v>2413</v>
-      </c>
-      <c r="K27" t="s">
-        <v>2414</v>
-      </c>
-      <c r="L27" t="s">
-        <v>2415</v>
-      </c>
-      <c r="M27" t="s">
-        <v>2416</v>
-      </c>
-      <c r="N27" t="s">
-        <v>2417</v>
-      </c>
-      <c r="O27" t="s">
-        <v>2418</v>
-      </c>
-      <c r="P27" t="s">
-        <v>2419</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>2420</v>
-      </c>
-      <c r="R27" t="s">
-        <v>2421</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>2422</v>
-      </c>
-      <c r="B28" t="s">
-        <v>2423</v>
-      </c>
-      <c r="C28" t="s">
-        <v>2424</v>
-      </c>
-      <c r="D28" s="3" t="d">
-        <v>1995-02-02</v>
-      </c>
-      <c r="E28" t="s">
-        <v>2425</v>
-      </c>
-      <c r="F28" t="s">
-        <v>2426</v>
-      </c>
-      <c r="G28" t="s">
-        <v>2427</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>197</v>
-      </c>
-      <c r="B30" t="s">
-        <v>1160</v>
-      </c>
-      <c r="C30" t="s">
-        <v>2428</v>
-      </c>
-      <c r="D30" t="s">
-        <v>2429</v>
-      </c>
-      <c r="E30" t="s">
-        <v>2430</v>
-      </c>
-      <c r="F30" t="s">
-        <v>2431</v>
-      </c>
-      <c r="G30" t="s">
-        <v>2432</v>
-      </c>
-      <c r="H30" t="s">
-        <v>2433</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>2434</v>
-      </c>
-      <c r="B31" t="s">
-        <v>2435</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>2436</v>
-      </c>
-      <c r="B32" t="s">
-        <v>2437</v>
-      </c>
-      <c r="C32" t="s">
-        <v>2438</v>
-      </c>
-      <c r="D32" s="3" t="d">
-        <v>1996-12-10</v>
-      </c>
-      <c r="E32" t="s">
-        <v>35</v>
-      </c>
-      <c r="F32" t="s">
-        <v>2439</v>
-      </c>
-      <c r="G32" t="s">
-        <v>2440</v>
-      </c>
-      <c r="H32" t="s">
-        <v>2441</v>
-      </c>
-      <c r="I32" t="s">
-        <v>2442</v>
-      </c>
-      <c r="J32" t="s">
-        <v>2443</v>
-      </c>
-      <c r="K32" t="s">
-        <v>2444</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>2445</v>
-      </c>
-      <c r="B33" t="s">
-        <v>2446</v>
-      </c>
-      <c r="C33" t="s">
-        <v>2447</v>
-      </c>
-      <c r="D33" t="s">
-        <v>2448</v>
-      </c>
-      <c r="E33" t="s">
-        <v>2449</v>
-      </c>
-      <c r="F33" t="s">
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>2451</v>
-      </c>
-      <c r="B34" t="s">
-        <v>2452</v>
-      </c>
-      <c r="C34" t="s">
-        <v>2453</v>
-      </c>
-      <c r="D34" s="3" t="d">
-        <v>1995-07-10</v>
-      </c>
-      <c r="E34" t="s">
-        <v>35</v>
-      </c>
-      <c r="F34" t="s">
-        <v>2454</v>
-      </c>
-      <c r="G34" t="s">
-        <v>2455</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>2456</v>
-      </c>
-      <c r="B36" t="s">
-        <v>2457</v>
-      </c>
-      <c r="C36" t="s">
-        <v>2458</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>2459</v>
-      </c>
-      <c r="B37" t="s">
-        <v>2460</v>
-      </c>
-      <c r="C37" t="s">
-        <v>2461</v>
-      </c>
-      <c r="D37" t="s">
-        <v>2462</v>
-      </c>
-      <c r="E37" t="s">
-        <v>2463</v>
-      </c>
-      <c r="F37" t="s">
-        <v>2464</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>1305</v>
-      </c>
-      <c r="B38" t="s">
-        <v>2465</v>
-      </c>
-      <c r="C38" t="s">
-        <v>2466</v>
-      </c>
-      <c r="D38" s="3" t="d">
-        <v>1996-08-07</v>
-      </c>
-      <c r="E38" t="s">
-        <v>18</v>
-      </c>
-      <c r="F38" t="s">
-        <v>2467</v>
-      </c>
-      <c r="G38">
-        <v>1756753322</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>2468</v>
-      </c>
-      <c r="B40" t="s">
-        <v>2469</v>
-      </c>
-      <c r="C40" t="s">
-        <v>2470</v>
-      </c>
-      <c r="D40" t="s">
-        <v>2471</v>
-      </c>
-      <c r="E40" t="s">
-        <v>2472</v>
-      </c>
-      <c r="F40" t="s">
-        <v>2473</v>
-      </c>
-      <c r="G40" t="s">
-        <v>2474</v>
-      </c>
-      <c r="H40" t="s">
-        <v>2475</v>
-      </c>
-      <c r="I40" t="s">
-        <v>2476</v>
-      </c>
-      <c r="J40" t="s">
-        <v>2477</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>2478</v>
-      </c>
-      <c r="B41" t="s">
-        <v>2479</v>
-      </c>
-      <c r="C41" t="s">
-        <v>2480</v>
-      </c>
-      <c r="D41" s="3" t="d">
-        <v>1995-11-10</v>
-      </c>
-      <c r="E41" t="s">
-        <v>35</v>
-      </c>
-      <c r="F41" t="s">
-        <v>2481</v>
-      </c>
-      <c r="G41">
-        <v>1755412266</v>
-      </c>
-      <c r="H41" t="s">
-        <v>2482</v>
-      </c>
-      <c r="I41" t="s">
-        <v>2483</v>
-      </c>
-      <c r="J41" t="s">
-        <v>2484</v>
-      </c>
-      <c r="K41" t="s">
-        <v>2485</v>
-      </c>
-      <c r="L41" t="s">
-        <v>2486</v>
-      </c>
-      <c r="M41" t="s">
-        <v>2487</v>
-      </c>
-      <c r="N41" t="s">
-        <v>2488</v>
-      </c>
-      <c r="O41" t="s">
-        <v>2489</v>
-      </c>
-      <c r="P41" t="s">
-        <v>2490</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>2491</v>
-      </c>
-      <c r="R41" t="s">
-        <v>2492</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
 
@@ -50625,6 +52526,1238 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A92400CB-A3D4-4ED5-8114-54A4313A8CE0}">
+  <dimension ref="A1:R41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" customWidth="1"/>
+    <col min="7" max="7" width="25.42578125" customWidth="1"/>
+    <col min="8" max="8" width="27.85546875" customWidth="1"/>
+    <col min="9" max="9" width="30.7109375" customWidth="1"/>
+    <col min="10" max="10" width="17.85546875" customWidth="1"/>
+    <col min="11" max="11" width="32" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" customWidth="1"/>
+    <col min="13" max="13" width="17.85546875" customWidth="1"/>
+    <col min="14" max="14" width="15.42578125" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" customWidth="1"/>
+    <col min="16" max="16" width="16.140625" customWidth="1"/>
+    <col min="17" max="17" width="24.28515625" customWidth="1"/>
+    <col min="18" max="18" width="18.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>617</v>
+      </c>
+      <c r="B1" t="s">
+        <v>618</v>
+      </c>
+      <c r="C1" t="s">
+        <v>622</v>
+      </c>
+      <c r="D1" t="s">
+        <v>619</v>
+      </c>
+      <c r="E1" t="s">
+        <v>621</v>
+      </c>
+      <c r="F1" t="s">
+        <v>624</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2199</v>
+      </c>
+      <c r="H1" t="s">
+        <v>623</v>
+      </c>
+      <c r="I1" t="s">
+        <v>2200</v>
+      </c>
+      <c r="J1" t="s">
+        <v>639</v>
+      </c>
+      <c r="K1" t="s">
+        <v>2201</v>
+      </c>
+      <c r="L1" t="s">
+        <v>627</v>
+      </c>
+      <c r="M1" t="s">
+        <v>628</v>
+      </c>
+      <c r="N1" t="s">
+        <v>629</v>
+      </c>
+      <c r="O1" t="s">
+        <v>2202</v>
+      </c>
+      <c r="P1" t="s">
+        <v>2203</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>2204</v>
+      </c>
+      <c r="R1" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2205</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2206</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2207</v>
+      </c>
+      <c r="D2" s="3" t="d">
+        <v>1995-08-17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2208</v>
+      </c>
+      <c r="G2">
+        <v>1932088095</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1127</v>
+      </c>
+      <c r="I2" t="s">
+        <v>2209</v>
+      </c>
+      <c r="J2" t="s">
+        <v>2210</v>
+      </c>
+      <c r="K2" t="s">
+        <v>2211</v>
+      </c>
+      <c r="L2" t="s">
+        <v>2212</v>
+      </c>
+      <c r="M2" t="s">
+        <v>2213</v>
+      </c>
+      <c r="N2" t="s">
+        <v>2214</v>
+      </c>
+      <c r="O2" t="s">
+        <v>2215</v>
+      </c>
+      <c r="P2" t="s">
+        <v>2216</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>2217</v>
+      </c>
+      <c r="R2" t="s">
+        <v>2218</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2219</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2220</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2221</v>
+      </c>
+      <c r="D3" s="3" t="d">
+        <v>1995-04-10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2222</v>
+      </c>
+      <c r="G3">
+        <v>1719130499</v>
+      </c>
+      <c r="H3" t="s">
+        <v>2223</v>
+      </c>
+      <c r="I3" t="s">
+        <v>2224</v>
+      </c>
+      <c r="J3" t="s">
+        <v>2225</v>
+      </c>
+      <c r="K3" t="s">
+        <v>66</v>
+      </c>
+      <c r="L3" t="s">
+        <v>2226</v>
+      </c>
+      <c r="M3" t="s">
+        <v>106</v>
+      </c>
+      <c r="N3" t="s">
+        <v>66</v>
+      </c>
+      <c r="O3" t="s">
+        <v>2227</v>
+      </c>
+      <c r="P3" t="s">
+        <v>2228</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>2229</v>
+      </c>
+      <c r="R3" t="s">
+        <v>2230</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2231</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2232</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2233</v>
+      </c>
+      <c r="D4" s="3" t="d">
+        <v>1995-02-22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2234</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2235</v>
+      </c>
+      <c r="G4" t="s">
+        <v>2236</v>
+      </c>
+      <c r="H4" t="s">
+        <v>2235</v>
+      </c>
+      <c r="I4" s="6" t="d">
+        <v>2015-03-07</v>
+      </c>
+      <c r="J4" t="s">
+        <v>2237</v>
+      </c>
+      <c r="K4" t="s">
+        <v>2238</v>
+      </c>
+      <c r="L4" t="s">
+        <v>2239</v>
+      </c>
+      <c r="M4" t="s">
+        <v>2240</v>
+      </c>
+      <c r="N4" t="s">
+        <v>2241</v>
+      </c>
+      <c r="O4" t="s">
+        <v>2242</v>
+      </c>
+      <c r="P4" t="s">
+        <v>2243</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>2244</v>
+      </c>
+      <c r="R4" t="s">
+        <v>2245</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2246</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2247</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2248</v>
+      </c>
+      <c r="D5" s="3" t="d">
+        <v>1996-08-24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>2249</v>
+      </c>
+      <c r="G5" t="s">
+        <v>2250</v>
+      </c>
+      <c r="H5" t="s">
+        <v>1127</v>
+      </c>
+      <c r="I5" t="s">
+        <v>2251</v>
+      </c>
+      <c r="J5" t="s">
+        <v>2252</v>
+      </c>
+      <c r="K5" t="s">
+        <v>2253</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2254</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2255</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2256</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2257</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2258</v>
+      </c>
+      <c r="F6" t="s">
+        <v>2259</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>2260</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2261</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2262</v>
+      </c>
+      <c r="D7" s="3" t="d">
+        <v>1996-12-31</v>
+      </c>
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G7" t="s">
+        <v>2263</v>
+      </c>
+      <c r="H7" t="s">
+        <v>2264</v>
+      </c>
+      <c r="I7" t="s">
+        <v>2265</v>
+      </c>
+      <c r="J7" t="s">
+        <v>2266</v>
+      </c>
+      <c r="K7" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>2268</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2269</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2270</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2271</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2272</v>
+      </c>
+      <c r="F8" t="s">
+        <v>2273</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>2274</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2275</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2276</v>
+      </c>
+      <c r="D9" s="3" t="d">
+        <v>1996-10-12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2277</v>
+      </c>
+      <c r="G9">
+        <v>8801758269710</v>
+      </c>
+      <c r="I9" t="s">
+        <v>2278</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>2279</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2280</v>
+      </c>
+      <c r="E12" t="s">
+        <v>2281</v>
+      </c>
+      <c r="G12" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>2283</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2284</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2285</v>
+      </c>
+      <c r="D13" s="3" t="d">
+        <v>1996-11-14</v>
+      </c>
+      <c r="E13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" t="s">
+        <v>2286</v>
+      </c>
+      <c r="G13" t="s">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>2288</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2289</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2290</v>
+      </c>
+      <c r="D15" t="s">
+        <v>2291</v>
+      </c>
+      <c r="E15" t="s">
+        <v>2292</v>
+      </c>
+      <c r="F15" t="s">
+        <v>2293</v>
+      </c>
+      <c r="G15" t="s">
+        <v>2294</v>
+      </c>
+      <c r="H15" t="s">
+        <v>2295</v>
+      </c>
+      <c r="I15" t="s">
+        <v>2296</v>
+      </c>
+      <c r="J15" t="s">
+        <v>2297</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>2298</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2299</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2300</v>
+      </c>
+      <c r="D16" s="3" t="d">
+        <v>1994-09-30</v>
+      </c>
+      <c r="E16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" t="s">
+        <v>2301</v>
+      </c>
+      <c r="G16" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H16" t="s">
+        <v>2303</v>
+      </c>
+      <c r="I16" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J16" t="s">
+        <v>143</v>
+      </c>
+      <c r="L16" t="s">
+        <v>2305</v>
+      </c>
+      <c r="M16" t="s">
+        <v>2306</v>
+      </c>
+      <c r="N16" t="s">
+        <v>2307</v>
+      </c>
+      <c r="O16" t="s">
+        <v>2308</v>
+      </c>
+      <c r="P16" t="s">
+        <v>2309</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>2310</v>
+      </c>
+      <c r="R16" t="s">
+        <v>2311</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>2312</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2313</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2314</v>
+      </c>
+      <c r="D17" s="3" t="d">
+        <v>1996-02-24</v>
+      </c>
+      <c r="E17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" t="s">
+        <v>2315</v>
+      </c>
+      <c r="G17">
+        <v>1956153956</v>
+      </c>
+      <c r="H17" t="s">
+        <v>2316</v>
+      </c>
+      <c r="I17" t="s">
+        <v>2317</v>
+      </c>
+      <c r="J17" t="s">
+        <v>2318</v>
+      </c>
+      <c r="K17" t="s">
+        <v>2319</v>
+      </c>
+      <c r="L17" t="s">
+        <v>2320</v>
+      </c>
+      <c r="M17" t="s">
+        <v>2321</v>
+      </c>
+      <c r="N17" t="s">
+        <v>2322</v>
+      </c>
+      <c r="O17" t="s">
+        <v>2323</v>
+      </c>
+      <c r="P17" t="s">
+        <v>2324</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>2325</v>
+      </c>
+      <c r="R17" t="s">
+        <v>2326</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>2327</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2328</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2329</v>
+      </c>
+      <c r="D18" s="3" t="d">
+        <v>1997-10-10</v>
+      </c>
+      <c r="E18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" t="s">
+        <v>2330</v>
+      </c>
+      <c r="G18" t="s">
+        <v>2331</v>
+      </c>
+      <c r="H18" t="s">
+        <v>2332</v>
+      </c>
+      <c r="I18" t="s">
+        <v>2333</v>
+      </c>
+      <c r="J18" t="s">
+        <v>2334</v>
+      </c>
+      <c r="K18" t="s">
+        <v>2335</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>2336</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2337</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2338</v>
+      </c>
+      <c r="D19" t="s">
+        <v>2339</v>
+      </c>
+      <c r="E19" t="s">
+        <v>2340</v>
+      </c>
+      <c r="F19" t="s">
+        <v>2341</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>2342</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2343</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2344</v>
+      </c>
+      <c r="D20" s="3" t="d">
+        <v>1996-06-16</v>
+      </c>
+      <c r="E20" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" t="s">
+        <v>2345</v>
+      </c>
+      <c r="G20">
+        <v>1761725988</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>2346</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2347</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2348</v>
+      </c>
+      <c r="D21" t="s">
+        <v>2349</v>
+      </c>
+      <c r="E21" t="s">
+        <v>2350</v>
+      </c>
+      <c r="F21" t="s">
+        <v>2351</v>
+      </c>
+      <c r="G21" t="s">
+        <v>2352</v>
+      </c>
+      <c r="H21" t="s">
+        <v>2353</v>
+      </c>
+      <c r="I21" t="s">
+        <v>2354</v>
+      </c>
+      <c r="J21" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>2356</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2357</v>
+      </c>
+      <c r="C22" t="s">
+        <v>494</v>
+      </c>
+      <c r="D22" s="3" t="d">
+        <v>1996-03-18</v>
+      </c>
+      <c r="E22" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" t="s">
+        <v>2358</v>
+      </c>
+      <c r="G22" t="s">
+        <v>2359</v>
+      </c>
+      <c r="H22" t="s">
+        <v>1127</v>
+      </c>
+      <c r="I22" t="s">
+        <v>2360</v>
+      </c>
+      <c r="J22" t="s">
+        <v>2361</v>
+      </c>
+      <c r="K22" t="s">
+        <v>2362</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>2363</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2364</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2365</v>
+      </c>
+      <c r="D23" t="s">
+        <v>2366</v>
+      </c>
+      <c r="E23" t="s">
+        <v>2367</v>
+      </c>
+      <c r="F23" t="s">
+        <v>2368</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>2369</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2370</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2371</v>
+      </c>
+      <c r="D24" s="3" t="d">
+        <v>1996-08-08</v>
+      </c>
+      <c r="E24" t="s">
+        <v>35</v>
+      </c>
+      <c r="F24" t="s">
+        <v>2372</v>
+      </c>
+      <c r="G24">
+        <v>8801964906859</v>
+      </c>
+      <c r="H24" t="s">
+        <v>2373</v>
+      </c>
+      <c r="I24" t="s">
+        <v>2374</v>
+      </c>
+      <c r="J24" t="s">
+        <v>2375</v>
+      </c>
+      <c r="K24" t="s">
+        <v>2376</v>
+      </c>
+      <c r="L24" t="s">
+        <v>2377</v>
+      </c>
+      <c r="M24" t="s">
+        <v>2378</v>
+      </c>
+      <c r="N24" t="s">
+        <v>2379</v>
+      </c>
+      <c r="O24" t="s">
+        <v>2380</v>
+      </c>
+      <c r="P24" t="s">
+        <v>2381</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>2382</v>
+      </c>
+      <c r="R24" t="s">
+        <v>2383</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>2384</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2385</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2386</v>
+      </c>
+      <c r="D25" s="3" t="d">
+        <v>1995-03-25</v>
+      </c>
+      <c r="E25" t="s">
+        <v>2</v>
+      </c>
+      <c r="F25" t="s">
+        <v>1662</v>
+      </c>
+      <c r="G25">
+        <v>1930584548</v>
+      </c>
+      <c r="H25" t="s">
+        <v>2387</v>
+      </c>
+      <c r="I25" t="s">
+        <v>2388</v>
+      </c>
+      <c r="J25" t="s">
+        <v>2389</v>
+      </c>
+      <c r="K25" t="s">
+        <v>2390</v>
+      </c>
+      <c r="L25" t="s">
+        <v>2391</v>
+      </c>
+      <c r="M25" t="s">
+        <v>2392</v>
+      </c>
+      <c r="N25" t="s">
+        <v>2393</v>
+      </c>
+      <c r="O25" t="s">
+        <v>895</v>
+      </c>
+      <c r="P25" t="s">
+        <v>2394</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>2395</v>
+      </c>
+      <c r="R25" t="s">
+        <v>2396</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>815</v>
+      </c>
+      <c r="B26" t="s">
+        <v>2397</v>
+      </c>
+      <c r="C26" t="s">
+        <v>410</v>
+      </c>
+      <c r="D26" s="3" t="d">
+        <v>1996-10-13</v>
+      </c>
+      <c r="E26" t="s">
+        <v>2</v>
+      </c>
+      <c r="F26" t="s">
+        <v>198</v>
+      </c>
+      <c r="G26">
+        <v>1794164668</v>
+      </c>
+      <c r="I26" t="s">
+        <v>2398</v>
+      </c>
+      <c r="J26" t="s">
+        <v>2399</v>
+      </c>
+      <c r="K26" t="s">
+        <v>2400</v>
+      </c>
+      <c r="L26" t="s">
+        <v>2401</v>
+      </c>
+      <c r="M26" t="s">
+        <v>2402</v>
+      </c>
+      <c r="N26" t="s">
+        <v>2403</v>
+      </c>
+      <c r="O26" t="s">
+        <v>2404</v>
+      </c>
+      <c r="P26" t="s">
+        <v>2405</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>2406</v>
+      </c>
+      <c r="R26" t="s">
+        <v>2407</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>2408</v>
+      </c>
+      <c r="B27" t="s">
+        <v>2409</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2410</v>
+      </c>
+      <c r="D27" s="3" t="d">
+        <v>1996-11-06</v>
+      </c>
+      <c r="E27" t="s">
+        <v>2</v>
+      </c>
+      <c r="G27">
+        <v>1997343710</v>
+      </c>
+      <c r="H27" t="s">
+        <v>2411</v>
+      </c>
+      <c r="I27" t="s">
+        <v>2412</v>
+      </c>
+      <c r="J27" t="s">
+        <v>2413</v>
+      </c>
+      <c r="K27" t="s">
+        <v>2414</v>
+      </c>
+      <c r="L27" t="s">
+        <v>2415</v>
+      </c>
+      <c r="M27" t="s">
+        <v>2416</v>
+      </c>
+      <c r="N27" t="s">
+        <v>2417</v>
+      </c>
+      <c r="O27" t="s">
+        <v>2418</v>
+      </c>
+      <c r="P27" t="s">
+        <v>2419</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>2420</v>
+      </c>
+      <c r="R27" t="s">
+        <v>2421</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>2422</v>
+      </c>
+      <c r="B28" t="s">
+        <v>2423</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2424</v>
+      </c>
+      <c r="D28" s="3" t="d">
+        <v>1995-02-02</v>
+      </c>
+      <c r="E28" t="s">
+        <v>2425</v>
+      </c>
+      <c r="F28" t="s">
+        <v>2426</v>
+      </c>
+      <c r="G28" t="s">
+        <v>2427</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>197</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C30" t="s">
+        <v>2428</v>
+      </c>
+      <c r="D30" t="s">
+        <v>2429</v>
+      </c>
+      <c r="E30" t="s">
+        <v>2430</v>
+      </c>
+      <c r="F30" t="s">
+        <v>2431</v>
+      </c>
+      <c r="G30" t="s">
+        <v>2432</v>
+      </c>
+      <c r="H30" t="s">
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>2434</v>
+      </c>
+      <c r="B31" t="s">
+        <v>2435</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>2436</v>
+      </c>
+      <c r="B32" t="s">
+        <v>2437</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2438</v>
+      </c>
+      <c r="D32" s="3" t="d">
+        <v>1996-12-10</v>
+      </c>
+      <c r="E32" t="s">
+        <v>35</v>
+      </c>
+      <c r="F32" t="s">
+        <v>2439</v>
+      </c>
+      <c r="G32" t="s">
+        <v>2440</v>
+      </c>
+      <c r="H32" t="s">
+        <v>2441</v>
+      </c>
+      <c r="I32" t="s">
+        <v>2442</v>
+      </c>
+      <c r="J32" t="s">
+        <v>2443</v>
+      </c>
+      <c r="K32" t="s">
+        <v>2444</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>2445</v>
+      </c>
+      <c r="B33" t="s">
+        <v>2446</v>
+      </c>
+      <c r="C33" t="s">
+        <v>2447</v>
+      </c>
+      <c r="D33" t="s">
+        <v>2448</v>
+      </c>
+      <c r="E33" t="s">
+        <v>2449</v>
+      </c>
+      <c r="F33" t="s">
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>2451</v>
+      </c>
+      <c r="B34" t="s">
+        <v>2452</v>
+      </c>
+      <c r="C34" t="s">
+        <v>2453</v>
+      </c>
+      <c r="D34" s="3" t="d">
+        <v>1995-07-10</v>
+      </c>
+      <c r="E34" t="s">
+        <v>35</v>
+      </c>
+      <c r="F34" t="s">
+        <v>2454</v>
+      </c>
+      <c r="G34" t="s">
+        <v>2455</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>2456</v>
+      </c>
+      <c r="B36" t="s">
+        <v>2457</v>
+      </c>
+      <c r="C36" t="s">
+        <v>2458</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>2459</v>
+      </c>
+      <c r="B37" t="s">
+        <v>2460</v>
+      </c>
+      <c r="C37" t="s">
+        <v>2461</v>
+      </c>
+      <c r="D37" t="s">
+        <v>2462</v>
+      </c>
+      <c r="E37" t="s">
+        <v>2463</v>
+      </c>
+      <c r="F37" t="s">
+        <v>2464</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B38" t="s">
+        <v>2465</v>
+      </c>
+      <c r="C38" t="s">
+        <v>2466</v>
+      </c>
+      <c r="D38" s="3" t="d">
+        <v>1996-08-07</v>
+      </c>
+      <c r="E38" t="s">
+        <v>18</v>
+      </c>
+      <c r="F38" t="s">
+        <v>2467</v>
+      </c>
+      <c r="G38">
+        <v>1756753322</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>2468</v>
+      </c>
+      <c r="B40" t="s">
+        <v>2469</v>
+      </c>
+      <c r="C40" t="s">
+        <v>2470</v>
+      </c>
+      <c r="D40" t="s">
+        <v>2471</v>
+      </c>
+      <c r="E40" t="s">
+        <v>2472</v>
+      </c>
+      <c r="F40" t="s">
+        <v>2473</v>
+      </c>
+      <c r="G40" t="s">
+        <v>2474</v>
+      </c>
+      <c r="H40" t="s">
+        <v>2475</v>
+      </c>
+      <c r="I40" t="s">
+        <v>2476</v>
+      </c>
+      <c r="J40" t="s">
+        <v>2477</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>2478</v>
+      </c>
+      <c r="B41" t="s">
+        <v>2479</v>
+      </c>
+      <c r="C41" t="s">
+        <v>2480</v>
+      </c>
+      <c r="D41" s="3" t="d">
+        <v>1995-11-10</v>
+      </c>
+      <c r="E41" t="s">
+        <v>35</v>
+      </c>
+      <c r="F41" t="s">
+        <v>2481</v>
+      </c>
+      <c r="G41">
+        <v>1755412266</v>
+      </c>
+      <c r="H41" t="s">
+        <v>2482</v>
+      </c>
+      <c r="I41" t="s">
+        <v>2483</v>
+      </c>
+      <c r="J41" t="s">
+        <v>2484</v>
+      </c>
+      <c r="K41" t="s">
+        <v>2485</v>
+      </c>
+      <c r="L41" t="s">
+        <v>2486</v>
+      </c>
+      <c r="M41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="N41" t="s">
+        <v>2488</v>
+      </c>
+      <c r="O41" t="s">
+        <v>2489</v>
+      </c>
+      <c r="P41" t="s">
+        <v>2490</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>2491</v>
+      </c>
+      <c r="R41" t="s">
+        <v>2492</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE83C733-5F32-4758-A9FF-7A872D76CF89}">
   <dimension ref="A1:S41"/>
@@ -53070,6 +56203,1819 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15720B01-D56B-4B17-9D3F-C68646B57DBF}">
+  <dimension ref="A1:U28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection sqref="A1:U28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="61" t="s">
+        <v>4222</v>
+      </c>
+      <c r="B1" s="61" t="s">
+        <v>8440</v>
+      </c>
+      <c r="C1" s="61" t="s">
+        <v>617</v>
+      </c>
+      <c r="D1" s="61" t="s">
+        <v>618</v>
+      </c>
+      <c r="E1" s="61" t="s">
+        <v>4223</v>
+      </c>
+      <c r="F1" s="61" t="s">
+        <v>622</v>
+      </c>
+      <c r="G1" s="61" t="s">
+        <v>619</v>
+      </c>
+      <c r="H1" s="61" t="s">
+        <v>621</v>
+      </c>
+      <c r="I1" s="61" t="s">
+        <v>2927</v>
+      </c>
+      <c r="J1" s="61" t="s">
+        <v>8441</v>
+      </c>
+      <c r="K1" s="61" t="s">
+        <v>624</v>
+      </c>
+      <c r="L1" s="61" t="s">
+        <v>625</v>
+      </c>
+      <c r="M1" s="61" t="s">
+        <v>630</v>
+      </c>
+      <c r="N1" s="61" t="s">
+        <v>7980</v>
+      </c>
+      <c r="O1" s="61" t="s">
+        <v>627</v>
+      </c>
+      <c r="P1" s="61" t="s">
+        <v>628</v>
+      </c>
+      <c r="Q1" s="61" t="s">
+        <v>629</v>
+      </c>
+      <c r="R1" s="61" t="s">
+        <v>631</v>
+      </c>
+      <c r="S1" s="61" t="s">
+        <v>632</v>
+      </c>
+      <c r="T1" s="61" t="s">
+        <v>633</v>
+      </c>
+      <c r="U1" s="61" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="61" t="s">
+        <v>8442</v>
+      </c>
+      <c r="B2" s="61" t="s">
+        <v>8443</v>
+      </c>
+      <c r="C2" s="61" t="s">
+        <v>8444</v>
+      </c>
+      <c r="D2" s="61">
+        <v>140435</v>
+      </c>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61" t="s">
+        <v>8445</v>
+      </c>
+      <c r="G2" s="57" t="d">
+        <v>1995-02-26</v>
+      </c>
+      <c r="H2" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="61">
+        <v>1521521632</v>
+      </c>
+      <c r="J2" s="61" t="s">
+        <v>8446</v>
+      </c>
+      <c r="K2" s="61" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="61" t="s">
+        <v>8447</v>
+      </c>
+      <c r="M2" s="61" t="s">
+        <v>8448</v>
+      </c>
+      <c r="N2" s="61" t="s">
+        <v>8449</v>
+      </c>
+      <c r="O2" s="61" t="s">
+        <v>8450</v>
+      </c>
+      <c r="P2" s="61" t="s">
+        <v>8451</v>
+      </c>
+      <c r="Q2" s="61" t="s">
+        <v>8452</v>
+      </c>
+      <c r="R2" s="61" t="s">
+        <v>8453</v>
+      </c>
+      <c r="S2" s="61" t="s">
+        <v>8454</v>
+      </c>
+      <c r="T2" s="61" t="s">
+        <v>8455</v>
+      </c>
+      <c r="U2" s="61" t="s">
+        <v>8456</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="61" t="s">
+        <v>8457</v>
+      </c>
+      <c r="B3" s="61" t="s">
+        <v>8458</v>
+      </c>
+      <c r="C3" s="61" t="s">
+        <v>8459</v>
+      </c>
+      <c r="D3" s="61">
+        <v>150420</v>
+      </c>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61" t="s">
+        <v>8460</v>
+      </c>
+      <c r="G3" s="57" t="d">
+        <v>1995-03-15</v>
+      </c>
+      <c r="H3" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="61" t="s">
+        <v>8458</v>
+      </c>
+      <c r="J3" s="61" t="s">
+        <v>8461</v>
+      </c>
+      <c r="K3" s="61" t="s">
+        <v>1772</v>
+      </c>
+      <c r="L3" s="61" t="s">
+        <v>2765</v>
+      </c>
+      <c r="M3" s="61" t="s">
+        <v>8462</v>
+      </c>
+      <c r="N3" s="61" t="s">
+        <v>8463</v>
+      </c>
+      <c r="O3" s="61" t="s">
+        <v>8464</v>
+      </c>
+      <c r="P3" s="61" t="s">
+        <v>8465</v>
+      </c>
+      <c r="Q3" s="61" t="s">
+        <v>8466</v>
+      </c>
+      <c r="R3" s="61" t="s">
+        <v>8467</v>
+      </c>
+      <c r="S3" s="61" t="s">
+        <v>8468</v>
+      </c>
+      <c r="T3" s="61" t="s">
+        <v>8469</v>
+      </c>
+      <c r="U3" s="61" t="s">
+        <v>8470</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="61" t="s">
+        <v>8471</v>
+      </c>
+      <c r="B4" s="61" t="s">
+        <v>8472</v>
+      </c>
+      <c r="C4" s="61" t="s">
+        <v>8473</v>
+      </c>
+      <c r="D4" s="61">
+        <v>150430</v>
+      </c>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61" t="s">
+        <v>8474</v>
+      </c>
+      <c r="G4" s="57" t="d">
+        <v>1996-03-26</v>
+      </c>
+      <c r="H4" s="61" t="s">
+        <v>1561</v>
+      </c>
+      <c r="I4" s="61">
+        <v>1766323467</v>
+      </c>
+      <c r="J4" s="61" t="s">
+        <v>8475</v>
+      </c>
+      <c r="K4" s="61" t="s">
+        <v>8476</v>
+      </c>
+      <c r="L4" s="61" t="s">
+        <v>8477</v>
+      </c>
+      <c r="M4" s="61" t="s">
+        <v>8478</v>
+      </c>
+      <c r="N4" s="61" t="s">
+        <v>8479</v>
+      </c>
+      <c r="O4" s="61" t="s">
+        <v>8480</v>
+      </c>
+      <c r="P4" s="61" t="s">
+        <v>8481</v>
+      </c>
+      <c r="Q4" s="61" t="s">
+        <v>8482</v>
+      </c>
+      <c r="R4" s="61" t="s">
+        <v>8483</v>
+      </c>
+      <c r="S4" s="61" t="s">
+        <v>8484</v>
+      </c>
+      <c r="T4" s="61" t="s">
+        <v>8485</v>
+      </c>
+      <c r="U4" s="61" t="s">
+        <v>8486</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="61" t="s">
+        <v>8487</v>
+      </c>
+      <c r="B5" s="61" t="s">
+        <v>8488</v>
+      </c>
+      <c r="C5" s="61" t="s">
+        <v>8489</v>
+      </c>
+      <c r="D5" s="61">
+        <v>150424</v>
+      </c>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61" t="s">
+        <v>8490</v>
+      </c>
+      <c r="G5" s="57" t="d">
+        <v>1996-03-03</v>
+      </c>
+      <c r="H5" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="61" t="s">
+        <v>8491</v>
+      </c>
+      <c r="J5" s="61" t="s">
+        <v>8492</v>
+      </c>
+      <c r="K5" s="61" t="s">
+        <v>8493</v>
+      </c>
+      <c r="L5" s="61" t="s">
+        <v>8494</v>
+      </c>
+      <c r="M5" s="61" t="s">
+        <v>8495</v>
+      </c>
+      <c r="N5" s="61" t="s">
+        <v>8496</v>
+      </c>
+      <c r="O5" s="61" t="s">
+        <v>8497</v>
+      </c>
+      <c r="P5" s="61" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q5" s="61" t="s">
+        <v>8498</v>
+      </c>
+      <c r="R5" s="61" t="s">
+        <v>8499</v>
+      </c>
+      <c r="S5" s="61" t="s">
+        <v>8500</v>
+      </c>
+      <c r="T5" s="61" t="s">
+        <v>8501</v>
+      </c>
+      <c r="U5" s="61" t="s">
+        <v>8502</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="61" t="s">
+        <v>8503</v>
+      </c>
+      <c r="B6" s="61" t="s">
+        <v>8504</v>
+      </c>
+      <c r="C6" s="61" t="s">
+        <v>8505</v>
+      </c>
+      <c r="D6" s="61">
+        <v>140408</v>
+      </c>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61" t="s">
+        <v>8506</v>
+      </c>
+      <c r="G6" s="57" t="d">
+        <v>1996-10-01</v>
+      </c>
+      <c r="H6" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6" s="61">
+        <v>1746119344</v>
+      </c>
+      <c r="J6" s="61" t="s">
+        <v>8507</v>
+      </c>
+      <c r="K6" s="61" t="s">
+        <v>8508</v>
+      </c>
+      <c r="L6" s="61" t="s">
+        <v>8509</v>
+      </c>
+      <c r="M6" s="61" t="s">
+        <v>8510</v>
+      </c>
+      <c r="N6" s="61" t="s">
+        <v>8511</v>
+      </c>
+      <c r="O6" s="61" t="s">
+        <v>8512</v>
+      </c>
+      <c r="P6" s="61" t="s">
+        <v>8513</v>
+      </c>
+      <c r="Q6" s="61" t="s">
+        <v>8514</v>
+      </c>
+      <c r="R6" s="61" t="s">
+        <v>8515</v>
+      </c>
+      <c r="S6" s="61" t="s">
+        <v>8516</v>
+      </c>
+      <c r="T6" s="61" t="s">
+        <v>8517</v>
+      </c>
+      <c r="U6" s="61" t="s">
+        <v>8518</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="61" t="s">
+        <v>8519</v>
+      </c>
+      <c r="B7" s="61" t="s">
+        <v>8520</v>
+      </c>
+      <c r="C7" s="61" t="s">
+        <v>8521</v>
+      </c>
+      <c r="D7" s="61">
+        <v>150429</v>
+      </c>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61" t="s">
+        <v>8522</v>
+      </c>
+      <c r="G7" s="57" t="d">
+        <v>1994-12-03</v>
+      </c>
+      <c r="H7" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="61" t="s">
+        <v>8520</v>
+      </c>
+      <c r="J7" s="61" t="s">
+        <v>8523</v>
+      </c>
+      <c r="K7" s="61" t="s">
+        <v>8523</v>
+      </c>
+      <c r="L7" s="61" t="s">
+        <v>8524</v>
+      </c>
+      <c r="M7" s="61" t="s">
+        <v>2568</v>
+      </c>
+      <c r="N7" s="61" t="s">
+        <v>8525</v>
+      </c>
+      <c r="O7" s="61" t="s">
+        <v>8526</v>
+      </c>
+      <c r="P7" s="61" t="s">
+        <v>8527</v>
+      </c>
+      <c r="Q7" s="61" t="s">
+        <v>8528</v>
+      </c>
+      <c r="R7" s="61" t="s">
+        <v>8529</v>
+      </c>
+      <c r="S7" s="61" t="s">
+        <v>8530</v>
+      </c>
+      <c r="T7" s="61" t="s">
+        <v>8531</v>
+      </c>
+      <c r="U7" s="61" t="s">
+        <v>8532</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="61" t="s">
+        <v>8533</v>
+      </c>
+      <c r="B8" s="61" t="s">
+        <v>8534</v>
+      </c>
+      <c r="C8" s="61" t="s">
+        <v>8523</v>
+      </c>
+      <c r="D8" s="61">
+        <v>150443</v>
+      </c>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61" t="s">
+        <v>8535</v>
+      </c>
+      <c r="G8" s="57" t="d">
+        <v>1995-10-02</v>
+      </c>
+      <c r="H8" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="61" t="s">
+        <v>8534</v>
+      </c>
+      <c r="J8" s="61" t="s">
+        <v>8536</v>
+      </c>
+      <c r="K8" s="61" t="s">
+        <v>8537</v>
+      </c>
+      <c r="L8" s="61" t="s">
+        <v>8538</v>
+      </c>
+      <c r="M8" s="61" t="s">
+        <v>8539</v>
+      </c>
+      <c r="N8" s="61" t="s">
+        <v>8540</v>
+      </c>
+      <c r="O8" s="61" t="s">
+        <v>8521</v>
+      </c>
+      <c r="P8" s="61" t="s">
+        <v>8541</v>
+      </c>
+      <c r="Q8" s="61" t="s">
+        <v>8542</v>
+      </c>
+      <c r="R8" s="61" t="s">
+        <v>8543</v>
+      </c>
+      <c r="S8" s="61" t="s">
+        <v>8544</v>
+      </c>
+      <c r="T8" s="61" t="s">
+        <v>8545</v>
+      </c>
+      <c r="U8" s="61" t="s">
+        <v>8546</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="61" t="s">
+        <v>8547</v>
+      </c>
+      <c r="B9" s="61" t="s">
+        <v>8548</v>
+      </c>
+      <c r="C9" s="61" t="s">
+        <v>8549</v>
+      </c>
+      <c r="D9" s="61">
+        <v>150418</v>
+      </c>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61" t="s">
+        <v>8550</v>
+      </c>
+      <c r="G9" s="57" t="d">
+        <v>2018-12-31</v>
+      </c>
+      <c r="H9" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="I9" s="61" t="s">
+        <v>8548</v>
+      </c>
+      <c r="J9" s="61" t="s">
+        <v>8551</v>
+      </c>
+      <c r="K9" s="61" t="s">
+        <v>3337</v>
+      </c>
+      <c r="L9" s="61" t="s">
+        <v>8552</v>
+      </c>
+      <c r="M9" s="61" t="s">
+        <v>8553</v>
+      </c>
+      <c r="N9" s="61" t="s">
+        <v>3337</v>
+      </c>
+      <c r="O9" s="61" t="s">
+        <v>8554</v>
+      </c>
+      <c r="P9" s="61" t="s">
+        <v>8555</v>
+      </c>
+      <c r="Q9" s="61" t="s">
+        <v>8556</v>
+      </c>
+      <c r="R9" s="61" t="s">
+        <v>8557</v>
+      </c>
+      <c r="S9" s="61" t="s">
+        <v>8558</v>
+      </c>
+      <c r="T9" s="61" t="s">
+        <v>8559</v>
+      </c>
+      <c r="U9" s="61" t="s">
+        <v>8560</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="61" t="s">
+        <v>8561</v>
+      </c>
+      <c r="B10" s="61" t="s">
+        <v>8562</v>
+      </c>
+      <c r="C10" s="61" t="s">
+        <v>8563</v>
+      </c>
+      <c r="D10" s="61">
+        <v>150422</v>
+      </c>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61" t="s">
+        <v>152</v>
+      </c>
+      <c r="G10" s="57" t="d">
+        <v>1996-12-30</v>
+      </c>
+      <c r="H10" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="I10" s="61" t="s">
+        <v>8562</v>
+      </c>
+      <c r="J10" s="61" t="s">
+        <v>8564</v>
+      </c>
+      <c r="K10" s="61" t="s">
+        <v>66</v>
+      </c>
+      <c r="L10" s="61" t="s">
+        <v>1855</v>
+      </c>
+      <c r="M10" s="61" t="s">
+        <v>8565</v>
+      </c>
+      <c r="N10" s="61" t="s">
+        <v>8566</v>
+      </c>
+      <c r="O10" s="61" t="s">
+        <v>8567</v>
+      </c>
+      <c r="P10" s="61" t="s">
+        <v>8568</v>
+      </c>
+      <c r="Q10" s="61" t="s">
+        <v>8569</v>
+      </c>
+      <c r="R10" s="61" t="s">
+        <v>8570</v>
+      </c>
+      <c r="S10" s="61" t="s">
+        <v>8571</v>
+      </c>
+      <c r="T10" s="61" t="s">
+        <v>8572</v>
+      </c>
+      <c r="U10" s="61" t="s">
+        <v>8573</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="61" t="s">
+        <v>8574</v>
+      </c>
+      <c r="B11" s="61" t="s">
+        <v>8575</v>
+      </c>
+      <c r="C11" s="61" t="s">
+        <v>8576</v>
+      </c>
+      <c r="D11" s="61">
+        <v>1521518649</v>
+      </c>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61" t="s">
+        <v>8577</v>
+      </c>
+      <c r="G11" s="57" t="d">
+        <v>1996-12-31</v>
+      </c>
+      <c r="H11" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="61">
+        <v>1521518649</v>
+      </c>
+      <c r="J11" s="61" t="s">
+        <v>275</v>
+      </c>
+      <c r="K11" s="61" t="s">
+        <v>8578</v>
+      </c>
+      <c r="L11" s="61" t="s">
+        <v>8579</v>
+      </c>
+      <c r="M11" s="61" t="s">
+        <v>8580</v>
+      </c>
+      <c r="N11" s="61" t="s">
+        <v>8581</v>
+      </c>
+      <c r="O11" s="61" t="s">
+        <v>8582</v>
+      </c>
+      <c r="P11" s="61" t="s">
+        <v>8583</v>
+      </c>
+      <c r="Q11" s="61" t="s">
+        <v>8584</v>
+      </c>
+      <c r="R11" s="61" t="s">
+        <v>8585</v>
+      </c>
+      <c r="S11" s="61" t="s">
+        <v>8586</v>
+      </c>
+      <c r="T11" s="61" t="s">
+        <v>8587</v>
+      </c>
+      <c r="U11" s="61" t="s">
+        <v>8588</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="61" t="s">
+        <v>8589</v>
+      </c>
+      <c r="B12" s="61" t="s">
+        <v>8590</v>
+      </c>
+      <c r="C12" s="61" t="s">
+        <v>8591</v>
+      </c>
+      <c r="D12" s="61">
+        <v>140409</v>
+      </c>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61" t="s">
+        <v>8592</v>
+      </c>
+      <c r="G12" s="57" t="d">
+        <v>1996-08-24</v>
+      </c>
+      <c r="H12" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" s="61" t="s">
+        <v>8590</v>
+      </c>
+      <c r="J12" s="61" t="s">
+        <v>8593</v>
+      </c>
+      <c r="K12" s="61" t="s">
+        <v>8594</v>
+      </c>
+      <c r="L12" s="61" t="s">
+        <v>8595</v>
+      </c>
+      <c r="M12" s="61" t="s">
+        <v>8596</v>
+      </c>
+      <c r="N12" s="61" t="s">
+        <v>66</v>
+      </c>
+      <c r="O12" s="61" t="s">
+        <v>8597</v>
+      </c>
+      <c r="P12" s="61" t="s">
+        <v>8598</v>
+      </c>
+      <c r="Q12" s="61" t="s">
+        <v>8599</v>
+      </c>
+      <c r="R12" s="61" t="s">
+        <v>267</v>
+      </c>
+      <c r="S12" s="61" t="s">
+        <v>8600</v>
+      </c>
+      <c r="T12" s="61" t="s">
+        <v>8601</v>
+      </c>
+      <c r="U12" s="61" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="61" t="s">
+        <v>8602</v>
+      </c>
+      <c r="B13" s="61" t="s">
+        <v>8603</v>
+      </c>
+      <c r="C13" s="61" t="s">
+        <v>8604</v>
+      </c>
+      <c r="D13" s="61">
+        <v>150448</v>
+      </c>
+      <c r="E13" s="61" t="s">
+        <v>8605</v>
+      </c>
+      <c r="F13" s="61" t="s">
+        <v>6605</v>
+      </c>
+      <c r="G13" s="57" t="d">
+        <v>1997-05-21</v>
+      </c>
+      <c r="H13" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="I13" s="61" t="s">
+        <v>8606</v>
+      </c>
+      <c r="J13" s="61" t="s">
+        <v>8607</v>
+      </c>
+      <c r="K13" s="61" t="s">
+        <v>267</v>
+      </c>
+      <c r="L13" s="61" t="s">
+        <v>1537</v>
+      </c>
+      <c r="M13" s="61" t="s">
+        <v>8608</v>
+      </c>
+      <c r="N13" s="61" t="s">
+        <v>8609</v>
+      </c>
+      <c r="O13" s="61" t="s">
+        <v>8610</v>
+      </c>
+      <c r="P13" s="61" t="s">
+        <v>8611</v>
+      </c>
+      <c r="Q13" s="61" t="s">
+        <v>1065</v>
+      </c>
+      <c r="R13" s="61" t="s">
+        <v>267</v>
+      </c>
+      <c r="S13" s="61" t="s">
+        <v>8612</v>
+      </c>
+      <c r="T13" s="61" t="s">
+        <v>8613</v>
+      </c>
+      <c r="U13" s="61" t="s">
+        <v>8614</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="61" t="s">
+        <v>8615</v>
+      </c>
+      <c r="B14" s="61" t="s">
+        <v>8616</v>
+      </c>
+      <c r="C14" s="61" t="s">
+        <v>8617</v>
+      </c>
+      <c r="D14" s="61">
+        <v>150433</v>
+      </c>
+      <c r="E14" s="61" t="s">
+        <v>8618</v>
+      </c>
+      <c r="F14" s="61" t="s">
+        <v>1725</v>
+      </c>
+      <c r="G14" s="57" t="d">
+        <v>1996-11-09</v>
+      </c>
+      <c r="H14" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="61">
+        <v>1776782720</v>
+      </c>
+      <c r="J14" s="61" t="s">
+        <v>8619</v>
+      </c>
+      <c r="K14" s="61" t="s">
+        <v>8620</v>
+      </c>
+      <c r="L14" s="61" t="s">
+        <v>8621</v>
+      </c>
+      <c r="M14" s="61" t="s">
+        <v>8622</v>
+      </c>
+      <c r="N14" s="61" t="s">
+        <v>8623</v>
+      </c>
+      <c r="O14" s="61" t="s">
+        <v>8624</v>
+      </c>
+      <c r="P14" s="61" t="s">
+        <v>8625</v>
+      </c>
+      <c r="Q14" s="61" t="s">
+        <v>8626</v>
+      </c>
+      <c r="R14" s="61" t="s">
+        <v>8570</v>
+      </c>
+      <c r="S14" s="61" t="s">
+        <v>8626</v>
+      </c>
+      <c r="T14" s="61" t="s">
+        <v>8627</v>
+      </c>
+      <c r="U14" s="61" t="s">
+        <v>8628</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="61" t="s">
+        <v>8629</v>
+      </c>
+      <c r="B15" s="61" t="s">
+        <v>8630</v>
+      </c>
+      <c r="C15" s="61" t="s">
+        <v>8631</v>
+      </c>
+      <c r="D15" s="61">
+        <v>150434</v>
+      </c>
+      <c r="E15" s="61" t="s">
+        <v>8632</v>
+      </c>
+      <c r="F15" s="61" t="s">
+        <v>8633</v>
+      </c>
+      <c r="G15" s="57" t="d">
+        <v>1997-08-30</v>
+      </c>
+      <c r="H15" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="I15" s="61" t="s">
+        <v>8630</v>
+      </c>
+      <c r="J15" s="61" t="s">
+        <v>8634</v>
+      </c>
+      <c r="K15" s="61" t="s">
+        <v>8635</v>
+      </c>
+      <c r="L15" s="61" t="s">
+        <v>8636</v>
+      </c>
+      <c r="M15" s="61" t="s">
+        <v>8637</v>
+      </c>
+      <c r="N15" s="61" t="s">
+        <v>8638</v>
+      </c>
+      <c r="O15" s="61" t="s">
+        <v>8639</v>
+      </c>
+      <c r="P15" s="61" t="s">
+        <v>8640</v>
+      </c>
+      <c r="Q15" s="61" t="s">
+        <v>8641</v>
+      </c>
+      <c r="R15" s="61" t="s">
+        <v>8642</v>
+      </c>
+      <c r="S15" s="61" t="s">
+        <v>5470</v>
+      </c>
+      <c r="T15" s="61" t="s">
+        <v>8643</v>
+      </c>
+      <c r="U15" s="61" t="s">
+        <v>8644</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="61" t="s">
+        <v>8645</v>
+      </c>
+      <c r="B16" s="61" t="s">
+        <v>8646</v>
+      </c>
+      <c r="C16" s="61" t="s">
+        <v>8647</v>
+      </c>
+      <c r="D16" s="61">
+        <v>150447</v>
+      </c>
+      <c r="E16" s="61" t="s">
+        <v>8648</v>
+      </c>
+      <c r="F16" s="61" t="s">
+        <v>8649</v>
+      </c>
+      <c r="G16" s="57" t="d">
+        <v>1997-09-19</v>
+      </c>
+      <c r="H16" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="I16" s="61" t="s">
+        <v>8646</v>
+      </c>
+      <c r="J16" s="61" t="s">
+        <v>4460</v>
+      </c>
+      <c r="K16" s="61" t="s">
+        <v>21</v>
+      </c>
+      <c r="L16" s="61" t="s">
+        <v>8650</v>
+      </c>
+      <c r="M16" s="61" t="s">
+        <v>8651</v>
+      </c>
+      <c r="N16" s="61" t="s">
+        <v>8652</v>
+      </c>
+      <c r="O16" s="61" t="s">
+        <v>8653</v>
+      </c>
+      <c r="P16" s="61" t="s">
+        <v>8654</v>
+      </c>
+      <c r="Q16" s="61" t="s">
+        <v>8655</v>
+      </c>
+      <c r="R16" s="61" t="s">
+        <v>8570</v>
+      </c>
+      <c r="S16" s="61" t="s">
+        <v>8656</v>
+      </c>
+      <c r="T16" s="61" t="s">
+        <v>8657</v>
+      </c>
+      <c r="U16" s="61" t="s">
+        <v>8658</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" s="61" t="s">
+        <v>8659</v>
+      </c>
+      <c r="B17" s="61" t="s">
+        <v>8660</v>
+      </c>
+      <c r="C17" s="61" t="s">
+        <v>8661</v>
+      </c>
+      <c r="D17" s="61">
+        <v>150437</v>
+      </c>
+      <c r="E17" s="61" t="s">
+        <v>8662</v>
+      </c>
+      <c r="F17" s="61" t="s">
+        <v>8663</v>
+      </c>
+      <c r="G17" s="57" t="d">
+        <v>1997-11-18</v>
+      </c>
+      <c r="H17" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="I17" s="61" t="s">
+        <v>8664</v>
+      </c>
+      <c r="J17" s="61" t="s">
+        <v>8665</v>
+      </c>
+      <c r="K17" s="61" t="s">
+        <v>8666</v>
+      </c>
+      <c r="L17" s="61" t="s">
+        <v>8667</v>
+      </c>
+      <c r="M17" s="61" t="s">
+        <v>8668</v>
+      </c>
+      <c r="N17" s="61" t="s">
+        <v>8669</v>
+      </c>
+      <c r="O17" s="61" t="s">
+        <v>8670</v>
+      </c>
+      <c r="P17" s="61" t="s">
+        <v>8671</v>
+      </c>
+      <c r="Q17" s="61" t="s">
+        <v>8672</v>
+      </c>
+      <c r="R17" s="61" t="s">
+        <v>8673</v>
+      </c>
+      <c r="S17" s="61" t="s">
+        <v>8674</v>
+      </c>
+      <c r="T17" s="61" t="s">
+        <v>8675</v>
+      </c>
+      <c r="U17" s="61" t="s">
+        <v>8676</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" s="61" t="s">
+        <v>8677</v>
+      </c>
+      <c r="B18" s="61" t="s">
+        <v>8678</v>
+      </c>
+      <c r="C18" s="61" t="s">
+        <v>8679</v>
+      </c>
+      <c r="D18" s="61">
+        <v>150423</v>
+      </c>
+      <c r="E18" s="61" t="s">
+        <v>8680</v>
+      </c>
+      <c r="F18" s="61" t="s">
+        <v>3135</v>
+      </c>
+      <c r="G18" s="57" t="d">
+        <v>1995-12-26</v>
+      </c>
+      <c r="H18" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="I18" s="61">
+        <v>1686005956</v>
+      </c>
+      <c r="J18" s="61" t="s">
+        <v>8681</v>
+      </c>
+      <c r="K18" s="61" t="s">
+        <v>8682</v>
+      </c>
+      <c r="L18" s="60" t="d">
+        <v>2015-12-26</v>
+      </c>
+      <c r="M18" s="61" t="s">
+        <v>8683</v>
+      </c>
+      <c r="N18" s="61" t="s">
+        <v>8684</v>
+      </c>
+      <c r="O18" s="61" t="s">
+        <v>8685</v>
+      </c>
+      <c r="P18" s="61" t="s">
+        <v>8686</v>
+      </c>
+      <c r="Q18" s="61" t="s">
+        <v>8687</v>
+      </c>
+      <c r="R18" s="61" t="s">
+        <v>8688</v>
+      </c>
+      <c r="S18" s="61" t="s">
+        <v>8689</v>
+      </c>
+      <c r="T18" s="61" t="s">
+        <v>8690</v>
+      </c>
+      <c r="U18" s="61" t="s">
+        <v>8691</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="330" x14ac:dyDescent="0.25">
+      <c r="A19" s="61" t="s">
+        <v>8692</v>
+      </c>
+      <c r="B19" s="61" t="s">
+        <v>8693</v>
+      </c>
+      <c r="C19" s="61" t="s">
+        <v>8694</v>
+      </c>
+      <c r="D19" s="61">
+        <v>150410</v>
+      </c>
+      <c r="E19" s="61" t="s">
+        <v>8695</v>
+      </c>
+      <c r="F19" s="61" t="s">
+        <v>8696</v>
+      </c>
+      <c r="G19" s="57" t="d">
+        <v>1995-08-30</v>
+      </c>
+      <c r="H19" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="I19" s="61">
+        <v>1521258814</v>
+      </c>
+      <c r="J19" s="61" t="s">
+        <v>8697</v>
+      </c>
+      <c r="K19" s="61" t="s">
+        <v>8698</v>
+      </c>
+      <c r="L19" s="61" t="s">
+        <v>8699</v>
+      </c>
+      <c r="M19" s="61" t="s">
+        <v>8700</v>
+      </c>
+      <c r="N19" s="61" t="s">
+        <v>8701</v>
+      </c>
+      <c r="O19" s="61">
+        <v>1401</v>
+      </c>
+      <c r="P19" s="61" t="s">
+        <v>8702</v>
+      </c>
+      <c r="Q19" s="61" t="s">
+        <v>8703</v>
+      </c>
+      <c r="R19" s="61" t="s">
+        <v>8704</v>
+      </c>
+      <c r="S19" s="61" t="s">
+        <v>8705</v>
+      </c>
+      <c r="T19" s="59" t="s">
+        <v>8706</v>
+      </c>
+      <c r="U19" s="61" t="s">
+        <v>8707</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" s="61" t="s">
+        <v>8708</v>
+      </c>
+      <c r="B20" s="61" t="s">
+        <v>8709</v>
+      </c>
+      <c r="C20" s="61" t="s">
+        <v>8710</v>
+      </c>
+      <c r="D20" s="61">
+        <v>150441</v>
+      </c>
+      <c r="E20" s="61" t="s">
+        <v>8711</v>
+      </c>
+      <c r="F20" s="61" t="s">
+        <v>312</v>
+      </c>
+      <c r="G20" s="57" t="d">
+        <v>1996-04-19</v>
+      </c>
+      <c r="H20" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="I20" s="61">
+        <v>1521116846</v>
+      </c>
+      <c r="J20" s="61" t="s">
+        <v>8712</v>
+      </c>
+      <c r="K20" s="61" t="s">
+        <v>8713</v>
+      </c>
+      <c r="L20" s="61" t="s">
+        <v>8714</v>
+      </c>
+      <c r="M20" s="61" t="s">
+        <v>8715</v>
+      </c>
+      <c r="N20" s="61" t="s">
+        <v>8716</v>
+      </c>
+      <c r="O20" s="61" t="s">
+        <v>8717</v>
+      </c>
+      <c r="P20" s="61" t="s">
+        <v>8718</v>
+      </c>
+      <c r="Q20" s="61" t="s">
+        <v>8719</v>
+      </c>
+      <c r="R20" s="61" t="s">
+        <v>8720</v>
+      </c>
+      <c r="S20" s="61" t="s">
+        <v>8721</v>
+      </c>
+      <c r="T20" s="61" t="s">
+        <v>8722</v>
+      </c>
+      <c r="U20" s="61" t="s">
+        <v>8723</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21" s="61" t="s">
+        <v>8724</v>
+      </c>
+      <c r="B21" s="61" t="s">
+        <v>8725</v>
+      </c>
+      <c r="C21" s="61" t="s">
+        <v>8726</v>
+      </c>
+      <c r="D21" s="61">
+        <v>150442</v>
+      </c>
+      <c r="E21" s="61" t="s">
+        <v>8727</v>
+      </c>
+      <c r="F21" s="61" t="s">
+        <v>8728</v>
+      </c>
+      <c r="G21" s="57" t="d">
+        <v>1995-10-24</v>
+      </c>
+      <c r="H21" s="61" t="s">
+        <v>51</v>
+      </c>
+      <c r="I21" s="29">
+        <v>880172000000</v>
+      </c>
+      <c r="J21" s="61" t="s">
+        <v>66</v>
+      </c>
+      <c r="K21" s="61" t="s">
+        <v>8729</v>
+      </c>
+      <c r="L21" s="61" t="s">
+        <v>8730</v>
+      </c>
+      <c r="M21" s="61" t="s">
+        <v>8731</v>
+      </c>
+      <c r="N21" s="61" t="s">
+        <v>8732</v>
+      </c>
+      <c r="O21" s="61" t="s">
+        <v>8733</v>
+      </c>
+      <c r="P21" s="61" t="s">
+        <v>8734</v>
+      </c>
+      <c r="Q21" s="61" t="s">
+        <v>5976</v>
+      </c>
+      <c r="R21" s="61" t="s">
+        <v>8735</v>
+      </c>
+      <c r="S21" s="61" t="s">
+        <v>8736</v>
+      </c>
+      <c r="T21" s="61" t="s">
+        <v>8737</v>
+      </c>
+      <c r="U21" s="61" t="s">
+        <v>8738</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="195" x14ac:dyDescent="0.25">
+      <c r="A22" s="61" t="s">
+        <v>8739</v>
+      </c>
+      <c r="B22" s="61" t="s">
+        <v>8740</v>
+      </c>
+      <c r="C22" s="61" t="s">
+        <v>8741</v>
+      </c>
+      <c r="D22" s="61">
+        <v>150439</v>
+      </c>
+      <c r="E22" s="61" t="s">
+        <v>8742</v>
+      </c>
+      <c r="F22" s="61" t="s">
+        <v>8743</v>
+      </c>
+      <c r="G22" s="57" t="d">
+        <v>1995-05-30</v>
+      </c>
+      <c r="H22" s="61" t="s">
+        <v>7512</v>
+      </c>
+      <c r="I22" s="61" t="s">
+        <v>8744</v>
+      </c>
+      <c r="J22" s="61" t="s">
+        <v>8745</v>
+      </c>
+      <c r="K22" s="61" t="s">
+        <v>8746</v>
+      </c>
+      <c r="L22" s="61" t="s">
+        <v>8747</v>
+      </c>
+      <c r="M22" s="59" t="s">
+        <v>8748</v>
+      </c>
+      <c r="N22" s="61" t="s">
+        <v>8749</v>
+      </c>
+      <c r="O22" s="61" t="s">
+        <v>8750</v>
+      </c>
+      <c r="P22" s="61" t="s">
+        <v>8751</v>
+      </c>
+      <c r="Q22" s="61" t="s">
+        <v>8752</v>
+      </c>
+      <c r="R22" s="61" t="s">
+        <v>8753</v>
+      </c>
+      <c r="S22" s="61" t="s">
+        <v>8754</v>
+      </c>
+      <c r="T22" s="61" t="s">
+        <v>8755</v>
+      </c>
+      <c r="U22" s="61" t="s">
+        <v>8756</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" s="61" t="s">
+        <v>8757</v>
+      </c>
+      <c r="B23" s="61" t="s">
+        <v>8758</v>
+      </c>
+      <c r="C23" s="61" t="s">
+        <v>8759</v>
+      </c>
+      <c r="D23" s="61">
+        <v>150405</v>
+      </c>
+      <c r="E23" s="61" t="s">
+        <v>8760</v>
+      </c>
+      <c r="F23" s="61" t="s">
+        <v>8761</v>
+      </c>
+      <c r="G23" s="57" t="d">
+        <v>1997-12-05</v>
+      </c>
+      <c r="H23" s="61" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="I23" s="61">
+        <v>1521201073</v>
+      </c>
+      <c r="J23" s="61" t="s">
+        <v>8762</v>
+      </c>
+      <c r="K23" s="61" t="s">
+        <v>8763</v>
+      </c>
+      <c r="L23" s="61" t="s">
+        <v>8764</v>
+      </c>
+      <c r="M23" s="61" t="s">
+        <v>8765</v>
+      </c>
+      <c r="N23" s="61" t="s">
+        <v>8766</v>
+      </c>
+      <c r="O23" s="61" t="s">
+        <v>8767</v>
+      </c>
+      <c r="P23" s="61" t="s">
+        <v>8768</v>
+      </c>
+      <c r="Q23" s="61" t="s">
+        <v>8769</v>
+      </c>
+      <c r="R23" s="61" t="s">
+        <v>8770</v>
+      </c>
+      <c r="S23" s="61" t="s">
+        <v>8771</v>
+      </c>
+      <c r="T23" s="61" t="s">
+        <v>8772</v>
+      </c>
+      <c r="U23" s="61" t="s">
+        <v>8773</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="210" x14ac:dyDescent="0.25">
+      <c r="A24" s="61" t="s">
+        <v>8774</v>
+      </c>
+      <c r="B24" s="61" t="s">
+        <v>8775</v>
+      </c>
+      <c r="C24" s="61" t="s">
+        <v>8776</v>
+      </c>
+      <c r="D24" s="61">
+        <v>150427</v>
+      </c>
+      <c r="E24" s="61" t="s">
+        <v>8777</v>
+      </c>
+      <c r="F24" s="61" t="s">
+        <v>8778</v>
+      </c>
+      <c r="G24" s="57" t="d">
+        <v>1995-12-21</v>
+      </c>
+      <c r="H24" s="61" t="s">
+        <v>942</v>
+      </c>
+      <c r="I24" s="61" t="s">
+        <v>8779</v>
+      </c>
+      <c r="J24" s="61" t="s">
+        <v>8780</v>
+      </c>
+      <c r="K24" s="61" t="s">
+        <v>8781</v>
+      </c>
+      <c r="L24" s="59" t="s">
+        <v>8782</v>
+      </c>
+      <c r="M24" s="61" t="s">
+        <v>8783</v>
+      </c>
+      <c r="N24" s="61" t="s">
+        <v>8784</v>
+      </c>
+      <c r="O24" s="61" t="s">
+        <v>8785</v>
+      </c>
+      <c r="P24" s="61" t="s">
+        <v>8786</v>
+      </c>
+      <c r="Q24" s="61" t="s">
+        <v>8787</v>
+      </c>
+      <c r="R24" s="61" t="s">
+        <v>8788</v>
+      </c>
+      <c r="S24" s="61" t="s">
+        <v>8789</v>
+      </c>
+      <c r="T24" s="61" t="s">
+        <v>8790</v>
+      </c>
+      <c r="U24" s="61" t="s">
+        <v>8791</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25" s="61" t="s">
+        <v>8792</v>
+      </c>
+      <c r="B25" s="61" t="s">
+        <v>8793</v>
+      </c>
+      <c r="C25" s="61" t="s">
+        <v>8794</v>
+      </c>
+      <c r="D25" s="61">
+        <v>140422</v>
+      </c>
+      <c r="E25" s="61" t="s">
+        <v>8795</v>
+      </c>
+      <c r="F25" s="61" t="s">
+        <v>8796</v>
+      </c>
+      <c r="G25" s="57" t="d">
+        <v>1995-08-07</v>
+      </c>
+      <c r="H25" s="61" t="s">
+        <v>51</v>
+      </c>
+      <c r="I25" s="61" t="s">
+        <v>8793</v>
+      </c>
+      <c r="J25" s="61" t="s">
+        <v>8797</v>
+      </c>
+      <c r="K25" s="61" t="s">
+        <v>8798</v>
+      </c>
+      <c r="L25" s="61" t="s">
+        <v>8799</v>
+      </c>
+      <c r="M25" s="61" t="s">
+        <v>8800</v>
+      </c>
+      <c r="N25" s="61" t="s">
+        <v>8801</v>
+      </c>
+      <c r="O25" s="61" t="s">
+        <v>8802</v>
+      </c>
+      <c r="P25" s="61" t="s">
+        <v>8803</v>
+      </c>
+      <c r="Q25" s="61" t="s">
+        <v>8804</v>
+      </c>
+      <c r="R25" s="61" t="s">
+        <v>8805</v>
+      </c>
+      <c r="S25" s="61" t="s">
+        <v>8806</v>
+      </c>
+      <c r="T25" s="61" t="s">
+        <v>8807</v>
+      </c>
+      <c r="U25" s="61" t="s">
+        <v>8808</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26" s="61" t="s">
+        <v>8809</v>
+      </c>
+      <c r="B26" s="61" t="s">
+        <v>8810</v>
+      </c>
+      <c r="C26" s="61" t="s">
+        <v>8811</v>
+      </c>
+      <c r="D26" s="61">
+        <v>150406</v>
+      </c>
+      <c r="E26" s="61" t="s">
+        <v>8812</v>
+      </c>
+      <c r="F26" s="61" t="s">
+        <v>8813</v>
+      </c>
+      <c r="G26" s="57" t="d">
+        <v>1997-07-01</v>
+      </c>
+      <c r="H26" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="I26" s="61">
+        <v>1951916121</v>
+      </c>
+      <c r="J26" s="61" t="s">
+        <v>8814</v>
+      </c>
+      <c r="K26" s="61" t="s">
+        <v>8815</v>
+      </c>
+      <c r="L26" s="60" t="d">
+        <v>2015-03-23</v>
+      </c>
+      <c r="M26" s="61" t="s">
+        <v>8816</v>
+      </c>
+      <c r="N26" s="61" t="s">
+        <v>8817</v>
+      </c>
+      <c r="O26" s="61" t="s">
+        <v>8818</v>
+      </c>
+      <c r="P26" s="61" t="s">
+        <v>8819</v>
+      </c>
+      <c r="Q26" s="61" t="s">
+        <v>8820</v>
+      </c>
+      <c r="R26" s="61" t="s">
+        <v>8821</v>
+      </c>
+      <c r="S26" s="61" t="s">
+        <v>8822</v>
+      </c>
+      <c r="T26" s="61" t="s">
+        <v>8823</v>
+      </c>
+      <c r="U26" s="61" t="s">
+        <v>8824</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27" s="61" t="s">
+        <v>8825</v>
+      </c>
+      <c r="B27" s="61" t="s">
+        <v>8826</v>
+      </c>
+      <c r="C27" s="61" t="s">
+        <v>8827</v>
+      </c>
+      <c r="D27" s="61">
+        <v>150413</v>
+      </c>
+      <c r="E27" s="61" t="s">
+        <v>8828</v>
+      </c>
+      <c r="F27" s="61" t="s">
+        <v>8829</v>
+      </c>
+      <c r="G27" s="57" t="d">
+        <v>1996-07-19</v>
+      </c>
+      <c r="H27" s="61" t="s">
+        <v>8830</v>
+      </c>
+      <c r="I27" s="61">
+        <v>1687078548</v>
+      </c>
+      <c r="J27" s="61" t="s">
+        <v>8831</v>
+      </c>
+      <c r="K27" s="61" t="s">
+        <v>8832</v>
+      </c>
+      <c r="L27" s="61" t="s">
+        <v>1292</v>
+      </c>
+      <c r="M27" s="61" t="s">
+        <v>707</v>
+      </c>
+      <c r="N27" s="61" t="s">
+        <v>8833</v>
+      </c>
+      <c r="O27" s="61" t="s">
+        <v>3441</v>
+      </c>
+      <c r="P27" s="61" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q27" s="61" t="s">
+        <v>8834</v>
+      </c>
+      <c r="R27" s="61" t="s">
+        <v>8835</v>
+      </c>
+      <c r="S27" s="61" t="s">
+        <v>8836</v>
+      </c>
+      <c r="T27" s="61" t="s">
+        <v>8837</v>
+      </c>
+      <c r="U27" s="61" t="s">
+        <v>8838</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" ht="180" x14ac:dyDescent="0.25">
+      <c r="A28" s="61" t="s">
+        <v>8839</v>
+      </c>
+      <c r="B28" s="61" t="s">
+        <v>8840</v>
+      </c>
+      <c r="C28" s="61" t="s">
+        <v>8841</v>
+      </c>
+      <c r="D28" s="61">
+        <v>150404</v>
+      </c>
+      <c r="E28" s="61" t="s">
+        <v>8842</v>
+      </c>
+      <c r="F28" s="61" t="s">
+        <v>8843</v>
+      </c>
+      <c r="G28" s="57" t="d">
+        <v>1993-09-09</v>
+      </c>
+      <c r="H28" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="I28" s="29">
+        <v>8801680000000</v>
+      </c>
+      <c r="J28" s="61" t="s">
+        <v>8844</v>
+      </c>
+      <c r="K28" s="61" t="s">
+        <v>8845</v>
+      </c>
+      <c r="L28" s="59" t="s">
+        <v>8846</v>
+      </c>
+      <c r="M28" s="61" t="s">
+        <v>8847</v>
+      </c>
+      <c r="N28" s="61" t="s">
+        <v>8848</v>
+      </c>
+      <c r="O28" s="61" t="s">
+        <v>8849</v>
+      </c>
+      <c r="P28" s="61" t="s">
+        <v>8850</v>
+      </c>
+      <c r="Q28" s="61" t="s">
+        <v>8851</v>
+      </c>
+      <c r="R28" s="61" t="s">
+        <v>8852</v>
+      </c>
+      <c r="S28" s="61" t="s">
+        <v>8853</v>
+      </c>
+      <c r="T28" s="61" t="s">
+        <v>8854</v>
+      </c>
+      <c r="U28" s="61" t="s">
+        <v>8855</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C622A9CD-D821-4A04-A23E-EA0D2430B39D}">
   <dimension ref="A1:R23"/>
   <sheetViews>
@@ -54394,7 +59340,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49C74A8C-AA07-4F43-8D54-1B879D57065E}">
   <dimension ref="A1:S41"/>
   <sheetViews>
@@ -56384,7 +61330,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A081754D-F627-4E3C-8CA6-54151F09A887}">
   <dimension ref="A1:S34"/>
   <sheetViews>
@@ -58432,7 +63378,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35DE5093-23A8-434D-AF48-0E102C7DB675}">
   <dimension ref="A1:S44"/>
   <sheetViews>
@@ -61067,7 +66013,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3849484C-BF18-4B74-94BF-86D53C1A3C39}">
   <dimension ref="A1:T42"/>
   <sheetViews>
@@ -63695,1879 +68641,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E4D9F7C-A98E-46F0-9CC6-B2900602B66E}">
-  <dimension ref="A1:T30"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:T30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
-        <v>4222</v>
-      </c>
-      <c r="B1" s="61" t="s">
-        <v>617</v>
-      </c>
-      <c r="C1" s="61" t="s">
-        <v>7977</v>
-      </c>
-      <c r="D1" s="61" t="s">
-        <v>4223</v>
-      </c>
-      <c r="E1" s="61" t="s">
-        <v>622</v>
-      </c>
-      <c r="F1" s="61" t="s">
-        <v>1602</v>
-      </c>
-      <c r="G1" s="61" t="s">
-        <v>621</v>
-      </c>
-      <c r="H1" s="61" t="s">
-        <v>7978</v>
-      </c>
-      <c r="I1" s="61" t="s">
-        <v>623</v>
-      </c>
-      <c r="J1" s="61" t="s">
-        <v>1605</v>
-      </c>
-      <c r="K1" s="61" t="s">
-        <v>7979</v>
-      </c>
-      <c r="L1" s="61" t="s">
-        <v>630</v>
-      </c>
-      <c r="M1" s="61" t="s">
-        <v>7980</v>
-      </c>
-      <c r="N1" s="61" t="s">
-        <v>627</v>
-      </c>
-      <c r="O1" s="61" t="s">
-        <v>628</v>
-      </c>
-      <c r="P1" s="61" t="s">
-        <v>629</v>
-      </c>
-      <c r="Q1" s="61" t="s">
-        <v>631</v>
-      </c>
-      <c r="R1" s="61" t="s">
-        <v>632</v>
-      </c>
-      <c r="S1" s="61" t="s">
-        <v>633</v>
-      </c>
-      <c r="T1" s="61" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="61" t="s">
-        <v>7981</v>
-      </c>
-      <c r="B2" s="61" t="s">
-        <v>7982</v>
-      </c>
-      <c r="C2" s="61">
-        <v>151224</v>
-      </c>
-      <c r="D2" s="61" t="s">
-        <v>7983</v>
-      </c>
-      <c r="E2" s="61" t="s">
-        <v>7984</v>
-      </c>
-      <c r="F2" s="61" t="s">
-        <v>5751</v>
-      </c>
-      <c r="G2" s="61" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2" s="61" t="s">
-        <v>7985</v>
-      </c>
-      <c r="I2" s="61" t="s">
-        <v>7986</v>
-      </c>
-      <c r="J2" s="61" t="s">
-        <v>2701</v>
-      </c>
-      <c r="K2" s="61" t="s">
-        <v>7987</v>
-      </c>
-      <c r="L2" s="61" t="s">
-        <v>7988</v>
-      </c>
-      <c r="M2" s="61" t="s">
-        <v>7989</v>
-      </c>
-      <c r="N2" s="61" t="s">
-        <v>7990</v>
-      </c>
-      <c r="O2" s="61" t="s">
-        <v>7991</v>
-      </c>
-      <c r="P2" s="61" t="s">
-        <v>7992</v>
-      </c>
-      <c r="Q2" s="61" t="s">
-        <v>7993</v>
-      </c>
-      <c r="R2" s="61" t="s">
-        <v>7994</v>
-      </c>
-      <c r="S2" s="61" t="s">
-        <v>7995</v>
-      </c>
-      <c r="T2" s="61" t="s">
-        <v>7988</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="61" t="s">
-        <v>7996</v>
-      </c>
-      <c r="B3" s="61" t="s">
-        <v>7997</v>
-      </c>
-      <c r="C3" s="61">
-        <v>151219</v>
-      </c>
-      <c r="D3" s="61" t="s">
-        <v>7998</v>
-      </c>
-      <c r="E3" s="61" t="s">
-        <v>7999</v>
-      </c>
-      <c r="F3" s="61" t="s">
-        <v>8000</v>
-      </c>
-      <c r="G3" s="61" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="61" t="s">
-        <v>8001</v>
-      </c>
-      <c r="I3" s="61" t="s">
-        <v>483</v>
-      </c>
-      <c r="J3" s="61" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="61" t="s">
-        <v>8002</v>
-      </c>
-      <c r="L3" s="61" t="s">
-        <v>8003</v>
-      </c>
-      <c r="M3" s="61" t="s">
-        <v>8004</v>
-      </c>
-      <c r="N3" s="61" t="s">
-        <v>8005</v>
-      </c>
-      <c r="O3" s="61" t="s">
-        <v>8006</v>
-      </c>
-      <c r="P3" s="61" t="s">
-        <v>8007</v>
-      </c>
-      <c r="Q3" s="61" t="s">
-        <v>8008</v>
-      </c>
-      <c r="R3" s="61" t="s">
-        <v>8009</v>
-      </c>
-      <c r="S3" s="61" t="s">
-        <v>8010</v>
-      </c>
-      <c r="T3" s="61" t="s">
-        <v>8011</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="61" t="s">
-        <v>8012</v>
-      </c>
-      <c r="B4" s="61" t="s">
-        <v>8013</v>
-      </c>
-      <c r="C4" s="61">
-        <v>151242</v>
-      </c>
-      <c r="D4" s="61" t="s">
-        <v>8014</v>
-      </c>
-      <c r="E4" s="61" t="s">
-        <v>8015</v>
-      </c>
-      <c r="F4" s="61" t="s">
-        <v>8016</v>
-      </c>
-      <c r="G4" s="61" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" s="61" t="s">
-        <v>8017</v>
-      </c>
-      <c r="I4" s="61" t="s">
-        <v>2819</v>
-      </c>
-      <c r="J4" s="61" t="s">
-        <v>8018</v>
-      </c>
-      <c r="K4" s="60" t="d">
-        <v>2015-11-18</v>
-      </c>
-      <c r="L4" s="61" t="s">
-        <v>8019</v>
-      </c>
-      <c r="M4" s="61" t="s">
-        <v>8020</v>
-      </c>
-      <c r="N4" s="61" t="s">
-        <v>96</v>
-      </c>
-      <c r="O4" s="61" t="s">
-        <v>8021</v>
-      </c>
-      <c r="P4" s="61" t="s">
-        <v>8022</v>
-      </c>
-      <c r="Q4" s="61" t="s">
-        <v>8023</v>
-      </c>
-      <c r="R4" s="61" t="s">
-        <v>8024</v>
-      </c>
-      <c r="S4" s="61" t="s">
-        <v>8025</v>
-      </c>
-      <c r="T4" s="61" t="s">
-        <v>8026</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="61" t="s">
-        <v>8027</v>
-      </c>
-      <c r="B5" s="61" t="s">
-        <v>8028</v>
-      </c>
-      <c r="C5" s="61">
-        <v>151235</v>
-      </c>
-      <c r="D5" s="61" t="s">
-        <v>8029</v>
-      </c>
-      <c r="E5" s="61" t="s">
-        <v>8030</v>
-      </c>
-      <c r="F5" s="57" t="d">
-        <v>1995-01-02</v>
-      </c>
-      <c r="G5" s="61" t="s">
-        <v>4305</v>
-      </c>
-      <c r="H5" s="61" t="s">
-        <v>8031</v>
-      </c>
-      <c r="I5" s="61" t="s">
-        <v>106</v>
-      </c>
-      <c r="J5" s="61" t="s">
-        <v>66</v>
-      </c>
-      <c r="K5" s="61" t="s">
-        <v>8032</v>
-      </c>
-      <c r="L5" s="61" t="s">
-        <v>3473</v>
-      </c>
-      <c r="M5" s="61" t="s">
-        <v>8033</v>
-      </c>
-      <c r="N5" s="61" t="s">
-        <v>8034</v>
-      </c>
-      <c r="O5" s="61" t="s">
-        <v>8035</v>
-      </c>
-      <c r="P5" s="61" t="s">
-        <v>8036</v>
-      </c>
-      <c r="Q5" s="61" t="s">
-        <v>8037</v>
-      </c>
-      <c r="R5" s="61" t="s">
-        <v>8038</v>
-      </c>
-      <c r="S5" s="61" t="s">
-        <v>8039</v>
-      </c>
-      <c r="T5" s="61" t="s">
-        <v>8040</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="61" t="s">
-        <v>8041</v>
-      </c>
-      <c r="B6" s="61" t="s">
-        <v>8042</v>
-      </c>
-      <c r="C6" s="61">
-        <v>151217</v>
-      </c>
-      <c r="D6" s="61" t="s">
-        <v>8043</v>
-      </c>
-      <c r="E6" s="61" t="s">
-        <v>8044</v>
-      </c>
-      <c r="F6" s="61" t="s">
-        <v>8045</v>
-      </c>
-      <c r="G6" s="61" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" s="61">
-        <v>1940866478</v>
-      </c>
-      <c r="I6" s="61" t="s">
-        <v>8046</v>
-      </c>
-      <c r="J6" s="61" t="s">
-        <v>8047</v>
-      </c>
-      <c r="K6" s="61" t="s">
-        <v>8048</v>
-      </c>
-      <c r="L6" s="61" t="s">
-        <v>8049</v>
-      </c>
-      <c r="M6" s="61" t="s">
-        <v>8050</v>
-      </c>
-      <c r="N6" s="61" t="s">
-        <v>8051</v>
-      </c>
-      <c r="O6" s="61" t="s">
-        <v>8052</v>
-      </c>
-      <c r="P6" s="61" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q6" s="61" t="s">
-        <v>8053</v>
-      </c>
-      <c r="R6" s="61" t="s">
-        <v>8054</v>
-      </c>
-      <c r="S6" s="61" t="s">
-        <v>8046</v>
-      </c>
-      <c r="T6" s="61" t="s">
-        <v>8055</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="61" t="s">
-        <v>8056</v>
-      </c>
-      <c r="B7" s="61" t="s">
-        <v>8057</v>
-      </c>
-      <c r="C7" s="61">
-        <v>151222</v>
-      </c>
-      <c r="D7" s="61" t="s">
-        <v>8058</v>
-      </c>
-      <c r="E7" s="61" t="s">
-        <v>7450</v>
-      </c>
-      <c r="F7" s="61" t="s">
-        <v>8059</v>
-      </c>
-      <c r="G7" s="61" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" s="61" t="s">
-        <v>8060</v>
-      </c>
-      <c r="I7" s="61" t="s">
-        <v>197</v>
-      </c>
-      <c r="J7" s="61" t="s">
-        <v>8061</v>
-      </c>
-      <c r="K7" s="61" t="s">
-        <v>2899</v>
-      </c>
-      <c r="L7" s="61" t="s">
-        <v>8062</v>
-      </c>
-      <c r="M7" s="61" t="s">
-        <v>8063</v>
-      </c>
-      <c r="N7" s="61" t="s">
-        <v>8064</v>
-      </c>
-      <c r="O7" s="61" t="s">
-        <v>8065</v>
-      </c>
-      <c r="P7" s="61" t="s">
-        <v>8066</v>
-      </c>
-      <c r="Q7" s="61" t="s">
-        <v>8067</v>
-      </c>
-      <c r="R7" s="61" t="s">
-        <v>8068</v>
-      </c>
-      <c r="S7" s="61" t="s">
-        <v>8069</v>
-      </c>
-      <c r="T7" s="61" t="s">
-        <v>8070</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="61" t="s">
-        <v>8071</v>
-      </c>
-      <c r="B8" s="61" t="s">
-        <v>8072</v>
-      </c>
-      <c r="C8" s="61">
-        <v>151213</v>
-      </c>
-      <c r="D8" s="61" t="s">
-        <v>8073</v>
-      </c>
-      <c r="E8" s="61" t="s">
-        <v>8074</v>
-      </c>
-      <c r="F8" s="57" t="d">
-        <v>1996-01-19</v>
-      </c>
-      <c r="G8" s="61" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8" s="61" t="s">
-        <v>8075</v>
-      </c>
-      <c r="I8" s="61" t="s">
-        <v>8076</v>
-      </c>
-      <c r="J8" s="61" t="s">
-        <v>8077</v>
-      </c>
-      <c r="K8" s="61" t="s">
-        <v>8078</v>
-      </c>
-      <c r="L8" s="61" t="s">
-        <v>8079</v>
-      </c>
-      <c r="M8" s="61" t="s">
-        <v>8080</v>
-      </c>
-      <c r="N8" s="61" t="s">
-        <v>8081</v>
-      </c>
-      <c r="O8" s="61" t="s">
-        <v>8082</v>
-      </c>
-      <c r="P8" s="61" t="s">
-        <v>8083</v>
-      </c>
-      <c r="Q8" s="61" t="s">
-        <v>8084</v>
-      </c>
-      <c r="R8" s="61" t="s">
-        <v>8085</v>
-      </c>
-      <c r="S8" s="61" t="s">
-        <v>8086</v>
-      </c>
-      <c r="T8" s="61" t="s">
-        <v>8087</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="61" t="s">
-        <v>8088</v>
-      </c>
-      <c r="B9" s="61" t="s">
-        <v>8089</v>
-      </c>
-      <c r="C9" s="61">
-        <v>151218</v>
-      </c>
-      <c r="D9" s="61" t="s">
-        <v>8090</v>
-      </c>
-      <c r="E9" s="61" t="s">
-        <v>8091</v>
-      </c>
-      <c r="F9" s="61" t="s">
-        <v>8092</v>
-      </c>
-      <c r="G9" s="61" t="s">
-        <v>2</v>
-      </c>
-      <c r="H9" s="61">
-        <v>8801752554813</v>
-      </c>
-      <c r="I9" s="61" t="s">
-        <v>8093</v>
-      </c>
-      <c r="J9" s="61" t="s">
-        <v>8094</v>
-      </c>
-      <c r="K9" s="61" t="s">
-        <v>8095</v>
-      </c>
-      <c r="L9" s="61" t="s">
-        <v>8096</v>
-      </c>
-      <c r="M9" s="61" t="s">
-        <v>8097</v>
-      </c>
-      <c r="N9" s="61" t="s">
-        <v>8098</v>
-      </c>
-      <c r="O9" s="61" t="s">
-        <v>202</v>
-      </c>
-      <c r="P9" s="61" t="s">
-        <v>3477</v>
-      </c>
-      <c r="Q9" s="61" t="s">
-        <v>8099</v>
-      </c>
-      <c r="R9" s="61" t="s">
-        <v>8100</v>
-      </c>
-      <c r="S9" s="61" t="s">
-        <v>8101</v>
-      </c>
-      <c r="T9" s="61" t="s">
-        <v>8102</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="61" t="s">
-        <v>8103</v>
-      </c>
-      <c r="B10" s="61" t="s">
-        <v>8104</v>
-      </c>
-      <c r="C10" s="61">
-        <v>151229</v>
-      </c>
-      <c r="D10" s="61" t="s">
-        <v>8105</v>
-      </c>
-      <c r="E10" s="61" t="s">
-        <v>8106</v>
-      </c>
-      <c r="F10" s="61" t="s">
-        <v>8107</v>
-      </c>
-      <c r="G10" s="61" t="s">
-        <v>51</v>
-      </c>
-      <c r="H10" s="61">
-        <v>8801914154957</v>
-      </c>
-      <c r="I10" s="61" t="s">
-        <v>1676</v>
-      </c>
-      <c r="J10" s="61" t="s">
-        <v>8108</v>
-      </c>
-      <c r="K10" s="61" t="s">
-        <v>8109</v>
-      </c>
-      <c r="L10" s="61" t="s">
-        <v>8110</v>
-      </c>
-      <c r="M10" s="61" t="s">
-        <v>8111</v>
-      </c>
-      <c r="N10" s="61" t="s">
-        <v>8112</v>
-      </c>
-      <c r="O10" s="61" t="s">
-        <v>8113</v>
-      </c>
-      <c r="P10" s="61" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q10" s="61" t="s">
-        <v>8114</v>
-      </c>
-      <c r="R10" s="61" t="s">
-        <v>8115</v>
-      </c>
-      <c r="S10" s="61" t="s">
-        <v>8116</v>
-      </c>
-      <c r="T10" s="61" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="61" t="s">
-        <v>8117</v>
-      </c>
-      <c r="B11" s="61" t="s">
-        <v>8118</v>
-      </c>
-      <c r="C11" s="61">
-        <v>151230</v>
-      </c>
-      <c r="D11" s="61" t="s">
-        <v>8119</v>
-      </c>
-      <c r="E11" s="61" t="s">
-        <v>8120</v>
-      </c>
-      <c r="F11" s="57" t="d">
-        <v>1997-12-10</v>
-      </c>
-      <c r="G11" s="61" t="s">
-        <v>8121</v>
-      </c>
-      <c r="H11" s="61">
-        <v>8801779670785</v>
-      </c>
-      <c r="I11" s="61" t="s">
-        <v>8122</v>
-      </c>
-      <c r="J11" s="61" t="s">
-        <v>520</v>
-      </c>
-      <c r="K11" s="61" t="s">
-        <v>8123</v>
-      </c>
-      <c r="L11" s="61" t="s">
-        <v>8124</v>
-      </c>
-      <c r="M11" s="61" t="s">
-        <v>8125</v>
-      </c>
-      <c r="N11" s="61" t="s">
-        <v>8126</v>
-      </c>
-      <c r="O11" s="61" t="s">
-        <v>8127</v>
-      </c>
-      <c r="P11" s="61" t="s">
-        <v>8128</v>
-      </c>
-      <c r="Q11" s="61" t="s">
-        <v>1805</v>
-      </c>
-      <c r="R11" s="61" t="s">
-        <v>8129</v>
-      </c>
-      <c r="S11" s="61" t="s">
-        <v>8130</v>
-      </c>
-      <c r="T11" s="61" t="s">
-        <v>8131</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="61" t="s">
-        <v>8132</v>
-      </c>
-      <c r="B12" s="61" t="s">
-        <v>8133</v>
-      </c>
-      <c r="C12" s="61">
-        <v>151208</v>
-      </c>
-      <c r="D12" s="61" t="s">
-        <v>8134</v>
-      </c>
-      <c r="E12" s="61" t="s">
-        <v>8135</v>
-      </c>
-      <c r="F12" s="57" t="d">
-        <v>1997-06-06</v>
-      </c>
-      <c r="G12" s="61" t="s">
-        <v>35</v>
-      </c>
-      <c r="H12" s="61">
-        <v>1985524585</v>
-      </c>
-      <c r="I12" s="61" t="s">
-        <v>8136</v>
-      </c>
-      <c r="J12" s="61" t="s">
-        <v>8137</v>
-      </c>
-      <c r="K12" s="61" t="s">
-        <v>8138</v>
-      </c>
-      <c r="L12" s="61" t="s">
-        <v>8139</v>
-      </c>
-      <c r="M12" s="61" t="s">
-        <v>8140</v>
-      </c>
-      <c r="N12" s="61" t="s">
-        <v>8141</v>
-      </c>
-      <c r="O12" s="61" t="s">
-        <v>8142</v>
-      </c>
-      <c r="P12" s="61" t="s">
-        <v>3277</v>
-      </c>
-      <c r="Q12" s="61" t="s">
-        <v>3278</v>
-      </c>
-      <c r="R12" s="61" t="s">
-        <v>8143</v>
-      </c>
-      <c r="S12" s="61" t="s">
-        <v>8144</v>
-      </c>
-      <c r="T12" s="61" t="s">
-        <v>8145</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="61" t="s">
-        <v>8146</v>
-      </c>
-      <c r="B13" s="61" t="s">
-        <v>8147</v>
-      </c>
-      <c r="C13" s="61">
-        <v>151216</v>
-      </c>
-      <c r="D13" s="61" t="s">
-        <v>8148</v>
-      </c>
-      <c r="E13" s="61" t="s">
-        <v>2671</v>
-      </c>
-      <c r="F13" s="61" t="s">
-        <v>8149</v>
-      </c>
-      <c r="G13" s="61" t="s">
-        <v>35</v>
-      </c>
-      <c r="H13" s="61">
-        <v>1689828646</v>
-      </c>
-      <c r="I13" s="61" t="s">
-        <v>106</v>
-      </c>
-      <c r="J13" s="61" t="s">
-        <v>8150</v>
-      </c>
-      <c r="K13" s="61" t="s">
-        <v>8151</v>
-      </c>
-      <c r="L13" s="61" t="s">
-        <v>8152</v>
-      </c>
-      <c r="M13" s="61" t="s">
-        <v>8153</v>
-      </c>
-      <c r="N13" s="61" t="s">
-        <v>442</v>
-      </c>
-      <c r="O13" s="61" t="s">
-        <v>850</v>
-      </c>
-      <c r="P13" s="61" t="s">
-        <v>8154</v>
-      </c>
-      <c r="Q13" s="61" t="s">
-        <v>8155</v>
-      </c>
-      <c r="R13" s="61" t="s">
-        <v>8156</v>
-      </c>
-      <c r="S13" s="61" t="s">
-        <v>8157</v>
-      </c>
-      <c r="T13" s="61" t="s">
-        <v>8158</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="61" t="s">
-        <v>8159</v>
-      </c>
-      <c r="B14" s="61" t="s">
-        <v>8160</v>
-      </c>
-      <c r="C14" s="61">
-        <v>151240</v>
-      </c>
-      <c r="D14" s="61" t="s">
-        <v>8161</v>
-      </c>
-      <c r="E14" s="61" t="s">
-        <v>8162</v>
-      </c>
-      <c r="F14" s="61" t="s">
-        <v>8163</v>
-      </c>
-      <c r="G14" s="61" t="s">
-        <v>35</v>
-      </c>
-      <c r="H14" s="61" t="s">
-        <v>8164</v>
-      </c>
-      <c r="I14" s="61" t="s">
-        <v>8165</v>
-      </c>
-      <c r="J14" s="61" t="s">
-        <v>8166</v>
-      </c>
-      <c r="K14" s="61" t="s">
-        <v>8167</v>
-      </c>
-      <c r="L14" s="61" t="s">
-        <v>8168</v>
-      </c>
-      <c r="M14" s="61" t="s">
-        <v>8169</v>
-      </c>
-      <c r="N14" s="61" t="s">
-        <v>8170</v>
-      </c>
-      <c r="O14" s="61" t="s">
-        <v>8171</v>
-      </c>
-      <c r="P14" s="61" t="s">
-        <v>8172</v>
-      </c>
-      <c r="Q14" s="61" t="s">
-        <v>8173</v>
-      </c>
-      <c r="R14" s="61" t="s">
-        <v>8174</v>
-      </c>
-      <c r="S14" s="61" t="s">
-        <v>8175</v>
-      </c>
-      <c r="T14" s="61" t="s">
-        <v>8176</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="61" t="s">
-        <v>8177</v>
-      </c>
-      <c r="B15" s="61" t="s">
-        <v>8178</v>
-      </c>
-      <c r="C15" s="61">
-        <v>151236</v>
-      </c>
-      <c r="D15" s="61" t="s">
-        <v>8179</v>
-      </c>
-      <c r="E15" s="61" t="s">
-        <v>8180</v>
-      </c>
-      <c r="F15" s="61" t="s">
-        <v>8181</v>
-      </c>
-      <c r="G15" s="61" t="s">
-        <v>35</v>
-      </c>
-      <c r="H15" s="61" t="s">
-        <v>8182</v>
-      </c>
-      <c r="I15" s="61" t="s">
-        <v>8183</v>
-      </c>
-      <c r="J15" s="61" t="s">
-        <v>566</v>
-      </c>
-      <c r="K15" s="61" t="s">
-        <v>8184</v>
-      </c>
-      <c r="L15" s="61" t="s">
-        <v>8185</v>
-      </c>
-      <c r="M15" s="61" t="s">
-        <v>8186</v>
-      </c>
-      <c r="N15" s="61" t="s">
-        <v>8187</v>
-      </c>
-      <c r="O15" s="61" t="s">
-        <v>8188</v>
-      </c>
-      <c r="P15" s="61" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q15" s="61" t="s">
-        <v>8189</v>
-      </c>
-      <c r="R15" s="61" t="s">
-        <v>8190</v>
-      </c>
-      <c r="S15" s="61" t="s">
-        <v>8191</v>
-      </c>
-      <c r="T15" s="61" t="s">
-        <v>8192</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="61" t="s">
-        <v>8193</v>
-      </c>
-      <c r="B16" s="61" t="s">
-        <v>8194</v>
-      </c>
-      <c r="C16" s="61">
-        <v>151221</v>
-      </c>
-      <c r="D16" s="61" t="s">
-        <v>8195</v>
-      </c>
-      <c r="E16" s="61" t="s">
-        <v>3404</v>
-      </c>
-      <c r="F16" s="61" t="s">
-        <v>8196</v>
-      </c>
-      <c r="G16" s="61" t="s">
-        <v>4305</v>
-      </c>
-      <c r="H16" s="61" t="s">
-        <v>8197</v>
-      </c>
-      <c r="I16" s="61" t="s">
-        <v>8198</v>
-      </c>
-      <c r="J16" s="61" t="s">
-        <v>8199</v>
-      </c>
-      <c r="K16" s="61" t="s">
-        <v>8200</v>
-      </c>
-      <c r="L16" s="61" t="s">
-        <v>8201</v>
-      </c>
-      <c r="M16" s="61" t="s">
-        <v>8202</v>
-      </c>
-      <c r="N16" s="61" t="s">
-        <v>8203</v>
-      </c>
-      <c r="O16" s="61" t="s">
-        <v>8204</v>
-      </c>
-      <c r="P16" s="61" t="s">
-        <v>8205</v>
-      </c>
-      <c r="Q16" s="61" t="s">
-        <v>8206</v>
-      </c>
-      <c r="R16" s="61" t="s">
-        <v>8207</v>
-      </c>
-      <c r="S16" s="61" t="s">
-        <v>8208</v>
-      </c>
-      <c r="T16" s="61" t="s">
-        <v>8209</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="61" t="s">
-        <v>8210</v>
-      </c>
-      <c r="B17" s="61" t="s">
-        <v>8211</v>
-      </c>
-      <c r="C17" s="61">
-        <v>151223</v>
-      </c>
-      <c r="D17" s="61" t="s">
-        <v>8212</v>
-      </c>
-      <c r="E17" s="61" t="s">
-        <v>8213</v>
-      </c>
-      <c r="F17" s="61" t="s">
-        <v>8214</v>
-      </c>
-      <c r="G17" s="61" t="s">
-        <v>2</v>
-      </c>
-      <c r="H17" s="61" t="s">
-        <v>8215</v>
-      </c>
-      <c r="I17" s="61" t="s">
-        <v>8216</v>
-      </c>
-      <c r="J17" s="61" t="s">
-        <v>152</v>
-      </c>
-      <c r="K17" s="61" t="s">
-        <v>1292</v>
-      </c>
-      <c r="L17" s="61" t="s">
-        <v>8217</v>
-      </c>
-      <c r="M17" s="61" t="s">
-        <v>8218</v>
-      </c>
-      <c r="N17" s="61" t="s">
-        <v>8219</v>
-      </c>
-      <c r="O17" s="61" t="s">
-        <v>8220</v>
-      </c>
-      <c r="P17" s="61" t="s">
-        <v>8221</v>
-      </c>
-      <c r="Q17" s="61" t="s">
-        <v>8222</v>
-      </c>
-      <c r="R17" s="61" t="s">
-        <v>8223</v>
-      </c>
-      <c r="S17" s="61" t="s">
-        <v>8224</v>
-      </c>
-      <c r="T17" s="61" t="s">
-        <v>8225</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="61" t="s">
-        <v>8226</v>
-      </c>
-      <c r="B18" s="61" t="s">
-        <v>8227</v>
-      </c>
-      <c r="C18" s="61">
-        <v>151211</v>
-      </c>
-      <c r="D18" s="61" t="s">
-        <v>8228</v>
-      </c>
-      <c r="E18" s="61" t="s">
-        <v>8229</v>
-      </c>
-      <c r="F18" s="61" t="s">
-        <v>8230</v>
-      </c>
-      <c r="G18" s="61" t="s">
-        <v>2</v>
-      </c>
-      <c r="H18" s="61" t="s">
-        <v>8231</v>
-      </c>
-      <c r="I18" s="61" t="s">
-        <v>8232</v>
-      </c>
-      <c r="J18" s="61" t="s">
-        <v>8233</v>
-      </c>
-      <c r="K18" s="30" t="d">
-        <v>2018-02-22</v>
-      </c>
-      <c r="L18" s="61" t="s">
-        <v>8234</v>
-      </c>
-      <c r="M18" s="61" t="s">
-        <v>8235</v>
-      </c>
-      <c r="N18" s="61" t="s">
-        <v>8236</v>
-      </c>
-      <c r="O18" s="61" t="s">
-        <v>8237</v>
-      </c>
-      <c r="P18" s="61" t="s">
-        <v>8238</v>
-      </c>
-      <c r="Q18" s="61" t="s">
-        <v>8239</v>
-      </c>
-      <c r="R18" s="61" t="s">
-        <v>8240</v>
-      </c>
-      <c r="S18" s="61" t="s">
-        <v>8241</v>
-      </c>
-      <c r="T18" s="61" t="s">
-        <v>8242</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="61" t="s">
-        <v>8243</v>
-      </c>
-      <c r="B19" s="61" t="s">
-        <v>8244</v>
-      </c>
-      <c r="C19" s="61">
-        <v>151212</v>
-      </c>
-      <c r="D19" s="61" t="s">
-        <v>8245</v>
-      </c>
-      <c r="E19" s="61" t="s">
-        <v>8246</v>
-      </c>
-      <c r="F19" s="61" t="s">
-        <v>8247</v>
-      </c>
-      <c r="G19" s="61" t="s">
-        <v>273</v>
-      </c>
-      <c r="H19" s="61" t="s">
-        <v>8248</v>
-      </c>
-      <c r="I19" s="61" t="s">
-        <v>8249</v>
-      </c>
-      <c r="J19" s="61" t="s">
-        <v>8250</v>
-      </c>
-      <c r="K19" s="61" t="s">
-        <v>8251</v>
-      </c>
-      <c r="L19" s="61" t="s">
-        <v>8252</v>
-      </c>
-      <c r="M19" s="61" t="s">
-        <v>8253</v>
-      </c>
-      <c r="N19" s="61" t="s">
-        <v>8254</v>
-      </c>
-      <c r="O19" s="61" t="s">
-        <v>8255</v>
-      </c>
-      <c r="P19" s="61" t="s">
-        <v>8256</v>
-      </c>
-      <c r="Q19" s="61" t="s">
-        <v>8257</v>
-      </c>
-      <c r="R19" s="61" t="s">
-        <v>8258</v>
-      </c>
-      <c r="S19" s="61" t="s">
-        <v>8259</v>
-      </c>
-      <c r="T19" s="61" t="s">
-        <v>8260</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="61" t="s">
-        <v>8261</v>
-      </c>
-      <c r="B20" s="61" t="s">
-        <v>8262</v>
-      </c>
-      <c r="C20" s="61">
-        <v>151232</v>
-      </c>
-      <c r="D20" s="61" t="s">
-        <v>8263</v>
-      </c>
-      <c r="E20" s="61" t="s">
-        <v>8253</v>
-      </c>
-      <c r="F20" s="61" t="s">
-        <v>8264</v>
-      </c>
-      <c r="G20" s="61" t="s">
-        <v>576</v>
-      </c>
-      <c r="H20" s="61" t="s">
-        <v>8265</v>
-      </c>
-      <c r="I20" s="61" t="s">
-        <v>8266</v>
-      </c>
-      <c r="J20" s="61" t="s">
-        <v>8267</v>
-      </c>
-      <c r="K20" s="61" t="s">
-        <v>6005</v>
-      </c>
-      <c r="L20" s="61" t="s">
-        <v>8268</v>
-      </c>
-      <c r="M20" s="61" t="s">
-        <v>8269</v>
-      </c>
-      <c r="N20" s="61" t="s">
-        <v>8270</v>
-      </c>
-      <c r="O20" s="61" t="s">
-        <v>1912</v>
-      </c>
-      <c r="P20" s="61" t="s">
-        <v>5137</v>
-      </c>
-      <c r="Q20" s="61" t="s">
-        <v>8271</v>
-      </c>
-      <c r="R20" s="61" t="s">
-        <v>8272</v>
-      </c>
-      <c r="S20" s="61" t="s">
-        <v>8273</v>
-      </c>
-      <c r="T20" s="61" t="s">
-        <v>8274</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="61" t="s">
-        <v>8275</v>
-      </c>
-      <c r="B21" s="61" t="s">
-        <v>8276</v>
-      </c>
-      <c r="C21" s="61">
-        <v>151209</v>
-      </c>
-      <c r="D21" s="61" t="s">
-        <v>8277</v>
-      </c>
-      <c r="E21" s="61" t="s">
-        <v>8278</v>
-      </c>
-      <c r="F21" s="61" t="s">
-        <v>8279</v>
-      </c>
-      <c r="G21" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="H21" s="61" t="s">
-        <v>8280</v>
-      </c>
-      <c r="I21" s="61" t="s">
-        <v>2207</v>
-      </c>
-      <c r="J21" s="61" t="s">
-        <v>8281</v>
-      </c>
-      <c r="K21" s="57" t="d">
-        <v>2018-09-03</v>
-      </c>
-      <c r="L21" s="61" t="s">
-        <v>8282</v>
-      </c>
-      <c r="M21" s="61" t="s">
-        <v>8283</v>
-      </c>
-      <c r="N21" s="61" t="s">
-        <v>8284</v>
-      </c>
-      <c r="O21" s="61" t="s">
-        <v>8285</v>
-      </c>
-      <c r="P21" s="61" t="s">
-        <v>8286</v>
-      </c>
-      <c r="Q21" s="61" t="s">
-        <v>8287</v>
-      </c>
-      <c r="R21" s="61" t="s">
-        <v>8288</v>
-      </c>
-      <c r="S21" s="61" t="s">
-        <v>8289</v>
-      </c>
-      <c r="T21" s="61" t="s">
-        <v>8290</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="61" t="s">
-        <v>8291</v>
-      </c>
-      <c r="B22" s="61" t="s">
-        <v>8292</v>
-      </c>
-      <c r="C22" s="61">
-        <v>151226</v>
-      </c>
-      <c r="D22" s="61" t="s">
-        <v>8293</v>
-      </c>
-      <c r="E22" s="61" t="s">
-        <v>8294</v>
-      </c>
-      <c r="F22" s="30" t="d">
-        <v>2018-05-24</v>
-      </c>
-      <c r="G22" s="61" t="s">
-        <v>8295</v>
-      </c>
-      <c r="H22" s="61" t="s">
-        <v>8296</v>
-      </c>
-      <c r="I22" s="61" t="s">
-        <v>8297</v>
-      </c>
-      <c r="J22" s="61" t="s">
-        <v>8298</v>
-      </c>
-      <c r="K22" s="61" t="s">
-        <v>8299</v>
-      </c>
-      <c r="L22" s="61" t="s">
-        <v>8300</v>
-      </c>
-      <c r="M22" s="61" t="s">
-        <v>8301</v>
-      </c>
-      <c r="N22" s="61" t="s">
-        <v>8302</v>
-      </c>
-      <c r="O22" s="61" t="s">
-        <v>8303</v>
-      </c>
-      <c r="P22" s="61" t="s">
-        <v>8304</v>
-      </c>
-      <c r="Q22" s="61" t="s">
-        <v>8305</v>
-      </c>
-      <c r="R22" s="61" t="s">
-        <v>8306</v>
-      </c>
-      <c r="S22" s="61" t="s">
-        <v>8307</v>
-      </c>
-      <c r="T22" s="61" t="s">
-        <v>8308</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="61" t="s">
-        <v>8309</v>
-      </c>
-      <c r="B23" s="61" t="s">
-        <v>8310</v>
-      </c>
-      <c r="C23" s="61">
-        <v>151201</v>
-      </c>
-      <c r="D23" s="61" t="s">
-        <v>8311</v>
-      </c>
-      <c r="E23" s="61" t="s">
-        <v>8312</v>
-      </c>
-      <c r="F23" s="61" t="s">
-        <v>8313</v>
-      </c>
-      <c r="G23" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="H23" s="61" t="s">
-        <v>8314</v>
-      </c>
-      <c r="I23" s="61" t="s">
-        <v>8315</v>
-      </c>
-      <c r="J23" s="61" t="s">
-        <v>353</v>
-      </c>
-      <c r="K23" s="61" t="s">
-        <v>8316</v>
-      </c>
-      <c r="L23" s="61" t="s">
-        <v>8317</v>
-      </c>
-      <c r="M23" s="61" t="s">
-        <v>8318</v>
-      </c>
-      <c r="N23" s="61" t="s">
-        <v>8319</v>
-      </c>
-      <c r="O23" s="61" t="s">
-        <v>8320</v>
-      </c>
-      <c r="P23" s="61" t="s">
-        <v>8321</v>
-      </c>
-      <c r="Q23" s="61" t="s">
-        <v>8322</v>
-      </c>
-      <c r="R23" s="61" t="s">
-        <v>8323</v>
-      </c>
-      <c r="S23" s="61" t="s">
-        <v>8324</v>
-      </c>
-      <c r="T23" s="61" t="s">
-        <v>8325</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="61" t="s">
-        <v>8326</v>
-      </c>
-      <c r="B24" s="61" t="s">
-        <v>8327</v>
-      </c>
-      <c r="C24" s="61">
-        <v>151238</v>
-      </c>
-      <c r="D24" s="61" t="s">
-        <v>8328</v>
-      </c>
-      <c r="E24" s="61" t="s">
-        <v>8329</v>
-      </c>
-      <c r="F24" s="61" t="s">
-        <v>8330</v>
-      </c>
-      <c r="G24" s="61" t="s">
-        <v>273</v>
-      </c>
-      <c r="H24" s="61" t="s">
-        <v>8331</v>
-      </c>
-      <c r="I24" s="61" t="s">
-        <v>8312</v>
-      </c>
-      <c r="J24" s="61" t="s">
-        <v>8332</v>
-      </c>
-      <c r="K24" s="61" t="s">
-        <v>8333</v>
-      </c>
-      <c r="L24" s="61" t="s">
-        <v>8334</v>
-      </c>
-      <c r="M24" s="61" t="s">
-        <v>8335</v>
-      </c>
-      <c r="N24" s="61" t="s">
-        <v>865</v>
-      </c>
-      <c r="O24" s="61" t="s">
-        <v>8336</v>
-      </c>
-      <c r="P24" s="61" t="s">
-        <v>8337</v>
-      </c>
-      <c r="Q24" s="61" t="s">
-        <v>901</v>
-      </c>
-      <c r="R24" s="61" t="s">
-        <v>8338</v>
-      </c>
-      <c r="S24" s="61" t="s">
-        <v>8339</v>
-      </c>
-      <c r="T24" s="61" t="s">
-        <v>1633</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="61" t="s">
-        <v>8340</v>
-      </c>
-      <c r="B25" s="61" t="s">
-        <v>8341</v>
-      </c>
-      <c r="C25" s="61">
-        <v>151215</v>
-      </c>
-      <c r="D25" s="61" t="s">
-        <v>8342</v>
-      </c>
-      <c r="E25" s="61" t="s">
-        <v>3806</v>
-      </c>
-      <c r="F25" s="61" t="s">
-        <v>8343</v>
-      </c>
-      <c r="G25" s="61" t="s">
-        <v>8344</v>
-      </c>
-      <c r="H25" s="61" t="s">
-        <v>8345</v>
-      </c>
-      <c r="I25" s="61" t="s">
-        <v>8249</v>
-      </c>
-      <c r="J25" s="61" t="s">
-        <v>8346</v>
-      </c>
-      <c r="K25" s="61" t="s">
-        <v>8347</v>
-      </c>
-      <c r="L25" s="61" t="s">
-        <v>8348</v>
-      </c>
-      <c r="M25" s="61" t="s">
-        <v>8349</v>
-      </c>
-      <c r="N25" s="61" t="s">
-        <v>8350</v>
-      </c>
-      <c r="O25" s="61" t="s">
-        <v>8255</v>
-      </c>
-      <c r="P25" s="61" t="s">
-        <v>8351</v>
-      </c>
-      <c r="Q25" s="61" t="s">
-        <v>8352</v>
-      </c>
-      <c r="R25" s="61" t="s">
-        <v>8353</v>
-      </c>
-      <c r="S25" s="61" t="s">
-        <v>8354</v>
-      </c>
-      <c r="T25" s="61" t="s">
-        <v>8355</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="61" t="s">
-        <v>8356</v>
-      </c>
-      <c r="B26" s="61" t="s">
-        <v>8357</v>
-      </c>
-      <c r="C26" s="61">
-        <v>151207</v>
-      </c>
-      <c r="D26" s="61" t="s">
-        <v>8358</v>
-      </c>
-      <c r="E26" s="61" t="s">
-        <v>8359</v>
-      </c>
-      <c r="F26" s="57" t="d">
-        <v>1997-04-02</v>
-      </c>
-      <c r="G26" s="61" t="s">
-        <v>35</v>
-      </c>
-      <c r="H26" s="61" t="s">
-        <v>8360</v>
-      </c>
-      <c r="I26" s="61" t="s">
-        <v>66</v>
-      </c>
-      <c r="J26" s="61" t="s">
-        <v>8361</v>
-      </c>
-      <c r="K26" s="61" t="s">
-        <v>8362</v>
-      </c>
-      <c r="L26" s="61" t="s">
-        <v>8363</v>
-      </c>
-      <c r="M26" s="61" t="s">
-        <v>8364</v>
-      </c>
-      <c r="N26" s="61" t="s">
-        <v>8365</v>
-      </c>
-      <c r="O26" s="61" t="s">
-        <v>8366</v>
-      </c>
-      <c r="P26" s="61" t="s">
-        <v>498</v>
-      </c>
-      <c r="Q26" s="61" t="s">
-        <v>8367</v>
-      </c>
-      <c r="R26" s="61" t="s">
-        <v>8368</v>
-      </c>
-      <c r="S26" s="61" t="s">
-        <v>8369</v>
-      </c>
-      <c r="T26" s="61" t="s">
-        <v>8370</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="61" t="s">
-        <v>8371</v>
-      </c>
-      <c r="B27" s="61" t="s">
-        <v>8372</v>
-      </c>
-      <c r="C27" s="61">
-        <v>151214</v>
-      </c>
-      <c r="D27" s="61" t="s">
-        <v>8373</v>
-      </c>
-      <c r="E27" s="61" t="s">
-        <v>8374</v>
-      </c>
-      <c r="F27" s="61" t="s">
-        <v>8375</v>
-      </c>
-      <c r="G27" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="H27" s="61" t="s">
-        <v>8376</v>
-      </c>
-      <c r="I27" s="61" t="s">
-        <v>8377</v>
-      </c>
-      <c r="J27" s="61" t="s">
-        <v>8378</v>
-      </c>
-      <c r="K27" s="61" t="s">
-        <v>8379</v>
-      </c>
-      <c r="L27" s="61" t="s">
-        <v>8380</v>
-      </c>
-      <c r="M27" s="61" t="s">
-        <v>8381</v>
-      </c>
-      <c r="N27" s="61" t="s">
-        <v>8382</v>
-      </c>
-      <c r="O27" s="61" t="s">
-        <v>8383</v>
-      </c>
-      <c r="P27" s="61" t="s">
-        <v>3311</v>
-      </c>
-      <c r="Q27" s="61" t="s">
-        <v>8384</v>
-      </c>
-      <c r="R27" s="61" t="s">
-        <v>8385</v>
-      </c>
-      <c r="S27" s="61" t="s">
-        <v>8386</v>
-      </c>
-      <c r="T27" s="61" t="s">
-        <v>8387</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="61" t="s">
-        <v>8388</v>
-      </c>
-      <c r="B28" s="61" t="s">
-        <v>8389</v>
-      </c>
-      <c r="C28" s="61">
-        <v>151243</v>
-      </c>
-      <c r="D28" s="61" t="s">
-        <v>8390</v>
-      </c>
-      <c r="E28" s="61" t="s">
-        <v>8391</v>
-      </c>
-      <c r="F28" s="61" t="s">
-        <v>8392</v>
-      </c>
-      <c r="G28" s="61" t="s">
-        <v>51</v>
-      </c>
-      <c r="H28" s="61" t="s">
-        <v>8393</v>
-      </c>
-      <c r="I28" s="61" t="s">
-        <v>8394</v>
-      </c>
-      <c r="J28" s="61" t="s">
-        <v>8395</v>
-      </c>
-      <c r="K28" s="61" t="s">
-        <v>8396</v>
-      </c>
-      <c r="L28" s="61" t="s">
-        <v>8397</v>
-      </c>
-      <c r="M28" s="61" t="s">
-        <v>8398</v>
-      </c>
-      <c r="N28" s="61" t="s">
-        <v>8399</v>
-      </c>
-      <c r="O28" s="61" t="s">
-        <v>8400</v>
-      </c>
-      <c r="P28" s="61" t="s">
-        <v>8401</v>
-      </c>
-      <c r="Q28" s="61" t="s">
-        <v>8402</v>
-      </c>
-      <c r="R28" s="61" t="s">
-        <v>8403</v>
-      </c>
-      <c r="S28" s="61" t="s">
-        <v>8404</v>
-      </c>
-      <c r="T28" s="61" t="s">
-        <v>8405</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="61" t="s">
-        <v>8406</v>
-      </c>
-      <c r="B29" s="61" t="s">
-        <v>8407</v>
-      </c>
-      <c r="C29" s="61">
-        <v>151204</v>
-      </c>
-      <c r="D29" s="61" t="s">
-        <v>8408</v>
-      </c>
-      <c r="E29" s="61" t="s">
-        <v>8409</v>
-      </c>
-      <c r="F29" s="61" t="s">
-        <v>8410</v>
-      </c>
-      <c r="G29" s="61" t="s">
-        <v>2</v>
-      </c>
-      <c r="H29" s="61" t="s">
-        <v>8411</v>
-      </c>
-      <c r="I29" s="61" t="s">
-        <v>8412</v>
-      </c>
-      <c r="J29" s="61" t="s">
-        <v>4063</v>
-      </c>
-      <c r="K29" s="61" t="s">
-        <v>8413</v>
-      </c>
-      <c r="L29" s="61" t="s">
-        <v>8414</v>
-      </c>
-      <c r="M29" s="61" t="s">
-        <v>8415</v>
-      </c>
-      <c r="N29" s="61" t="s">
-        <v>8416</v>
-      </c>
-      <c r="O29" s="61" t="s">
-        <v>8417</v>
-      </c>
-      <c r="P29" s="61" t="s">
-        <v>8418</v>
-      </c>
-      <c r="Q29" s="61" t="s">
-        <v>8419</v>
-      </c>
-      <c r="R29" s="61" t="s">
-        <v>8420</v>
-      </c>
-      <c r="S29" s="61" t="s">
-        <v>8421</v>
-      </c>
-      <c r="T29" s="61" t="s">
-        <v>8422</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="61" t="s">
-        <v>8423</v>
-      </c>
-      <c r="B30" s="61" t="s">
-        <v>8378</v>
-      </c>
-      <c r="C30" s="61">
-        <v>151228</v>
-      </c>
-      <c r="D30" s="61" t="s">
-        <v>8424</v>
-      </c>
-      <c r="E30" s="61" t="s">
-        <v>8425</v>
-      </c>
-      <c r="F30" s="61" t="s">
-        <v>8426</v>
-      </c>
-      <c r="G30" s="61" t="s">
-        <v>35</v>
-      </c>
-      <c r="H30" s="61" t="s">
-        <v>8427</v>
-      </c>
-      <c r="I30" s="61" t="s">
-        <v>8428</v>
-      </c>
-      <c r="J30" s="61" t="s">
-        <v>8429</v>
-      </c>
-      <c r="K30" s="61" t="s">
-        <v>8430</v>
-      </c>
-      <c r="L30" s="61" t="s">
-        <v>8431</v>
-      </c>
-      <c r="M30" s="61" t="s">
-        <v>8432</v>
-      </c>
-      <c r="N30" s="61" t="s">
-        <v>8433</v>
-      </c>
-      <c r="O30" s="61" t="s">
-        <v>8434</v>
-      </c>
-      <c r="P30" s="61" t="s">
-        <v>8435</v>
-      </c>
-      <c r="Q30" s="61" t="s">
-        <v>8436</v>
-      </c>
-      <c r="R30" s="61" t="s">
-        <v>8437</v>
-      </c>
-      <c r="S30" s="61" t="s">
-        <v>8438</v>
-      </c>
-      <c r="T30" s="61" t="s">
-        <v>8439</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>